--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981463EC-D2C7-40AE-8BC5-26E529360866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C9416B-9F88-4B82-AE55-D79C6EB9BD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9796,100 +9796,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-----------------------------------------------------
-CELLULAR + WIFI
-----------------------------------------------------
-Samsung Tab S9 FE 5G (Wi-Fi + LTE)
-(OPEN BOX WITH WARRANTY)
-- 10.9" Display
-- 128GB Storage
-Price - $495 (CASH NO TAX)
------------------------------------------------------
-WIFI
------------------------------------------------------
-Samsung Galaxy Tab S9 Ultra 14.6" 512GB Android Tablet with Snapdragon Gen 2 Processor (CANADIAN MODEL)
-(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
-- 14.6" Display
-- 512GB Stоrage
-- 12GB RAM
-Price - $1195 (CASH NО TAX)
-Samsung Galaxy Tab S9 ULTRA (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
-(BRAND NEW IN BOX WITH 1-Year WARRANTY)
-- 14.6" Display
-- 512GB Storage
-- 12GB RAM
-Price - $1195 (CASH NO TAX)
-Samsung Galaxy Tab S9 ULTRA (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
-(BRAND NEW IN BOX WITH 1-Year WARRANTY)
-- 14.6" Display
-- 256GB Storage
-- 12GB RAM
-Price - $1095 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Tab S9+ (Wi-Fi) X810 with Kеyboard Case (which is worth $150 for Frеe)(International Model)
-(BRAND NEW IN BOX WITH 1 YEAR Warranty )
--12.4' Display
-- 512GB Storage
-- 12GB RAM
-Price - $1045 (CASH NO TAX)
-----------------------------------------------------
-Samsung Tab S9 FE+ (WiFi)
-(BRAND NEW IN BOX WITH WARRANTY)
-- 12.4" Display
-- 256GB Storage
-- 12GB RAM
-Price - $695 (CASH NO TAX)
-----------------------------------------------------
-Samsung Tab S9 FE (WiFi)
-(BRAND NEW IN BOX WITH WARRANTY)
-- 10.9" Display
-- 128GB Storage
-- 6GB RAM
-Price - $395 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Tab S6 Lite P613 (Wi-Fi)
-(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
-- 10.4" Display
-- 128GB Storage
-- 4GB RAM
-Price - $345(CASH NO TAX)
-Samsung Galaxy Tab S6 Lite P613 (Wi-Fi)
-(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
-- 10.4" Display
-- 64GB Stоrage
-- 4GB RAM
-Price - $325(CASH NO TAX)
-----------------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for :-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-----------------------------------------------------
-Storefront is open to public 7 days a week
-----------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST СLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choicе!
 Best Price, Best Quality
 Buy with Confidence from our store! ✨
@@ -11665,6 +11571,1808 @@
     <t>Elgato Streaming - Elgato HD60X, HD60S, Facecam</t>
   </si>
   <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Samsung Phones - Samsung Galaxy A73, Samsung Galaxy A72, Samsung Galaxy A71, Samsung Galaxy A55, Samsung Galaxy A54, Samsung Galaxy A53, Samsung Galaxy A52s, Samsung Galaxy A52, Samsung Galaxy A51 Phone, Samsung A50
+BLOWOUT SALE!!!
+---------------------------------------------
+Samsung Galaxy A73 128GB/6GB RAM (Dual Sim)
+(Brand New In Box With Warranty)
+Pricе: $545 (Cash No Tax)
+Samsung Galaxy A72 256GB/8GB RAM (Dual Sim)
+(Brand New In Box With Wаrranty)
+Price: $540 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A71 5G 128GB/ 6GB RAM
+(Fully Functional With store Warranty)
+Price: $195 (Cash Nо Tax)
+------------------------------------------------------------------
+Samsung Galaxy A55 5G 128GB (DUAL SIM)
+(Brand New In Box With Warranty)
+Price: $470 (Cash No Tax)
+------------------------------------------------------------------
+Samsung Galaxy A54 5G 128GB (Canadiаn / US Model)
+(Brand New In Box With Warranty)
+Price: $395 (Cash No Tax)
+Samsung Galaxy A54 5G 128GB
+(New In Box With Warranty)
+Price: $370 (Cash No Tax)
+------------------------------------------------------------------
+Samsung Galaxy A53 5G 128GB
+(New In Box With Warranty)
+Price: $360 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A52s 5G 128GB
+(Like New in Box With Warranty)
+Price: $275 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A52 5G 128GB
+(New in Box With Warranty)
+Price: $250 (Cash No Tax)
+------------------------------------------------------------------
+Samsung Galaxy A51 5G 128GB
+(Like New in Box With Warranty)
+Price: $195 (Cash No Tax)
+Samsung Galаxy A51 128GB
+(Like New in Box With Warranty)
+Price: $175 (Cash No Tax)
+Samsung Galaxy A51 64GB
+(Like New in Box With Warranty)
+Price: $150 (Cash No Tax)
+------------------------------------------------------------------
+Samsung Galaxy A50 64GB
+(Like New In Box With Warranty)
+Price: $175 (Cash No Tax)
+------------------------------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+------------------------------------------------------------------
+BUY NOW. PAY LАTER.
+Get easy monthly financing when you shoр with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contаct us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MАIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Arctic King Window Air Conditioner - 10000 BTU - 450 sq ft (MWHUK10CRN8BCL0)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $469 + TAX
+OUR PRICE: $375 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Arctic King Window AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000 BTU Air Conditioners - Arctic King, OmniMax, Forest Air </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Forest Air 3-in-1 Portable Air Conditioner - 8000 BTU - 200-250 sq ft (A01908KR)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $445.50 + TAX
+OUR PRICE: $345 (CASH NO TAX)
+------------------------------------------------------
+OMNIMAX 3-in-1 Portable Air Conditioner - 8000 BTU - 150 sq ft (OP08N3WBA1RCM)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $449.99 + TAX
+OUR PRICE: $345 (CASH NO TAX)
+------------------------------------------------------
+Arctic King Portable Air Conditioner - 8000 BTU - 150 sq ft (AP53SEWBA1RCM)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $379 + TAX
+OUR PRICE: $325 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>8000 BTU AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Arctic King Portable Air Conditioner - 10000 BTU - 300 sq ft (AP07SEWBA1RCM) 
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $549 + TAX
+OUR PRICE: $395 (CASH NO TAX)
+------------------------------------------------------
+KOOLKING Portable Air Conditioner - 10000 BTU - 540 sq ft
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $499.99 + TAX
+OUR PRICE: $395 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>10000 BTU AC</t>
+  </si>
+  <si>
+    <t>Arctic King, Hisense Air Conditioner - 13500 BTU, 13000BTU, 12000BTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Arctic King 3-in-1 Portable Air Conditioner - 13500 BTU - 450 sq ft (AP10SEWBA1RCM)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $689 + TAX
+OUR PRICE: $545 (CASH NO TAX)
+------------------------------------------------------
+Hisense 3-in-1 Portable Smart Air Conditioner - 13000 BTU - 450 sq ft (AP1022CW1G)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $697 + TAX
+OUR PRICE: $545 (CASH NO TAX)
+------------------------------------------------------
+Arctic King 3-in-1 Portable Air Conditioner - 12000 BTU - 350 sq ft (AP08SEWBA1RCM)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $649 + TAX
+OUR PRICE: $495 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>High BTU AC</t>
+  </si>
+  <si>
+    <t>Samsung Phones - Samsung Z Fold 5, Fold 4, 3, 2, Flip 5, 4, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+---------------------------------------------------
+Ecohouzng Tower Air Cooler with Humidity - 3-Speed - 41-in - (#CT500032HF)
+(LIKE NEW WITH WARRANTY)
+OUR PRICE: $95 (CASH NO TAX)
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Ecohouzng Air Cooler</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+Fitbit Watches - Fitbit Charge 2, Fitbit Sense 2, Fitbit Sense, Fitbit Versa, Fitbit Inspire 2, Fitbit Charge 5 Fitness Tracker, Fitbit Charge 6 Fitness Tracker, Fitbit Luxe, Fitbit Versa 2, Fitbit Versa 3 Health &amp; Fitness Smartwatch, Fitbit Versa 1
+BLOWOUT SALE!!!
+-------------------------------------------------------------
+Fitbit Sense 2 Smartwatch
+(BRAND NEW WITH 1 YEAR FITBIT WARRANTY)
+PRICE - $225 (CASH NO TAX)
+Fitbit Sense Smartwatch
+(LIKE NEW WITH WARRANTY)
+PRICE - $125 (CASH NO TAX)
+-------------------------------------------------------------
+Fitbit Versa 4 Smartwatch
+(BRAND NEW WITH 1 YEAR FITBIT WARRANTY)
+PRICE - $175 (CASH NO TAX)
+Fitbit Versa 4 Smartwatch
+(LIKE NEW WITH WARRANTY)
+PRICE - $125 (CASH NO TAX)
+Fitbit Versa 3 Health &amp; Fitness Smartwatch
+(LIKE NEW WITH WARRANTY)
+PRICE - $140 (CASH NO TAX)
+Fitbit Versa 2 Smartwatch
+(LIKE NEW WITH WARRANTY)
+PRICE - $115 (CASH NO TAX)
+Fitbit Versa Smartwatch
+(LIKE NEW WITH WARRANTY)
+PRICE - $70 (CASH NO TAX)
+-------------------------------------------------------------
+Fitbit Charge 6 Fitness Tracker
+(LIKE NEW WITH WARRANTY)
+PRICE - $130 (CASH NO TAX)
+Fitbit Charge 5 Fitness Tracker
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $125(CASH NO TAX)
+Fitbit Charge 4 Fitness Tracker
+(LIKE NEW WITH WARRANTY)
+PRICE - $115 (CASH NO TAX)
+Fitbit Charge 2 Fitness Tracker
+(LIKE NEW WITH WARRANTY)
+PRICE - $55 (CASH NO TAX)
+-------------------------------------------------------------
+Fitbit Luxe Fitness and Wellness Tracker
+(LIKE NEW WITH WARRANTY)
+PRICE - $75 (CASH NO TAX)
+-------------------------------------------------------------
+Fitbit Inspire 2 Fitness Tracker with 24/7 Heart Rate 
+(BRAND NEW WITH 1 YEAR FITBIT WARRANTY)
+PRICE - $65 (CASH NO TAX)
+-------------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>JBL Speakers - JBL Clip 4, JBL Flip 6, JBL Charge 5</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+JBL Bluetooth Speakers - JBL Charge 5, JBL Flip 6, JBL Clip 4 Bluetooth Speakers
+----------------------------------------------------
+JBL Charge 5 Waterproof Bluetooth Wireless Speaker
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $185 (CASH NO TАX)
+JBL Flip 6 Waterproof Bluetooth Wirelеss Speaker
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $135 (CASH NO TAX)
+JBL Clip 4 Waterproof Bluetooth Wireless Speaker
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $75 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA аrea - delivery charges are extra depends upоn location
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for -
+3 Months
+6 Months
+12 Months
+*All financing done through PayBright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+СANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choiсe!
+Best Price, Best Quality
+Buy with Confidence from оur store! ✨
+------------------------------------------------------
+Samsung Phones - Samsung A35 5G, Samsung A34 5G, Samsung A33 5G, Samsung A31 phone
+BLOWOUT SALE!!!
+----------------------------------------------------------
+Samsung Galaxy A35 5G 128GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $370 (Cash No Tax)
+----------------------------------------------------------
+Samsung Galaxy A34 5G 128GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $335 (Cash No Tax)
+----------------------------------------------------------
+Samsung Galaxy A33 5G 128GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $325 (Cash No Tax)
+----------------------------------------------------------
+Samsung Galaxy A31 64GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $225 (Cash No Tax)
+----------------------------------------------------------
+Same day delivery available in GTА area-delivery charges are extra depends on location
+----------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shoр with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Mоnths
+6 Months
+12 Months
+*All financing done through Pаy Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days а week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TОRONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>50-61</t>
+  </si>
+  <si>
+    <t>50-62</t>
+  </si>
+  <si>
+    <t>50-63</t>
+  </si>
+  <si>
+    <t>50-64</t>
+  </si>
+  <si>
+    <t>50-65</t>
+  </si>
+  <si>
+    <t>50-66</t>
+  </si>
+  <si>
+    <t>50-67</t>
+  </si>
+  <si>
+    <t>50-68</t>
+  </si>
+  <si>
+    <t>50-69</t>
+  </si>
+  <si>
+    <t>50-70</t>
+  </si>
+  <si>
+    <t>50-71</t>
+  </si>
+  <si>
+    <t>50-72</t>
+  </si>
+  <si>
+    <t>70-76</t>
+  </si>
+  <si>
+    <t>70-77</t>
+  </si>
+  <si>
+    <t>70-78</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>Macbook Air - 13 Inch, 8GB RAM, 256GB STORAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Macbook Air 8-256</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Dell Laptops Intel i5 - Dell inspiron 13, Dell 7480, Dell Latitude 7390, Dell Latitude 7420, Dell 5400, Dell Latitude 7400, Dell 7490, Dell 5490, Dell 3400, Dell 7480, Dell 5470 
+------------------------------------------------------
+Dell Latitude 7420 - 14" Touch
+INTEL i5 - 11th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $545 (CASH NO TAX)
+------------------------------------------------------
+Dell inspiron 13
+Intel i5 - 8th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $425 (CASH NO TAX)
+------------------------------------------------------
+Dell 7480 - 14" Touch
+Intel i5 - 7th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $395 (CASH NO TAX)
+------------------------------------------------------
+Dell 7410 
+INTEL i5 - 10th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $375 (CASH NO TAX)
+------------------------------------------------------
+Dell Latitude 7390 (Touchscreen) - 13.3"
+INTEL i5 - 8th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $325 (CASH NO TAX) 
+------------------------------------------------------
+Dell 5400 - 14"
+Intel i5 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $295 (CASH NO TAX) 
+------------------------------------------------------
+Dell Latitude 7400 - 14" Webcam
+INTEL i5 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+------------------------------------------------------
+Dell 5490 (Touchscreen)- 14"
+Intel i5 - 8th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+-----------------------------------------
+Dell 3400 - 14" Webcam
+Intel i5 - 8th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $250(CASH NO TAX)
+-----------------------------------------
+Dell 7490 - 14"
+Intel i5 - 8th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+Dell 7490 - 14"
+Intel i5 - 7th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX) 
+-----------------------------------------
+Dell 7480 - 14"
+Intel i5 - 7th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-----------------------------------------
+Dell 7480 - 14"
+Intel i5 - 6th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX) (SOLD OUT)
+-----------------------------------------
+Dell 5470 14"
+Intel i5 - 6th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195(CASH NO TAX) (SOLD OUT)
+-----------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+-----------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple iPhone 15 128GB BRAND NEW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Apple iPhone 15 128GB
+(BRAND NEW WITH APPLE WARRANTY)
+PRICE - $975 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>iPhone 15</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store!
+------------------------------------------------------
+Samsung Phones - A15, A14, A13, A12, A11, A10S, A10E
+------------------------------------------------------
+Samsung Galaxy A15 5G 128GB/ 6GB (Dual SIM)
+(Brand New In Box With Warranty)
+Price - $210 (Cash No Tax)
+Samsung Galaxy A15 5G 128GB (Dual SIM)
+(Like New In Box With Warranty)
+Price - $180 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A15 128GB (Dual SIM)
+(Brand New In Box With Warranty)
+Price - $165 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A14 128GB (Dual SIM)
+(New In Box With Warranty)
+Price - $165 (Cash No Tax)
+Samsung Galaxy A14 64GB (Dual SIM)
+(New In Box With Warranty)
+Price - $155 (Cash No Tax)
+Samsung Galaxy A14 5G 64GB
+(New Open Box With 6 Months Store Warranty)
+Price - $165 (Cash No Tax)
+---------------------------------------------------
+Samsung Galaxy A13 4GB/128GB (Dual Sim)
+(New in Box with Warranty)
+Price: $175 (Cash No Tax)
+Samsung Galaxy A13 4GB/64GB (Dual Sim)
+(New in Box with Warranty)
+Рrice: $160 (Cash No Tax)
+Samsung Galaxy A13 5G 4GB/64GB
+(Like New in Box with Warranty)
+Price: $135 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A12 128GB (Dual Sim)
+(New Open Box With Warranty)
+Price: $165 (Cash No Tax)
+Samsung Galaxy A12 64GB/ 4GB RAM (Dual Sim)
+(New In Box With Warranty)
+Price: $145 (Cash No Tax)
+Samsung Galaxy A12 32GB
+(Like New In Box With Warranty)
+Price: $135 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A11 32GB
+(New In Box With Warranty)
+Price: $125 (Cash No Tax)
+Samsung Galaxy A11 32GB
+(Fully Functional with Warranty)
+Price: $110 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A10s 32GB (Dual Sim)
+(Like Nеw In Box With Warranty)
+Price: $105 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A10E 32GB
+(Fully Functional with Warranty)
+Price: $95 (Cash No Tax)
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy mоnthly financing when you shop with Canadian Outlеt
+Split your purchase into stress-free, automаtic installments with monthly Plans for:-
+3 Mоnths
+6 Months
+12 Months
+*All financing done through Pay Bright
+---------------------------------------------------
+Storefront is open to рublic 7 days a week
+----------------------------------------------------
+We are providing a FREЕ parking facility for our customers (Contact us)!!
+----------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlеt, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store!
+------------------------------------------------------
+LG Phones - LG G7 ThinQ, LG V60 ThinQ, LG G8 ThinQ, LG V40, LG V30, LG Velvet 5G, LG Phoenix 5, K50s, V20
+BLOWOUT SALE!!!
+------------------------------------------
+LG V60 ThinQ 128GB Unlocked
+(Like New in Box with warranty)
+Price - $275 (Cash No Tax)
+------------------------------------------
+LG Velvet 5G 128GB Unlocked
+(Open Box with warranty)
+Price - $225 (Cash No Tax)
+------------------------------------------
+LG G8 ThinQ 128GB Unlocked
+(Brand New in Box with warranty)
+Price - $245 (Cash No Tax)
+LG G8 ThinQ 128GB Unlocked
+(Like New in Box with warranty)
+Price - $195 (Cash No Tax)
+------------------------------------------
+LG Stylo 6 64GB Unlocked
+(Brand new in box with warranty)
+Price - $195 (Cash No Tax)
+LG Stylo 6 64GB Unlocked
+(Like new in box with warranty)
+Price - $145 (Cash No Tax)
+-------------------------------------------
+LG V40 ThinQ 64GB Unlocked
+(Like New in Box with warranty)
+Price - $175 (Cash No Tax)
+------------------------------------------
+LG V30 64GB Unlocked
+(Brand new in box with warranty)
+Price - $175 (Cash No Tax)
+------------------------------------------
+LG G7 ThinQ 64GB Unlocked
+(Like New in Box with warranty)
+Price - $165 (Cash No Tax)
+------------------------------------------
+LG V20 64GB Unlocked Smartphone
+(Like New in Box with Warranty)
+Price - $145 (Сash No Tax)
+--------------------------------------------
+LG K50s 32GB Unlocked
+(Brand new in box with warranty)
+Price - $160 (Cash No Tax)
+-------------------------------------------
+LG Pheonix 5 16GB Unlocked
+(Like New in Box with warranty)
+Price - $95 (Cash No Tax)
+-------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split yоur purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Stоrefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidеnce from our store!
+------------------------------------------------------
+HP Laptops Intel i5 - HP EliteBook 840 G9, HP PrоBook 440 G3, HP ELITEBOOK 840 G7, HР ELITEBOOK 840 G6, HP Probook 430 G5, HP 15 DY2795WM, HP ProBook 430 G3, HP ELITEBOOK 840 G4, HP ELITEBOOK 840 G6, HP EliteBook Folio 9470M
+------------------------------------------------------
+HP EliteBook 840 G9 - 14"
+Intel Core i5 - 12th Gen
+16GB RAM
+512GB SSD
+Intel Iris XЕ Graphics
+Windows 11 Pro
+(BRAND NЕW IN BOX WITH WARRANTY)
+PRICE - $1295 (CASH NO TAX)
+------------------------------------------------------
+HP 15 DY2795WM 15.6
+INTEL i5 - 11TH GEN
+8GB RAM
+256GB SSD
+(Brand New In Box With Warranty)
+PRICE - $595 (CASH NO TAX)
+------------------------------------------------------
+HP ELITEBOOK 840 G7 - 14"
+INTEL i5 - 10TH GEN
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $475 (CASH NO TAX)
+------------------------------------------------------
+HP ELITEBOOK 840 G6 - 14"
+INTEL i5 - 8TH GEN
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $325(CASH NO TAX)
+-----------------------------------------------------
+HP ProBook 430 G3 13.3" (Touchscrеen)
+INTEL i5 - 6TH GEN
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRАNTY)
+PRICE - $325 (CASH NO TAX)
+------------------------------------------------------
+HP ELITEBOOK 840 G6 - 14"
+INTEL i5 - 8TH GEN
+8GB RAM
+256GB SSD
+(LIKE NEW IN BОX WITH WARRANTY)
+PRICE - $295(CASH NO TAX)
+------------------------------------------------------
+HP Probook 430 G5 - 13.3"
+INTEL i5 - 8TH GEN
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRIСE - $275(CASH NO TAX)
+------------------------------------------------------
+Same day delivery availablе in GTA area -delivery charges are еxtra depends on location
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shоp with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans fоr:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Samsung Phones - Samsung Galaxy A05s, Samsung Galaxy A05, Samsung Galaxy A04, Samsung Galaxy A04e, Samsung Galaxy A03s, Samsung Galaxy A02s, Samsung Galaxy A02, Samsung Galaxy A03 Core phone
+Samsung Galaxy A05s 128GB (Dual Sim)
+(New In Box With Warranty)
+Price: $175 (Cash No Tax)
+Samsung Galaxy A05s 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $150 (Cash Nо Tax)
+Samsung Galaxy A05 128GB (Dual Sim)
+(New In Box With Warranty)
+Price: $140 (Cash No Tax)
+Samsung Galaxy A05 64GB (Dual Sim)
+(New In Box With Warranty)
+Priсe: $135 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A04 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $135 (Cash No Tax)
+Samsung Galaxy A04 32GB (Dual Sim)
+(Nеw In Box With Warranty)
+Price: $115 (Cash No Tax)
+---------------------------------------------
+Sаmsung Galaxy A04e 64GB (Dual Sim)
+(New In Box With Warranty)
+Pricе: $125 (Cash No Tax)
+Samsung Galaxy A04e 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $105 (Cash No Tax)
+---------------------------------------------
+Sаmsung Galaxy A03s 32GB
+(New In Bоx With Warranty)
+Price: $125 (Cаsh No Tax)
+---------------------------------------------
+Samsung Galaxy A02s 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $125 (Cash No Tax)
+---------------------------------------------
+Sаmsung Galaxy A02 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $115 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A03 Core 32GB
+(New In Box With Warranty)
+Priсe: $100 (Cash No Tax)
+---------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+---------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Сanadian Outlet
+Split your purchasе into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*Аll financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE рarking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our storе!
+---------------------------------------------
+Samsung Phones - Samsung A25, Samsung A24, Samsung A23, Samsung A22, Samsung A21S
+BLOWOUT SALE!!!
+---------------------------------------------
+Samsung Galaxy A25 5G 128GB (Dual Sim)
+(Brand New In Box With Warranty)
+Priсe: $250 (Cash No Tax)
+---------------------------------------------------
+Samsung Galaxy А24 128GB (Dual Sim)
+(Brand Nеw In Box With Warranty)
+Pricе: $235 (Cash No Tax)
+---------------------------------------------------
+Samsung Galaxy A23 128GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $215 (Cash No Tax)
+Samsung Galaxy A23 64GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $200 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A22 128GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $210 (Cash No Tax)
+Samsung Galaxy A22 64GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $200 (Cash No Tax)
+Samsung Galaxy A22 5G 64GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $210 (Cаsh No Tax)
+---------------------------------------------
+Samsung Galaxy A21S 128GB (Dual Sim)
+(Brand New In Box With Wаrranty)
+Price: $200 (Cash No Tax)
+Samsung Galaxy A21S 64GB (Dual Sim)
+(Brand New In Box With Warranty)
+Price: $190 (Cash No Tax)
+---------------------------------------------
+Same day delivery availablе in GTA area - delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly finаncing when you shop with Canadiаn Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCАTION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Cоnfidence from our store!
+---------------------------------------------
+BLOWOUT SALE!!!
+Samsung Gаlaxy S24 Ultra, Samsung Galaxy S24, Samsung Galaxy S23 Ultra, Samsung Galaxy S23, Samsung Galaxy S23+, Sаmsung Galaxy S23 FE, Samsung Galaxy S22 Ultra, Samsung Galaxy S22+, Sаmsung Galaxy S22
+-----------------------------------------------------------------------
+Samsung Galаxy S24 Ultra 12GB / 512GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $1545 (CASH NО TAX)
+Samsung Galaxy S24 Ultrа 12GB / 256GB (CANADIAN MODEL)
+(Brand New Open Box with Warranty)
+Price - $1095 (CASH NO TAX)
+-----------------------------------------------------------------------
+Samsung Galaxy S24 256GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+PRICE - $825 (CASH NO TAX)
+Samsung Galaxy S24 256GB (CANADIAN MODEL)
+(Like New in Box with Warranty)
+PRICE - $750 (CASH NO TAX)
+Samsung Galaxy S24 128GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+PRICE - $740 (CASH NO TAX)
+Samsung Galaxy S24 128GB (CANADIAN MODEL)
+(Like New in Box with Warranty)
+PRICE - $695 (CASH NO TAX)
+-----------------------------------------------------------------------
+Samsung Galaxy S23 Ultra 512GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $1250 (CASH NO TAX)
+Samsung Galaxy S23 Ultra 512GB
+(Like New in Box with Warranty)
+Price - $995 (CASH NO TAX)
+Samsung Galaxy S23 Ultra 256GB (DUAL SIM)
+(Brаnd New in Box with 1 Year Warranty)
+Price - $1095 (CASH NO TAX)
+Samsung Galaxy S23 Ultra 256GB
+(Like New in Box with Warranty)
+Price - $950 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S23+ 256GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $945 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S23 256GB (CANADIAN MODEL)
+(Brand New Open Box with Samsung Warranty)
+Price - $795 (CASH NO TAX)
+Samsung Galaxy S23 128GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+Price - $735 (CASH NO TAX)
+Samsung Galaxy S23 5G 128GB
+(New Open Box with 6 Months Warranty)
+Price - $625 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S23 FE 5G 256GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $645 (CASH NO TAX)
+Samsung Galaxy S23 FE 5G 256GB
+(Like New in Box with Warranty)
+Price - $575 (CАSH NO TAX)
+Samsung Galaxy S23 FЕ 5G 128GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+Price - $595 (CASH NO TAX)
+Samsung Galaxy S23 FE 5G 128GB
+(Like New in Box with Warranty)
+Рrice - $500 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S22 Ultra 5G 512GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $695 (CASH NO TAX)
+Samsung Galaxy S22 Ultra 5G 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $645 (CASH NO TAX)
+Samsung Galaxy S22 Ultra 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $595 (CASH NO TAX)
+---------------------------------------------
+Sаmsung Galaxy S22+ (Plus) 5G 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $495 (CASH NO TAX)
+Samsung Galaxy S22+ (Plus) 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $445 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S22 5G 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICЕ: $395 (CASH NO TAX)
+Samsung Galaxy S22 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $375 (CASH NO TAX)
+---------------------------------------------
+Same day dеlivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Sрlit your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+---------------------------------------------
+Storefront is open to public 7 days a week
+---------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+---------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLЕT
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+JBL Harman Endurance Race, JBL Vibe Beam In-Ear Sound Isolating Truly Wireless Headphones, JBL Run 2, JBL 215 BT, JBL 125BT
+---------------------------------------------------
+JBL Vibe Beam In-Ear Sound Isolating Truly Wireless Headphones
+(BRAND NEW IN BOX)
+PRICE - $70 (CASH NO TAX)                                                                                                                                                                                                                                                                                                                   
+                                                                                                                                                                                                                                                                                                                                                                                                                                            JBL Harman Endurance Race Waterproof True Wireless Active Sport Earbuds
+(BRAND NEW IN BOX)
+Price - $60 (CASH NO TAX)
+JBL Еndurance RUN 2 In-Ear Wireless Sport Headphones
+(BRAND NEW IN BOX)
+Price - $35 (CASH NO TAX)
+JBL Tune 215BT Wireless Earbud headphones
+(BRAND NEW IN BOX)
+Price - $35 (CASH NO TAX)
+JBL Tune 125BT Wireless Earbud headphones
+(BRAND NEW IN BOX)
+Price - $35 (CASH NO TAX)
+---------------------------------------------------
+Same day dеlivery available in GTA area - delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10АM - 7PM</t>
+  </si>
+  <si>
+    <t>ASTRO Gaming A50 Wireless Headset + Base Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+ASTRO Gaming A50 Wireless Headset + Base Station Gen 4 - Compatible With PS5, PS4, PC, Mac
+(Brand New in Box)
+Price - $260 (Cash No Tax)
+ASTRO Gaming A50 Wireless + Base Station for Xbox One and Series X &amp; PC
+(Brand New in Box)
+Price - $260 (Cash No Tax)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Astro Gaming</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Samsung Galaxy Buds2 Pro Headphones, Samsung Galaxy Buds2 Headphones, Samsung Galaxy Buds FE, Samsung Galaxy Buds Headрhones
+---------------------------------------------------
+Samsung Galaxy Buds2 Pro In-Ear Noise Сancelling Truly Wireless Headphones
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $145 (CASH NO TAX)
+Samsung Galaxy Buds2 In-Ear Noise Cancelling Truly Wireless Headphones
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $75 (CASH NO TAX)
+Samsung Galaxy Buds FE Truly Wireless Bluetooth Earbuds, Active Noise Cancellation(ANC)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $85 (CASH NO TAX)
+---------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on loсation
+---------------------------------------------------
+BUY NОW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchаse into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+---------------------------------------------------
+Storefront is open to public 7 days a week
+----------------------------------------------------
+We are providing a FREE parking facility for our customers (Contаct us)!!
+----------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLЕT
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDАY: 8AM - 8PM
+WEEKENDS: 10AM - 7РM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Bose QuietComfort Ultra Headphones, QuietComfort and QuietComfort 45 Bluetooth Headphones, Bose Ultra Earbuds
+---------------------------------------------------
+Bose QuietComfort Ultra Wireless Noise Cancelling Headрhones
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+PRICE - $445 (CASH NO TAX)
+---------------------------------------------------
+Bose QuietComfort Wireless Noise Cancelling Headphones
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+PRICE - $375 (CASH NO TAX)
+Bose QuietComfort 45 Over-Ear Noise Cancelling Bluetooth Headphоnes
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WАRRANTY)
+PRICE - $345(CASH NO TAX)
+---------------------------------------------------
+Bose QuiеtComfort Ultra Wireless Noise Cancelling Earbuds, Bluetooth Noise Cancelling Earbuds with Spatial Audio and World-Class Noise Cancellation
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+---------------------------------------------------
+Bose QuietComfort Ultra Wireless Noise Cancelling Earbuds, Bluetooth Noise Cancelling Earbuds with Spatial Audio and World-Class Noise Canсellation
+(NEW OPEN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+---------------------------------------------------
+Same day delivery availаble in GTA area - delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Mоnths
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YОNGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choiсe!
+Best Price, Best Quality
+Buy with Confidence from оur store! ✨
+---------------------------------------------------
+Beats Studio Pro, Beats Studio3 Headphones, Powеrbeats Pro Headphones, Beats By Dr. Dre Fit Pro, Beats Studio Buds + Earbuds, Beats Studio Buds, Powerbeats 3
+---------------------------------------------------
+Beats Studio Pro - Wireless Bluetooth Noise Cancelling Headphones
+(BRAND NEW IN BOX)
+Price - $295 (Cash No Tax)
+Beats Beаts Studio3 Wireless Over-Ear Headphones
+(BRAND NEW IN BOX)
+Price - $225 (Cash No Tax)
+---------------------------------------------------
+Beats Powerbeats Pro In-Ear Truly Wireless Headphones
+(BRAND NEW IN BOX)
+PRICE - $195 (CASH NO TAX)
+------------------------------------------------------
+Beats Powerbeats Pro In-Ear Truly Wireless Headphones
+(LIKE NEW IN BOX)
+PRICE - $145 (CASH NO TАX)
+------------------------------------------------------
+Beats Fit Pro X Alo Special Edition In-Ear Noise Cancеlling True Wireless Earbuds (BRAND NEW IN BOX)
+PRICE - $195 (CASH NO TAX)
+Beats Fit Pro In-Ear Noise Cancelling True Wireless Earbuds
+(BRAND NEW IN BOX)
+PRICE - $175 (CASH NO TAX)
+------------------------------------------------------
+Beats Studio Budsplus [+] True Wireless Noise Cancelling Earbuds
+(BRAND NEW IN BOX)
+PRICE - $145 (СASH NO TAX)
+------------------------------------------------------
+Beats Studio Buds In-Ear Noise Cancelling True Wireless Earbuds
+(BRAND NEW IN BOX)
+PRICE - $115 (CASH NO TAX)
+------------------------------------------------------
+Beats Studio Buds In-Ear Noise Cancelling True Wireless Earbuds
+(LIKE NEW IN BOX)
+PRICE - $85 (CASH NO TAX)
+------------------------------------------------------
+Beats Powerbeats3 Wireless in-Ear Headphones - White
+(BRAND NEW IN BOX)
+PRICE - $65 (CASH NO TAX)
+------------------------------------------------------
+Samе day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*Аll financing done through Pay Bright
+---------------------------------------------------
+Storefront is open to public 7 days a week
+----------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+----------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Apple AirPods Max Hеadphones
+------------------------------------------------------------------------------------
+Apрle AirPods Max Over-Ear Noise Cancelling Bluetooth Headphones
+(Brand New in Box with 1 Year Apple Warranty)
+Price - $695 (CASH NO TAX)
+------------------------------------------------------------------------------------
+Same day delivery available in GTA arеa - delivery charges are extra dеpends on location
+------------------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Gеt easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-freе, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------------------------------------
+Storefront is opеn to public 7 days a week from 10AM till 8PM
+------------------------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contaсt us)!!!!
+STORE LOCATION:
+СANADIAN OUTLET
+1431 YONGE STRЕET
+YONGE &amp; ST CLAIR
+TORONTО, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Apple AirPods - AirPods Pro 2nd Gen, AirPods Pro, AirPods 2nd Gen Wired charging case, Apple Airpods 3rd Generation
+----------------------------------------------------
+Apple AirPods Pro (USB TO C 2nd generation)
+In-Ear Noise Cancelling True Wireless Earbuds with USB-C MagSafe Charging Case
+(Brand New in Box with 1 Year Apple Warranty)
+Price - $275(CASH NO TAX)
+Apple AirPods Pro (USB TO C 2nd generation)
+In-Ear Noise Cancelling True Wireless Earbuds with USB-C MagSafe Charging Case
+(Brand New Open Box with 9 months Apple Warranty)
+Price - $225 (CASH NO TAX)
+Apple AirPods Pro (2nd generation)
+In-Ear Noise Cancelling Truly Wireless Headphones with MagSafe Charging Case
+(Brand New in Box with 1 Year Apple Warranty)
+Price - $235(CASH NO TAX)
+Apple AirPods Pro (2nd generation)
+In-Ear Noise Cancelling Truly Wireless Headphones with MagSafe Charging Case
+(Like New in Box with Warranty)
+Price - $195 (CASH NO TAX)
+Apple AirPods Pro
+(Like New in Box with Warranty)
+Price - $175 (CASH NO TAX)
+----------------------------------------------------
+Apple Airpods 3rd Generation
+(Like New in Box with Warranty)
+Price - $160(CASH NO TAX)
+----------------------------------------------------
+Apple AirPods 2nd Generation
+In-Ear Truly Wireless Headphones with Wireless Charging Case
+(Brand New in Box with 1 Year Apple Warranty)
+Price - $175 (CASH NO TAX)
+----------------------------------------------------
+Apple AirPods Wired Earphones 2nd Generation with Charging Case
+(Brand New in Box with 1 Year Apple Warranty)
+Price - $145 (CASH NO TAX)
+Apple AirPods Wired Earphones 2nd Generation
+(Like New in Box with Warranty)
+Price - $120 (CASH NO TAX)
+----------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright*
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------------------------------------------------------------
+Samsung Smart TV
+------------------------------------------------------
+Samsung 75" QN800A Neo QLED 8K Smart TV (QN75QN800B)
+(NEW OPEN BOX WITH WARRANTY)
+Minоr Blemish on Screen (Not Visible)
+REGULAR PRICЕ: $4499.99 + TAX
+OUR PRICE - $1095 (CASH NO TAX)
+------------------------------------------------------
+Samsung 75" 4K UHD HDR QLED Tizen Smart TV (QN75Q70A)
+(NEW OPEN BOX WITH WARRANTY)
+REGULAR PRICE: $1799.99 + TAX
+ОUR PRICE - $895 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PАY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase intо stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*Аll financing done through Pay Bright
+---------------------------------------------
+Same day delivеry available in GTA area - delivery charges are extra depends on location
+---------------------------------------------
+Storefront is open to publiс 7 days a week from 10AM till 8PM
+---------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!!!
+OPEN EVERYDAY FROM 8AM TILL 8PM
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORОNTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WЕEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Apple AirPods - AirPods Pro 2nd Gen, AirPods 2nd Gen, 3rd Gen</t>
+  </si>
+  <si>
+    <t>Samsung Tablets - Samsung Tab S9+, S9 FE, FE+, S9 Ultra, S6 Lite</t>
+  </si>
+  <si>
+    <t>Ecohouzng Tower Air Cooler with Humidity, 41-inches</t>
+  </si>
+  <si>
+    <t>Arctic King Window Air Conditioner 10000 BTU</t>
+  </si>
+  <si>
+    <t>Dyson Vacuums - Gen5 Outsize, Gen5 Detect, V15 Detect, DC77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000 BTU Air Conditioners - Arctic King, KoolKing </t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+----------------------------------------------------
+CELLULAR + WIFI
+----------------------------------------------------
+Samsung Tab S9 FE 5G (Wi-Fi + LTE)
+(OPEN BOX WITH WARRANTY)
+- 10.9" Display
+- 128GB Storage
+Price - $495 (CASH NO TAX)
+-----------------------------------------------------
+WIFI
+-----------------------------------------------------
+Samsung Galaxy Tab S9 Ultra 14.6" 512GB Android Tablet with Snapdragon Gen 2 Processor (CANADIAN MODEL)
+(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
+- 14.6" Display
+- 512GB Stоrage
+- 12GB RAM
+Price - $1195 (CASH NО TAX)
+Samsung Galaxy Tab S9 ULTRA (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
+(BRAND NEW IN BOX WITH 1-Year WARRANTY)
+- 14.6" Display
+- 512GB Storage
+- 12GB RAM
+Price - $1195 (CASH NO TAX)
+Samsung Galaxy Tab S9 ULTRA (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
+(BRAND NEW IN BOX WITH 1-Year WARRANTY)
+- 14.6" Display
+- 256GB Storage
+- 12GB RAM
+Price - $1095 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Tab S9+ (Wi-Fi) X810 (Canadian Model)
+(NEW IN BOX WITH SAMSUNG WARRANTY )
+-12.4'  Display
+- 512GB Storage
+- 12GB RAM
+Price - $1095 (CASH NO TAX)
+Samsung Galaxy Tab S9+ (Wi-Fi) X810 With Keyboard Case (which is worth $150 for Free)(International Model)
+(BRAND NEW IN BOX WITH 1 YEAR WARRANTY )
+-12.4'  Display
+- 512GB Storage
+- 12GB RAM
+Price - $1045 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Tab S9 X710 (Wi-Fi) (Canadian Model)
+(NEW IN BOX WITH SAMSUNG WARRANTY)
+- 11" Display
+- 256GB Storage
+- 12GB RAM
+Price - $895 (CASH NO TAX)
+Samsung Galaxy Tab S9 X710 (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
+(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
+- 11" Display
+- 256GB Storage
+- 12GB RAM
+Price - $795(CASH NO TAX)
+----------------------------------------------------
+Samsung Tab S9 FE+ (WiFi)
+(BRAND NEW IN BOX WITH WARRANTY)
+- 12.4" Display
+- 256GB Storage
+- 12GB RAM
+Price - $695 (CASH NO TAX)
+----------------------------------------------------
+Samsung Tab S9 FE (WiFi)
+(BRAND NEW IN BOX WITH WARRANTY)
+- 10.9" Display
+- 128GB Storage
+- 6GB RAM
+Price - $395 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Tab S6 Lite P613 (Wi-Fi)
+(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
+- 10.4" Display
+- 128GB Storage
+- 4GB RAM
+Price - $345(CASH NO TAX)
+Samsung Galaxy Tab S6 Lite P613 (Wi-Fi)
+(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
+- 10.4" Display
+- 64GB Stоrage
+- 4GB RAM
+Price - $325(CASH NO TAX)
+----------------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for :-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+----------------------------------------------------
+Storefront is open to public 7 days a week
+----------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+----------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST СLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
     <t>Shop Smart, Shop Secure: Canadian Outlеt, Your Trusted Choice!
 Best Price, Best Quality
 Buy with Confidence from our store!
@@ -11732,6 +13440,10 @@
 (LIKE NEW IN BOX WITH WARRANTY)
 PRICE - $150 (CASH NO TAX)
 -------------------------------------------
+Motorola E32 64GB 2022 (DUAL SIM)
+(OPEN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-------------------------------------------
 MOTOROLA MOTO ONE AСE 5G 128GB
 (OPEN BOX WITH WARRANTY)
 PRICE - $175 (CASH NO TAX)
@@ -11797,1695 +13509,6 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Samsung Phones - Samsung Galaxy A73, Samsung Galaxy A72, Samsung Galaxy A71, Samsung Galaxy A55, Samsung Galaxy A54, Samsung Galaxy A53, Samsung Galaxy A52s, Samsung Galaxy A52, Samsung Galaxy A51 Phone, Samsung A50
-BLOWOUT SALE!!!
----------------------------------------------
-Samsung Galaxy A73 128GB/6GB RAM (Dual Sim)
-(Brand New In Box With Warranty)
-Pricе: $545 (Cash No Tax)
-Samsung Galaxy A72 256GB/8GB RAM (Dual Sim)
-(Brand New In Box With Wаrranty)
-Price: $540 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A71 5G 128GB/ 6GB RAM
-(Fully Functional With store Warranty)
-Price: $195 (Cash Nо Tax)
-------------------------------------------------------------------
-Samsung Galaxy A55 5G 128GB (DUAL SIM)
-(Brand New In Box With Warranty)
-Price: $470 (Cash No Tax)
-------------------------------------------------------------------
-Samsung Galaxy A54 5G 128GB (Canadiаn / US Model)
-(Brand New In Box With Warranty)
-Price: $395 (Cash No Tax)
-Samsung Galaxy A54 5G 128GB
-(New In Box With Warranty)
-Price: $370 (Cash No Tax)
-------------------------------------------------------------------
-Samsung Galaxy A53 5G 128GB
-(New In Box With Warranty)
-Price: $360 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A52s 5G 128GB
-(Like New in Box With Warranty)
-Price: $275 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A52 5G 128GB
-(New in Box With Warranty)
-Price: $250 (Cash No Tax)
-------------------------------------------------------------------
-Samsung Galaxy A51 5G 128GB
-(Like New in Box With Warranty)
-Price: $195 (Cash No Tax)
-Samsung Galаxy A51 128GB
-(Like New in Box With Warranty)
-Price: $175 (Cash No Tax)
-Samsung Galaxy A51 64GB
-(Like New in Box With Warranty)
-Price: $150 (Cash No Tax)
-------------------------------------------------------------------
-Samsung Galaxy A50 64GB
-(Like New In Box With Warranty)
-Price: $175 (Cash No Tax)
-------------------------------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
-------------------------------------------------------------------
-BUY NOW. PAY LАTER.
-Get easy monthly financing when you shoр with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contаct us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MАIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Arctic King Window Air Conditioner - 10000 BTU - 450 sq ft (MWHUK10CRN8BCL0)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $469 + TAX
-OUR PRICE: $375 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>Arctic King Window AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8000 BTU Air Conditioners - Arctic King, OmniMax, Forest Air </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Forest Air 3-in-1 Portable Air Conditioner - 8000 BTU - 200-250 sq ft (A01908KR)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $445.50 + TAX
-OUR PRICE: $345 (CASH NO TAX)
-------------------------------------------------------
-OMNIMAX 3-in-1 Portable Air Conditioner - 8000 BTU - 150 sq ft (OP08N3WBA1RCM)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $449.99 + TAX
-OUR PRICE: $345 (CASH NO TAX)
-------------------------------------------------------
-Arctic King Portable Air Conditioner - 8000 BTU - 150 sq ft (AP53SEWBA1RCM)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $379 + TAX
-OUR PRICE: $325 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>8000 BTU AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Arctic King Portable Air Conditioner - 10000 BTU - 300 sq ft (AP07SEWBA1RCM) 
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $549 + TAX
-OUR PRICE: $395 (CASH NO TAX)
-------------------------------------------------------
-KOOLKING Portable Air Conditioner - 10000 BTU - 540 sq ft
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $499.99 + TAX
-OUR PRICE: $395 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>10000 BTU AC</t>
-  </si>
-  <si>
-    <t>Arctic King, Hisense Air Conditioner - 13500 BTU, 13000BTU, 12000BTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Arctic King 3-in-1 Portable Air Conditioner - 13500 BTU - 450 sq ft (AP10SEWBA1RCM)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $689 + TAX
-OUR PRICE: $545 (CASH NO TAX)
-------------------------------------------------------
-Hisense 3-in-1 Portable Smart Air Conditioner - 13000 BTU - 450 sq ft (AP1022CW1G)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $697 + TAX
-OUR PRICE: $545 (CASH NO TAX)
-------------------------------------------------------
-Arctic King 3-in-1 Portable Air Conditioner - 12000 BTU - 350 sq ft (AP08SEWBA1RCM)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $649 + TAX
-OUR PRICE: $495 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>High BTU AC</t>
-  </si>
-  <si>
-    <t>Samsung Phones - Samsung Z Fold 5, Fold 4, 3, 2, Flip 5, 4, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
----------------------------------------------------
-Ecohouzng Tower Air Cooler with Humidity - 3-Speed - 41-in - (#CT500032HF)
-(LIKE NEW WITH WARRANTY)
-OUR PRICE: $95 (CASH NO TAX)
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>Ecohouzng Air Cooler</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-Fitbit Watches - Fitbit Charge 2, Fitbit Sense 2, Fitbit Sense, Fitbit Versa, Fitbit Inspire 2, Fitbit Charge 5 Fitness Tracker, Fitbit Charge 6 Fitness Tracker, Fitbit Luxe, Fitbit Versa 2, Fitbit Versa 3 Health &amp; Fitness Smartwatch, Fitbit Versa 1
-BLOWOUT SALE!!!
--------------------------------------------------------------
-Fitbit Sense 2 Smartwatch
-(BRAND NEW WITH 1 YEAR FITBIT WARRANTY)
-PRICE - $225 (CASH NO TAX)
-Fitbit Sense Smartwatch
-(LIKE NEW WITH WARRANTY)
-PRICE - $125 (CASH NO TAX)
--------------------------------------------------------------
-Fitbit Versa 4 Smartwatch
-(BRAND NEW WITH 1 YEAR FITBIT WARRANTY)
-PRICE - $175 (CASH NO TAX)
-Fitbit Versa 4 Smartwatch
-(LIKE NEW WITH WARRANTY)
-PRICE - $125 (CASH NO TAX)
-Fitbit Versa 3 Health &amp; Fitness Smartwatch
-(LIKE NEW WITH WARRANTY)
-PRICE - $140 (CASH NO TAX)
-Fitbit Versa 2 Smartwatch
-(LIKE NEW WITH WARRANTY)
-PRICE - $115 (CASH NO TAX)
-Fitbit Versa Smartwatch
-(LIKE NEW WITH WARRANTY)
-PRICE - $70 (CASH NO TAX)
--------------------------------------------------------------
-Fitbit Charge 6 Fitness Tracker
-(LIKE NEW WITH WARRANTY)
-PRICE - $130 (CASH NO TAX)
-Fitbit Charge 5 Fitness Tracker
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $125(CASH NO TAX)
-Fitbit Charge 4 Fitness Tracker
-(LIKE NEW WITH WARRANTY)
-PRICE - $115 (CASH NO TAX)
-Fitbit Charge 2 Fitness Tracker
-(LIKE NEW WITH WARRANTY)
-PRICE - $55 (CASH NO TAX)
--------------------------------------------------------------
-Fitbit Luxe Fitness and Wellness Tracker
-(LIKE NEW WITH WARRANTY)
-PRICE - $75 (CASH NO TAX)
--------------------------------------------------------------
-Fitbit Inspire 2 Fitness Tracker with 24/7 Heart Rate 
-(BRAND NEW WITH 1 YEAR FITBIT WARRANTY)
-PRICE - $65 (CASH NO TAX)
--------------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>JBL Speakers - JBL Clip 4, JBL Flip 6, JBL Charge 5</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-JBL Bluetooth Speakers - JBL Charge 5, JBL Flip 6, JBL Clip 4 Bluetooth Speakers
-----------------------------------------------------
-JBL Charge 5 Waterproof Bluetooth Wireless Speaker
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $185 (CASH NO TАX)
-JBL Flip 6 Waterproof Bluetooth Wirelеss Speaker
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $135 (CASH NO TAX)
-JBL Clip 4 Waterproof Bluetooth Wireless Speaker
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $75 (CASH NO TAX)
-------------------------------------------------------
-Same day delivery available in GTA аrea - delivery charges are extra depends upоn location
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for -
-3 Months
-6 Months
-12 Months
-*All financing done through PayBright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-СANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choiсe!
-Best Price, Best Quality
-Buy with Confidence from оur store! ✨
-------------------------------------------------------
-Samsung Phones - Samsung A35 5G, Samsung A34 5G, Samsung A33 5G, Samsung A31 phone
-BLOWOUT SALE!!!
-----------------------------------------------------------
-Samsung Galaxy A35 5G 128GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $370 (Cash No Tax)
-----------------------------------------------------------
-Samsung Galaxy A34 5G 128GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $335 (Cash No Tax)
-----------------------------------------------------------
-Samsung Galaxy A33 5G 128GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $325 (Cash No Tax)
-----------------------------------------------------------
-Samsung Galaxy A31 64GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $225 (Cash No Tax)
-----------------------------------------------------------
-Same day delivery available in GTА area-delivery charges are extra depends on location
-----------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shoр with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Mоnths
-6 Months
-12 Months
-*All financing done through Pаy Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days а week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TОRONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>50-60</t>
-  </si>
-  <si>
-    <t>50-61</t>
-  </si>
-  <si>
-    <t>50-62</t>
-  </si>
-  <si>
-    <t>50-63</t>
-  </si>
-  <si>
-    <t>50-64</t>
-  </si>
-  <si>
-    <t>50-65</t>
-  </si>
-  <si>
-    <t>50-66</t>
-  </si>
-  <si>
-    <t>50-67</t>
-  </si>
-  <si>
-    <t>50-68</t>
-  </si>
-  <si>
-    <t>50-69</t>
-  </si>
-  <si>
-    <t>50-70</t>
-  </si>
-  <si>
-    <t>50-71</t>
-  </si>
-  <si>
-    <t>50-72</t>
-  </si>
-  <si>
-    <t>70-76</t>
-  </si>
-  <si>
-    <t>70-77</t>
-  </si>
-  <si>
-    <t>70-78</t>
-  </si>
-  <si>
-    <t>samsung</t>
-  </si>
-  <si>
-    <t>Macbook Air - 13 Inch, 8GB RAM, 256GB STORAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>Macbook Air 8-256</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Dell Laptops Intel i5 - Dell inspiron 13, Dell 7480, Dell Latitude 7390, Dell Latitude 7420, Dell 5400, Dell Latitude 7400, Dell 7490, Dell 5490, Dell 3400, Dell 7480, Dell 5470 
-------------------------------------------------------
-Dell Latitude 7420 - 14" Touch
-INTEL i5 - 11th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $545 (CASH NO TAX)
-------------------------------------------------------
-Dell inspiron 13
-Intel i5 - 8th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $425 (CASH NO TAX)
-------------------------------------------------------
-Dell 7480 - 14" Touch
-Intel i5 - 7th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $395 (CASH NO TAX)
-------------------------------------------------------
-Dell 7410 
-INTEL i5 - 10th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $375 (CASH NO TAX)
-------------------------------------------------------
-Dell Latitude 7390 (Touchscreen) - 13.3"
-INTEL i5 - 8th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $325 (CASH NO TAX) 
-------------------------------------------------------
-Dell 5400 - 14"
-Intel i5 - 8th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX) 
-------------------------------------------------------
-Dell Latitude 7400 - 14" Webcam
-INTEL i5 - 8th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $275 (CASH NO TAX)
-------------------------------------------------------
-Dell 5490 (Touchscreen)- 14"
-Intel i5 - 8th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $275 (CASH NO TAX)
------------------------------------------
-Dell 3400 - 14" Webcam
-Intel i5 - 8th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $250(CASH NO TAX)
------------------------------------------
-Dell 7490 - 14"
-Intel i5 - 8th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Dell 7490 - 14"
-Intel i5 - 7th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX) 
------------------------------------------
-Dell 7480 - 14"
-Intel i5 - 7th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
------------------------------------------
-Dell 7480 - 14"
-Intel i5 - 6th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX) (SOLD OUT)
------------------------------------------
-Dell 5470 14"
-Intel i5 - 6th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195(CASH NO TAX) (SOLD OUT)
------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple iPhone 15 128GB BRAND NEW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Apple iPhone 15 128GB
-(BRAND NEW WITH APPLE WARRANTY)
-PRICE - $975 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>iPhone 15</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store!
-------------------------------------------------------
-Samsung Phones - A15, A14, A13, A12, A11, A10S, A10E
-------------------------------------------------------
-Samsung Galaxy A15 5G 128GB/ 6GB (Dual SIM)
-(Brand New In Box With Warranty)
-Price - $210 (Cash No Tax)
-Samsung Galaxy A15 5G 128GB (Dual SIM)
-(Like New In Box With Warranty)
-Price - $180 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A15 128GB (Dual SIM)
-(Brand New In Box With Warranty)
-Price - $165 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A14 128GB (Dual SIM)
-(New In Box With Warranty)
-Price - $165 (Cash No Tax)
-Samsung Galaxy A14 64GB (Dual SIM)
-(New In Box With Warranty)
-Price - $155 (Cash No Tax)
-Samsung Galaxy A14 5G 64GB
-(New Open Box With 6 Months Store Warranty)
-Price - $165 (Cash No Tax)
----------------------------------------------------
-Samsung Galaxy A13 4GB/128GB (Dual Sim)
-(New in Box with Warranty)
-Price: $175 (Cash No Tax)
-Samsung Galaxy A13 4GB/64GB (Dual Sim)
-(New in Box with Warranty)
-Рrice: $160 (Cash No Tax)
-Samsung Galaxy A13 5G 4GB/64GB
-(Like New in Box with Warranty)
-Price: $135 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A12 128GB (Dual Sim)
-(New Open Box With Warranty)
-Price: $165 (Cash No Tax)
-Samsung Galaxy A12 64GB/ 4GB RAM (Dual Sim)
-(New In Box With Warranty)
-Price: $145 (Cash No Tax)
-Samsung Galaxy A12 32GB
-(Like New In Box With Warranty)
-Price: $135 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A11 32GB
-(New In Box With Warranty)
-Price: $125 (Cash No Tax)
-Samsung Galaxy A11 32GB
-(Fully Functional with Warranty)
-Price: $110 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A10s 32GB (Dual Sim)
-(Like Nеw In Box With Warranty)
-Price: $105 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A10E 32GB
-(Fully Functional with Warranty)
-Price: $95 (Cash No Tax)
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy mоnthly financing when you shop with Canadian Outlеt
-Split your purchase into stress-free, automаtic installments with monthly Plans for:-
-3 Mоnths
-6 Months
-12 Months
-*All financing done through Pay Bright
----------------------------------------------------
-Storefront is open to рublic 7 days a week
-----------------------------------------------------
-We are providing a FREЕ parking facility for our customers (Contact us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlеt, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store!
-------------------------------------------------------
-LG Phones - LG G7 ThinQ, LG V60 ThinQ, LG G8 ThinQ, LG V40, LG V30, LG Velvet 5G, LG Phoenix 5, K50s, V20
-BLOWOUT SALE!!!
-------------------------------------------
-LG V60 ThinQ 128GB Unlocked
-(Like New in Box with warranty)
-Price - $275 (Cash No Tax)
-------------------------------------------
-LG Velvet 5G 128GB Unlocked
-(Open Box with warranty)
-Price - $225 (Cash No Tax)
-------------------------------------------
-LG G8 ThinQ 128GB Unlocked
-(Brand New in Box with warranty)
-Price - $245 (Cash No Tax)
-LG G8 ThinQ 128GB Unlocked
-(Like New in Box with warranty)
-Price - $195 (Cash No Tax)
-------------------------------------------
-LG Stylo 6 64GB Unlocked
-(Brand new in box with warranty)
-Price - $195 (Cash No Tax)
-LG Stylo 6 64GB Unlocked
-(Like new in box with warranty)
-Price - $145 (Cash No Tax)
--------------------------------------------
-LG V40 ThinQ 64GB Unlocked
-(Like New in Box with warranty)
-Price - $175 (Cash No Tax)
-------------------------------------------
-LG V30 64GB Unlocked
-(Brand new in box with warranty)
-Price - $175 (Cash No Tax)
-------------------------------------------
-LG G7 ThinQ 64GB Unlocked
-(Like New in Box with warranty)
-Price - $165 (Cash No Tax)
-------------------------------------------
-LG V20 64GB Unlocked Smartphone
-(Like New in Box with Warranty)
-Price - $145 (Сash No Tax)
---------------------------------------------
-LG K50s 32GB Unlocked
-(Brand new in box with warranty)
-Price - $160 (Cash No Tax)
--------------------------------------------
-LG Pheonix 5 16GB Unlocked
-(Like New in Box with warranty)
-Price - $95 (Cash No Tax)
--------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split yоur purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Stоrefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidеnce from our store!
-------------------------------------------------------
-HP Laptops Intel i5 - HP EliteBook 840 G9, HP PrоBook 440 G3, HP ELITEBOOK 840 G7, HР ELITEBOOK 840 G6, HP Probook 430 G5, HP 15 DY2795WM, HP ProBook 430 G3, HP ELITEBOOK 840 G4, HP ELITEBOOK 840 G6, HP EliteBook Folio 9470M
-------------------------------------------------------
-HP EliteBook 840 G9 - 14"
-Intel Core i5 - 12th Gen
-16GB RAM
-512GB SSD
-Intel Iris XЕ Graphics
-Windows 11 Pro
-(BRAND NЕW IN BOX WITH WARRANTY)
-PRICE - $1295 (CASH NO TAX)
-------------------------------------------------------
-HP 15 DY2795WM 15.6
-INTEL i5 - 11TH GEN
-8GB RAM
-256GB SSD
-(Brand New In Box With Warranty)
-PRICE - $595 (CASH NO TAX)
-------------------------------------------------------
-HP ELITEBOOK 840 G7 - 14"
-INTEL i5 - 10TH GEN
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $475 (CASH NO TAX)
-------------------------------------------------------
-HP ELITEBOOK 840 G6 - 14"
-INTEL i5 - 8TH GEN
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $325(CASH NO TAX)
------------------------------------------------------
-HP ProBook 430 G3 13.3" (Touchscrеen)
-INTEL i5 - 6TH GEN
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRАNTY)
-PRICE - $325 (CASH NO TAX)
-------------------------------------------------------
-HP ELITEBOOK 840 G6 - 14"
-INTEL i5 - 8TH GEN
-8GB RAM
-256GB SSD
-(LIKE NEW IN BОX WITH WARRANTY)
-PRICE - $295(CASH NO TAX)
-------------------------------------------------------
-HP Probook 430 G5 - 13.3"
-INTEL i5 - 8TH GEN
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRIСE - $275(CASH NO TAX)
-------------------------------------------------------
-Same day delivery availablе in GTA area -delivery charges are еxtra depends on location
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shоp with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans fоr:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Samsung Phones - Samsung Galaxy A05s, Samsung Galaxy A05, Samsung Galaxy A04, Samsung Galaxy A04e, Samsung Galaxy A03s, Samsung Galaxy A02s, Samsung Galaxy A02, Samsung Galaxy A03 Core phone
-Samsung Galaxy A05s 128GB (Dual Sim)
-(New In Box With Warranty)
-Price: $175 (Cash No Tax)
-Samsung Galaxy A05s 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $150 (Cash Nо Tax)
-Samsung Galaxy A05 128GB (Dual Sim)
-(New In Box With Warranty)
-Price: $140 (Cash No Tax)
-Samsung Galaxy A05 64GB (Dual Sim)
-(New In Box With Warranty)
-Priсe: $135 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A04 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $135 (Cash No Tax)
-Samsung Galaxy A04 32GB (Dual Sim)
-(Nеw In Box With Warranty)
-Price: $115 (Cash No Tax)
----------------------------------------------
-Sаmsung Galaxy A04e 64GB (Dual Sim)
-(New In Box With Warranty)
-Pricе: $125 (Cash No Tax)
-Samsung Galaxy A04e 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $105 (Cash No Tax)
----------------------------------------------
-Sаmsung Galaxy A03s 32GB
-(New In Bоx With Warranty)
-Price: $125 (Cаsh No Tax)
----------------------------------------------
-Samsung Galaxy A02s 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $125 (Cash No Tax)
----------------------------------------------
-Sаmsung Galaxy A02 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $115 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A03 Core 32GB
-(New In Box With Warranty)
-Priсe: $100 (Cash No Tax)
----------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
----------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Сanadian Outlet
-Split your purchasе into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*Аll financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE рarking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our storе!
----------------------------------------------
-Samsung Phones - Samsung A25, Samsung A24, Samsung A23, Samsung A22, Samsung A21S
-BLOWOUT SALE!!!
----------------------------------------------
-Samsung Galaxy A25 5G 128GB (Dual Sim)
-(Brand New In Box With Warranty)
-Priсe: $250 (Cash No Tax)
----------------------------------------------------
-Samsung Galaxy А24 128GB (Dual Sim)
-(Brand Nеw In Box With Warranty)
-Pricе: $235 (Cash No Tax)
----------------------------------------------------
-Samsung Galaxy A23 128GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $215 (Cash No Tax)
-Samsung Galaxy A23 64GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $200 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A22 128GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $210 (Cash No Tax)
-Samsung Galaxy A22 64GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $200 (Cash No Tax)
-Samsung Galaxy A22 5G 64GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $210 (Cаsh No Tax)
----------------------------------------------
-Samsung Galaxy A21S 128GB (Dual Sim)
-(Brand New In Box With Wаrranty)
-Price: $200 (Cash No Tax)
-Samsung Galaxy A21S 64GB (Dual Sim)
-(Brand New In Box With Warranty)
-Price: $190 (Cash No Tax)
----------------------------------------------
-Same day delivery availablе in GTA area - delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly finаncing when you shop with Canadiаn Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCАTION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Cоnfidence from our store!
----------------------------------------------
-BLOWOUT SALE!!!
-Samsung Gаlaxy S24 Ultra, Samsung Galaxy S24, Samsung Galaxy S23 Ultra, Samsung Galaxy S23, Samsung Galaxy S23+, Sаmsung Galaxy S23 FE, Samsung Galaxy S22 Ultra, Samsung Galaxy S22+, Sаmsung Galaxy S22
------------------------------------------------------------------------
-Samsung Galаxy S24 Ultra 12GB / 512GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1545 (CASH NО TAX)
-Samsung Galaxy S24 Ultrа 12GB / 256GB (CANADIAN MODEL)
-(Brand New Open Box with Warranty)
-Price - $1095 (CASH NO TAX)
------------------------------------------------------------------------
-Samsung Galaxy S24 256GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-PRICE - $825 (CASH NO TAX)
-Samsung Galaxy S24 256GB (CANADIAN MODEL)
-(Like New in Box with Warranty)
-PRICE - $750 (CASH NO TAX)
-Samsung Galaxy S24 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-PRICE - $740 (CASH NO TAX)
-Samsung Galaxy S24 128GB (CANADIAN MODEL)
-(Like New in Box with Warranty)
-PRICE - $695 (CASH NO TAX)
------------------------------------------------------------------------
-Samsung Galaxy S23 Ultra 512GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1250 (CASH NO TAX)
-Samsung Galaxy S23 Ultra 512GB
-(Like New in Box with Warranty)
-Price - $995 (CASH NO TAX)
-Samsung Galaxy S23 Ultra 256GB (DUAL SIM)
-(Brаnd New in Box with 1 Year Warranty)
-Price - $1095 (CASH NO TAX)
-Samsung Galaxy S23 Ultra 256GB
-(Like New in Box with Warranty)
-Price - $950 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23+ 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $945 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23 256GB (CANADIAN MODEL)
-(Brand New Open Box with Samsung Warranty)
-Price - $795 (CASH NO TAX)
-Samsung Galaxy S23 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-Price - $735 (CASH NO TAX)
-Samsung Galaxy S23 5G 128GB
-(New Open Box with 6 Months Warranty)
-Price - $625 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23 FE 5G 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $645 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 256GB
-(Like New in Box with Warranty)
-Price - $575 (CАSH NO TAX)
-Samsung Galaxy S23 FЕ 5G 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-Price - $595 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 128GB
-(Like New in Box with Warranty)
-Рrice - $500 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22 Ultra 5G 512GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $695 (CASH NO TAX)
-Samsung Galaxy S22 Ultra 5G 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $645 (CASH NO TAX)
-Samsung Galaxy S22 Ultra 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $595 (CASH NO TAX)
----------------------------------------------
-Sаmsung Galaxy S22+ (Plus) 5G 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $495 (CASH NO TAX)
-Samsung Galaxy S22+ (Plus) 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $445 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22 5G 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICЕ: $395 (CASH NO TAX)
-Samsung Galaxy S22 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $375 (CASH NO TAX)
----------------------------------------------
-Same day dеlivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Sрlit your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
----------------------------------------------
-Storefront is open to public 7 days a week
----------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
----------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLЕT
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-JBL Harman Endurance Race, JBL Vibe Beam In-Ear Sound Isolating Truly Wireless Headphones, JBL Run 2, JBL 215 BT, JBL 125BT
----------------------------------------------------
-JBL Vibe Beam In-Ear Sound Isolating Truly Wireless Headphones
-(BRAND NEW IN BOX)
-PRICE - $70 (CASH NO TAX)                                                                                                                                                                                                                                                                                                                   
-                                                                                                                                                                                                                                                                                                                                                                                                                                            JBL Harman Endurance Race Waterproof True Wireless Active Sport Earbuds
-(BRAND NEW IN BOX)
-Price - $60 (CASH NO TAX)
-JBL Еndurance RUN 2 In-Ear Wireless Sport Headphones
-(BRAND NEW IN BOX)
-Price - $35 (CASH NO TAX)
-JBL Tune 215BT Wireless Earbud headphones
-(BRAND NEW IN BOX)
-Price - $35 (CASH NO TAX)
-JBL Tune 125BT Wireless Earbud headphones
-(BRAND NEW IN BOX)
-Price - $35 (CASH NO TAX)
----------------------------------------------------
-Same day dеlivery available in GTA area - delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10АM - 7PM</t>
-  </si>
-  <si>
-    <t>ASTRO Gaming A50 Wireless Headset + Base Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-ASTRO Gaming A50 Wireless Headset + Base Station Gen 4 - Compatible With PS5, PS4, PC, Mac
-(Brand New in Box)
-Price - $260 (Cash No Tax)
-ASTRO Gaming A50 Wireless + Base Station for Xbox One and Series X &amp; PC
-(Brand New in Box)
-Price - $260 (Cash No Tax)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>Astro Gaming</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Samsung Galaxy Buds2 Pro Headphones, Samsung Galaxy Buds2 Headphones, Samsung Galaxy Buds FE, Samsung Galaxy Buds Headрhones
----------------------------------------------------
-Samsung Galaxy Buds2 Pro In-Ear Noise Сancelling Truly Wireless Headphones
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $145 (CASH NO TAX)
-Samsung Galaxy Buds2 In-Ear Noise Cancelling Truly Wireless Headphones
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $75 (CASH NO TAX)
-Samsung Galaxy Buds FE Truly Wireless Bluetooth Earbuds, Active Noise Cancellation(ANC)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $85 (CASH NO TAX)
----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on loсation
----------------------------------------------------
-BUY NОW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchаse into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
----------------------------------------------------
-Storefront is open to public 7 days a week
-----------------------------------------------------
-We are providing a FREE parking facility for our customers (Contаct us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLЕT
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDАY: 8AM - 8PM
-WEEKENDS: 10AM - 7РM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Bose QuietComfort Ultra Headphones, QuietComfort and QuietComfort 45 Bluetooth Headphones, Bose Ultra Earbuds
----------------------------------------------------
-Bose QuietComfort Ultra Wireless Noise Cancelling Headрhones
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-PRICE - $445 (CASH NO TAX)
----------------------------------------------------
-Bose QuietComfort Wireless Noise Cancelling Headphones
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-PRICE - $375 (CASH NO TAX)
-Bose QuietComfort 45 Over-Ear Noise Cancelling Bluetooth Headphоnes
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WАRRANTY)
-PRICE - $345(CASH NO TAX)
----------------------------------------------------
-Bose QuiеtComfort Ultra Wireless Noise Cancelling Earbuds, Bluetooth Noise Cancelling Earbuds with Spatial Audio and World-Class Noise Cancellation
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $275 (CASH NO TAX)
----------------------------------------------------
-Bose QuietComfort Ultra Wireless Noise Cancelling Earbuds, Bluetooth Noise Cancelling Earbuds with Spatial Audio and World-Class Noise Canсellation
-(NEW OPEN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
----------------------------------------------------
-Same day delivery availаble in GTA area - delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Mоnths
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YОNGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choiсe!
-Best Price, Best Quality
-Buy with Confidence from оur store! ✨
----------------------------------------------------
-Beats Studio Pro, Beats Studio3 Headphones, Powеrbeats Pro Headphones, Beats By Dr. Dre Fit Pro, Beats Studio Buds + Earbuds, Beats Studio Buds, Powerbeats 3
----------------------------------------------------
-Beats Studio Pro - Wireless Bluetooth Noise Cancelling Headphones
-(BRAND NEW IN BOX)
-Price - $295 (Cash No Tax)
-Beats Beаts Studio3 Wireless Over-Ear Headphones
-(BRAND NEW IN BOX)
-Price - $225 (Cash No Tax)
----------------------------------------------------
-Beats Powerbeats Pro In-Ear Truly Wireless Headphones
-(BRAND NEW IN BOX)
-PRICE - $195 (CASH NO TAX)
-------------------------------------------------------
-Beats Powerbeats Pro In-Ear Truly Wireless Headphones
-(LIKE NEW IN BOX)
-PRICE - $145 (CASH NO TАX)
-------------------------------------------------------
-Beats Fit Pro X Alo Special Edition In-Ear Noise Cancеlling True Wireless Earbuds (BRAND NEW IN BOX)
-PRICE - $195 (CASH NO TAX)
-Beats Fit Pro In-Ear Noise Cancelling True Wireless Earbuds
-(BRAND NEW IN BOX)
-PRICE - $175 (CASH NO TAX)
-------------------------------------------------------
-Beats Studio Budsplus [+] True Wireless Noise Cancelling Earbuds
-(BRAND NEW IN BOX)
-PRICE - $145 (СASH NO TAX)
-------------------------------------------------------
-Beats Studio Buds In-Ear Noise Cancelling True Wireless Earbuds
-(BRAND NEW IN BOX)
-PRICE - $115 (CASH NO TAX)
-------------------------------------------------------
-Beats Studio Buds In-Ear Noise Cancelling True Wireless Earbuds
-(LIKE NEW IN BOX)
-PRICE - $85 (CASH NO TAX)
-------------------------------------------------------
-Beats Powerbeats3 Wireless in-Ear Headphones - White
-(BRAND NEW IN BOX)
-PRICE - $65 (CASH NO TAX)
-------------------------------------------------------
-Samе day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*Аll financing done through Pay Bright
----------------------------------------------------
-Storefront is open to public 7 days a week
-----------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Apple AirPods Max Hеadphones
-------------------------------------------------------------------------------------
-Apрle AirPods Max Over-Ear Noise Cancelling Bluetooth Headphones
-(Brand New in Box with 1 Year Apple Warranty)
-Price - $695 (CASH NO TAX)
-------------------------------------------------------------------------------------
-Same day delivery available in GTA arеa - delivery charges are extra dеpends on location
-------------------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Gеt easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-freе, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------------------------------------
-Storefront is opеn to public 7 days a week from 10AM till 8PM
-------------------------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contaсt us)!!!!
-STORE LOCATION:
-СANADIAN OUTLET
-1431 YONGE STRЕET
-YONGE &amp; ST CLAIR
-TORONTО, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Apple AirPods - AirPods Pro 2nd Gen, AirPods Pro, AirPods 2nd Gen Wired charging case, Apple Airpods 3rd Generation
-----------------------------------------------------
-Apple AirPods Pro (USB TO C 2nd generation)
-In-Ear Noise Cancelling True Wireless Earbuds with USB-C MagSafe Charging Case
-(Brand New in Box with 1 Year Apple Warranty)
-Price - $275(CASH NO TAX)
-Apple AirPods Pro (USB TO C 2nd generation)
-In-Ear Noise Cancelling True Wireless Earbuds with USB-C MagSafe Charging Case
-(Brand New Open Box with 9 months Apple Warranty)
-Price - $225 (CASH NO TAX)
-Apple AirPods Pro (2nd generation)
-In-Ear Noise Cancelling Truly Wireless Headphones with MagSafe Charging Case
-(Brand New in Box with 1 Year Apple Warranty)
-Price - $235(CASH NO TAX)
-Apple AirPods Pro (2nd generation)
-In-Ear Noise Cancelling Truly Wireless Headphones with MagSafe Charging Case
-(Like New in Box with Warranty)
-Price - $195 (CASH NO TAX)
-Apple AirPods Pro
-(Like New in Box with Warranty)
-Price - $175 (CASH NO TAX)
-----------------------------------------------------
-Apple Airpods 3rd Generation
-(Like New in Box with Warranty)
-Price - $160(CASH NO TAX)
-----------------------------------------------------
-Apple AirPods 2nd Generation
-In-Ear Truly Wireless Headphones with Wireless Charging Case
-(Brand New in Box with 1 Year Apple Warranty)
-Price - $175 (CASH NO TAX)
-----------------------------------------------------
-Apple AirPods Wired Earphones 2nd Generation with Charging Case
-(Brand New in Box with 1 Year Apple Warranty)
-Price - $145 (CASH NO TAX)
-Apple AirPods Wired Earphones 2nd Generation
-(Like New in Box with Warranty)
-Price - $120 (CASH NO TAX)
-----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright*
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------------------------------------------------------------
-Samsung Smart TV
-------------------------------------------------------
-Samsung 75" QN800A Neo QLED 8K Smart TV (QN75QN800B)
-(NEW OPEN BOX WITH WARRANTY)
-Minоr Blemish on Screen (Not Visible)
-REGULAR PRICЕ: $4499.99 + TAX
-OUR PRICE - $1095 (CASH NO TAX)
-------------------------------------------------------
-Samsung 75" 4K UHD HDR QLED Tizen Smart TV (QN75Q70A)
-(NEW OPEN BOX WITH WARRANTY)
-REGULAR PRICE: $1799.99 + TAX
-ОUR PRICE - $895 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PАY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase intо stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*Аll financing done through Pay Bright
----------------------------------------------
-Same day delivеry available in GTA area - delivery charges are extra depends on location
----------------------------------------------
-Storefront is open to publiс 7 days a week from 10AM till 8PM
----------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!!!
-OPEN EVERYDAY FROM 8AM TILL 8PM
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORОNTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WЕEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Apple AirPods - AirPods Pro 2nd Gen, AirPods 2nd Gen, 3rd Gen</t>
-  </si>
-  <si>
-    <t>Samsung Tablets - Samsung Tab S9+, S9 FE, FE+, S9 Ultra, S6 Lite</t>
-  </si>
-  <si>
-    <t>Ecohouzng Tower Air Cooler with Humidity, 41-inches</t>
-  </si>
-  <si>
-    <t>Arctic King Window Air Conditioner 10000 BTU</t>
-  </si>
-  <si>
-    <t>Dyson Vacuums - Gen5 Outsize, Gen5 Detect, V15 Detect, DC77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000 BTU Air Conditioners - Arctic King, KoolKing </t>
   </si>
 </sst>
 </file>
@@ -13909,8 +13932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14022,7 +14045,7 @@
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14154,7 +14177,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14482,7 +14505,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B14" t="s">
         <v>494</v>
@@ -14490,8 +14513,8 @@
       <c r="C14">
         <v>325</v>
       </c>
-      <c r="D14" t="s">
-        <v>638</v>
+      <c r="D14" s="3" t="s">
+        <v>756</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -14532,7 +14555,7 @@
         <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -14728,7 +14751,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B20" t="s">
         <v>494</v>
@@ -14737,7 +14760,7 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -14810,7 +14833,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B22" t="s">
         <v>492</v>
@@ -14819,7 +14842,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -14851,7 +14874,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B23" t="s">
         <v>497</v>
@@ -14860,7 +14883,7 @@
         <v>375</v>
       </c>
       <c r="D23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15056,7 +15079,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B28" t="s">
         <v>499</v>
@@ -15065,7 +15088,7 @@
         <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -15220,7 +15243,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B32" t="s">
         <v>491</v>
@@ -15229,13 +15252,13 @@
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15264,7 +15287,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15550,7 +15573,7 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -15835,7 +15858,7 @@
         <v>541</v>
       </c>
       <c r="K13" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L13" t="s">
         <v>253</v>
@@ -15879,7 +15902,7 @@
         <v>545</v>
       </c>
       <c r="K14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L14" t="s">
         <v>253</v>
@@ -15923,7 +15946,7 @@
         <v>549</v>
       </c>
       <c r="K15" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L15" t="s">
         <v>253</v>
@@ -16099,7 +16122,7 @@
         <v>567</v>
       </c>
       <c r="K19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L19" t="s">
         <v>253</v>
@@ -16143,7 +16166,7 @@
         <v>571</v>
       </c>
       <c r="K20" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L20" t="s">
         <v>253</v>
@@ -16187,7 +16210,7 @@
         <v>575</v>
       </c>
       <c r="K21" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="L21" t="s">
         <v>253</v>
@@ -16231,7 +16254,7 @@
         <v>579</v>
       </c>
       <c r="K22" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L22" t="s">
         <v>253</v>
@@ -16275,7 +16298,7 @@
         <v>579</v>
       </c>
       <c r="K23" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L23" t="s">
         <v>253</v>
@@ -16319,7 +16342,7 @@
         <v>586</v>
       </c>
       <c r="K24" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L24" t="s">
         <v>253</v>
@@ -16363,7 +16386,7 @@
         <v>590</v>
       </c>
       <c r="K25" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L25" t="s">
         <v>253</v>
@@ -16377,7 +16400,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B26" t="s">
         <v>492</v>
@@ -16386,7 +16409,7 @@
         <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -16398,16 +16421,16 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K26" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L26" t="s">
         <v>253</v>
@@ -16421,7 +16444,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B27" t="s">
         <v>497</v>
@@ -16430,7 +16453,7 @@
         <v>275</v>
       </c>
       <c r="D27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -16442,16 +16465,16 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K27" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L27" t="s">
         <v>253</v>
@@ -16465,7 +16488,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B28" t="s">
         <v>497</v>
@@ -16474,7 +16497,7 @@
         <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -16486,16 +16509,16 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K28" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L28" t="s">
         <v>253</v>
@@ -16509,7 +16532,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B29" t="s">
         <v>497</v>
@@ -16518,7 +16541,7 @@
         <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -16530,16 +16553,16 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K29" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L29" t="s">
         <v>253</v>
@@ -16553,7 +16576,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B30" t="s">
         <v>497</v>
@@ -16562,7 +16585,7 @@
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -16574,16 +16597,16 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L30" t="s">
         <v>253</v>
@@ -16597,7 +16620,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B31" t="s">
         <v>498</v>
@@ -16606,7 +16629,7 @@
         <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -16618,16 +16641,16 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="J31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K31" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L31" t="s">
         <v>253</v>
@@ -16904,7 +16927,7 @@
         <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
@@ -16912,7 +16935,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B7" t="s">
         <v>499</v>
@@ -16921,7 +16944,7 @@
         <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16962,7 +16985,7 @@
         <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17126,7 +17149,7 @@
         <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17322,7 +17345,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B17" t="s">
         <v>491</v>
@@ -17577,7 +17600,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -17788,7 +17811,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -17814,7 +17837,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B29" t="s">
         <v>499</v>
@@ -17823,7 +17846,7 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17896,7 +17919,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B31" t="s">
         <v>498</v>
@@ -17905,7 +17928,7 @@
         <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17917,7 +17940,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18050,7 +18073,7 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18337,7 +18360,7 @@
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -18369,7 +18392,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B11" t="s">
         <v>603</v>
@@ -18378,7 +18401,7 @@
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -18738,7 +18761,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B20" t="s">
         <v>501</v>
@@ -18747,7 +18770,7 @@
         <v>275</v>
       </c>
       <c r="D20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -18911,7 +18934,7 @@
         <v>895</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19075,7 +19098,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19271,7 +19294,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B33" t="s">
         <v>498</v>
@@ -19280,7 +19303,7 @@
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -19319,8 +19342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19424,7 +19447,7 @@
         <v>695</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -19690,7 +19713,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -19994,7 +20017,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -20108,7 +20131,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20175,7 +20198,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B23" t="s">
         <v>497</v>
@@ -20184,13 +20207,13 @@
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -20222,7 +20245,7 @@
         <v>190</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20251,7 +20274,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B25" t="s">
         <v>497</v>
@@ -20260,7 +20283,7 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -20441,7 +20464,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B30" t="s">
         <v>498</v>
@@ -20450,7 +20473,7 @@
         <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -20462,7 +20485,7 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -20479,7 +20502,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B31" t="s">
         <v>498</v>
@@ -20488,7 +20511,7 @@
         <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -20500,7 +20523,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -20517,7 +20540,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B32" t="s">
         <v>609</v>
@@ -20526,7 +20549,7 @@
         <v>260</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -20538,7 +20561,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -20562,8 +20585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20621,7 +20644,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B2" t="s">
         <v>501</v>
@@ -20630,7 +20653,7 @@
         <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -20662,7 +20685,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20694,7 +20717,7 @@
         <v>275</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -20854,7 +20877,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -20877,7 +20900,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B10" t="s">
         <v>612</v>
@@ -20886,7 +20909,7 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20982,7 +21005,7 @@
         <v>295</v>
       </c>
       <c r="D13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -21110,7 +21133,7 @@
         <v>225</v>
       </c>
       <c r="D17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -21269,8 +21292,8 @@
       <c r="C22">
         <v>115</v>
       </c>
-      <c r="D22" t="s">
-        <v>693</v>
+      <c r="D22" s="3" t="s">
+        <v>757</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -21389,7 +21412,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B26" t="s">
         <v>501</v>
@@ -21398,7 +21421,7 @@
         <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -21520,7 +21543,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B30" t="s">
         <v>498</v>
@@ -21529,7 +21552,7 @@
         <v>495</v>
       </c>
       <c r="D30" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21541,7 +21564,7 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21552,7 +21575,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B31" t="s">
         <v>501</v>
@@ -21561,7 +21584,7 @@
         <v>745</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21573,7 +21596,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21584,7 +21607,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B32" t="s">
         <v>497</v>
@@ -21593,7 +21616,7 @@
         <v>975</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21605,7 +21628,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21623,7 +21646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -22353,7 +22376,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -22414,7 +22437,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B23" t="s">
         <v>499</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C9416B-9F88-4B82-AE55-D79C6EB9BD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1701AD-755F-47E0-AAA0-275503D9F6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
@@ -12493,90 +12493,6 @@
   <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality
-Buy with Confidеnce from our store!
-------------------------------------------------------
-HP Laptops Intel i5 - HP EliteBook 840 G9, HP PrоBook 440 G3, HP ELITEBOOK 840 G7, HР ELITEBOOK 840 G6, HP Probook 430 G5, HP 15 DY2795WM, HP ProBook 430 G3, HP ELITEBOOK 840 G4, HP ELITEBOOK 840 G6, HP EliteBook Folio 9470M
-------------------------------------------------------
-HP EliteBook 840 G9 - 14"
-Intel Core i5 - 12th Gen
-16GB RAM
-512GB SSD
-Intel Iris XЕ Graphics
-Windows 11 Pro
-(BRAND NЕW IN BOX WITH WARRANTY)
-PRICE - $1295 (CASH NO TAX)
-------------------------------------------------------
-HP 15 DY2795WM 15.6
-INTEL i5 - 11TH GEN
-8GB RAM
-256GB SSD
-(Brand New In Box With Warranty)
-PRICE - $595 (CASH NO TAX)
-------------------------------------------------------
-HP ELITEBOOK 840 G7 - 14"
-INTEL i5 - 10TH GEN
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $475 (CASH NO TAX)
-------------------------------------------------------
-HP ELITEBOOK 840 G6 - 14"
-INTEL i5 - 8TH GEN
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $325(CASH NO TAX)
------------------------------------------------------
-HP ProBook 430 G3 13.3" (Touchscrеen)
-INTEL i5 - 6TH GEN
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRАNTY)
-PRICE - $325 (CASH NO TAX)
-------------------------------------------------------
-HP ELITEBOOK 840 G6 - 14"
-INTEL i5 - 8TH GEN
-8GB RAM
-256GB SSD
-(LIKE NEW IN BОX WITH WARRANTY)
-PRICE - $295(CASH NO TAX)
-------------------------------------------------------
-HP Probook 430 G5 - 13.3"
-INTEL i5 - 8TH GEN
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRIСE - $275(CASH NO TAX)
-------------------------------------------------------
-Same day delivery availablе in GTA area -delivery charges are еxtra depends on location
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shоp with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans fоr:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
 Buy with Confidence from our store! ✨
 ---------------------------------------------
 Samsung Phones - Samsung Galaxy A05s, Samsung Galaxy A05, Samsung Galaxy A04, Samsung Galaxy A04e, Samsung Galaxy A03s, Samsung Galaxy A02s, Samsung Galaxy A02, Samsung Galaxy A03 Core phone
@@ -13506,6 +13422,90 @@
 M4T 1Y7
 647 786 4344 (MAIN NUMBER)
 416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidеnce from our store!
+------------------------------------------------------
+HP Laptops Intel i5 - HP EliteBook 840 G9, HP PrоBook 440 G3, HP ELITEBOOK 840 G7, HР ELITEBOOK 840 G6, HP Probook 430 G5, HP 15 DY2795WM, HP ProBook 430 G3, HP ELITEBOOK 840 G4, HP ELITEBOOK 840 G6
+------------------------------------------------------
+HP EliteBook 840 G9 - 14"
+Intel Core i5 - 12th Gen
+16GB RAM
+512GB SSD
+Intel Iris XЕ Graphics
+Windows 11 Pro
+(BRAND NЕW IN BOX WITH WARRANTY)
+PRICE - $1295 (CASH NO TAX)
+------------------------------------------------------
+HP 15 DY2795WM 15.6
+INTEL i5 - 11TH GEN
+8GB RAM
+256GB SSD
+(Brand New In Box With Warranty)
+PRICE - $595 (CASH NO TAX)
+------------------------------------------------------
+HP ELITEBOOK 840 G7 - 14"
+INTEL i5 - 10TH GEN
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $475 (CASH NO TAX)
+------------------------------------------------------
+HP ELITEBOOK 840 G6 - 14"
+INTEL i5 - 8TH GEN
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $325(CASH NO TAX)
+-----------------------------------------------------
+HP ProBook 430 G3 13.3" (Touchscrеen)
+INTEL i5 - 6TH GEN
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRАNTY)
+PRICE - $325 (CASH NO TAX)
+------------------------------------------------------
+HP ELITEBOOK 840 G6 - 14"
+INTEL i5 - 8TH GEN
+8GB RAM
+256GB SSD
+(LIKE NEW IN BОX WITH WARRANTY)
+PRICE - $295(CASH NO TAX)
+------------------------------------------------------
+HP Probook 430 G5 - 13.3"
+INTEL i5 - 8TH GEN
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRIСE - $275(CASH NO TAX)
+------------------------------------------------------
+Same day delivery availablе in GTA area -delivery charges are еxtra depends on location
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shоp with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans fоr:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
@@ -13601,18 +13601,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -13932,7 +13931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -14176,8 +14175,8 @@
       <c r="C6">
         <v>65</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>746</v>
+      <c r="D6" s="2" t="s">
+        <v>745</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14505,7 +14504,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B14" t="s">
         <v>494</v>
@@ -14513,8 +14512,8 @@
       <c r="C14">
         <v>325</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>756</v>
+      <c r="D14" s="2" t="s">
+        <v>755</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -14833,7 +14832,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B22" t="s">
         <v>492</v>
@@ -14841,8 +14840,8 @@
       <c r="C22">
         <v>120</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>748</v>
+      <c r="D22" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -14923,7 +14922,7 @@
       <c r="C24">
         <v>195</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E24" t="s">
@@ -15287,7 +15286,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15497,7 +15496,7 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
@@ -15541,7 +15540,7 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
@@ -15629,7 +15628,7 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
@@ -16620,7 +16619,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B31" t="s">
         <v>498</v>
@@ -16672,8 +16671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16820,7 +16819,7 @@
       <c r="C4">
         <v>995</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E4" t="s">
@@ -17066,7 +17065,7 @@
       <c r="C10">
         <v>545</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E10" t="s">
@@ -17345,7 +17344,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B17" t="s">
         <v>491</v>
@@ -17590,7 +17589,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B23" t="s">
@@ -17599,7 +17598,7 @@
       <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>735</v>
       </c>
       <c r="E23" t="s">
@@ -17919,7 +17918,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B31" t="s">
         <v>498</v>
@@ -17968,7 +17967,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18063,7 +18062,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B3" t="s">
@@ -18933,8 +18932,8 @@
       <c r="C24">
         <v>895</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>749</v>
+      <c r="D24" s="2" t="s">
+        <v>748</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19097,8 +19096,8 @@
       <c r="C28">
         <v>100</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>737</v>
+      <c r="D28" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19220,7 +19219,7 @@
       <c r="C31">
         <v>700</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E31" t="s">
@@ -19342,8 +19341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19446,8 +19445,8 @@
       <c r="C3">
         <v>695</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>747</v>
+      <c r="D3" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -19522,7 +19521,7 @@
       <c r="C5">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>265</v>
       </c>
       <c r="E5" t="s">
@@ -19703,7 +19702,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B10" t="s">
@@ -19712,8 +19711,8 @@
       <c r="C10">
         <v>375</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>739</v>
+      <c r="D10" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20007,7 +20006,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B18" t="s">
@@ -20016,8 +20015,8 @@
       <c r="C18">
         <v>85</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>744</v>
+      <c r="D18" s="2" t="s">
+        <v>743</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -20121,7 +20120,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B21" t="s">
@@ -20130,7 +20129,7 @@
       <c r="C21">
         <v>95</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E21" t="s">
@@ -20235,7 +20234,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B24" t="s">
@@ -20244,8 +20243,8 @@
       <c r="C24">
         <v>190</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>738</v>
+      <c r="D24" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20502,7 +20501,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B31" t="s">
         <v>498</v>
@@ -20539,8 +20538,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>741</v>
+      <c r="A32" s="4" t="s">
+        <v>740</v>
       </c>
       <c r="B32" t="s">
         <v>609</v>
@@ -20548,8 +20547,8 @@
       <c r="C32">
         <v>260</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>742</v>
+      <c r="D32" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -20561,7 +20560,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -20585,1057 +20584,1213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>250</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>250</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N3" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>275</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N4" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>245</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N5" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N6" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>325</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N7" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>325</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N8" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>225</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N9" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>75</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N10" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>130</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N11" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N12" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>295</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N13" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N14" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>225</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N15" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N16" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>225</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N17" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N18" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>120</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N19" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N20" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N21" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>115</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N22" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>75</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N23" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>90</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N24" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>475</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N25" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>200</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N26" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>65</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N27" t="s">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N28" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>195</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F29" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N29" t="s">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="2" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>495</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N30" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>745</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N31" t="s">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>975</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N32" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21647,12 +21802,13 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21815,7 +21971,7 @@
       <c r="C5">
         <v>395</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>332</v>
       </c>
       <c r="E5" t="s">
@@ -22375,8 +22531,8 @@
       <c r="C21">
         <v>35</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>740</v>
+      <c r="D21" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1701AD-755F-47E0-AAA0-275503D9F6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D787550-52DE-4161-BC37-F6914DED7768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="766">
   <si>
     <t>Title</t>
   </si>
@@ -13509,6 +13509,101 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Gaming Headphones by ASTRO Gaming A50 Wireless Headset + Base</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+ASTRO Gaming A50 Wireless Headset + Base Station Gen 4 - Compatible With PS5, PS4, PC, Mac
+(Brand New in Box)
+Price - $260 (Cash No Tax)
+ASTRO Gaming A50 Wireless + Base Station for Xbox One and Series X &amp; PC
+(Brand New in Box)
+Price - $260 (Cash No Tax)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Gaming Headphones, Headphones, Wireless Headphone, Gaming Headphones</t>
+  </si>
+  <si>
+    <t>50-73</t>
+  </si>
+  <si>
+    <t>Gaming Headphones by Steelseries Arctis 9X, Arctis Nova Pro</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+SteelSeries Arctis Nova Pro Gaming Headset
+(Brand New in Box)
+Price - $225 (Cash No Tax)
+------------------------------------------------------
+SteelSeries Arctis 9X Wireless Gaming Headset
+(Brand New in Box)
+Price - $175 (Cash No Tax)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Steelseries Gaming</t>
+  </si>
+  <si>
+    <t>50-74</t>
   </si>
 </sst>
 </file>
@@ -13932,7 +14027,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15285,13 +15380,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="65.7109375" bestFit="1" customWidth="1"/>
@@ -15959,16 +16056,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
         <v>502</v>
       </c>
       <c r="C16">
-        <v>1295</v>
+        <v>595</v>
       </c>
       <c r="D16" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15980,16 +16077,16 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K16" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="L16" t="s">
         <v>253</v>
@@ -16003,16 +16100,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B17" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C17">
-        <v>1095</v>
+        <v>670</v>
       </c>
       <c r="D17" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16024,16 +16121,16 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="K17" t="s">
-        <v>554</v>
+        <v>710</v>
       </c>
       <c r="L17" t="s">
         <v>253</v>
@@ -16047,16 +16144,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="B18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C18">
-        <v>595</v>
+        <v>475</v>
       </c>
       <c r="D18" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16068,16 +16165,16 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="K18" t="s">
-        <v>563</v>
+        <v>711</v>
       </c>
       <c r="L18" t="s">
         <v>253</v>
@@ -16091,16 +16188,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B19" t="s">
         <v>499</v>
       </c>
       <c r="C19">
-        <v>670</v>
+        <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16112,16 +16209,16 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="K19" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L19" t="s">
         <v>253</v>
@@ -16135,16 +16232,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s">
         <v>499</v>
       </c>
       <c r="C20">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="D20" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16156,16 +16253,16 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="K20" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L20" t="s">
         <v>253</v>
@@ -16179,16 +16276,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B21" t="s">
         <v>499</v>
       </c>
       <c r="C21">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16200,16 +16297,16 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K21" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L21" t="s">
         <v>253</v>
@@ -16223,16 +16320,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B22" t="s">
         <v>499</v>
       </c>
       <c r="C22">
-        <v>400</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16244,16 +16341,16 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="K22" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L22" t="s">
         <v>253</v>
@@ -16267,16 +16364,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B23" t="s">
         <v>499</v>
       </c>
       <c r="C23">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16288,16 +16385,16 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="K23" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L23" t="s">
         <v>253</v>
@@ -16311,16 +16408,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>583</v>
+        <v>643</v>
       </c>
       <c r="B24" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C24">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>584</v>
+        <v>644</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16332,16 +16429,16 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>585</v>
+        <v>645</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>586</v>
+        <v>646</v>
       </c>
       <c r="K24" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L24" t="s">
         <v>253</v>
@@ -16355,16 +16452,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="B25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C25">
         <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -16376,16 +16473,16 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="K25" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="L25" t="s">
         <v>253</v>
@@ -16399,37 +16496,37 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="B26" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C26">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="K26" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L26" t="s">
         <v>253</v>
@@ -16443,37 +16540,37 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B27" t="s">
         <v>497</v>
       </c>
       <c r="C27">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="K27" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="L27" t="s">
         <v>253</v>
@@ -16487,16 +16584,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B28" t="s">
         <v>497</v>
       </c>
       <c r="C28">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -16508,16 +16605,16 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="K28" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="L28" t="s">
         <v>253</v>
@@ -16531,37 +16628,37 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="B29" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C29">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="K29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="L29" t="s">
         <v>253</v>
@@ -16575,37 +16672,37 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>671</v>
+        <v>758</v>
       </c>
       <c r="B30" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C30">
-        <v>175</v>
-      </c>
-      <c r="D30" t="s">
-        <v>672</v>
+        <v>260</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>759</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>673</v>
+        <v>742</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>674</v>
+        <v>760</v>
       </c>
       <c r="K30" t="s">
-        <v>721</v>
+        <v>761</v>
       </c>
       <c r="L30" t="s">
         <v>253</v>
@@ -16619,16 +16716,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="B31" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C31">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>704</v>
+        <v>175</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>763</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -16640,16 +16737,16 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>705</v>
+        <v>764</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="J31" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="K31" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="L31" t="s">
         <v>253</v>
@@ -16671,8 +16768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17964,10 +18061,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADAF3E-0AA5-4F19-ACED-4BBE31AE540C}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19329,6 +19426,50 @@
         <v>112</v>
       </c>
       <c r="N33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>550</v>
+      </c>
+      <c r="B34" t="s">
+        <v>502</v>
+      </c>
+      <c r="C34">
+        <v>1295</v>
+      </c>
+      <c r="D34" t="s">
+        <v>551</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>552</v>
+      </c>
+      <c r="I34">
+        <v>4164744786</v>
+      </c>
+      <c r="J34" t="s">
+        <v>553</v>
+      </c>
+      <c r="K34" t="s">
+        <v>554</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" t="s">
+        <v>112</v>
+      </c>
+      <c r="N34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -20584,7 +20725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -21799,10 +21940,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22906,6 +23047,50 @@
         <v>16</v>
       </c>
     </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>555</v>
+      </c>
+      <c r="B32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C32">
+        <v>1095</v>
+      </c>
+      <c r="D32" t="s">
+        <v>556</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s">
+        <v>557</v>
+      </c>
+      <c r="I32">
+        <v>4164744786</v>
+      </c>
+      <c r="J32" t="s">
+        <v>558</v>
+      </c>
+      <c r="K32" t="s">
+        <v>554</v>
+      </c>
+      <c r="L32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D787550-52DE-4161-BC37-F6914DED7768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F21BDA-B5D0-4BD4-8E3A-EB8C6CC38372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8571,41 +8571,6 @@
     <t>Sony TV - Buy Sony 75 inch LED Ultra HD TV Get Soundbar for Free</t>
   </si>
   <si>
-    <t>Free! Free! Free!
-Buy TV Get Soundbar for Free
-------------------------------------------------------
-Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Sony XRJ-75X90J BRAVIA XR 75V 4K LCD TV + Sony Soundbar HTS100F (Which is worth $200 for Free)
-(BRAND NEW WITH WARRANTY)
-PRICE - $1095 + TAX
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-Canadian Outlet
-1431 Yonge street
-Yonge &amp; St Clair
-Toronto, ON M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-Open Everyday:
-Monday to Friday - 8AM to 8 PM
-Weekends - 10AM to 7PM</t>
-  </si>
-  <si>
     <t>Sony XR75X90J</t>
   </si>
   <si>
@@ -10210,99 +10175,6 @@
     <t>Dell Laptops Intel i7 - Dell 7550, 7430, 5590, 5490, 7480, 7440</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store!
-----------------------------------------------------
-LENOVO Laptops Intel i5 - Lenovo ThinkPad T460s, T470, T470s, T480, T490, T580, E14
------------------------------------------
-Lenovo ThinkPad E14
-Intel i5 - 12th Generation
-8GB RAM / 512GB Storage
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $495 (CАSH NO TAX)
------------------------------------------
-Lenovo ThinkPad E14
-Intel i5 - 10th Genеration
-16GB RAM / 512GB Storage
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $395 (CASH NO TAX)
------------------------------------------
-Lenovo ThinkPad T580 Laptop - 15.6"
-INTEL i5 - 8TH GEN
-8GB RAM / 512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $325 (CASH NO TAX)
------------------------------------------
-Lenovo ThinkPad T490 Laptop - 14"
-INTEL i5 - 8TH GEN
-16GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX)
------------------------------------------
-Lenovo ThinkPad T480 Laptop - 14"
-INTEL i5 - 7TH GEN
-8GB RAM / 512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
------------------------------------------
-Lenovo ThinkPad T470s Laptop - 14"
-INTEL i5 - 7TH GEN
-16GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Lenovo ThinkPad T470s Laptop (Webcam) - 14"
-INTEL i5 - 7TH GEN
-12GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $235 (CASH NO TAX)
-Lenovo ThinkPad T470s Laptop - 14"
-INTEL i5 - 7TH GEN
-8GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-Lenovo ThinkPad T470 Laptop - 14"
-INTEL i5 - 6TH GEN
-16GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
------------------------------------------
-Lenovo ThinkPad T460s Laptop - 14"
-INTEL i5 - 6TH GEN
-12GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $200 (CASH NO TAX)
------------------------------------------
-Same day delivery available in GTA area -delivery chargеs are extra depends on location
------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright*
--------------------------------------------------------------------
-Storefrоnt is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our сustomers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YОNGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>lenovo Laptops Intel i5 - T470, T480, T490, E14, T580, T460s</t>
-  </si>
-  <si>
     <t>Lenovo Laptops Intel i7 - P1 Gen 3, X1 Yoga 4th</t>
   </si>
   <si>
@@ -10663,9 +10535,6 @@
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Pixel 4A </t>
   </si>
   <si>
     <t>Google Pixel 4A, Pixel 4a, Google Pixel 4a, Google Phones</t>
@@ -13604,6 +13473,131 @@
   </si>
   <si>
     <t>50-74</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store!
+----------------------------------------------------
+LENOVO Laptops Intel i5 - Lenovo ThinkPad T460s, T470, T470s, T490, T580, E14
+-----------------------------------------
+Lenovo ThinkPad E14
+Intel i5 - 12th Generation
+8GB RAM / 512GB Storage
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $495 (CАSH NO TAX)
+-----------------------------------------
+Lenovo ThinkPad E14
+Intel i5 - 10th Genеration
+16GB RAM / 512GB Storage
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $395 (CASH NO TAX)
+-----------------------------------------
+Lenovo ThinkPad T580 Laptop - 15.6"
+INTEL i5 - 8TH GEN
+8GB RAM / 512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $325 (CASH NO TAX)
+-----------------------------------------
+Lenovo ThinkPad T490 Laptop - 14"
+INTEL i5 - 8TH GEN
+16GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $295 (CASH NO TAX)
+-----------------------------------------
+Lenovo ThinkPad T470s Laptop - 14"
+INTEL i5 - 7TH GEN
+16GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+Lenovo ThinkPad T470s Laptop (Webcam) - 14"
+INTEL i5 - 7TH GEN
+12GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $235 (CASH NO TAX)
+Lenovo ThinkPad T470s Laptop - 14"
+INTEL i5 - 7TH GEN
+8GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+Lenovo ThinkPad T470 Laptop - 14"
+INTEL i5 - 6TH GEN
+16GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-----------------------------------------
+Lenovo ThinkPad T460s Laptop - 14"
+INTEL i5 - 6TH GEN
+12GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $200 (CASH NO TAX)
+-----------------------------------------
+Same day delivery available in GTA area -delivery chargеs are extra depends on location
+-----------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright*
+-------------------------------------------------------------------
+Storefrоnt is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our сustomers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YОNGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>lenovo Laptops Intel i5 - T470, T490, E14, T580, T460s</t>
+  </si>
+  <si>
+    <t>Google Pixel 4A</t>
+  </si>
+  <si>
+    <t>Free! Free! Free!
+Buy TV Get Soundbar for Free
+------------------------------------------------------
+Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Sony XRJ-75X90J BRAVIA XR 75V 4K LCD TV, Double Speed, Google TV, 4K/120 fps, Recommended 2021 Model + Sony Soundbar HTS100F (Which is worth $200 for Free)
+(BRAND NEW WITH WARRANTY)
+PRICE - $1095 + TAX
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+Canadian Outlet
+1431 Yonge street
+Yonge &amp; St Clair
+Toronto, ON M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+Open Everyday:
+Monday to Friday - 8AM to 8 PM
+Weekends - 10AM to 7PM</t>
   </si>
 </sst>
 </file>
@@ -14026,8 +14020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14139,7 +14133,7 @@
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14271,7 +14265,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14599,7 +14593,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B14" t="s">
         <v>494</v>
@@ -14608,7 +14602,7 @@
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -14649,7 +14643,7 @@
         <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -14845,7 +14839,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B20" t="s">
         <v>494</v>
@@ -14854,7 +14848,7 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -14927,7 +14921,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B22" t="s">
         <v>492</v>
@@ -14936,7 +14930,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -14968,7 +14962,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B23" t="s">
         <v>497</v>
@@ -14977,7 +14971,7 @@
         <v>375</v>
       </c>
       <c r="D23" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15173,7 +15167,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B28" t="s">
         <v>499</v>
@@ -15182,7 +15176,7 @@
         <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -15337,7 +15331,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B32" t="s">
         <v>491</v>
@@ -15346,13 +15340,13 @@
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15380,8 +15374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15443,7 +15437,7 @@
         <v>505</v>
       </c>
       <c r="B2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C2">
         <v>160</v>
@@ -15487,7 +15481,7 @@
         <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -15531,7 +15525,7 @@
         <v>513</v>
       </c>
       <c r="B4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -15669,7 +15663,7 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -15801,7 +15795,7 @@
         <v>1095</v>
       </c>
       <c r="D10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -15883,7 +15877,7 @@
         <v>534</v>
       </c>
       <c r="B12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -15954,7 +15948,7 @@
         <v>541</v>
       </c>
       <c r="K13" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="L13" t="s">
         <v>253</v>
@@ -15998,7 +15992,7 @@
         <v>545</v>
       </c>
       <c r="K14" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="L14" t="s">
         <v>253</v>
@@ -16042,7 +16036,7 @@
         <v>549</v>
       </c>
       <c r="K15" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="L15" t="s">
         <v>253</v>
@@ -16056,7 +16050,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B16" t="s">
         <v>502</v>
@@ -16065,7 +16059,7 @@
         <v>595</v>
       </c>
       <c r="D16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16077,16 +16071,16 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
+        <v>561</v>
+      </c>
+      <c r="K16" t="s">
         <v>562</v>
-      </c>
-      <c r="K16" t="s">
-        <v>563</v>
       </c>
       <c r="L16" t="s">
         <v>253</v>
@@ -16100,7 +16094,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B17" t="s">
         <v>499</v>
@@ -16109,7 +16103,7 @@
         <v>670</v>
       </c>
       <c r="D17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16121,16 +16115,16 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K17" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="L17" t="s">
         <v>253</v>
@@ -16144,7 +16138,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B18" t="s">
         <v>499</v>
@@ -16153,7 +16147,7 @@
         <v>475</v>
       </c>
       <c r="D18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16165,16 +16159,16 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K18" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="L18" t="s">
         <v>253</v>
@@ -16188,7 +16182,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B19" t="s">
         <v>499</v>
@@ -16197,7 +16191,7 @@
         <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16209,16 +16203,16 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K19" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="L19" t="s">
         <v>253</v>
@@ -16232,7 +16226,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B20" t="s">
         <v>499</v>
@@ -16241,7 +16235,7 @@
         <v>400</v>
       </c>
       <c r="D20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16253,16 +16247,16 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K20" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="L20" t="s">
         <v>253</v>
@@ -16276,7 +16270,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B21" t="s">
         <v>499</v>
@@ -16285,7 +16279,7 @@
         <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16297,16 +16291,16 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L21" t="s">
         <v>253</v>
@@ -16320,7 +16314,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B22" t="s">
         <v>499</v>
@@ -16329,7 +16323,7 @@
         <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16341,16 +16335,16 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K22" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="L22" t="s">
         <v>253</v>
@@ -16364,7 +16358,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B23" t="s">
         <v>499</v>
@@ -16373,7 +16367,7 @@
         <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16385,16 +16379,16 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K23" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="L23" t="s">
         <v>253</v>
@@ -16408,7 +16402,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B24" t="s">
         <v>492</v>
@@ -16417,7 +16411,7 @@
         <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16429,16 +16423,16 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K24" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="L24" t="s">
         <v>253</v>
@@ -16452,7 +16446,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B25" t="s">
         <v>497</v>
@@ -16461,7 +16455,7 @@
         <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -16473,16 +16467,16 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>660</v>
+        <v>764</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K25" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="L25" t="s">
         <v>253</v>
@@ -16496,7 +16490,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B26" t="s">
         <v>497</v>
@@ -16505,7 +16499,7 @@
         <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -16517,16 +16511,16 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="K26" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="L26" t="s">
         <v>253</v>
@@ -16540,7 +16534,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B27" t="s">
         <v>497</v>
@@ -16549,7 +16543,7 @@
         <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -16561,16 +16555,16 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K27" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="L27" t="s">
         <v>253</v>
@@ -16584,7 +16578,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B28" t="s">
         <v>497</v>
@@ -16593,7 +16587,7 @@
         <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -16605,16 +16599,16 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="K28" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="L28" t="s">
         <v>253</v>
@@ -16628,7 +16622,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B29" t="s">
         <v>498</v>
@@ -16637,7 +16631,7 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -16649,16 +16643,16 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="K29" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="L29" t="s">
         <v>253</v>
@@ -16672,7 +16666,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B30" t="s">
         <v>492</v>
@@ -16681,7 +16675,7 @@
         <v>260</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -16693,16 +16687,16 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="K30" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="L30" t="s">
         <v>253</v>
@@ -16716,7 +16710,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B31" t="s">
         <v>492</v>
@@ -16725,7 +16719,7 @@
         <v>175</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -16737,16 +16731,16 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="J31" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="K31" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="L31" t="s">
         <v>253</v>
@@ -16870,7 +16864,7 @@
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -17023,7 +17017,7 @@
         <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
@@ -17031,7 +17025,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B7" t="s">
         <v>499</v>
@@ -17040,7 +17034,7 @@
         <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17081,7 +17075,7 @@
         <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17157,7 +17151,7 @@
         <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C10">
         <v>545</v>
@@ -17198,7 +17192,7 @@
         <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C11">
         <v>55</v>
@@ -17245,7 +17239,7 @@
         <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17321,7 +17315,7 @@
         <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C14">
         <v>390</v>
@@ -17403,7 +17397,7 @@
         <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -17441,7 +17435,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B17" t="s">
         <v>491</v>
@@ -17450,7 +17444,7 @@
         <v>490</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -17485,7 +17479,7 @@
         <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -17573,7 +17567,7 @@
         <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -17614,7 +17608,7 @@
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -17649,13 +17643,13 @@
         <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -17696,7 +17690,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -17772,7 +17766,7 @@
         <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C25">
         <v>40</v>
@@ -17813,7 +17807,7 @@
         <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C26">
         <v>150</v>
@@ -17907,7 +17901,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -17933,7 +17927,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B29" t="s">
         <v>499</v>
@@ -17942,7 +17936,7 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17977,7 +17971,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C30">
         <v>545</v>
@@ -18015,7 +18009,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B31" t="s">
         <v>498</v>
@@ -18024,7 +18018,7 @@
         <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18036,7 +18030,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18169,7 +18163,7 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18286,7 +18280,7 @@
         <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -18368,7 +18362,7 @@
         <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C8">
         <v>145</v>
@@ -18456,7 +18450,7 @@
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -18488,16 +18482,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -18532,13 +18526,13 @@
         <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -18614,7 +18608,7 @@
         <v>200</v>
       </c>
       <c r="B14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -18655,7 +18649,7 @@
         <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C15">
         <v>35</v>
@@ -18778,7 +18772,7 @@
         <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -18819,7 +18813,7 @@
         <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -18857,7 +18851,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B20" t="s">
         <v>501</v>
@@ -18866,7 +18860,7 @@
         <v>275</v>
       </c>
       <c r="D20" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -18983,7 +18977,7 @@
         <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -19030,7 +19024,7 @@
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19106,7 +19100,7 @@
         <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C26">
         <v>425</v>
@@ -19147,7 +19141,7 @@
         <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -19194,7 +19188,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19390,7 +19384,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B33" t="s">
         <v>498</v>
@@ -19399,7 +19393,7 @@
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -19411,7 +19405,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -19581,13 +19575,13 @@
         <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C3">
         <v>695</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -19619,7 +19613,7 @@
         <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -19657,7 +19651,7 @@
         <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -19695,7 +19689,7 @@
         <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C6">
         <v>245</v>
@@ -19853,7 +19847,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -19923,7 +19917,7 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C12">
         <v>35</v>
@@ -19961,7 +19955,7 @@
         <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C13">
         <v>195</v>
@@ -19999,7 +19993,7 @@
         <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C14">
         <v>145</v>
@@ -20075,7 +20069,7 @@
         <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C16">
         <v>55</v>
@@ -20113,7 +20107,7 @@
         <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -20151,13 +20145,13 @@
         <v>299</v>
       </c>
       <c r="B18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C18">
         <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -20189,7 +20183,7 @@
         <v>301</v>
       </c>
       <c r="B19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C19">
         <v>275</v>
@@ -20227,7 +20221,7 @@
         <v>304</v>
       </c>
       <c r="B20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -20271,7 +20265,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20338,7 +20332,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B23" t="s">
         <v>497</v>
@@ -20347,13 +20341,13 @@
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -20385,7 +20379,7 @@
         <v>190</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20414,7 +20408,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B25" t="s">
         <v>497</v>
@@ -20423,7 +20417,7 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -20493,7 +20487,7 @@
         <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C27">
         <v>55</v>
@@ -20531,13 +20525,13 @@
         <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C28">
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20604,7 +20598,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B30" t="s">
         <v>498</v>
@@ -20613,7 +20607,7 @@
         <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -20625,7 +20619,7 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -20642,7 +20636,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B31" t="s">
         <v>498</v>
@@ -20651,7 +20645,7 @@
         <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -20663,7 +20657,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -20680,16 +20674,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C32">
         <v>260</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -20701,7 +20695,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -20726,7 +20720,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20786,7 +20780,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>501</v>
@@ -20795,7 +20789,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -20832,7 +20826,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -20869,7 +20863,7 @@
         <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -20937,7 +20931,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C6" s="2">
         <v>25</v>
@@ -20974,7 +20968,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C7" s="2">
         <v>325</v>
@@ -21048,13 +21042,13 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C9" s="2">
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -21066,7 +21060,7 @@
         <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I9" s="2">
         <v>6477864344</v>
@@ -21082,16 +21076,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C10" s="2">
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -21122,7 +21116,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C11" s="2">
         <v>130</v>
@@ -21202,7 +21196,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -21276,7 +21270,7 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -21307,7 +21301,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
@@ -21350,7 +21344,7 @@
         <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -21492,7 +21486,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C21" s="2">
         <v>65</v>
@@ -21535,7 +21529,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -21566,7 +21560,7 @@
         <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C23" s="2">
         <v>75</v>
@@ -21674,7 +21668,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>652</v>
+        <v>763</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>501</v>
@@ -21683,7 +21677,7 @@
         <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>651</v>
+        <v>762</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -21751,7 +21745,7 @@
         <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C28" s="2">
         <v>85</v>
@@ -21788,7 +21782,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C29" s="2">
         <v>195</v>
@@ -21819,12 +21813,12 @@
         <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>498</v>
@@ -21833,7 +21827,7 @@
         <v>495</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -21845,7 +21839,7 @@
         <v>35</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -21861,7 +21855,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>501</v>
@@ -21870,7 +21864,7 @@
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -21882,7 +21876,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -21898,7 +21892,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>497</v>
@@ -21907,7 +21901,7 @@
         <v>975</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -21919,7 +21913,7 @@
         <v>35</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -21942,8 +21936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22002,7 +21996,7 @@
         <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C2">
         <v>145</v>
@@ -22142,7 +22136,7 @@
         <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C6">
         <v>75</v>
@@ -22212,7 +22206,7 @@
         <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C8">
         <v>195</v>
@@ -22282,7 +22276,7 @@
         <v>346</v>
       </c>
       <c r="B10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -22352,7 +22346,7 @@
         <v>352</v>
       </c>
       <c r="B12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -22457,7 +22451,7 @@
         <v>361</v>
       </c>
       <c r="B15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -22492,7 +22486,7 @@
         <v>364</v>
       </c>
       <c r="B16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C16">
         <v>345</v>
@@ -22673,7 +22667,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -22702,7 +22696,7 @@
         <v>381</v>
       </c>
       <c r="B22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -22734,7 +22728,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B23" t="s">
         <v>499</v>
@@ -22769,7 +22763,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B24" t="s">
         <v>491</v>
@@ -22778,7 +22772,7 @@
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -22807,7 +22801,7 @@
         <v>387</v>
       </c>
       <c r="B25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C25">
         <v>175</v>
@@ -22979,7 +22973,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B30" t="s">
         <v>497</v>
@@ -22988,7 +22982,7 @@
         <v>830</v>
       </c>
       <c r="D30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -23017,7 +23011,7 @@
         <v>403</v>
       </c>
       <c r="B31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C31">
         <v>645</v>
@@ -23057,8 +23051,8 @@
       <c r="C32">
         <v>1095</v>
       </c>
-      <c r="D32" t="s">
-        <v>556</v>
+      <c r="D32" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23070,13 +23064,13 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K32" t="s">
         <v>554</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A6991D-4EA8-4E28-8F7D-2207D38221F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA36A6-7F9A-4C42-86B7-3AA69714EF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="786">
   <si>
     <t>Title</t>
   </si>
@@ -1622,91 +1622,6 @@
   </si>
   <si>
     <t>Air Fryer - Omni Toaster Oven, Chefman, Emeril, Kalorik Maxx</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Air Fryers - Instant Omni Air Fryer Toaster Oven, CuisinArt Oven Air Fryer, Chefman Air Fryer, Emeril Lagasse Pressure Air Fryer, Instant Vortex plus air fryer, Kalorik MAXX Digital Air Fryer, Gourmia Air Fryer, Insignia Air Fryer, Power XL Vortex Air Fryer
------------------------------------------------------------------------
-Ninja DZ401 Foodi 10 Quart 6-In-1 Dualzone XL 2-Basket Air Fryer
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $175 (CASH NO TAX)
-Ninja DZ201C, Foodi 6-in-1 8-qt. 2-Basket Air Fryer with DualZone Technology
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - 145(CASH NO TAX)
-----------------------------------------------------------------------------------------
-CuisinArt Connection Oven Air Fryer (TOA-60C)
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Pricе - $175 (CASH NO TAX)
-----------------------------------------------------------------------------------------
-Chefman TurboFry XL Touch Air Fryer
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $175 (CASH NO TAX)
-Chefman TurboFry Touch Dual Air Fryer
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $145 (CASH NO TAX)
-----------------------------------------------------------------------------------------
-Emeril Lagasse 6QT Pressure Air Fryer (Y6D-AF36)
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $145 (CASH NO TAX)
-----------------------------------------------------------------------------------------
-Instant™ Vortex® Plus Dual 8-quart Stainless Steel Air Fryer (810028582262)
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $145 (CASH NO TAX)
-------------------------------------------------------------------------------------------
-Kalorik MAXX 6Qt Digital Air Fryer (FT 47823 BKSS)
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $95 (CASH NO TAX)
-----------------------------------------------------------------------------------------
-Gourmia 6QT Digital Air Fryer (GAF652)
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $95 (CASH NO TAX)
-----------------------------------------------------------------------------------------
-Insignia 5L Digital Cоntrol Air Fryer (NS-AF50DBK2-C)
-(LIKE NEW IN ORIGINAL BOX)
-Price - $65 (CASH NO TAX)
-Insignia 4.8L 5QT Air Fryer (NS-AF5MSS2-C)
-(LIKE NEW IN ORIGINAL BOX)
-Price - $65 (CASH NO TAX)
-Insignia 3.2LMechanical Control Air Fryer (NS-AF32MBK2-C)
-(LIKE NEW IN ORIGINAL BOX)
-Price - $55 (CASH NO TAX)
-------------------------------------------------------------------------------------------
-CuisinArt Deep Fryer DF560PCC
-(LIKE NEW IN ОRIGNAL BOX)
-Price - $55 (CASH NO TAX)
-------------------------------------------------------------------------------------------
-Power XL Vortex Air Fryer Plus 5QT
-(LIKE NEW IN ORIGNAL BOX)
-Price - $55 (CASH NO TAX)
-------------------------------------------------------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly finаncing when you shopwith Canadian Outlet
-Split your purchase into stress-free,automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We arе providing a FREE parking facility for our customers (Cоntact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Air Fryers</t>
@@ -2168,35 +2083,6 @@
   </si>
   <si>
     <t>Sterilizer - Dr. Brown's Deluxe Electric Baby Bottle Sterilizer</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choiсe!
-Best Price, Best Quality
-Buy with Confidence from оur store! ✨
----------------------------------------------
-Dr. Brown Bottle Sterilizer
-----------------------------------------------------
-Dr. Brown's Deluxe Electric Baby Bottle and Pacifier Sterilizer
-(BRAND NEW IN BOX)
-Priсe - $40 (CASH NO TAX)
-----------------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We arе providing a FREE parking facility for our customers (Contаct us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Dr Brown Sterilizer</t>
@@ -8332,65 +8218,6 @@
 SUNDAY: 9AM - 8PM</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store!
-------------------------------------------------------
-Apple iPhones - iPhone 14 PRO MAX, iPhone 14 Plus
-------------------------------------------------------
-iPhone 14 PRO MAX 256GB
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-Battery - 85% and Up
-Condition - 10 Out of 10 Like New
-Price - $1195 (CASH NO TAX)
-------------------------------------------------------
-iPhone 14 Plus 512GB
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-Bаttery - 85% and Up
-Condition - 10 Out of 10 Likе New
-Price - $975 (CASH NO TAX)
-iPhone 14 Plus 256GB
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-Battery - 85% and Up
-Condition - 10 Out of 10 Like New
-Price - $930 (CASH NO TAX)
-------------------------------------------------------
-iPhone 14 Plus 256GB
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-Battery - 85% and Up
-Condition - Minor Scratches on Screen
-Price - $830 (CASH NO TAX)
-------------------------------------------------------
-Same day delivery available in GTA аrea - delivery charges are extra depends on locatiоn
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Sрlit your purchase into stress-free, automatic instаllments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done by Pay Bright
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing a FREE parking fаcility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Apple Iphones - Iphone 14 Pro Max, Iphone 14 Plus</t>
-  </si>
-  <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Chоice!
 Best Price, Best Quality
 Buy with Confidence from our store! ✨
@@ -9084,66 +8911,6 @@
   </si>
   <si>
     <t>Samsung Phones - Samsung A73, A71, A54, A53, A52s, A52, A50</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Dyson Airwrap, Dyson Airstrait straightener, Dyson Corrale Hair Straightener, Dyson Supersonic Hair Dryer
-----------------------------------------------------
-Dyson Airwrap multi-styler and dryer Сomplete Long
-(Brand New in Box with Manufacturer Warranty)
-PRICE - $645 (CASH NO TAX)
-Dyson Airstrait straightener
-(Brand New in Box with Mаnufacturer Warranty)
-PRICE - $645 (СASH NO TAX)
----------------------------------------------------------
-Dyson Airwrap multi-styler and dryer Comрlete Long Diffuse
-(Brand New in Box with Manufacturer Warranty)
-PRICE - $645 (CASH NO TAX)
-Dyson Corrale Straightener Professional edition
-(Brand New in Box with Manufacturer Warranty)
-PRICE - $525 (CASH NO TAX)
-Dysоn Corrale Cordless Straightener (Dark Nickel/Fuchsia)
-(Brand New in Box with Manufacturer Warranty)
-PRICE - $395  (CASH NO TAX)
-Dyson Corrale Hair Straightener
-(Factory refurbished with 1 Year Dyson Warranty)
-PRICE - $350 (СASH NO TAX)
-----------------------------------------------------
-Dyson Supersonic hair Dryer
-(Brand New in Box with Manufacturer Warranty)
-PRICЕ - $445 (CASH NO TAX)
-Dyson Supеrsonic Hair Dryer
-(Factory refurbished with 1 Year Dyson Warranty)
-PRICE - $295 (CASH NO TAX)
-----------------------------------------------------
-Same day delivery available in GTA arеa - delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Sрlit your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Stоrefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t xml:space="preserve">Marshall Major IV On-Ear Bluetooth Headphone </t>
@@ -11403,49 +11170,6 @@
 </t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------------------------------------------------------------
-Samsung Smart TV
-------------------------------------------------------
-Samsung 75" QN800A Neo QLED 8K Smart TV (QN75QN800B)
-(NEW OPEN BOX WITH WARRANTY)
-Minоr Blemish on Screen (Not Visible)
-REGULAR PRICЕ: $4499.99 + TAX
-OUR PRICE - $1095 (CASH NO TAX)
-------------------------------------------------------
-Samsung 75" 4K UHD HDR QLED Tizen Smart TV (QN75Q70A)
-(NEW OPEN BOX WITH WARRANTY)
-REGULAR PRICE: $1799.99 + TAX
-ОUR PRICE - $895 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PАY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase intо stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*Аll financing done through Pay Bright
----------------------------------------------
-Same day delivеry available in GTA area - delivery charges are extra depends on location
----------------------------------------------
-Storefront is open to publiс 7 days a week from 10AM till 8PM
----------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!!!
-OPEN EVERYDAY FROM 8AM TILL 8PM
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORОNTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WЕEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
     <t>Apple AirPods - AirPods Pro 2nd Gen, AirPods 2nd Gen, 3rd Gen</t>
   </si>
   <si>
@@ -11708,86 +11432,6 @@
 Open Everyday:
 Monday to Friday - 8AM to 8 PM
 Weekends - 10AM to 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-----------------------------------------------------
-LENOVO Laptops Intel i5 - Lenovo ThinkPad T460s, T470, T470s, T490, T580
------------------------------------------
-Lenovo ThinkPad T580 Laptop - 15.6"
-INTEL i5 - 8TH GEN
-8GB RAM / 512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $325 (CASH NO TAX)
------------------------------------------
-Lenovo ThinkPad T490 Laptop - 14"
-INTEL i5 - 8TH GEN
-16GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX)
------------------------------------------
-Lenovo ThinkPad T470s Laptop - 14"
-INTEL i5 - 7TH GEN
-16GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Lenovo ThinkPad T470s Laptop (Webcam) - 14"
-INTEL i5 - 7TH GEN
-12GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $235 (CASH NO TAX)
-Lenovo ThinkPad T470s Laptop - 14"
-INTEL i5 - 6TH GEN
-12GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $235 (CASH NO TAX)
-Lenovo ThinkPad T470s Laptop - 14"
-INTEL i5 - 7TH GEN
-8GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-Lenovo ThinkPad T470 Laptop - 14"
-INTEL i5 - 6TH GEN
-16GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
------------------------------------------
-Lenovo ThinkPad T460s Laptop - 14" 
-INTEL i5 - 6TH GEN 
-12GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $200 (CASH NO TAX) 
------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright*
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>lenovo Laptops Intel i5 - T470, T490, T580, T460s, T470s</t>
   </si>
   <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -12206,70 +11850,6 @@
 4164744786
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Оutlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Сonfidence from our store! ✨
-------------------------------------------------------
-Hoover Vacuums - Hoover Power Scrub Deluxe Carpet Cleaner, HOOVER WINDTUNNEL MULTI-CYCLONIC PLUS VACUUM, HOOVER MULTISURFACE BAGLESS CANISTER VACCUM, Hoover Power Scrub Carpet Cleaner, Hoover High Performance Swivel Pet Upright Vacuum, Hoover High Perfоrmance Swivel XL Pet Plus Vacuum Сleaner, HOOVER WINDTUNNEL MULTI-CYCLONIC PET
-------------------------------------------------------
-Hoover SmartWash Spotchaser Pet Automatic Carpet Deep Cleaner (FH53040DI)
-(BRAND NEW IN BOX WITH WАRRANTY)
-PRICE: $375 (CASH NO TАX)
-------------------------------------------------------
-Hoover ONEPWR Blade MAX High Performance Cordless Stick Vacuum Cleaner (BH53350)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE: $295 (CASH NO TAX)
-Hoover ONEPWR Blade Cordless Stick Vacuum (BH53452)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE: $275 (CASH NO TAX)
-------------------------------------------------------
-HOOVER WINDTUNNEL MULTI-CYCLONIC PET (SH40221CDI)
-(ОPEN BOX WITH WARRANTY)
-PRICE: $195 (CASH NO TAX)
-------------------------------------------------------
-Hoover High Performance Swivel XL Pet Plus Vacuum Cleaner (UH75240CDI)
-(OPEN BOX WITH WARRАNTY)
-PRICE: $145 (CASH NO TAX)
-------------------------------------------------------
-Hoover High Performance Swivel Pet Upright Vacuum (UH75145CDI)
-(OPEN BOX WITH WARRANTY)
-PRICE: $145 (CASH NO TAX)
-------------------------------------------------------
-Hоover Power Scrub Carpet Cleaner (FH50135CDI)
-(OPEN BOX WITH WARRANTY)
-PRICE: $125 (CASH NO TAX)
-------------------------------------------------------
-HOOVER MULTISURFACE BAGLESS CANISTER VACCUM (SH40440CDI)
-(OPEN BOX WITH WARRANTY)
-PRICE: $125 (CASH NO TAX)
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
------------------------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purсhase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Рay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STОRE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS
-MONDAY - FRIDAY: 8AM - 8РM
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
@@ -12410,127 +11990,6 @@
     <t>Motorola Phones - Moto Edge Plus, One Ace, G Power, G Pure</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trustеd Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Milwaukee Tool M18 2696-26, Milwaukee Tool M18 18V, Milwaukee M12 Fuel 12V Chainsaw kit, Milwaukee 48-89-9249 Drill Bit
----------------------------------------------------
-Milwaukee Tool M18 2696-26 Cordless Lithium-Ion 6-Tool Combo Kit (Compact 1/2" Hammer Drill/Driver, SAWZALL Rеciprocating Saw, 6 ½" Circular Saw, 1/4" Hex Impact Driver, Cordless 4-1/2" Cut-off / Grinder)
-(Brand New in Box)
-Price - $625 (Cash No Tax)
----------------------------------------------------
-Milwaukee Tool M18 18V Lithium-Ion Cordless Combo Tool Kit (4-Tool) with (2) 3.0Ah Batteries, Charger, Tool Bag
-(Brand New in Box)
-Price - $450 (Cash No Tax)
----------------------------------------------------
-Milwaukee M12 Fuel 12V Li-Ion Brushless Сordless 6" HATCHET Pruning Chainsaw Kit w/ M12 XC 4.0 Ah Battery (2527-21)
-(Brand New in Box)
-Price - $250 (Cash No Tax)
----------------------------------------------------
-Milwaukee 48-89-9249 7/8 in. 1-1/8 in. #9 SHOCKWAVE Impact Duty Drill Bit
-(Brand New in Box)
-Price - $40 (Cash No Tax)
----------------------------------------------------
-Same day delivery available in GTA area - delivery сharges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into strеss-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All finanсing done through Pay Bright
----------------------------------------------------
-Storefront is open to public 7 days a week
-----------------------------------------------------
-We are providing a FREE pаrking facility for our customers (Contact us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STRЕET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store!
-------------------------------------------------------
-PLEASE CLICK ON "SHOW MORE" TO SEE ALL MODELS AND PRICES!!!
-------------------------------------------------------
-DEWALT 20V Max Lithium-Ion Cordless 1/2-inch Hammer Drill with (2) 4Ah Batteries, Charger and Case (DCD985M2)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFAСTURER WARRANTY)
-Price - $295 (CASH NO TAX)
-------------------------------------------------------
-DEWALT 20V MAX* Brushless Cordless 3-Tool Combo Kit (DCK379D2)
-This 3-Tool Combo Kit includes three 20V MAX* brushless tools, two batteries, charger, and kit bag
-Рrice - $295 (CASH NO TAX)
-------------------------------------------------------
-DEWALT 20V MAX Lithium-Ion Brushless Cordless Drill/Driver with Battery &amp; Charger (DCD777C1)
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $165 (CASH NO TAX)
-------------------------------------------------------
-Dewalt Heavy-Duty 2-Watt Jobsite FRS Walkie Talkies (DXFRS800)
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $100 (CASH NO TAX)
-------------------------------------------------------
-DEWALT 7-1/4-Inch Lightweight Circular Saw with Carbide-Tipped Blade &amp; Wrench (DWE575)
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $125 (CASH NO TAX)
-------------------------------------------------------
-DEWALT 20V MAX* PОWERSTACK™ Compact Battery, 2 Pack (DCBP034-2)
-(BRAND NEW WITH WARRANTY)
-Price - $125 (CASH NO TAX)
-------------------------------------------------------
-Dewalt 3/8" (10mm) VSR Pistol Grip Drill Kit with Keyless Chuck (DWD110K)
-(BRAND NEW WITH MANUFACTURER WARRANTY)
-Price - $60 (CASH NO TAX)
-----------------------------------------------------
-DEWALT 12V MAX* 5.0AH Lithium Ion Battery Pack (DCB126)
-(BRAND NEW WITH WARRANTY)
-Price - $65 (CASH NO TAX)
-----------------------------------------------------
-Makita Tools
-----------------------------------------------------
-Makita 18V LXT 2 Tool Combo Kit (DLX2089M)
-(BRAND NEW WITH 1 YEAR MANUFACTURЕR WARRANTY)
-Price - $395 (CASH NO TAX)
-Makita 18V (Compact) LXT 2 Tool Combo Kit (DLX2141SX1)
-(BRAND NEW WITH 1 YEAR MANUFACTURER WARRANTY)
-Price - $245 (CASH NO TAX)
----------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing donе through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MАIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
     <t>Shop Smart, Shop Secure: Canadian Оutlet, Your Trusted Choice!
 Best Price, Best Quality
 Buy with Сonfidence from our store! ✨
@@ -12569,39 +12028,6 @@
 M4T 1Y7
 647 786 4344 (MAIN NUMBER)
 4164744786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Benchmark 20V Drill Kit, Benchmark Omega 20V Battery &amp; Fast Charger
-------------------------------------------------------
-Benchmark 20V Max Cordless Orbital Jig Saw (JD-5260)
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $60 (CASH NO TAX)
-------------------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>Tools - Benchmark 20V Max Cordless Orbital Jig Saw</t>
   </si>
   <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -13767,6 +13193,626 @@
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
   </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+BENCHMARK 5/8" Corded Drill, Benchmark 20V Drill Kit, Benchmark Omega 20V Battery &amp; Fast Charger
+------------------------------------------------------
+BENCHMARK 5/8" Corded Drill - with Spade Handle, 10 Amp
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Item: #1240-900 Model: #LS-D1106
+Price - $80 (CASH NO TAX)
+Benchmark 20V Max Cordless Orbital Jig Saw (JD-5260)
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $60 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Tools by Benchmark 20V Max Cordless Orbital Jig Saw, Drill</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Air Fryers - Instant Omni Air Fryer Toaster Oven, CuisinArt Oven Air Fryer, Chefman Air Fryer, Emeril Lagasse Pressure Air Fryer, Instant Vortex plus air fryer, Kalorik MAXX Digital Air Fryer, Gourmia Air Fryer, Insignia Air Fryer, Power XL Vortex Air Fryer
+-----------------------------------------------------------------------
+Ninja DZ401 Foodi 10 Quart 6-In-1 Dualzone XL 2-Basket Air Fryer
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $175 (CASH NO TAX)
+Ninja DZ201C, Foodi 6-in-1 8-qt. 2-Basket Air Fryer with DualZone Technology
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - 145(CASH NO TAX)
+Ninja DZ201C, Foodi 6-in-1 8-qt. 2-Basket Air Fryer with DualZone Technology
+(NEW OPEN BOX WITH WARRANTY)
+Price - 125 (CASH NO TAX)
+----------------------------------------------------------------------------------------
+CuisinArt Connection Oven Air Fryer (TOA-60C)
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Pricе - $175 (CASH NO TAX)
+----------------------------------------------------------------------------------------
+Chefman TurboFry XL Touch Air Fryer
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $175 (CASH NO TAX)
+Chefman TurboFry Touch Dual Air Fryer
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $145 (CASH NO TAX)
+----------------------------------------------------------------------------------------
+Emeril Lagasse 6QT Pressure Air Fryer (Y6D-AF36)
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $145 (CASH NO TAX)
+----------------------------------------------------------------------------------------
+Instant™ Vortex® Plus Dual 8-quart Stainless Steel Air Fryer (810028582262)
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $145 (CASH NO TAX)
+------------------------------------------------------------------------------------------
+Kalorik MAXX 6Qt Digital Air Fryer (FT 47823 BKSS)
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $95 (CASH NO TAX)
+----------------------------------------------------------------------------------------
+Gourmia 6QT Digital Air Fryer (GAF652)
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $95 (CASH NO TAX)
+----------------------------------------------------------------------------------------
+Insignia 5L Digital Cоntrol Air Fryer (NS-AF50DBK2-C)
+(LIKE NEW IN ORIGINAL BOX)
+Price - $65 (CASH NO TAX)
+Insignia 4.8L 5QT Air Fryer (NS-AF5MSS2-C)
+(LIKE NEW IN ORIGINAL BOX)
+Price - $65 (CASH NO TAX)
+Insignia 3.2LMechanical Control Air Fryer (NS-AF32MBK2-C)
+(LIKE NEW IN ORIGINAL BOX)
+Price - $55 (CASH NO TAX)
+------------------------------------------------------------------------------------------
+CuisinArt Deep Fryer DF560PCC
+(LIKE NEW IN ОRIGNAL BOX)
+Price - $55 (CASH NO TAX)
+------------------------------------------------------------------------------------------
+Power XL Vortex Air Fryer Plus 5QT
+(LIKE NEW IN ORIGNAL BOX)
+Price - $55 (CASH NO TAX)
+------------------------------------------------------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly finаncing when you shopwith Canadian Outlet
+Split your purchase into stress-free,automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We arе providing a FREE parking facility for our customers (Cоntact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+----------------------------------------------------
+LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s, T580
+-----------------------------------------
+Lenovo ThinkPad T580 Laptop - 15.6"
+INTEL i5 - 8TH GEN
+8GB RAM / 512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $325 (CASH NO TAX)
+-----------------------------------------
+Lenovo ThinkPad T470s Laptop - 14"
+INTEL i5 - 7TH GEN
+16GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+Lenovo ThinkPad T470s Laptop (Webcam) - 14"
+INTEL i5 - 7TH GEN
+12GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $235 (CASH NO TAX)
+Lenovo ThinkPad T470s Laptop - 14"
+INTEL i5 - 7TH GEN
+8GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+Lenovo ThinkPad T470 Laptop - 14"
+INTEL i5 - 6TH GEN
+16GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-----------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+-----------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright*
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s, T580</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Dyson Airwrap, Dyson Corrale Hair Straightener, Dyson Supersonic Hair Dryer
+----------------------------------------------------
+Dyson Airwrap multi-styler and dryer Сomplete Long
+(Brand New in Box with Manufacturer Warranty)
+PRICE - $645 (CASH NO TAX)
+---------------------------------------------------------
+Dyson Airwrap multi-styler and dryer Comрlete Long Diffuse
+(Brand New in Box with Manufacturer Warranty)
+PRICE - $645 (CASH NO TAX)
+Dyson Corrale Straightener Professional edition
+(Brand New in Box with Manufacturer Warranty)
+PRICE - $525 (CASH NO TAX)
+Dysоn Corrale Cordless Straightener (Dark Nickel/Fuchsia)
+(Brand New in Box with Manufacturer Warranty)
+PRICE - $395  (CASH NO TAX)
+Dyson Corrale Hair Straightener
+(Factory refurbished with 1 Year Dyson Warranty)
+PRICE - $350 (СASH NO TAX)
+----------------------------------------------------
+Dyson Supersonic hair Dryer
+(Brand New in Box with Manufacturer Warranty)
+PRICЕ - $445 (CASH NO TAX)
+Dyson Supеrsonic Hair Dryer
+(Factory refurbished with 1 Year Dyson Warranty)
+PRICE - $295 (CASH NO TAX)
+----------------------------------------------------
+Same day delivery available in GTA arеa - delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Sрlit your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Stоrefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Оutlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Сonfidence from our store! ✨
+------------------------------------------------------
+Hoover Vacuums - Hoover Power Scrub Deluxe Carpet Cleaner, HOOVER WINDTUNNEL MULTI-CYCLONIC PLUS VACUUM, HOOVER MULTISURFACE BAGLESS CANISTER VACCUM, Hoover Power Scrub Carpet Cleaner, Hoover High Performance Swivel Pet Upright Vacuum, Hoover High Perfоrmance Swivel XL Pet Plus Vacuum Сleaner, HOOVER WINDTUNNEL MULTI-CYCLONIC PET
+------------------------------------------------------
+Hoover SmartWash Spotchaser Pet Automatic Carpet Deep Cleaner (FH53040DI)
+(BRAND NEW IN BOX WITH WАRRANTY)
+PRICE: $375 (CASH NO TАX)
+------------------------------------------------------
+Hoover ONEPWR Blade MAX High Performance Cordless Stick Vacuum Cleaner (BH53350)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE: $295 (CASH NO TAX)
+Hoover ONEPWR Blade Cordless Stick Vacuum (BH53452)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE: $275 (CASH NO TAX)
+------------------------------------------------------
+HOOVER WINDTUNNEL MULTI-CYCLONIC PET (SH40221CDI)
+(ОPEN BOX WITH WARRANTY)
+PRICE: $195 (CASH NO TAX)
+------------------------------------------------------
+Hoover High Performance Swivel XL Pet Plus Vacuum Cleaner (UH75240CDI)
+(OPEN BOX WITH WARRАNTY)
+PRICE: $145 (CASH NO TAX)
+------------------------------------------------------
+Hoover High Performance Swivel Pet Upright Vacuum (UH75145CDI)
+(OPEN BOX WITH WARRANTY)
+PRICE: $145 (CASH NO TAX)
+------------------------------------------------------
+Hоover Power Scrub Carpet Cleaner (FH50135CDI)
+(OPEN BOX WITH WARRANTY)
+PRICE: $125 (CASH NO TAX)
+------------------------------------------------------
+HOOVER MULTISURFACE BAGLESS CANISTER VACCUM (SH40440CDI)
+(OPEN BOX WITH WARRANTY)
+PRICE: $125 (CASH NO TAX)
+------------------------------------------------------
+Hoover WindTunnel High Capacity Bagless Upright Vacuum Cleaner ( UH71104CDI )
+(OPEN BOX WITH WARRANTY)
+PRICE: $95 (CASH NO TAX)
+------------------------------------------------------
+Hoover Power Scrub Deluxe Carpet Cleaner (FH50141CDI)
+(OPEN BOX WITH WARRANTY)
+PRICE: $95 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+-----------------------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purсhase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Рay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STОRE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS
+MONDAY - FRIDAY: 8AM - 8РM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Laresar Elite 3 Cordless Stick Vacuum</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Laresar cordless Vacuum Cleaner - Powerful Stick Vacuum 
+(Brand New with Warranty)
+Price - $95 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Laresar Vacuum</t>
+  </si>
+  <si>
+    <t>Laresar Vacuum, Dyson vacuum, Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>50-76</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store!
+------------------------------------------------------
+PLEASE CLICK ON "SHOW MORE" TO SEE ALL MODELS AND PRICES!!!
+------------------------------------------------------
+DEWALT 20V Max Lithium-Ion Cordless 1/2-inch Hammer Drill with (2) 4Ah Batteries, Charger and Case (DCD985M2)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFAСTURER WARRANTY)
+Price - $295 (CASH NO TAX)
+------------------------------------------------------
+DEWALT 20V MAX* Brushless Cordless 3-Tool Combo Kit (DCK379D2)
+This 3-Tool Combo Kit includes three 20V MAX* brushless tools, two batteries, charger, and kit bag
+Рrice - $295 (CASH NO TAX)
+------------------------------------------------------
+DEWALT 20V MAX Brushless 1/2 in. Cordless Compact Drill Driver Kit, Ratcheting Chuck, LED (DCD793D1)
+(BRAND NEW IN BOX WITH WARRANTY) 
+Price - $165 (CASH NO TAX)
+------------------------------------------------------
+DEWALT 20V MAX Lithium-Ion Brushless Cordless Drill/Driver with Battery &amp; Charger (DCD777C1)
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $165 (CASH NO TAX)
+------------------------------------------------------
+Dewalt Heavy-Duty 2-Watt Jobsite FRS Walkie Talkies (DXFRS800)
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $100 (CASH NO TAX)
+------------------------------------------------------
+DEWALT 7-1/4-Inch Lightweight Circular Saw with Carbide-Tipped Blade &amp; Wrench (DWE575)
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $125 (CASH NO TAX)
+ ------------------------------------------------------
+DEWALT 20V MAX* PОWERSTACK™ Compact Battery, 2 Pack (DCBP034-2)
+(BRAND NEW WITH WARRANTY)
+Price - $125 (CASH NO TAX)
+------------------------------------------------------
+DEWALT DWE305 12A Keyless 4-Position Variable Speed T-Shank Reciprocating Saw (#054-1236-6)
+(BRAND NEW WITH WARRANTY)
+Price - $95 (CASH NO TAX)
+----------------------------------------------------
+DEWALT 20V MAX Lithium-Ion Cordless Compact Hammer Drill/Driver Kit with (2) 1.5Ah Batteries, Charger and Bag
+Model # DCD785C2 | Store SKU # 1000708407
+(BRAND NEW WITH WARRANTY)
+Price - $95 (CASH NO TAX)
+----------------------------------------------------
+DEWALT Drywall Screw Gun, 6.3-Amp (DW272) 
+(BRAND NEW WITH WARRANTY)
+Price - $95 (CASH NO TAX)
+----------------------------------------------------
+Dewalt 3/8" (10mm) VSR Pistol Grip Drill Kit with Keyless Chuck (DWD110K)
+(BRAND NEW WITH MANUFACTURER WARRANTY)
+Price - $60 (CASH NO TAX)
+----------------------------------------------------
+DEWALT 12V MAX* 5.0AH Lithium Ion Battery Pack (DCB126)
+(BRAND NEW WITH WARRANTY)
+Price - $65 (CASH NO TAX)
+----------------------------------------------------
+Makita Tools
+----------------------------------------------------
+Makita 18V LXT 2 Tool Combo Kit (DLX2089M)
+(BRAND NEW WITH 1 YEAR MANUFACTURЕR WARRANTY)
+Price - $395 (CASH NO TAX)
+Makita 18V (Compact) LXT 2 Tool Combo Kit (DLX2141SX1)
+(BRAND NEW WITH 1 YEAR MANUFACTURER WARRANTY)
+Price - $245 (CASH NO TAX)
+---------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing donе through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MАIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Milwaukee Tool M18 2696-26, Milwaukee Tool M18 18V Lithium-Ion Cordless Combo Tool Kit, Milwaukee M12 Fuel 12V Li-Ion Brushless Cordless 6" HATCHET Pruning Chainsaw Kit, Milwaukee Drill Bit
+------------------------------------------------------
+Milwaukee Tool M18 2696-26  Cordless Lithium-Ion 6-Tool Combo Kit
+(Brand New)
+Price - $625 (Cash No Tax)
+------------------------------------------------------
+Milwaukee Tool M18 18V Lithium-Ion Cordless Combo Tool Kit (4-Tool) with (2) 3.0Ah Batteries, Charger, Tool Bag (2696-24)
+(Brand New)
+Price - $450 (Cash No Tax)
+------------------------------------------------------
+Milwaukee M12 Fuel 12V Li-Ion Brushless Cordless 6" HATCHET Pruning Chainsaw Kit w/ M12 XC 4.0 Ah Battery (2527-21)
+(Brand New)
+Price - $250(Cash No Tax)
+------------------------------------------------------
+Milwaukee Tool M18 18V Lithium-Ion Starter Kit with (1) 5.0 Ah Battery, (1) 2.0 Ah Battery, Charger &amp; Bag
+Model # 48-59-1850TPC | Store SKU # 1001538774
+(Brand New)
+Price - $145 (CASH NO TAX)
+------------------------------------------------------
+Milwaukee Tool M18 18V Lithium-Ion Extended Capacity (XC) HIGH OUTPUT 6.0 Ah REDLITHIUM Battery Pack
+(Brand New in Box)
+Price - $95 (Cash No Tax)
+------------------------------------------------------
+Milwaukee 48-89-9249 7/8 in. 1-1/8 in. #9 SHOCKWAVE Impact Duty Drill Bit
+(Brand New)
+Price - $40 (Cash No Tax)
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+---------------------------------------------------
+Storefront is open to public 7 days a week
+----------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+----------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+40</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------------------------------------------------------------
+Samsung Smart TV
+------------------------------------------------------
+Samsung 75" QN800B Neo QLED 8K Smart TV (QN75QN800B)
+(NEW OPEN BOX WITH WARRANTY)
+Minоr Blemish on Screen (Not Visible)
+REGULAR PRICЕ: $4499.99 + TAX
+OUR PRICE - $1095 (CASH NO TAX)
+------------------------------------------------------
+Samsung 75" 4K UHD HDR QLED Tizen Smart TV (QN75Q70A)
+(NEW OPEN BOX WITH WARRANTY)
+REGULAR PRICE: $1799.99 + TAX
+ОUR PRICE - $895 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PАY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase intо stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*Аll financing done through Pay Bright
+---------------------------------------------
+Same day delivеry available in GTA area - delivery charges are extra depends on location
+---------------------------------------------
+Storefront is open to publiс 7 days a week from 10AM till 8PM
+---------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!!!
+OPEN EVERYDAY FROM 8AM TILL 8PM
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORОNTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WЕEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store!
+------------------------------------------------------
+Apple iPhones - iPhone 14 PRO MAX, iPhone 14 Pro, iPhone 14 Plus
+------------------------------------------------------
+iPhone 14 PRO MAX 256GB
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+Battery - 85% and Up
+Condition - 10 Out of 10 Like New
+Price - $1195 (CASH NO TAX)
+------------------------------------------------------
+iPhone 14 Pro 256GB
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+Battery - 85% and Up
+Condition - 10 Out of 10 Like New
+Price - $1095 (CASH NO TAX)
+------------------------------------------------------
+iPhone 14 Plus 512GB
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+Bаttery - 85% and Up
+Condition - 10 Out of 10 Likе New
+Price - $975 (CASH NO TAX)
+iPhone 14 Plus 256GB
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+Battery - 85% and Up
+Condition - 10 Out of 10 Like New
+Price - $930 (CASH NO TAX)
+------------------------------------------------------
+iPhone 14 Plus 256GB
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+Battery - 85% and Up
+Condition - Minor Scratches on Screen
+Price - $830 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA аrea - delivery charges are extra depends on locatiоn
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Sрlit your purchase into stress-free, automatic instаllments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done by Pay Bright
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing a FREE parking fаcility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Apple Iphones - Iphone 14 Pro Max, iPhone 14 Pro, Iphone 14 Plus</t>
+  </si>
 </sst>
 </file>
 
@@ -13858,7 +13904,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -13869,6 +13915,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -14188,8 +14237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14251,16 +14300,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14272,16 +14321,16 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="K2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M2" t="s">
         <v>107</v>
@@ -14292,16 +14341,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C3">
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14313,19 +14362,19 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M3" t="s">
         <v>107</v>
@@ -14336,16 +14385,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C4">
         <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -14357,19 +14406,19 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M4" t="s">
         <v>107</v>
@@ -14380,16 +14429,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C5">
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14401,19 +14450,19 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M5" t="s">
         <v>107</v>
@@ -14424,16 +14473,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C6">
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14445,19 +14494,19 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M6" t="s">
         <v>107</v>
@@ -14468,16 +14517,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C7">
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -14489,19 +14538,19 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M7" t="s">
         <v>107</v>
@@ -14512,16 +14561,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14533,19 +14582,19 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M8" t="s">
         <v>107</v>
@@ -14556,16 +14605,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C9">
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14577,16 +14626,16 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="K9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M9" t="s">
         <v>107</v>
@@ -14597,16 +14646,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C10">
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -14618,16 +14667,16 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="K10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M10" t="s">
         <v>107</v>
@@ -14638,16 +14687,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -14659,16 +14708,16 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I11">
         <v>4164744786</v>
       </c>
       <c r="K11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M11" t="s">
         <v>107</v>
@@ -14679,16 +14728,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -14700,16 +14749,16 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="K12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M12" t="s">
         <v>107</v>
@@ -14720,16 +14769,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C13">
         <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -14741,16 +14790,16 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="K13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M13" t="s">
         <v>107</v>
@@ -14761,16 +14810,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C14">
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -14782,7 +14831,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
@@ -14791,7 +14840,7 @@
         <v>106</v>
       </c>
       <c r="L14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M14" t="s">
         <v>51</v>
@@ -14802,16 +14851,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C15">
         <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -14823,7 +14872,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
@@ -14832,7 +14881,7 @@
         <v>106</v>
       </c>
       <c r="L15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M15" t="s">
         <v>107</v>
@@ -14843,16 +14892,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C16">
         <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -14864,7 +14913,7 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
@@ -14873,7 +14922,7 @@
         <v>106</v>
       </c>
       <c r="L16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M16" t="s">
         <v>107</v>
@@ -14884,16 +14933,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C17">
         <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -14905,7 +14954,7 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
@@ -14914,7 +14963,7 @@
         <v>106</v>
       </c>
       <c r="L17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M17" t="s">
         <v>107</v>
@@ -14925,16 +14974,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C18">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -14946,7 +14995,7 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
@@ -14955,7 +15004,7 @@
         <v>106</v>
       </c>
       <c r="L18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s">
         <v>107</v>
@@ -14966,16 +15015,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C19">
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -14987,7 +15036,7 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
@@ -14996,7 +15045,7 @@
         <v>106</v>
       </c>
       <c r="L19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M19" t="s">
         <v>107</v>
@@ -15007,16 +15056,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C20">
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15028,7 +15077,7 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
@@ -15037,7 +15086,7 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
@@ -15048,16 +15097,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -15069,7 +15118,7 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
@@ -15078,7 +15127,7 @@
         <v>106</v>
       </c>
       <c r="L21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M21" t="s">
         <v>107</v>
@@ -15089,16 +15138,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C22">
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15110,7 +15159,7 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
@@ -15119,7 +15168,7 @@
         <v>106</v>
       </c>
       <c r="L22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s">
         <v>107</v>
@@ -15130,16 +15179,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B23" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C23">
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15151,7 +15200,7 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
@@ -15160,7 +15209,7 @@
         <v>106</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s">
         <v>107</v>
@@ -15171,28 +15220,28 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C24">
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
@@ -15201,7 +15250,7 @@
         <v>106</v>
       </c>
       <c r="L24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s">
         <v>107</v>
@@ -15212,16 +15261,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C25">
         <v>845</v>
       </c>
       <c r="D25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -15233,7 +15282,7 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
@@ -15242,7 +15291,7 @@
         <v>106</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s">
         <v>107</v>
@@ -15253,16 +15302,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C26">
         <v>345</v>
       </c>
       <c r="D26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -15274,7 +15323,7 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
@@ -15283,7 +15332,7 @@
         <v>106</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s">
         <v>107</v>
@@ -15294,28 +15343,28 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C27">
         <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
@@ -15324,7 +15373,7 @@
         <v>106</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s">
         <v>107</v>
@@ -15335,28 +15384,28 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C28">
         <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
@@ -15365,7 +15414,7 @@
         <v>106</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s">
         <v>107</v>
@@ -15376,28 +15425,28 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
@@ -15406,7 +15455,7 @@
         <v>106</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s">
         <v>107</v>
@@ -15417,28 +15466,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C30">
         <v>295</v>
       </c>
       <c r="D30" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
@@ -15447,7 +15496,7 @@
         <v>106</v>
       </c>
       <c r="L30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s">
         <v>107</v>
@@ -15458,28 +15507,28 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B31" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C31">
         <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -15488,7 +15537,7 @@
         <v>106</v>
       </c>
       <c r="L31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s">
         <v>107</v>
@@ -15499,28 +15548,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B32" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C32">
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15529,7 +15578,7 @@
         <v>106</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s">
         <v>107</v>
@@ -15540,28 +15589,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="B33" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C33">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15570,7 +15619,7 @@
         <v>106</v>
       </c>
       <c r="L33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s">
         <v>107</v>
@@ -15587,10 +15636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15649,16 +15698,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C2">
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -15670,19 +15719,19 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="J2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M2" t="s">
         <v>107</v>
@@ -15693,16 +15742,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -15714,19 +15763,19 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M3" t="s">
         <v>107</v>
@@ -15737,16 +15786,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -15758,19 +15807,19 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M4" t="s">
         <v>107</v>
@@ -15781,16 +15830,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C5">
         <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -15802,19 +15851,19 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M5" t="s">
         <v>51</v>
@@ -15825,16 +15874,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C6">
         <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -15846,19 +15895,19 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
@@ -15869,16 +15918,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C7">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -15890,19 +15939,19 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
@@ -15913,16 +15962,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C8">
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -15934,19 +15983,19 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
@@ -15957,16 +16006,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C9">
         <v>1195</v>
       </c>
       <c r="D9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -15978,19 +16027,19 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="J9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M9" t="s">
         <v>51</v>
@@ -16001,16 +16050,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C10">
         <v>1095</v>
       </c>
       <c r="D10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16022,19 +16071,19 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="J10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M10" t="s">
         <v>51</v>
@@ -16048,7 +16097,7 @@
         <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C11">
         <v>1045</v>
@@ -16072,13 +16121,13 @@
         <v>4164744786</v>
       </c>
       <c r="J11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M11" t="s">
         <v>51</v>
@@ -16089,16 +16138,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -16110,19 +16159,19 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="J12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M12" t="s">
         <v>107</v>
@@ -16133,16 +16182,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C13">
         <v>1545</v>
       </c>
       <c r="D13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16154,19 +16203,19 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="J13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K13" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="L13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M13" t="s">
         <v>107</v>
@@ -16177,40 +16226,40 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C14">
         <v>2495</v>
       </c>
       <c r="D14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="J14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K14" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="L14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M14" t="s">
         <v>107</v>
@@ -16221,40 +16270,40 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C15">
         <v>725</v>
       </c>
       <c r="D15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="J15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K15" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="L15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M15" t="s">
         <v>107</v>
@@ -16265,16 +16314,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C16">
         <v>595</v>
       </c>
       <c r="D16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16286,19 +16335,19 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M16" t="s">
         <v>107</v>
@@ -16309,16 +16358,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C17">
         <v>670</v>
       </c>
       <c r="D17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16330,19 +16379,19 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K17" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="L17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M17" t="s">
         <v>107</v>
@@ -16353,16 +16402,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C18">
         <v>475</v>
       </c>
       <c r="D18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16374,19 +16423,19 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K18" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s">
         <v>107</v>
@@ -16397,16 +16446,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C19">
         <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16418,19 +16467,19 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K19" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="L19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M19" t="s">
         <v>107</v>
@@ -16441,16 +16490,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C20">
         <v>400</v>
       </c>
       <c r="D20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16462,19 +16511,19 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K20" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="L20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M20" t="s">
         <v>107</v>
@@ -16485,16 +16534,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C21">
         <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16506,19 +16555,19 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K21" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="L21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M21" t="s">
         <v>107</v>
@@ -16529,16 +16578,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C22">
         <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16550,19 +16599,19 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K22" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="L22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s">
         <v>107</v>
@@ -16573,16 +16622,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C23">
         <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16594,19 +16643,19 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K23" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s">
         <v>107</v>
@@ -16617,16 +16666,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B24" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C24">
         <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16638,19 +16687,19 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K24" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="L24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s">
         <v>107</v>
@@ -16661,16 +16710,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C25">
         <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -16682,19 +16731,19 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K25" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s">
         <v>107</v>
@@ -16705,16 +16754,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C26">
         <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -16726,19 +16775,19 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="K26" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s">
         <v>107</v>
@@ -16749,16 +16798,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C27">
         <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -16770,19 +16819,19 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="K27" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s">
         <v>107</v>
@@ -16793,16 +16842,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C28">
         <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -16814,19 +16863,19 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="K28" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s">
         <v>107</v>
@@ -16837,16 +16886,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -16858,19 +16907,19 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="K29" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s">
         <v>107</v>
@@ -16881,16 +16930,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C30">
         <v>260</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -16902,19 +16951,19 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="K30" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="L30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s">
         <v>107</v>
@@ -16925,16 +16974,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C31">
         <v>175</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -16946,19 +16995,19 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="J31" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="K31" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="L31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s">
         <v>107</v>
@@ -16969,45 +17018,89 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C32">
         <v>1850</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="K32" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s">
         <v>107</v>
       </c>
       <c r="N32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>776</v>
+      </c>
+      <c r="B33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C33">
+        <v>95</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>386</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s">
+        <v>778</v>
+      </c>
+      <c r="I33">
+        <v>4164744786</v>
+      </c>
+      <c r="J33" t="s">
+        <v>779</v>
+      </c>
+      <c r="K33" t="s">
+        <v>780</v>
+      </c>
+      <c r="L33" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" t="s">
+        <v>107</v>
+      </c>
+      <c r="N33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -17021,8 +17114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17082,7 +17175,7 @@
         <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C2">
         <v>90</v>
@@ -17123,7 +17216,7 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -17164,7 +17257,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C4">
         <v>995</v>
@@ -17205,7 +17298,7 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C5">
         <v>1095</v>
@@ -17246,7 +17339,7 @@
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C6">
         <v>1045</v>
@@ -17276,7 +17369,7 @@
         <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
@@ -17284,16 +17377,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C7">
         <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17328,13 +17421,13 @@
         <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C8">
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17369,7 +17462,7 @@
         <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C9">
         <v>125</v>
@@ -17410,7 +17503,7 @@
         <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C10">
         <v>545</v>
@@ -17451,13 +17544,13 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
-        <v>126</v>
+      <c r="D11" s="2" t="s">
+        <v>771</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17469,7 +17562,7 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I11">
         <v>4164744786</v>
@@ -17489,16 +17582,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C12">
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17510,7 +17603,7 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
@@ -17522,7 +17615,7 @@
         <v>107</v>
       </c>
       <c r="M12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N12" t="s">
         <v>16</v>
@@ -17530,16 +17623,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -17551,7 +17644,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
@@ -17571,16 +17664,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C14">
         <v>390</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -17592,7 +17685,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
@@ -17612,16 +17705,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C15">
         <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -17633,7 +17726,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
@@ -17645,7 +17738,7 @@
         <v>107</v>
       </c>
       <c r="M15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N15" t="s">
         <v>16</v>
@@ -17653,16 +17746,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C16">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -17674,7 +17767,7 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
@@ -17694,16 +17787,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C17">
         <v>490</v>
       </c>
       <c r="D17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -17715,7 +17808,7 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
@@ -17735,16 +17828,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C18">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -17756,7 +17849,7 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
@@ -17776,16 +17869,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C19">
         <v>650</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -17797,7 +17890,7 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
@@ -17817,16 +17910,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C20">
         <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -17838,7 +17931,7 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
@@ -17850,7 +17943,7 @@
         <v>107</v>
       </c>
       <c r="M20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N20" t="s">
         <v>16</v>
@@ -17858,16 +17951,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -17879,7 +17972,7 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
@@ -17899,16 +17992,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -17920,7 +18013,7 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
@@ -17940,16 +18033,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -17961,7 +18054,7 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
@@ -17981,16 +18074,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C24">
         <v>375</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -18002,7 +18095,7 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
@@ -18022,16 +18115,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -18043,7 +18136,7 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
@@ -18066,13 +18159,13 @@
         <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C26">
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -18107,7 +18200,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -18148,7 +18241,7 @@
         <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C28">
         <v>195</v>
@@ -18160,7 +18253,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -18186,16 +18279,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -18230,7 +18323,7 @@
         <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C30">
         <v>545</v>
@@ -18268,16 +18361,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C31">
         <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18289,7 +18382,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18309,16 +18402,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C32">
         <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18330,7 +18423,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -18357,8 +18450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADAF3E-0AA5-4F19-ACED-4BBE31AE540C}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18413,16 +18506,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C2">
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -18434,36 +18527,36 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="K2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M2" t="s">
         <v>107</v>
       </c>
       <c r="N2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18475,36 +18568,36 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="K3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M3" t="s">
         <v>107</v>
       </c>
       <c r="N3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C4">
         <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -18516,36 +18609,36 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="K4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M4" t="s">
         <v>107</v>
       </c>
       <c r="N4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C5">
         <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -18557,36 +18650,36 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="K5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M5" t="s">
         <v>107</v>
       </c>
       <c r="N5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C6">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -18598,36 +18691,36 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="K6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M6" t="s">
         <v>107</v>
       </c>
       <c r="N6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C7">
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -18639,36 +18732,36 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="K7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M7" t="s">
         <v>107</v>
       </c>
       <c r="N7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C8">
         <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -18680,36 +18773,36 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="K8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M8" t="s">
         <v>107</v>
       </c>
       <c r="N8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C9">
         <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -18721,36 +18814,36 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="K9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M9" t="s">
         <v>107</v>
       </c>
       <c r="N9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C10">
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -18762,36 +18855,36 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="K10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M10" t="s">
         <v>107</v>
       </c>
       <c r="N10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -18803,36 +18896,36 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I11">
         <v>4164744786</v>
       </c>
       <c r="K11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M11" t="s">
         <v>107</v>
       </c>
       <c r="N11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -18844,36 +18937,36 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="K12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M12" t="s">
         <v>107</v>
       </c>
       <c r="N12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C13">
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -18885,36 +18978,36 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="K13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M13" t="s">
         <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C14">
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -18926,36 +19019,36 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="K14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M14" t="s">
         <v>107</v>
       </c>
       <c r="N14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -18967,36 +19060,36 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="K15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M15" t="s">
         <v>107</v>
       </c>
       <c r="N15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C16">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -19008,36 +19101,36 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="K16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M16" t="s">
         <v>107</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C17">
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -19049,36 +19142,36 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="K17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M17" t="s">
         <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -19090,36 +19183,36 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="K18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s">
         <v>107</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C19">
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -19131,36 +19224,36 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="K19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s">
         <v>107</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C20">
         <v>275</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>738</v>
+      <c r="D20" s="8" t="s">
+        <v>730</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19172,36 +19265,36 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
         <v>107</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C21">
         <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -19213,16 +19306,16 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="K21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s">
         <v>107</v>
@@ -19233,16 +19326,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C22">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -19254,19 +19347,19 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N22" t="s">
         <v>16</v>
@@ -19274,16 +19367,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C23">
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -19295,16 +19388,16 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s">
         <v>107</v>
@@ -19315,16 +19408,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C24">
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>718</v>
+        <v>783</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19336,16 +19429,16 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s">
         <v>107</v>
@@ -19356,16 +19449,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C25">
         <v>295</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -19377,16 +19470,16 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s">
         <v>107</v>
@@ -19397,16 +19490,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C26">
         <v>425</v>
       </c>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -19418,16 +19511,16 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s">
         <v>107</v>
@@ -19438,16 +19531,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C27">
         <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -19459,16 +19552,16 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M27" t="s">
         <v>107</v>
@@ -19479,16 +19572,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19500,16 +19593,16 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M28" t="s">
         <v>107</v>
@@ -19520,16 +19613,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C29">
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -19541,16 +19634,16 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s">
         <v>107</v>
@@ -19561,16 +19654,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C30">
         <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -19582,16 +19675,16 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s">
         <v>107</v>
@@ -19602,16 +19695,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C31">
         <v>700</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -19623,16 +19716,16 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M31" t="s">
         <v>107</v>
@@ -19646,7 +19739,7 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -19670,10 +19763,10 @@
         <v>4164744786</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M32" t="s">
         <v>107</v>
@@ -19684,16 +19777,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B33" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C33">
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -19705,16 +19798,16 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M33" t="s">
         <v>107</v>
@@ -19725,16 +19818,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B34" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C34">
         <v>1295</v>
       </c>
       <c r="D34" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -19746,19 +19839,19 @@
         <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I34">
         <v>4164744786</v>
       </c>
       <c r="J34" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K34" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s">
         <v>107</v>
@@ -19777,7 +19870,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19834,16 +19927,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C2">
         <v>495</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -19855,7 +19948,7 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I2">
         <v>6477864344</v>
@@ -19864,7 +19957,7 @@
         <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M2" t="s">
         <v>107</v>
@@ -19872,16 +19965,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C3">
         <v>695</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -19893,7 +19986,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I3">
         <v>6477864344</v>
@@ -19902,7 +19995,7 @@
         <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M3" t="s">
         <v>107</v>
@@ -19910,16 +20003,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -19931,7 +20024,7 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I4">
         <v>6477864344</v>
@@ -19940,7 +20033,7 @@
         <v>106</v>
       </c>
       <c r="L4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M4" t="s">
         <v>107</v>
@@ -19948,16 +20041,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -19969,7 +20062,7 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I5">
         <v>6477864344</v>
@@ -19978,7 +20071,7 @@
         <v>106</v>
       </c>
       <c r="L5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M5" t="s">
         <v>107</v>
@@ -19986,16 +20079,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C6">
         <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -20007,7 +20100,7 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I6">
         <v>6477864344</v>
@@ -20016,7 +20109,7 @@
         <v>106</v>
       </c>
       <c r="L6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M6" t="s">
         <v>107</v>
@@ -20024,16 +20117,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="B7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20045,7 +20138,7 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I7">
         <v>6477864344</v>
@@ -20054,7 +20147,7 @@
         <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M7" t="s">
         <v>107</v>
@@ -20062,16 +20155,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -20083,7 +20176,7 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I8">
         <v>6477864344</v>
@@ -20092,7 +20185,7 @@
         <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M8" t="s">
         <v>107</v>
@@ -20100,16 +20193,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C9">
         <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -20121,7 +20214,7 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I9">
         <v>6477864344</v>
@@ -20130,7 +20223,7 @@
         <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M9" t="s">
         <v>107</v>
@@ -20138,16 +20231,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C10">
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20159,7 +20252,7 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I10">
         <v>6477864344</v>
@@ -20168,7 +20261,7 @@
         <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M10" t="s">
         <v>107</v>
@@ -20176,16 +20269,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C11">
         <v>495</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -20197,7 +20290,7 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I11">
         <v>6477864344</v>
@@ -20206,7 +20299,7 @@
         <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M11" t="s">
         <v>107</v>
@@ -20214,16 +20307,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C12">
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -20235,7 +20328,7 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I12">
         <v>6477864344</v>
@@ -20244,7 +20337,7 @@
         <v>106</v>
       </c>
       <c r="L12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M12" t="s">
         <v>107</v>
@@ -20252,16 +20345,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C13">
         <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -20273,7 +20366,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I13">
         <v>6477864344</v>
@@ -20282,7 +20375,7 @@
         <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M13" t="s">
         <v>107</v>
@@ -20290,16 +20383,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C14">
         <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -20311,7 +20404,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I14">
         <v>6477864344</v>
@@ -20320,7 +20413,7 @@
         <v>106</v>
       </c>
       <c r="L14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M14" t="s">
         <v>107</v>
@@ -20328,16 +20421,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C15">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -20349,7 +20442,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I15">
         <v>6477864344</v>
@@ -20358,7 +20451,7 @@
         <v>106</v>
       </c>
       <c r="L15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M15" t="s">
         <v>107</v>
@@ -20366,16 +20459,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C16">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -20387,7 +20480,7 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I16">
         <v>6477864344</v>
@@ -20396,7 +20489,7 @@
         <v>106</v>
       </c>
       <c r="L16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M16" t="s">
         <v>107</v>
@@ -20404,16 +20497,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -20425,7 +20518,7 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I17">
         <v>6477864344</v>
@@ -20434,7 +20527,7 @@
         <v>106</v>
       </c>
       <c r="L17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M17" t="s">
         <v>107</v>
@@ -20442,16 +20535,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C18">
         <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -20463,7 +20556,7 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I18">
         <v>6477864344</v>
@@ -20472,7 +20565,7 @@
         <v>106</v>
       </c>
       <c r="L18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s">
         <v>107</v>
@@ -20480,16 +20573,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C19">
         <v>275</v>
       </c>
       <c r="D19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -20501,7 +20594,7 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I19">
         <v>6477864344</v>
@@ -20510,7 +20603,7 @@
         <v>106</v>
       </c>
       <c r="L19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M19" t="s">
         <v>107</v>
@@ -20518,16 +20611,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20539,7 +20632,7 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I20">
         <v>6477864344</v>
@@ -20548,7 +20641,7 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M20" t="s">
         <v>107</v>
@@ -20556,16 +20649,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C21">
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20577,7 +20670,7 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I21">
         <v>6477864344</v>
@@ -20586,7 +20679,7 @@
         <v>106</v>
       </c>
       <c r="L21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M21" t="s">
         <v>107</v>
@@ -20594,28 +20687,28 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C22">
         <v>545</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I22">
         <v>6477864344</v>
@@ -20624,7 +20717,7 @@
         <v>106</v>
       </c>
       <c r="L22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s">
         <v>107</v>
@@ -20632,28 +20725,28 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B23" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C23">
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I23">
         <v>6477864344</v>
@@ -20662,7 +20755,7 @@
         <v>106</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s">
         <v>107</v>
@@ -20670,16 +20763,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C24">
         <v>190</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20691,7 +20784,7 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I24">
         <v>6477864344</v>
@@ -20700,7 +20793,7 @@
         <v>106</v>
       </c>
       <c r="L24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s">
         <v>107</v>
@@ -20708,16 +20801,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C25">
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -20729,7 +20822,7 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I25">
         <v>6477864344</v>
@@ -20738,7 +20831,7 @@
         <v>106</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s">
         <v>107</v>
@@ -20746,16 +20839,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -20767,7 +20860,7 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I26">
         <v>6477864344</v>
@@ -20776,7 +20869,7 @@
         <v>106</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s">
         <v>107</v>
@@ -20784,16 +20877,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B27" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C27">
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -20805,7 +20898,7 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I27">
         <v>6477864344</v>
@@ -20814,7 +20907,7 @@
         <v>106</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s">
         <v>107</v>
@@ -20822,16 +20915,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C28">
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20843,7 +20936,7 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I28">
         <v>6477864344</v>
@@ -20852,7 +20945,7 @@
         <v>106</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s">
         <v>107</v>
@@ -20860,16 +20953,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C29">
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -20881,7 +20974,7 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I29">
         <v>6477864344</v>
@@ -20890,7 +20983,7 @@
         <v>106</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s">
         <v>107</v>
@@ -20898,16 +20991,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C30">
         <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -20919,7 +21012,7 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -20928,7 +21021,7 @@
         <v>106</v>
       </c>
       <c r="L30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s">
         <v>107</v>
@@ -20936,16 +21029,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C31">
         <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -20957,7 +21050,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -20966,7 +21059,7 @@
         <v>106</v>
       </c>
       <c r="L31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s">
         <v>107</v>
@@ -20974,16 +21067,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C32">
         <v>260</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -20995,7 +21088,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21004,7 +21097,7 @@
         <v>106</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s">
         <v>107</v>
@@ -21019,8 +21112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21080,16 +21173,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C2" s="2">
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21120,13 +21213,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -21157,13 +21250,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C4" s="2">
         <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21175,7 +21268,7 @@
         <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I4" s="2">
         <v>6477864344</v>
@@ -21194,7 +21287,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C5" s="2">
         <v>245</v>
@@ -21231,7 +21324,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C6" s="2">
         <v>25</v>
@@ -21268,7 +21361,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C7" s="2">
         <v>325</v>
@@ -21305,7 +21398,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C8" s="2">
         <v>325</v>
@@ -21317,7 +21410,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>35</v>
@@ -21342,13 +21435,13 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C9" s="2">
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -21360,7 +21453,7 @@
         <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I9" s="2">
         <v>6477864344</v>
@@ -21376,16 +21469,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C10" s="2">
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -21416,7 +21509,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C11" s="2">
         <v>130</v>
@@ -21453,7 +21546,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C12" s="2">
         <v>50</v>
@@ -21490,13 +21583,13 @@
         <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C13" s="2">
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>623</v>
+        <v>774</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -21527,7 +21620,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C14" s="2">
         <v>45</v>
@@ -21564,13 +21657,13 @@
         <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C15" s="2">
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -21601,7 +21694,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
@@ -21638,13 +21731,13 @@
         <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C17" s="2">
         <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -21675,7 +21768,7 @@
         <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
@@ -21687,7 +21780,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>35</v>
@@ -21712,7 +21805,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C19" s="2">
         <v>120</v>
@@ -21724,7 +21817,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>35</v>
@@ -21749,7 +21842,7 @@
         <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C20" s="2">
         <v>30</v>
@@ -21786,13 +21879,13 @@
         <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C21" s="2">
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -21820,16 +21913,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C22" s="2">
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -21857,16 +21950,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -21897,7 +21990,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C24" s="2">
         <v>90</v>
@@ -21934,7 +22027,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C25" s="2">
         <v>475</v>
@@ -21968,16 +22061,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C26" s="2">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22008,7 +22101,7 @@
         <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C27" s="2">
         <v>65</v>
@@ -22045,7 +22138,7 @@
         <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C28" s="2">
         <v>85</v>
@@ -22082,7 +22175,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C29" s="2">
         <v>195</v>
@@ -22113,21 +22206,21 @@
         <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C30" s="2">
         <v>495</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22139,7 +22232,7 @@
         <v>35</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -22155,16 +22248,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C31" s="2">
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -22176,7 +22269,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -22192,28 +22285,28 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C32" s="2">
         <v>975</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -22236,8 +22329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22294,16 +22387,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C2">
         <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -22315,7 +22408,7 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I2">
         <v>6477864344</v>
@@ -22329,16 +22422,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C3">
         <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22350,7 +22443,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I3">
         <v>6477864344</v>
@@ -22364,16 +22457,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C4">
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22385,7 +22478,7 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I4">
         <v>6477864344</v>
@@ -22399,16 +22492,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C5">
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -22420,7 +22513,7 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I5">
         <v>6477864344</v>
@@ -22434,16 +22527,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C6">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -22455,7 +22548,7 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I6">
         <v>6477864344</v>
@@ -22469,16 +22562,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C7">
         <v>945</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -22490,7 +22583,7 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I7">
         <v>6477864344</v>
@@ -22504,16 +22597,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C8">
         <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -22525,7 +22618,7 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I8">
         <v>6477864344</v>
@@ -22539,16 +22632,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -22560,7 +22653,7 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I9">
         <v>6477864344</v>
@@ -22574,16 +22667,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -22595,7 +22688,7 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I10">
         <v>6477864344</v>
@@ -22609,16 +22702,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C11">
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -22630,7 +22723,7 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I11">
         <v>6477864344</v>
@@ -22644,16 +22737,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B12" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C12">
         <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -22665,7 +22758,7 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I12">
         <v>6477864344</v>
@@ -22679,16 +22772,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C13">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -22700,7 +22793,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I13">
         <v>6477864344</v>
@@ -22714,16 +22807,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C14">
         <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -22735,7 +22828,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I14">
         <v>6477864344</v>
@@ -22749,16 +22842,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C15">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -22770,7 +22863,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I15">
         <v>6477864344</v>
@@ -22784,16 +22877,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C16">
         <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -22805,7 +22898,7 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I16">
         <v>6477864344</v>
@@ -22819,16 +22912,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C17">
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -22840,7 +22933,7 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I17">
         <v>6477864344</v>
@@ -22854,16 +22947,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C18">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -22875,7 +22968,7 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I18">
         <v>6477864344</v>
@@ -22889,16 +22982,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -22910,7 +23003,7 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I19">
         <v>6477864344</v>
@@ -22924,16 +23017,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C20">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -22945,7 +23038,7 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I20">
         <v>6477864344</v>
@@ -22959,16 +23052,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C21">
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -22980,7 +23073,7 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I21">
         <v>6477864344</v>
@@ -22994,16 +23087,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -23015,7 +23108,7 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I22">
         <v>6477864344</v>
@@ -23029,16 +23122,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -23050,7 +23143,7 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I23">
         <v>6477864344</v>
@@ -23064,16 +23157,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C24">
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -23085,7 +23178,7 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I24">
         <v>6477864344</v>
@@ -23099,16 +23192,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C25">
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -23120,7 +23213,7 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I25">
         <v>6477864344</v>
@@ -23134,16 +23227,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C26">
         <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -23155,7 +23248,7 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I26">
         <v>6477864344</v>
@@ -23169,16 +23262,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C27">
         <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -23190,7 +23283,7 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I27">
         <v>6477864344</v>
@@ -23204,16 +23297,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B28" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23225,7 +23318,7 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I28">
         <v>6477864344</v>
@@ -23239,16 +23332,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B29" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C29">
         <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23260,7 +23353,7 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I29">
         <v>6477864344</v>
@@ -23274,28 +23367,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>600</v>
+        <v>785</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C30">
         <v>830</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>599</v>
+        <v>784</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -23309,16 +23402,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B31" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C31">
         <v>645</v>
       </c>
       <c r="D31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -23330,7 +23423,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -23344,16 +23437,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C32">
         <v>1095</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23365,19 +23458,19 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K32" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s">
         <v>107</v>
@@ -23388,16 +23481,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="B33" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -23409,19 +23502,19 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
       </c>
       <c r="J33" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K33" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="L33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s">
         <v>107</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BEDCB9-C3B0-4D97-895B-0C990A04808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59DECA8-1992-40CF-8706-E27F7A9A8E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
@@ -9583,9 +9583,6 @@
     <t>Arctic King Window AC</t>
   </si>
   <si>
-    <t xml:space="preserve">8000 BTU Air Conditioners - Arctic King, OmniMax, Forest Air </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store! ✨
@@ -9679,9 +9676,6 @@
   </si>
   <si>
     <t>10000 BTU AC</t>
-  </si>
-  <si>
-    <t>Arctic King, Hisense Air Conditioner - 13500 BTU, 13000BTU, 12000BTU</t>
   </si>
   <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -10818,13 +10812,7 @@
     <t>Ecohouzng Tower Air Cooler with Humidity, 41-inches</t>
   </si>
   <si>
-    <t>Arctic King Window Air Conditioner 10000 BTU</t>
-  </si>
-  <si>
     <t>Dyson Vacuums - Gen5 Outsize, Gen5 Detect, V15 Detect, DC77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000 BTU Air Conditioners - Arctic King, KoolKing </t>
   </si>
   <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -13430,144 +13418,6 @@
 TORONTO, ON
 M4T 1Y7
 647 786 4344 (MАIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-Motorola Phones - Moto Edge Plus, Moto Edge, Moto G 5G, Moto G60S, Moto One Ace 5G, Moto G Stylus 5G, Moto G Power, Moto G Play, Moto G Pure Phone
-BLOWOUT SALE!!!
--------------------------------------------
-MOTO EDGE PLUS 2020 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $495 (CASH NO TAX)
--------------------------------------------
-MOTO EDGE 2022 ( CANADIAN MODEL) 256GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $395 (CASH NO TAX)
-MOTO EDGE 2022 256GB (CANADIAN MODEL)
-(OPEN BOX WITH WARRANTY)
-PRICE - $345 (CASH NO TAX)
--------------------------------------------
-MOTO EDGE 2021 256GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $275 (CASH NO TAX)
--------------------------------------------
-MOTO EDGE 20 LITE 5G 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX)
-------------------------------------------
-MOTO G 5G 64GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $125 (CASH NO TAX)
--------------------------------------------
-MOTO G9 Plus 4GB RAM 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX)
--------------------------------------------
-MOTO G60S 6GB RAM 128GB (DUAL SIM)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $260 (CASH NO TAX)
--------------------------------------------
-MOTO G PRO 4GB RAM 128GB WITH STYLUS (DUAL SIM)
-(OPEN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
--------------------------------------------
-Moto G Stylus 5G 2023 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Moto G Stylus 5G 2022 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-Moto G Stylus 5G 2021 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Moto G Stylus 4G 2023 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-Moto G Stylus 4G 2023 64GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $145 (CASH NO TAX)
-Moto G Stylus 4G 2022 128GB
-(BRAND NEW WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Moto G Stylus 4G 2022 128GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $170(CASH NO TAX)
-Moto G Stylus 2020 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $150 (CASH NO TAX)
--------------------------------------------
-Motorola E32 64GB 2022 (DUAL SIM)
-(OPEN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
--------------------------------------------
-MOTOROLA MOTO ONE ACE 5G 128GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-MOTOROLA MOTO ONE ACE 5G 64GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $160 (CASH NO TAX)
----------------------------------------------
-MOTOROLA MOTO ONE MACRO 64GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
----------------------------------------------
-Moto G POWER 128GB
-(BRAND NEW IN BOX WITH WARRANTY) 
-PRICE - $195 (CASH NO TAX)
-Moto G POWER 64GB 2022
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $140 (CASH NO TAX)
-Moto G POWER 64GB 2021
-(BRAND NEW IN BOX WITH WARRANTY) 
-PRICE - $125 (CASH NO TAX)
--------------------------------------------
-MOTO E13 2GB RAM 64GB (DUAL SIM)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $150 (CASH NO TAX)
--------------------------------------------
-MOTO G PLAY 2023 32GB
-(BRAND NEW IN BOX WITH WARRANTY) 
-PRICE - $175 (CASH NO TAX)
-MOTO G PLAY 2023 32GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $110 (CASH NO TAX)
----------------------------------------------
-MOTO E 32GB UNLOCKED
-(OPEN BOX WITH WARRANTY)
-PRICE - $125 (CASH NO TAX)
----------------------------------------------
-MOTO G PURE 32GB UNLOCKED
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $115 (CASH NO TAX)
----------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
 416 474 4786
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
@@ -13890,6 +13740,156 @@
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
   </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+Motorola Phones - Moto Edge Plus, Moto Edge, Moto G 5G, Moto G60S, Moto One Ace 5G, Moto G Stylus 5G, Moto G Power, Moto G Play, Moto G Pure Phone
+BLOWOUT SALE!!!
+-------------------------------------------
+MOTO EDGE PLUS 2020 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $495 (CASH NO TAX)
+-------------------------------------------
+MOTO EDGE 2022 ( CANADIAN MODEL) 256GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $395 (CASH NO TAX)
+MOTO EDGE 2022 256GB (CANADIAN MODEL)
+(OPEN BOX WITH WARRANTY)
+PRICE - $345 (CASH NO TAX)
+-------------------------------------------
+MOTO EDGE 2021 256GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+-------------------------------------------
+MOTO EDGE 20 LITE 5G 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $295 (CASH NO TAX)
+------------------------------------------
+MOTO G 5G 64GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $125 (CASH NO TAX)
+-------------------------------------------
+MOTO G9 Plus 4GB RAM 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $295 (CASH NO TAX)
+-------------------------------------------
+MOTO G60S 6GB RAM 128GB (DUAL SIM)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $260 (CASH NO TAX)
+-------------------------------------------
+MOTO G PRO 4GB RAM 128GB WITH STYLUS (DUAL SIM)
+(OPEN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+-------------------------------------------
+Moto G Stylus 5G 2023 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+Moto G Stylus 5G 2022 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+Moto G Stylus 5G 2021 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+Moto G Stylus 4G 2023 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $195  (CASH NO TAX)
+Moto G Stylus 4G 2023 64GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $145 (CASH NO TAX)
+Moto G Stylus 4G 2022 128GB
+(BRAND NEW WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+Moto G Stylus 4G 2022 128GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $170(CASH NO TAX)
+Moto G Stylus 2020 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $150 (CASH NO TAX)
+-------------------------------------------
+Motorola E32 64GB 2022 (DUAL SIM)
+(OPEN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-------------------------------------------
+MOTOROLA MOTO ONE ACE 5G 128GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+MOTOROLA MOTO ONE ACE 5G 64GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $160 (CASH NO TAX)
+---------------------------------------------
+MOTOROLA MOTO ONE MACRO 64GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+---------------------------------------------
+Moto G POWER 128GB
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $195 (CASH NO TAX)
+Moto G POWER 64GB 2022
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $140 (CASH NO TAX)
+Moto G POWER 64GB 2021
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $125 (CASH NO TAX)
+-------------------------------------------
+MOTO E13 2GB RAM 64GB (DUAL SIM)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $150 (CASH NO TAX)
+-------------------------------------------
+MOTO G PLAY 2023 32GB
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $175 (CASH NO TAX)
+MOTO G PLAY 2023 32GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $110 (CASH NO TAX)
+---------------------------------------------
+MOTO E 32GB UNLOCKED
+(OPEN BOX WITH WARRANTY)
+PRICE - $125 (CASH NO TAX)
+---------------------------------------------
+MOTO G PURE 32GB UNLOCKED
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $115 (CASH NO TAX)
+---------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Air Conditioner by Arctic King and Hisense</t>
+  </si>
+  <si>
+    <t>Window Air Conditioner by Arctic King 10000 BTU</t>
+  </si>
+  <si>
+    <t>Air Conditioners by Arctic King and KoolKing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Conditioners by Arctic King, OmniMax, Forest Air </t>
+  </si>
 </sst>
 </file>
 
@@ -13981,7 +13981,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -13992,9 +13992,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -14314,8 +14311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14386,7 +14383,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14515,7 +14512,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14559,7 +14556,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14647,7 +14644,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14691,7 +14688,7 @@
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14814,7 +14811,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -14887,7 +14884,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B14" t="s">
         <v>470</v>
@@ -14896,7 +14893,7 @@
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -15142,7 +15139,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15215,7 +15212,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B22" t="s">
         <v>468</v>
@@ -15224,7 +15221,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15256,7 +15253,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B23" t="s">
         <v>473</v>
@@ -15265,7 +15262,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15511,7 +15508,7 @@
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -15666,7 +15663,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B33" t="s">
         <v>589</v>
@@ -15675,7 +15672,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -15687,7 +15684,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15716,7 +15713,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16289,7 +16286,7 @@
         <v>517</v>
       </c>
       <c r="K13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L13" t="s">
         <v>242</v>
@@ -16333,7 +16330,7 @@
         <v>521</v>
       </c>
       <c r="K14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L14" t="s">
         <v>242</v>
@@ -16377,7 +16374,7 @@
         <v>525</v>
       </c>
       <c r="K15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L15" t="s">
         <v>242</v>
@@ -16465,7 +16462,7 @@
         <v>542</v>
       </c>
       <c r="K17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L17" t="s">
         <v>242</v>
@@ -16509,7 +16506,7 @@
         <v>546</v>
       </c>
       <c r="K18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L18" t="s">
         <v>242</v>
@@ -16553,7 +16550,7 @@
         <v>550</v>
       </c>
       <c r="K19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L19" t="s">
         <v>242</v>
@@ -16597,7 +16594,7 @@
         <v>554</v>
       </c>
       <c r="K20" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L20" t="s">
         <v>242</v>
@@ -16641,7 +16638,7 @@
         <v>554</v>
       </c>
       <c r="K21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L21" t="s">
         <v>242</v>
@@ -16685,7 +16682,7 @@
         <v>561</v>
       </c>
       <c r="K22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L22" t="s">
         <v>242</v>
@@ -16729,7 +16726,7 @@
         <v>565</v>
       </c>
       <c r="K23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L23" t="s">
         <v>242</v>
@@ -16773,7 +16770,7 @@
         <v>618</v>
       </c>
       <c r="K24" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L24" t="s">
         <v>242</v>
@@ -16808,7 +16805,7 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
@@ -16817,7 +16814,7 @@
         <v>626</v>
       </c>
       <c r="K25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L25" t="s">
         <v>242</v>
@@ -16861,7 +16858,7 @@
         <v>630</v>
       </c>
       <c r="K26" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L26" t="s">
         <v>242</v>
@@ -16905,7 +16902,7 @@
         <v>634</v>
       </c>
       <c r="K27" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="L27" t="s">
         <v>242</v>
@@ -16949,7 +16946,7 @@
         <v>638</v>
       </c>
       <c r="K28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L28" t="s">
         <v>242</v>
@@ -16963,7 +16960,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B29" t="s">
         <v>474</v>
@@ -16972,7 +16969,7 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -16984,7 +16981,7 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
@@ -16993,7 +16990,7 @@
         <v>640</v>
       </c>
       <c r="K29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L29" t="s">
         <v>242</v>
@@ -17007,7 +17004,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B30" t="s">
         <v>468</v>
@@ -17016,7 +17013,7 @@
         <v>260</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17028,16 +17025,16 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="K30" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="L30" t="s">
         <v>242</v>
@@ -17051,7 +17048,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B31" t="s">
         <v>468</v>
@@ -17060,7 +17057,7 @@
         <v>175</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17072,16 +17069,16 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="J31" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="K31" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="L31" t="s">
         <v>242</v>
@@ -17095,7 +17092,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B32" t="s">
         <v>473</v>
@@ -17104,7 +17101,7 @@
         <v>1795</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -17116,16 +17113,16 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K32" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="L32" t="s">
         <v>242</v>
@@ -17139,7 +17136,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B33" t="s">
         <v>467</v>
@@ -17148,7 +17145,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -17160,16 +17157,16 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
       </c>
       <c r="J33" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="K33" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="L33" t="s">
         <v>242</v>
@@ -17192,7 +17189,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17446,7 +17443,7 @@
         <v>105</v>
       </c>
       <c r="M6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
@@ -17504,7 +17501,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17627,7 +17624,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17668,7 +17665,7 @@
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17782,7 +17779,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B15" t="s">
         <v>470</v>
@@ -17791,7 +17788,7 @@
         <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -17864,7 +17861,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B17" t="s">
         <v>467</v>
@@ -18119,7 +18116,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -18242,7 +18239,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -18330,7 +18327,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -18438,7 +18435,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>711</v>
+        <v>791</v>
       </c>
       <c r="B31" t="s">
         <v>474</v>
@@ -18479,7 +18476,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B32" t="s">
         <v>475</v>
@@ -18488,7 +18485,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18500,7 +18497,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -18520,16 +18517,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B33" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C33">
         <v>450</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -18541,7 +18538,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -18675,7 +18672,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18716,7 +18713,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -19085,7 +19082,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19363,7 +19360,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B20" t="s">
         <v>477</v>
@@ -19372,7 +19369,7 @@
         <v>275</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19536,7 +19533,7 @@
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19700,7 +19697,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19989,7 +19986,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20093,7 +20090,7 @@
         <v>695</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20236,7 +20233,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B7" t="s">
         <v>466</v>
@@ -20245,7 +20242,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20348,7 +20345,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>266</v>
       </c>
@@ -20358,8 +20355,8 @@
       <c r="C10">
         <v>375</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>755</v>
+      <c r="D10" s="2" t="s">
+        <v>751</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20397,7 +20394,7 @@
         <v>495</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -20663,7 +20660,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -20777,7 +20774,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20859,7 +20856,7 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -20891,7 +20888,7 @@
         <v>190</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20967,7 +20964,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -21110,7 +21107,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>657</v>
+        <v>793</v>
       </c>
       <c r="B30" t="s">
         <v>474</v>
@@ -21119,7 +21116,7 @@
         <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21131,7 +21128,7 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21148,7 +21145,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>713</v>
+        <v>792</v>
       </c>
       <c r="B31" t="s">
         <v>474</v>
@@ -21157,7 +21154,7 @@
         <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21169,7 +21166,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21186,7 +21183,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B32" t="s">
         <v>584</v>
@@ -21195,7 +21192,7 @@
         <v>260</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21207,7 +21204,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21224,7 +21221,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B33" t="s">
         <v>473</v>
@@ -21233,7 +21230,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -21245,7 +21242,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I33">
         <v>6477864344</v>
@@ -21270,7 +21267,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21339,7 +21336,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21376,7 +21373,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -21413,7 +21410,7 @@
         <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21598,7 +21595,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -21626,7 +21623,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>587</v>
@@ -21635,7 +21632,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -21746,7 +21743,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -21848,7 +21845,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>588</v>
@@ -21857,7 +21854,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -21894,7 +21891,7 @@
         <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -22042,7 +22039,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22070,7 +22067,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>473</v>
@@ -22079,7 +22076,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22107,7 +22104,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>589</v>
@@ -22116,7 +22113,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22218,7 +22215,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>477</v>
@@ -22227,7 +22224,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22368,7 +22365,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>662</v>
+        <v>790</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>474</v>
@@ -22377,7 +22374,7 @@
         <v>495</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22389,7 +22386,7 @@
         <v>35</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -22405,7 +22402,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>477</v>
@@ -22414,7 +22411,7 @@
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -22426,7 +22423,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -22442,7 +22439,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>473</v>
@@ -22451,7 +22448,7 @@
         <v>975</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -22463,7 +22460,7 @@
         <v>35</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -22623,7 +22620,7 @@
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22658,7 +22655,7 @@
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -23218,7 +23215,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -23463,7 +23460,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23524,7 +23521,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B30" t="s">
         <v>473</v>
@@ -23533,7 +23530,7 @@
         <v>830</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -23603,7 +23600,7 @@
         <v>1095</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23638,7 +23635,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B33" t="s">
         <v>466</v>
@@ -23647,7 +23644,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -23659,7 +23656,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -23668,7 +23665,7 @@
         <v>533</v>
       </c>
       <c r="K33" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="L33" t="s">
         <v>242</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59DECA8-1992-40CF-8706-E27F7A9A8E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC0D83-70F3-486E-A462-F368A70A0826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7228,45 +7228,6 @@
   </si>
   <si>
     <t>Apple Macbook Pro 2023 M3 Pro Chip 512GB</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Apple MacBook Pro 2023 - 14"
-------------------------------------------------------
-Apple MacBook Pro 2023 - 14"
-M3 PRO
-18GB RAM
-512GB SSD Storage
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-Price - $2495 (CASH NO TAX)
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Macbook Pro 2023</t>
@@ -8630,9 +8591,6 @@
     <t>Samsung Phones - Samsung A73, A71, A54, A53, A52s, A52, A50</t>
   </si>
   <si>
-    <t xml:space="preserve">Marshall Major IV On-Ear Bluetooth Headphone </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store! ✨
@@ -9006,46 +8964,6 @@
   </si>
   <si>
     <t>Motorola G Stylus 4G 2023 BRAND NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Moto G Stylus 4G 2023 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-------------------------------------------------------
-Moto G Stylus 4G 2023 64GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $145 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
   </si>
   <si>
     <t>Moto G Stylus 4G 2023</t>
@@ -13889,6 +13807,88 @@
   </si>
   <si>
     <t xml:space="preserve">Air Conditioners by Arctic King, OmniMax, Forest Air </t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Apple MacBook Pro 2023 - 14"
+------------------------------------------------------
+Apple MacBook Pro 2023 - 14"
+M3 PRO
+18GB RAM
+512GB SSD Storage
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+Price - $2395 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Marshall Major IV On-Ear Bluetooth Headphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Moto G Stylus 4G 2023 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+------------------------------------------------------
+Moto G Stylus 4G 2023 64GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $145 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
   </si>
 </sst>
 </file>
@@ -14311,8 +14311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14383,7 +14383,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14424,7 +14424,7 @@
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14512,7 +14512,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14556,7 +14556,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14644,7 +14644,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14688,7 +14688,7 @@
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14811,7 +14811,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -14884,7 +14884,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B14" t="s">
         <v>470</v>
@@ -14893,7 +14893,7 @@
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -14934,7 +14934,7 @@
         <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -15130,7 +15130,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B20" t="s">
         <v>470</v>
@@ -15139,7 +15139,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15212,7 +15212,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B22" t="s">
         <v>468</v>
@@ -15221,7 +15221,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15253,7 +15253,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B23" t="s">
         <v>473</v>
@@ -15262,7 +15262,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15458,7 +15458,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B28" t="s">
         <v>475</v>
@@ -15467,7 +15467,7 @@
         <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -15508,7 +15508,7 @@
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -15622,7 +15622,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B32" t="s">
         <v>467</v>
@@ -15631,7 +15631,7 @@
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -15643,7 +15643,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15663,16 +15663,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C33">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -15684,7 +15684,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15712,8 +15712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15775,7 +15775,7 @@
         <v>481</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C2">
         <v>160</v>
@@ -15819,7 +15819,7 @@
         <v>485</v>
       </c>
       <c r="B3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -15863,7 +15863,7 @@
         <v>489</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -16001,7 +16001,7 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16133,7 +16133,7 @@
         <v>1095</v>
       </c>
       <c r="D10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16215,7 +16215,7 @@
         <v>510</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -16286,7 +16286,7 @@
         <v>517</v>
       </c>
       <c r="K13" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="L13" t="s">
         <v>242</v>
@@ -16306,10 +16306,10 @@
         <v>477</v>
       </c>
       <c r="C14">
-        <v>2495</v>
-      </c>
-      <c r="D14" t="s">
-        <v>519</v>
+        <v>2395</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -16321,16 +16321,16 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="J14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L14" t="s">
         <v>242</v>
@@ -16344,7 +16344,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
         <v>473</v>
@@ -16353,7 +16353,7 @@
         <v>725</v>
       </c>
       <c r="D15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -16365,16 +16365,16 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="J15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="L15" t="s">
         <v>242</v>
@@ -16388,7 +16388,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B16" t="s">
         <v>478</v>
@@ -16397,7 +16397,7 @@
         <v>595</v>
       </c>
       <c r="D16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16409,16 +16409,16 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
+        <v>536</v>
+      </c>
+      <c r="K16" t="s">
         <v>537</v>
-      </c>
-      <c r="K16" t="s">
-        <v>538</v>
       </c>
       <c r="L16" t="s">
         <v>242</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B17" t="s">
         <v>475</v>
@@ -16441,7 +16441,7 @@
         <v>670</v>
       </c>
       <c r="D17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16453,16 +16453,16 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K17" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="L17" t="s">
         <v>242</v>
@@ -16476,7 +16476,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B18" t="s">
         <v>475</v>
@@ -16485,7 +16485,7 @@
         <v>475</v>
       </c>
       <c r="D18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16497,16 +16497,16 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K18" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L18" t="s">
         <v>242</v>
@@ -16520,7 +16520,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B19" t="s">
         <v>475</v>
@@ -16529,7 +16529,7 @@
         <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16541,16 +16541,16 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K19" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="L19" t="s">
         <v>242</v>
@@ -16564,7 +16564,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B20" t="s">
         <v>475</v>
@@ -16573,7 +16573,7 @@
         <v>400</v>
       </c>
       <c r="D20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16585,16 +16585,16 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K20" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L20" t="s">
         <v>242</v>
@@ -16608,7 +16608,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B21" t="s">
         <v>475</v>
@@ -16617,7 +16617,7 @@
         <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16629,16 +16629,16 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K21" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L21" t="s">
         <v>242</v>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B22" t="s">
         <v>475</v>
@@ -16661,7 +16661,7 @@
         <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16673,16 +16673,16 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L22" t="s">
         <v>242</v>
@@ -16696,7 +16696,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B23" t="s">
         <v>475</v>
@@ -16705,7 +16705,7 @@
         <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16717,16 +16717,16 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K23" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="L23" t="s">
         <v>242</v>
@@ -16740,7 +16740,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>615</v>
+        <v>792</v>
       </c>
       <c r="B24" t="s">
         <v>468</v>
@@ -16749,7 +16749,7 @@
         <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16761,16 +16761,16 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K24" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L24" t="s">
         <v>242</v>
@@ -16784,7 +16784,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B25" t="s">
         <v>473</v>
@@ -16793,7 +16793,7 @@
         <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -16805,16 +16805,16 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K25" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L25" t="s">
         <v>242</v>
@@ -16828,7 +16828,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B26" t="s">
         <v>473</v>
@@ -16837,7 +16837,7 @@
         <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -16849,16 +16849,16 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K26" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="L26" t="s">
         <v>242</v>
@@ -16872,7 +16872,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B27" t="s">
         <v>473</v>
@@ -16881,7 +16881,7 @@
         <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -16893,16 +16893,16 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K27" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L27" t="s">
         <v>242</v>
@@ -16916,16 +16916,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B28" t="s">
         <v>473</v>
       </c>
       <c r="C28">
-        <v>175</v>
-      </c>
-      <c r="D28" t="s">
-        <v>636</v>
+        <v>195</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>793</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -16937,16 +16937,16 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K28" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L28" t="s">
         <v>242</v>
@@ -16960,7 +16960,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B29" t="s">
         <v>474</v>
@@ -16969,7 +16969,7 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -16981,16 +16981,16 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K29" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L29" t="s">
         <v>242</v>
@@ -17004,7 +17004,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B30" t="s">
         <v>468</v>
@@ -17013,7 +17013,7 @@
         <v>260</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17025,16 +17025,16 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K30" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="L30" t="s">
         <v>242</v>
@@ -17048,7 +17048,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B31" t="s">
         <v>468</v>
@@ -17057,7 +17057,7 @@
         <v>175</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17069,16 +17069,16 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="J31" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K31" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L31" t="s">
         <v>242</v>
@@ -17092,7 +17092,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B32" t="s">
         <v>473</v>
@@ -17101,7 +17101,7 @@
         <v>1795</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -17113,16 +17113,16 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K32" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="L32" t="s">
         <v>242</v>
@@ -17136,7 +17136,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B33" t="s">
         <v>467</v>
@@ -17145,7 +17145,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -17157,16 +17157,16 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
       </c>
       <c r="J33" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K33" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="L33" t="s">
         <v>242</v>
@@ -17188,8 +17188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17290,7 +17290,7 @@
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -17443,7 +17443,7 @@
         <v>105</v>
       </c>
       <c r="M6" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
@@ -17451,7 +17451,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B7" t="s">
         <v>475</v>
@@ -17460,7 +17460,7 @@
         <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17501,7 +17501,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17577,7 +17577,7 @@
         <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C10">
         <v>545</v>
@@ -17618,13 +17618,13 @@
         <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17665,7 +17665,7 @@
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17741,7 +17741,7 @@
         <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C14">
         <v>390</v>
@@ -17779,7 +17779,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B15" t="s">
         <v>470</v>
@@ -17788,7 +17788,7 @@
         <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -17823,7 +17823,7 @@
         <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -17861,7 +17861,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B17" t="s">
         <v>467</v>
@@ -17870,7 +17870,7 @@
         <v>490</v>
       </c>
       <c r="D17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -17905,7 +17905,7 @@
         <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -17993,7 +17993,7 @@
         <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -18034,7 +18034,7 @@
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18069,13 +18069,13 @@
         <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -18116,7 +18116,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -18192,7 +18192,7 @@
         <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C25">
         <v>45</v>
@@ -18233,13 +18233,13 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C26">
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -18327,7 +18327,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B29" t="s">
         <v>475</v>
@@ -18362,7 +18362,7 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -18397,7 +18397,7 @@
         <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C30">
         <v>545</v>
@@ -18435,7 +18435,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B31" t="s">
         <v>474</v>
@@ -18444,7 +18444,7 @@
         <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18456,7 +18456,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18476,7 +18476,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B32" t="s">
         <v>475</v>
@@ -18485,7 +18485,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18497,7 +18497,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -18517,16 +18517,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B33" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C33">
         <v>450</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -18538,7 +18538,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -18567,7 +18567,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18672,7 +18672,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18713,7 +18713,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -18789,7 +18789,7 @@
         <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -18871,7 +18871,7 @@
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C8">
         <v>145</v>
@@ -18959,7 +18959,7 @@
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -18991,16 +18991,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -19035,13 +19035,13 @@
         <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -19082,7 +19082,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19117,7 +19117,7 @@
         <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -19158,7 +19158,7 @@
         <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C15">
         <v>35</v>
@@ -19281,7 +19281,7 @@
         <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -19322,7 +19322,7 @@
         <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -19360,7 +19360,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B20" t="s">
         <v>477</v>
@@ -19369,7 +19369,7 @@
         <v>275</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19486,7 +19486,7 @@
         <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -19533,7 +19533,7 @@
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19609,7 +19609,7 @@
         <v>221</v>
       </c>
       <c r="B26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C26">
         <v>425</v>
@@ -19650,7 +19650,7 @@
         <v>224</v>
       </c>
       <c r="B27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -19697,7 +19697,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19893,7 +19893,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B33" t="s">
         <v>474</v>
@@ -19902,7 +19902,7 @@
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -19914,7 +19914,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -19934,7 +19934,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B34" t="s">
         <v>478</v>
@@ -19943,7 +19943,7 @@
         <v>1295</v>
       </c>
       <c r="D34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -19955,16 +19955,16 @@
         <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I34">
         <v>4164744786</v>
       </c>
       <c r="J34" t="s">
+        <v>528</v>
+      </c>
+      <c r="K34" t="s">
         <v>529</v>
-      </c>
-      <c r="K34" t="s">
-        <v>530</v>
       </c>
       <c r="L34" t="s">
         <v>242</v>
@@ -19986,7 +19986,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20084,13 +20084,13 @@
         <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C3">
         <v>695</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20122,7 +20122,7 @@
         <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -20160,7 +20160,7 @@
         <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -20198,7 +20198,7 @@
         <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C6">
         <v>245</v>
@@ -20233,7 +20233,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B7" t="s">
         <v>466</v>
@@ -20242,7 +20242,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20356,7 +20356,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20394,7 +20394,7 @@
         <v>495</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -20426,7 +20426,7 @@
         <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C12">
         <v>35</v>
@@ -20464,7 +20464,7 @@
         <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C13">
         <v>195</v>
@@ -20502,7 +20502,7 @@
         <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C14">
         <v>145</v>
@@ -20578,7 +20578,7 @@
         <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C16">
         <v>55</v>
@@ -20616,7 +20616,7 @@
         <v>282</v>
       </c>
       <c r="B17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -20654,13 +20654,13 @@
         <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C18">
         <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -20692,7 +20692,7 @@
         <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C19">
         <v>275</v>
@@ -20730,7 +20730,7 @@
         <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -20774,7 +20774,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20841,7 +20841,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B23" t="s">
         <v>473</v>
@@ -20850,13 +20850,13 @@
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -20888,7 +20888,7 @@
         <v>190</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20917,7 +20917,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B25" t="s">
         <v>473</v>
@@ -20926,7 +20926,7 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -20964,7 +20964,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -20996,7 +20996,7 @@
         <v>304</v>
       </c>
       <c r="B27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C27">
         <v>55</v>
@@ -21034,13 +21034,13 @@
         <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C28">
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -21107,7 +21107,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B30" t="s">
         <v>474</v>
@@ -21116,7 +21116,7 @@
         <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21128,7 +21128,7 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21145,7 +21145,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B31" t="s">
         <v>474</v>
@@ -21154,7 +21154,7 @@
         <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21166,7 +21166,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21183,16 +21183,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C32">
         <v>260</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21204,7 +21204,7 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21221,7 +21221,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B33" t="s">
         <v>473</v>
@@ -21230,7 +21230,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -21242,7 +21242,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I33">
         <v>6477864344</v>
@@ -21327,7 +21327,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>477</v>
@@ -21336,7 +21336,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21373,7 +21373,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -21410,7 +21410,7 @@
         <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21478,7 +21478,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C6" s="2">
         <v>25</v>
@@ -21515,7 +21515,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C7" s="2">
         <v>325</v>
@@ -21589,13 +21589,13 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C9" s="2">
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -21607,7 +21607,7 @@
         <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I9" s="2">
         <v>6477864344</v>
@@ -21623,16 +21623,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C10" s="2">
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -21663,7 +21663,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C11" s="2">
         <v>130</v>
@@ -21743,7 +21743,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -21817,7 +21817,7 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -21845,16 +21845,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -21891,7 +21891,7 @@
         <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -22033,13 +22033,13 @@
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C21" s="2">
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22067,7 +22067,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>473</v>
@@ -22076,7 +22076,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22104,16 +22104,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22215,7 +22215,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>477</v>
@@ -22224,7 +22224,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22292,7 +22292,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C28" s="2">
         <v>85</v>
@@ -22329,7 +22329,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C29" s="2">
         <v>195</v>
@@ -22360,12 +22360,12 @@
         <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>474</v>
@@ -22374,7 +22374,7 @@
         <v>495</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22386,7 +22386,7 @@
         <v>35</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -22402,7 +22402,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>477</v>
@@ -22411,7 +22411,7 @@
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -22423,7 +22423,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -22439,7 +22439,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>473</v>
@@ -22448,7 +22448,7 @@
         <v>975</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -22460,7 +22460,7 @@
         <v>35</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -22484,7 +22484,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22544,7 +22544,7 @@
         <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2">
         <v>145</v>
@@ -22620,7 +22620,7 @@
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22655,7 +22655,7 @@
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -22684,7 +22684,7 @@
         <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C6">
         <v>75</v>
@@ -22754,7 +22754,7 @@
         <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C8">
         <v>195</v>
@@ -22824,7 +22824,7 @@
         <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -22894,7 +22894,7 @@
         <v>335</v>
       </c>
       <c r="B12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -22999,7 +22999,7 @@
         <v>344</v>
       </c>
       <c r="B15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -23034,7 +23034,7 @@
         <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C16">
         <v>345</v>
@@ -23215,7 +23215,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -23244,7 +23244,7 @@
         <v>364</v>
       </c>
       <c r="B22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -23276,7 +23276,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B23" t="s">
         <v>475</v>
@@ -23311,7 +23311,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B24" t="s">
         <v>467</v>
@@ -23320,7 +23320,7 @@
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -23349,7 +23349,7 @@
         <v>370</v>
       </c>
       <c r="B25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C25">
         <v>175</v>
@@ -23460,7 +23460,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23521,7 +23521,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B30" t="s">
         <v>473</v>
@@ -23530,7 +23530,7 @@
         <v>830</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -23559,7 +23559,7 @@
         <v>385</v>
       </c>
       <c r="B31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C31">
         <v>645</v>
@@ -23591,7 +23591,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B32" t="s">
         <v>478</v>
@@ -23600,7 +23600,7 @@
         <v>1095</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23612,16 +23612,16 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L32" t="s">
         <v>242</v>
@@ -23635,7 +23635,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B33" t="s">
         <v>466</v>
@@ -23644,7 +23644,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -23656,16 +23656,16 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
       </c>
       <c r="J33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K33" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="L33" t="s">
         <v>242</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4038C81F-E883-43E1-B338-BD3638817463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1D2F7-6299-4372-9CE0-6F37C599188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="805">
   <si>
     <t>Title</t>
   </si>
@@ -4330,77 +4330,6 @@
   </si>
   <si>
     <t>Smart Watches - Samsung Watch 6 Classic 47mm, Watch 6 40mm, 44mm</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadiаn Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our stоre! ✨
----------------------------------------------
-Samsung Latest Smart Watches - Samsung Galaxy Watch 6, Samsung Watch 6 Classic
-----------------------------------------------------
-SAMSUNG GALAXY WATCH 6
-Samsung Galaxy Watch6 Classic (LTE) 47mm Smartwatch (CANADIAN MODEL)
-(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
-PRICE - $445 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Watch6 Classic GPS 47mm Smartwatch (CANADIAN MODEL)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $395 (CASH NO TAX)
-Samsung Galaxy Watch6 Сlassic (GPS) 47mm Smartwatch
-(BRAND NEW IN BOX WARRANTY)
-РRICE - $355 (CASH NO TAX)
-Samsung Galaxy Watch6 Classiс (GPS) 47mm Smartwatch
-(NEW OPEN BOX WITH WARRANTY)
-PRIСE - $300 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Watch6 (GPS) 44mm Smartwatсh
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $265 (CASH NО TAX)
-Samsung Galaxy Watch6 (GPS) 44mm Smartwatch
-(NEW OPEN BOX WITH WARRANTY)
-РRICE - $195 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Watch6 (GPS) 40mm Smartwatch
-(BRAND NEW IN BOX WITH WАRRANTY)
-PRICE - $225 (CASH NO TAX)
-Samsung Galaxy Wаtch6 (GPS) 40mm Smartwatch
-(NEW OPEN BOX WITH WARRANTY)
-PRICE - $195(CASH NO TAX)
-----------------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depеnds on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing whеn you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Рay Bright
-----------------------------------------------------
-Storefront is open to public 7 days a week
-----------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTО, ON
-M4T 1Y7
-647 786 4344 (MАIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Samsung Watch 6</t>
@@ -9129,49 +9058,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hard Drives - LaCie, Seagate OneTouch, WD </t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choicе!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Elgato Game Capture HD60X, Elgato Game Capture HD60X, Elgato Facecam, Elgato Stream Deck
-------------------------------
-Elgato Game Capture HD60S
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Elgato Facecam Premium Full HD Webcam
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-РRICE - $175 (CASH NO TAX)
-Elgato Game Capture HD60X
-(BRАND NEW IN BOX WITH MANUFACTURER WARRANTY)
-PRICE - $165 (СASH NO TAX)
-------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends оn location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing a FREE parking facility fоr our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Elgato Streaming - Elgato HD60X, HD60S, Facecam</t>
@@ -13957,102 +13843,24 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-BLOWOUT SALE!!! 
-Samsung Galaxy S24 Ultra, Samsung Galaxy S24, Samsung Galaxy S23 Ultra, Samsung Galaxy S23, Samsung Galaxy S23+, Samsung Galaxy S23 FE, Samsung Galaxy S22 Ultra, Samsung Galaxy S22+, Samsung Galaxy S22
------------------------------------------------------------------------
-Samsung Galaxy S24 Ultra 12GB / 512GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1545 (CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 512GB (CANADIAN MODEL)
-(Brand New Open Box with Warranty)
-Price - $1295 (CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 256GB (CANADIAN MODEL)
-(Brand New Open Box with Samsung Warranty)
-Price - $1095 (CASH NO TAX)
------------------------------------------------------------------------
-Samsung Galaxy S24 256GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-PRICE - $795 (CASH NO TAX)
-Samsung Galaxy S24 256GB (CANADIAN MODEL)
-(Like New in Box with Warranty)
-PRICE - $750 (CASH NO TAX)
-Samsung Galaxy S24 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-PRICE - $695 (CASH NO TAX)
-Samsung Galaxy S24 128GB (CANADIAN MODEL)
-(Like New in Box with Warranty)
-PRICE - $695 (CASH NO TAX)
------------------------------------------------------------------------
-Samsung Galaxy S23 Ultra 512GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1250 (CASH NO TAX)
-Samsung Galaxy S23 Ultra 512GB
-(Like New in Box with Warranty)
-Price - $1045 (CASH NO TAX) (SOLD OUT)
-Samsung Galaxy S23 Ultra 256GB (DUAL SIM) 
-(Brand New in Box with 1 Year Warranty)
-Price - $1095 (CASH NO TAX)
-Samsung Galaxy S23 Ultra 256GB (CANADIAN MODEL)
-(Brand New Open Box with Samsung Warranty)
-Price - $995 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23+ 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $945 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23 256GB (CANADIAN MODEL)
-(Brand New Open Box with Samsung Warranty)
-Price - $795 (CASH NO TAX)
-Samsung Galaxy S23 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-Price - $735 (CASH NO TAX)
-Samsung Galaxy S23 5G 128GB
-(New Open Box with 6 Months Warranty) 
-Price - $625 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23 FE 5G 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $645 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 256GB
-(Like New in Box with Warranty)
-Price - $575 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-Price - $595 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 128GB
-(Like New in Box with Warranty)
-Price - $500 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22 Ultra 5G 512GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $695 (CASH NO TAX)
-Samsung Galaxy S22 Ultra 5G 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $645 (CASH NO TAX)
-Samsung Galaxy S22 Ultra 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $595 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22+ (Plus) 5G 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $495 (CASH NO TAX)
-Samsung Galaxy S22+ (Plus) 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $445 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22 5G 256GB 
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $395 (CASH NO TAX)
-Samsung Galaxy S22 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $375 (CASH NO TAX)
----------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------------------------
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choicе!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Elgato Game Capture HD60X, Elgato Game Capture HD60X, Elgato Facecam
+------------------------------
+Elgato Game Capture HD60S
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+PRICE - $195 (CASH NO TAX)
+Elgato Facecam Premium Full HD Webcam
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+РRICE - $175 (CASH NO TAX)
+Elgato Game Capture HD60X
+(BRАND NEW IN BOX WITH MANUFACTURER WARRANTY)
+PRICE - $165 (СASH NO TAX)
+------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends оn location
+---------------------------------------------------
 BUY NOW. PAY LATER.
 Get easy monthly financing when you shop with Canadian Outlet
 Split your purchase into stress-free, automatic installments with monthly Plans for:-
@@ -14060,11 +13868,70 @@
 6 Months
 12 Months
 *All financing done through Pay Bright
----------------------------------------------
+-------------------------------------------------------------------
 Storefront is open to public 7 days a week
----------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
----------------------------------------------
+-------------------------------------------------------------------
+We are providing a FREE parking facility fоr our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadiаn Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our stоre! ✨
+---------------------------------------------
+Samsung Latest Smart Watches - Samsung Galaxy Watch 6, Samsung Watch 6 Classic
+----------------------------------------------------
+SAMSUNG GALAXY WATCH 6
+Samsung Galaxy Watch6 Classic (LTE) 47mm Smartwatch (CANADIAN MODEL)
+(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
+PRICE - $445 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Watch6 Classic GPS 47mm Smartwatch (CANADIAN MODEL)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $395 (CASH NO TAX)
+Samsung Galaxy Watch6 Сlassic (GPS) 47mm Smartwatch
+(BRAND NEW IN BOX WARRANTY)
+РRICE - $355 (CASH NO TAX)
+Samsung Galaxy Watch6 Classiс (GPS) 47mm Smartwatch
+(NEW OPEN BOX WITH WARRANTY)
+PRIСE - $300 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Watch6 (GPS) 44mm Smartwatсh
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $265 (CASH NО TAX)
+----------------------------------------------------
+Samsung Galaxy Watch6 (GPS) 40mm Smartwatch
+(BRAND NEW IN BOX WITH WАRRANTY)
+PRICE - $225 (CASH NO TAX)
+Samsung Galaxy Wаtch6 (GPS) 40mm Smartwatch
+(NEW OPEN BOX WITH WARRANTY)
+PRICE - $195(CASH NO TAX)
+----------------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depеnds on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing whеn you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Рay Bright
+----------------------------------------------------
+Storefront is open to public 7 days a week
+----------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+----------------------------------------------------
 STORE LOCATION:
 CANADIAN OUTLET
 1431 YONGE STREET
@@ -14074,9 +13941,17 @@
 647 786 4344 (MAIN NUMBER)
 416 474 4786
 TIMINGS:
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTО, ON
+M4T 1Y7
+647 786 4344 (MАIN NUMBER)
+416 474 4786
+TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
+WEEKENDS: 10AM - 7PM</t>
   </si>
 </sst>
 </file>
@@ -14169,7 +14044,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -14180,9 +14055,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
@@ -14566,16 +14438,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14587,13 +14459,13 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="K2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L2" t="s">
         <v>241</v>
@@ -14607,16 +14479,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C3">
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14628,16 +14500,16 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L3" t="s">
         <v>241</v>
@@ -14651,16 +14523,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C4">
         <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -14672,16 +14544,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L4" t="s">
         <v>241</v>
@@ -14695,16 +14567,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C5">
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14722,10 +14594,10 @@
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L5" t="s">
         <v>241</v>
@@ -14739,16 +14611,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6">
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14760,16 +14632,16 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L6" t="s">
         <v>241</v>
@@ -14783,16 +14655,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7">
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -14804,16 +14676,16 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L7" t="s">
         <v>241</v>
@@ -14827,16 +14699,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14848,16 +14720,16 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L8" t="s">
         <v>241</v>
@@ -14871,16 +14743,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C9">
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14892,13 +14764,13 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="K9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L9" t="s">
         <v>241</v>
@@ -14912,16 +14784,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C10">
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -14933,13 +14805,13 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="K10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L10" t="s">
         <v>241</v>
@@ -14953,16 +14825,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -14974,13 +14846,13 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I11">
         <v>4164744786</v>
       </c>
       <c r="K11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L11" t="s">
         <v>241</v>
@@ -14994,16 +14866,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -15015,13 +14887,13 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="K12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L12" t="s">
         <v>241</v>
@@ -15035,16 +14907,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C13">
         <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -15056,13 +14928,13 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="K13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L13" t="s">
         <v>241</v>
@@ -15076,16 +14948,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C14">
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -15097,7 +14969,7 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
@@ -15117,16 +14989,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C15">
         <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -15138,7 +15010,7 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
@@ -15158,16 +15030,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C16">
         <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15179,7 +15051,7 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
@@ -15199,16 +15071,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C17">
         <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -15220,7 +15092,7 @@
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
@@ -15240,16 +15112,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C18">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -15261,7 +15133,7 @@
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
@@ -15281,16 +15153,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C19">
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -15302,7 +15174,7 @@
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
@@ -15322,16 +15194,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C20">
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15343,7 +15215,7 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
@@ -15363,16 +15235,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -15384,7 +15256,7 @@
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
@@ -15404,16 +15276,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C22">
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15425,7 +15297,7 @@
         <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
@@ -15445,16 +15317,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C23">
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15466,7 +15338,7 @@
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
@@ -15486,28 +15358,28 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C24">
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
@@ -15527,16 +15399,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C25">
         <v>845</v>
       </c>
       <c r="D25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -15548,7 +15420,7 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
@@ -15568,16 +15440,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C26">
         <v>345</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -15589,7 +15461,7 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
@@ -15609,28 +15481,28 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C27">
         <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
@@ -15650,28 +15522,28 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C28">
         <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
@@ -15691,28 +15563,28 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
@@ -15732,28 +15604,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C30">
         <v>295</v>
       </c>
       <c r="D30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
@@ -15773,28 +15645,28 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C31">
         <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -15814,28 +15686,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C32">
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15855,28 +15727,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C33">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15896,28 +15768,28 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C34">
         <v>695</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -15937,28 +15809,28 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C35">
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I35">
         <v>4164744788</v>
@@ -15986,8 +15858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16046,16 +15918,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C2">
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -16067,16 +15939,16 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="J2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L2" t="s">
         <v>241</v>
@@ -16090,16 +15962,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -16111,16 +15983,16 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L3" t="s">
         <v>241</v>
@@ -16134,16 +16006,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -16155,16 +16027,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L4" t="s">
         <v>241</v>
@@ -16178,16 +16050,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C5">
         <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -16199,16 +16071,16 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L5" t="s">
         <v>241</v>
@@ -16222,16 +16094,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C6">
         <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -16243,16 +16115,16 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L6" t="s">
         <v>241</v>
@@ -16266,16 +16138,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C7">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16287,16 +16159,16 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L7" t="s">
         <v>241</v>
@@ -16310,16 +16182,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C8">
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -16331,16 +16203,16 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L8" t="s">
         <v>241</v>
@@ -16354,16 +16226,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C9">
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16375,16 +16247,16 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="J9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L9" t="s">
         <v>241</v>
@@ -16398,16 +16270,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C10">
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16419,16 +16291,16 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="J10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L10" t="s">
         <v>241</v>
@@ -16445,7 +16317,7 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C11">
         <v>1045</v>
@@ -16469,10 +16341,10 @@
         <v>4164744786</v>
       </c>
       <c r="J11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L11" t="s">
         <v>241</v>
@@ -16486,16 +16358,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -16507,16 +16379,16 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="J12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L12" t="s">
         <v>241</v>
@@ -16530,16 +16402,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C13">
         <v>1545</v>
       </c>
       <c r="D13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16551,16 +16423,16 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="J13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L13" t="s">
         <v>241</v>
@@ -16574,37 +16446,37 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C14">
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="J14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K14" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L14" t="s">
         <v>241</v>
@@ -16618,37 +16490,37 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C15">
         <v>725</v>
       </c>
       <c r="D15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="J15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L15" t="s">
         <v>241</v>
@@ -16662,16 +16534,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C16">
         <v>595</v>
       </c>
       <c r="D16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16683,16 +16555,16 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
+        <v>530</v>
+      </c>
+      <c r="K16" t="s">
         <v>531</v>
-      </c>
-      <c r="K16" t="s">
-        <v>532</v>
       </c>
       <c r="L16" t="s">
         <v>241</v>
@@ -16706,16 +16578,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C17">
         <v>670</v>
       </c>
       <c r="D17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16727,16 +16599,16 @@
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L17" t="s">
         <v>241</v>
@@ -16750,16 +16622,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C18">
         <v>475</v>
       </c>
       <c r="D18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16771,16 +16643,16 @@
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L18" t="s">
         <v>241</v>
@@ -16794,16 +16666,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C19">
         <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16815,16 +16687,16 @@
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L19" t="s">
         <v>241</v>
@@ -16838,16 +16710,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C20">
         <v>400</v>
       </c>
       <c r="D20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16859,16 +16731,16 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K20" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L20" t="s">
         <v>241</v>
@@ -16882,16 +16754,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C21">
         <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16903,16 +16775,16 @@
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K21" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L21" t="s">
         <v>241</v>
@@ -16926,16 +16798,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C22">
         <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16947,16 +16819,16 @@
         <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K22" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L22" t="s">
         <v>241</v>
@@ -16970,16 +16842,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C23">
         <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16991,16 +16863,16 @@
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K23" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="L23" t="s">
         <v>241</v>
@@ -17014,16 +16886,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C24">
         <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -17035,16 +16907,16 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K24" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L24" t="s">
         <v>241</v>
@@ -17058,16 +16930,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C25">
         <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -17079,16 +16951,16 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K25" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L25" t="s">
         <v>241</v>
@@ -17102,16 +16974,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C26">
         <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -17123,16 +16995,16 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K26" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L26" t="s">
         <v>241</v>
@@ -17146,16 +17018,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C27">
         <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -17167,16 +17039,16 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L27" t="s">
         <v>241</v>
@@ -17190,16 +17062,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C28">
         <v>195</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17211,16 +17083,16 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L28" t="s">
         <v>241</v>
@@ -17234,16 +17106,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17255,16 +17127,16 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L29" t="s">
         <v>241</v>
@@ -17278,16 +17150,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C30">
         <v>260</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17299,16 +17171,16 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K30" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L30" t="s">
         <v>241</v>
@@ -17322,16 +17194,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C31">
         <v>175</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17343,16 +17215,16 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="J31" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K31" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L31" t="s">
         <v>241</v>
@@ -17366,37 +17238,37 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C32">
         <v>1795</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L32" t="s">
         <v>241</v>
@@ -17410,37 +17282,37 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C33">
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
       </c>
       <c r="J33" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K33" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L33" t="s">
         <v>241</v>
@@ -17463,7 +17335,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17523,7 +17395,7 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C2">
         <v>90</v>
@@ -17564,7 +17436,7 @@
         <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -17605,7 +17477,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C4">
         <v>995</v>
@@ -17646,7 +17518,7 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5">
         <v>1095</v>
@@ -17687,7 +17559,7 @@
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C6">
         <v>1045</v>
@@ -17717,7 +17589,7 @@
         <v>104</v>
       </c>
       <c r="M6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
@@ -17725,16 +17597,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C7">
         <v>165</v>
       </c>
-      <c r="D7" t="s">
-        <v>643</v>
+      <c r="D7" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17769,13 +17641,13 @@
         <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C8">
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17810,7 +17682,7 @@
         <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C9">
         <v>125</v>
@@ -17851,7 +17723,7 @@
         <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C10">
         <v>545</v>
@@ -17892,13 +17764,13 @@
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17933,13 +17805,13 @@
         <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C12">
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17963,7 +17835,7 @@
         <v>104</v>
       </c>
       <c r="M12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N12" t="s">
         <v>16</v>
@@ -17974,7 +17846,7 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -18015,7 +17887,7 @@
         <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C14">
         <v>390</v>
@@ -18053,16 +17925,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C15">
         <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -18086,7 +17958,7 @@
         <v>104</v>
       </c>
       <c r="M15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N15" t="s">
         <v>16</v>
@@ -18097,7 +17969,7 @@
         <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -18135,16 +18007,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17">
         <v>490</v>
       </c>
       <c r="D17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -18179,7 +18051,7 @@
         <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -18220,7 +18092,7 @@
         <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C19">
         <v>650</v>
@@ -18261,13 +18133,13 @@
         <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C20">
         <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -18291,7 +18163,7 @@
         <v>104</v>
       </c>
       <c r="M20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N20" t="s">
         <v>16</v>
@@ -18302,13 +18174,13 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18343,13 +18215,13 @@
         <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -18384,13 +18256,13 @@
         <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -18425,7 +18297,7 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C24">
         <v>375</v>
@@ -18466,7 +18338,7 @@
         <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C25">
         <v>45</v>
@@ -18507,13 +18379,13 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C26">
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -18548,7 +18420,7 @@
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -18589,7 +18461,7 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C28">
         <v>195</v>
@@ -18601,7 +18473,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
@@ -18627,16 +18499,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -18671,7 +18543,7 @@
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C30">
         <v>545</v>
@@ -18709,16 +18581,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C31">
         <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18730,7 +18602,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18750,16 +18622,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C32">
         <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18771,7 +18643,7 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -18791,16 +18663,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B33" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C33">
         <v>450</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -18812,7 +18684,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -18832,16 +18704,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C34">
         <v>695</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -18853,7 +18725,7 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
@@ -18940,7 +18812,7 @@
         <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C2">
         <v>65</v>
@@ -18981,13 +18853,13 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -19018,23 +18890,23 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C4">
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -19059,11 +18931,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5">
         <v>195</v>
@@ -19104,7 +18976,7 @@
         <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -19145,7 +19017,7 @@
         <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C7">
         <v>160</v>
@@ -19186,7 +19058,7 @@
         <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C8">
         <v>145</v>
@@ -19227,7 +19099,7 @@
         <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C9">
         <v>225</v>
@@ -19268,13 +19140,13 @@
         <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C10">
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -19306,16 +19178,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -19350,13 +19222,13 @@
         <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -19387,17 +19259,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C13">
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19421,7 +19293,7 @@
         <v>216</v>
       </c>
       <c r="M13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N13" t="s">
         <v>168</v>
@@ -19432,7 +19304,7 @@
         <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -19469,11 +19341,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C15">
         <v>35</v>
@@ -19514,7 +19386,7 @@
         <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -19551,11 +19423,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C17">
         <v>125</v>
@@ -19585,7 +19457,7 @@
         <v>216</v>
       </c>
       <c r="M17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N17" t="s">
         <v>168</v>
@@ -19596,7 +19468,7 @@
         <v>197</v>
       </c>
       <c r="B18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -19637,7 +19509,7 @@
         <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -19675,16 +19547,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C20">
         <v>275</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19719,7 +19591,7 @@
         <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -19760,7 +19632,7 @@
         <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C22">
         <v>35</v>
@@ -19790,7 +19662,7 @@
         <v>216</v>
       </c>
       <c r="M22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N22" t="s">
         <v>16</v>
@@ -19801,7 +19673,7 @@
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -19842,13 +19714,13 @@
         <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C24">
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19883,7 +19755,7 @@
         <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C25">
         <v>295</v>
@@ -19924,7 +19796,7 @@
         <v>220</v>
       </c>
       <c r="B26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C26">
         <v>425</v>
@@ -19965,7 +19837,7 @@
         <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -20006,13 +19878,13 @@
         <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20047,7 +19919,7 @@
         <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C29">
         <v>70</v>
@@ -20088,7 +19960,7 @@
         <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C30">
         <v>145</v>
@@ -20129,7 +20001,7 @@
         <v>234</v>
       </c>
       <c r="B31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C31">
         <v>700</v>
@@ -20170,7 +20042,7 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -20208,16 +20080,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C33">
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -20229,7 +20101,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -20248,17 +20120,17 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>521</v>
+      <c r="A34" s="8" t="s">
+        <v>520</v>
       </c>
       <c r="B34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C34">
         <v>1295</v>
       </c>
       <c r="D34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20270,13 +20142,13 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I34">
         <v>4164744786</v>
       </c>
       <c r="J34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K34" t="s">
         <v>215</v>
@@ -20300,8 +20172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20361,7 +20233,7 @@
         <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C2">
         <v>495</v>
@@ -20399,13 +20271,13 @@
         <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C3">
         <v>695</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20437,7 +20309,7 @@
         <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -20475,7 +20347,7 @@
         <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -20513,7 +20385,7 @@
         <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C6">
         <v>245</v>
@@ -20548,16 +20420,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20589,7 +20461,7 @@
         <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -20627,7 +20499,7 @@
         <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C9">
         <v>125</v>
@@ -20660,18 +20532,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C10">
         <v>375</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>805</v>
+      <c r="D10" t="s">
+        <v>263</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20703,13 +20575,13 @@
         <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11">
         <v>495</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -20741,7 +20613,7 @@
         <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C12">
         <v>35</v>
@@ -20779,7 +20651,7 @@
         <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C13">
         <v>195</v>
@@ -20817,7 +20689,7 @@
         <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C14">
         <v>145</v>
@@ -20855,7 +20727,7 @@
         <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -20893,7 +20765,7 @@
         <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C16">
         <v>55</v>
@@ -20931,7 +20803,7 @@
         <v>281</v>
       </c>
       <c r="B17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -20969,13 +20841,13 @@
         <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C18">
         <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -21007,7 +20879,7 @@
         <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C19">
         <v>275</v>
@@ -21045,7 +20917,7 @@
         <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -21083,13 +20955,13 @@
         <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C21">
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -21121,7 +20993,7 @@
         <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C22">
         <v>545</v>
@@ -21133,7 +21005,7 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
@@ -21156,16 +21028,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C23">
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -21197,13 +21069,13 @@
         <v>298</v>
       </c>
       <c r="B24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C24">
         <v>190</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -21232,16 +21104,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C25">
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -21273,13 +21145,13 @@
         <v>301</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -21311,7 +21183,7 @@
         <v>303</v>
       </c>
       <c r="B27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C27">
         <v>55</v>
@@ -21349,13 +21221,13 @@
         <v>242</v>
       </c>
       <c r="B28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C28">
         <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -21387,7 +21259,7 @@
         <v>244</v>
       </c>
       <c r="B29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -21422,16 +21294,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C30">
         <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21443,7 +21315,7 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21460,16 +21332,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C31">
         <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21481,7 +21353,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21498,16 +21370,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C32">
         <v>260</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21519,7 +21391,7 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21536,16 +21408,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C33">
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -21557,7 +21429,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I33">
         <v>6477864344</v>
@@ -21642,16 +21514,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C2" s="2">
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21682,13 +21554,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -21719,13 +21591,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C4" s="2">
         <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21737,7 +21609,7 @@
         <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I4" s="2">
         <v>6477864344</v>
@@ -21756,7 +21628,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5" s="2">
         <v>245</v>
@@ -21793,7 +21665,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" s="2">
         <v>25</v>
@@ -21830,7 +21702,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C7" s="2">
         <v>325</v>
@@ -21867,7 +21739,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C8" s="2">
         <v>325</v>
@@ -21879,7 +21751,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>34</v>
@@ -21904,13 +21776,13 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C9" s="2">
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -21922,7 +21794,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I9" s="2">
         <v>6477864344</v>
@@ -21938,16 +21810,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C10" s="2">
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -21978,7 +21850,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C11" s="2">
         <v>130</v>
@@ -22015,7 +21887,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C12" s="2">
         <v>50</v>
@@ -22052,13 +21924,13 @@
         <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C13" s="2">
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -22089,7 +21961,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C14" s="2">
         <v>45</v>
@@ -22126,13 +21998,13 @@
         <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C15" s="2">
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -22160,16 +22032,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -22200,13 +22072,13 @@
         <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C17" s="2">
         <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -22237,7 +22109,7 @@
         <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
@@ -22249,7 +22121,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>34</v>
@@ -22274,7 +22146,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C19" s="2">
         <v>120</v>
@@ -22286,7 +22158,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>34</v>
@@ -22311,7 +22183,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C20" s="2">
         <v>30</v>
@@ -22348,13 +22220,13 @@
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C21" s="2">
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22382,16 +22254,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C22" s="2">
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22419,16 +22291,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22459,7 +22331,7 @@
         <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C24" s="2">
         <v>90</v>
@@ -22496,7 +22368,7 @@
         <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C25" s="2">
         <v>475</v>
@@ -22530,16 +22402,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C26" s="2">
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22570,7 +22442,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C27" s="2">
         <v>65</v>
@@ -22607,7 +22479,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C28" s="2">
         <v>85</v>
@@ -22644,7 +22516,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C29" s="2">
         <v>195</v>
@@ -22675,21 +22547,21 @@
         <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C30" s="2">
         <v>495</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22701,7 +22573,7 @@
         <v>34</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -22717,16 +22589,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C31" s="2">
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -22738,7 +22610,7 @@
         <v>34</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -22754,28 +22626,28 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C32" s="2">
         <v>975</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -22791,28 +22663,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C33" s="2">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I33" s="2">
         <v>6477864345</v>
@@ -22836,7 +22708,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22896,7 +22768,7 @@
         <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C2">
         <v>145</v>
@@ -22931,13 +22803,13 @@
         <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C3">
         <v>195</v>
       </c>
-      <c r="D3" t="s">
-        <v>310</v>
+      <c r="D3" s="2" t="s">
+        <v>804</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22949,7 +22821,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I3">
         <v>6477864344</v>
@@ -22963,16 +22835,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4">
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22984,7 +22856,7 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I4">
         <v>6477864344</v>
@@ -22998,16 +22870,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5">
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -23019,7 +22891,7 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I5">
         <v>6477864344</v>
@@ -23033,16 +22905,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C6">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -23054,7 +22926,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I6">
         <v>6477864344</v>
@@ -23068,16 +22940,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C7">
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -23089,7 +22961,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I7">
         <v>6477864344</v>
@@ -23103,16 +22975,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C8">
         <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -23124,7 +22996,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I8">
         <v>6477864344</v>
@@ -23138,16 +23010,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -23159,7 +23031,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I9">
         <v>6477864344</v>
@@ -23173,16 +23045,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -23194,7 +23066,7 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I10">
         <v>6477864344</v>
@@ -23208,16 +23080,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C11">
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -23229,7 +23101,7 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I11">
         <v>6477864344</v>
@@ -23243,16 +23115,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C12">
         <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -23264,7 +23136,7 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I12">
         <v>6477864344</v>
@@ -23278,16 +23150,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C13">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -23299,7 +23171,7 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I13">
         <v>6477864344</v>
@@ -23313,16 +23185,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C14">
         <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -23334,7 +23206,7 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14">
         <v>6477864344</v>
@@ -23348,16 +23220,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C15">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -23369,7 +23241,7 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I15">
         <v>6477864344</v>
@@ -23383,16 +23255,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C16">
         <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -23404,7 +23276,7 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I16">
         <v>6477864344</v>
@@ -23418,16 +23290,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C17">
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -23439,7 +23311,7 @@
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I17">
         <v>6477864344</v>
@@ -23453,16 +23325,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C18">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -23474,7 +23346,7 @@
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I18">
         <v>6477864344</v>
@@ -23488,16 +23360,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -23509,7 +23381,7 @@
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I19">
         <v>6477864344</v>
@@ -23523,16 +23395,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C20">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -23544,7 +23416,7 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I20">
         <v>6477864344</v>
@@ -23558,16 +23430,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21">
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -23579,7 +23451,7 @@
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I21">
         <v>6477864344</v>
@@ -23593,16 +23465,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -23614,7 +23486,7 @@
         <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I22">
         <v>6477864344</v>
@@ -23628,16 +23500,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -23649,7 +23521,7 @@
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I23">
         <v>6477864344</v>
@@ -23663,16 +23535,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C24">
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -23684,7 +23556,7 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I24">
         <v>6477864344</v>
@@ -23698,16 +23570,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C25">
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -23719,7 +23591,7 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I25">
         <v>6477864344</v>
@@ -23733,16 +23605,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C26">
         <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -23754,7 +23626,7 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I26">
         <v>6477864344</v>
@@ -23768,16 +23640,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C27">
         <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -23789,7 +23661,7 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I27">
         <v>6477864344</v>
@@ -23803,16 +23675,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23824,7 +23696,7 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I28">
         <v>6477864344</v>
@@ -23838,16 +23710,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C29">
         <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23873,28 +23745,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C30">
         <v>830</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -23908,16 +23780,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C31">
         <v>645</v>
       </c>
       <c r="D31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -23929,7 +23801,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -23943,16 +23815,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C32">
         <v>1095</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23964,16 +23836,16 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L32" t="s">
         <v>241</v>
@@ -23987,16 +23859,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -24008,16 +23880,16 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
       </c>
       <c r="J33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K33" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L33" t="s">
         <v>241</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1D2F7-6299-4372-9CE0-6F37C599188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D891D-8473-4806-8114-704F260FA5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="802">
   <si>
     <t>Title</t>
   </si>
@@ -13445,51 +13445,6 @@
   </si>
   <si>
     <t>Tab S9 FE Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung Tab Active4 Pro T630 128GB WIFI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Samsung Galaxy Tab T630 Active4 PRO (WIFI)
-- 10.1" DISPLAY
-- 128GB STORAGE
-- 6GB RAM
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $695 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t>Tab Active4 Pro</t>
   </si>
   <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -14376,7 +14331,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15367,7 +15322,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16455,7 +16410,7 @@
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -17332,10 +17287,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17606,7 +17561,7 @@
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17647,7 +17602,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17811,7 +17766,7 @@
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -18699,47 +18654,6 @@
         <v>104</v>
       </c>
       <c r="N33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>795</v>
-      </c>
-      <c r="B34" t="s">
-        <v>466</v>
-      </c>
-      <c r="C34">
-        <v>695</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" t="s">
-        <v>797</v>
-      </c>
-      <c r="I34">
-        <v>4164744788</v>
-      </c>
-      <c r="K34" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" t="s">
-        <v>104</v>
-      </c>
-      <c r="M34" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -20172,7 +20086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -22809,7 +22723,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22949,7 +22863,7 @@
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HILL PATEL\OneDrive\Documents\Kijiji-Ad-Reposter - Version 2.0\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85030867-CADB-423D-B4F5-75A54C6021E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D00949A-A5FE-490A-B83C-C3E09FFDF2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5270,9 +5270,6 @@
   </si>
   <si>
     <t>Hyper Bikes</t>
-  </si>
-  <si>
-    <t>Mini Chainsaw - Mini Chainsaw Cordless 6-Inch chain Saw</t>
   </si>
   <si>
     <t>Mini Chainsaw</t>
@@ -12135,9 +12132,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Samsung Tab S9 256GB X710 WIFI With Keyboard Case </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store! ✨
@@ -13971,6 +13965,12 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Samsung Tab S9 256GB X710 WIFI With Keyboard Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Chainsaw - Mini Chainsaw Cordless 6-Inch chain Saw  </t>
   </si>
 </sst>
 </file>
@@ -14063,17 +14063,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14398,23 +14397,23 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="72.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14458,18 +14457,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>794</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>710</v>
+      <c r="D2" t="s">
+        <v>709</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14481,13 +14480,13 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="K2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L2" t="s">
         <v>240</v>
@@ -14499,18 +14498,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3">
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14522,16 +14521,16 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L3" t="s">
         <v>240</v>
@@ -14543,18 +14542,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C4">
         <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -14566,16 +14565,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L4" t="s">
         <v>240</v>
@@ -14587,18 +14586,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C5">
         <v>295</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>726</v>
+      <c r="D5" t="s">
+        <v>725</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14616,10 +14615,10 @@
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L5" t="s">
         <v>240</v>
@@ -14631,18 +14630,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C6">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>671</v>
+      <c r="D6" t="s">
+        <v>670</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14654,16 +14653,16 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L6" t="s">
         <v>240</v>
@@ -14675,18 +14674,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C7">
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -14698,16 +14697,16 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L7" t="s">
         <v>240</v>
@@ -14719,18 +14718,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>718</v>
+      <c r="D8" t="s">
+        <v>717</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14742,16 +14741,16 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L8" t="s">
         <v>240</v>
@@ -14763,18 +14762,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9">
         <v>295</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>709</v>
+      <c r="D9" t="s">
+        <v>708</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14786,13 +14785,13 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="K9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L9" t="s">
         <v>240</v>
@@ -14804,18 +14803,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C10">
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -14827,13 +14826,13 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="K10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L10" t="s">
         <v>240</v>
@@ -14845,18 +14844,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -14868,13 +14867,13 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I11">
         <v>4164744786</v>
       </c>
       <c r="K11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L11" t="s">
         <v>240</v>
@@ -14886,18 +14885,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>743</v>
+      <c r="D12" t="s">
+        <v>742</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -14909,13 +14908,13 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="K12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L12" t="s">
         <v>240</v>
@@ -14927,18 +14926,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13">
         <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -14950,13 +14949,13 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="K13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L13" t="s">
         <v>240</v>
@@ -14968,18 +14967,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C14">
         <v>325</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>756</v>
+      <c r="D14" t="s">
+        <v>755</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -14991,7 +14990,7 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
@@ -15009,18 +15008,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15">
         <v>135</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>597</v>
+      <c r="D15" t="s">
+        <v>596</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -15032,7 +15031,7 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
@@ -15050,18 +15049,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C16">
         <v>135</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>780</v>
+      <c r="D16" t="s">
+        <v>778</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15073,7 +15072,7 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
@@ -15091,18 +15090,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C17">
         <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -15114,7 +15113,7 @@
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
@@ -15132,18 +15131,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C18">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -15155,7 +15154,7 @@
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
@@ -15173,18 +15172,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C19">
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -15196,7 +15195,7 @@
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
@@ -15214,18 +15213,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C20">
         <v>105</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>715</v>
+      <c r="D20" t="s">
+        <v>714</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15237,7 +15236,7 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
@@ -15255,18 +15254,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -15278,7 +15277,7 @@
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
@@ -15296,18 +15295,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C22">
         <v>120</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>673</v>
+      <c r="D22" t="s">
+        <v>672</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15319,7 +15318,7 @@
         <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
@@ -15337,18 +15336,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C23">
         <v>375</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>716</v>
+      <c r="D23" t="s">
+        <v>715</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15360,7 +15359,7 @@
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
@@ -15378,18 +15377,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C24">
         <v>195</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>765</v>
+      <c r="D24" t="s">
+        <v>763</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -15401,7 +15400,7 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
@@ -15419,18 +15418,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C25">
         <v>845</v>
       </c>
       <c r="D25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -15442,7 +15441,7 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
@@ -15460,18 +15459,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C26">
         <v>345</v>
       </c>
       <c r="D26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -15483,7 +15482,7 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
@@ -15501,18 +15500,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27">
         <v>195</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>772</v>
+      <c r="D27" t="s">
+        <v>770</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -15524,7 +15523,7 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
@@ -15542,18 +15541,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C28">
         <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -15565,7 +15564,7 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
@@ -15583,18 +15582,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>725</v>
+      <c r="D29" t="s">
+        <v>724</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -15606,7 +15605,7 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
@@ -15624,18 +15623,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C30">
         <v>295</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>449</v>
+      <c r="D30" t="s">
+        <v>448</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -15647,7 +15646,7 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
@@ -15665,18 +15664,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C31">
         <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -15688,7 +15687,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -15706,18 +15705,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C32">
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -15729,7 +15728,7 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15747,18 +15746,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C33">
         <v>75</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>713</v>
+      <c r="D33" t="s">
+        <v>712</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -15770,7 +15769,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15788,18 +15787,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C34">
         <v>695</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>760</v>
+      <c r="D34" t="s">
+        <v>759</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -15811,7 +15810,7 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -15829,18 +15828,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>761</v>
+        <v>793</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C35">
         <v>795</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>762</v>
+      <c r="D35" t="s">
+        <v>760</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -15852,7 +15851,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I35">
         <v>4164744788</v>
@@ -15884,17 +15883,17 @@
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15938,18 +15937,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C2">
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -15961,16 +15960,16 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="J2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L2" t="s">
         <v>240</v>
@@ -15982,18 +15981,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -16005,16 +16004,16 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L3" t="s">
         <v>240</v>
@@ -16026,18 +16025,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -16049,16 +16048,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L4" t="s">
         <v>240</v>
@@ -16070,18 +16069,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C5">
         <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -16093,16 +16092,16 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L5" t="s">
         <v>240</v>
@@ -16114,18 +16113,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C6">
         <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -16137,16 +16136,16 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L6" t="s">
         <v>240</v>
@@ -16158,18 +16157,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C7">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16181,16 +16180,16 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L7" t="s">
         <v>240</v>
@@ -16202,18 +16201,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8">
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -16225,16 +16224,16 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L8" t="s">
         <v>240</v>
@@ -16246,18 +16245,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C9">
         <v>1295</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>757</v>
+      <c r="D9" t="s">
+        <v>756</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16269,16 +16268,16 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="J9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L9" t="s">
         <v>240</v>
@@ -16290,18 +16289,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C10">
         <v>1195</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>758</v>
+      <c r="D10" t="s">
+        <v>757</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16313,16 +16312,16 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="J10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L10" t="s">
         <v>240</v>
@@ -16334,12 +16333,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C11">
         <v>1045</v>
@@ -16363,10 +16362,10 @@
         <v>4164744786</v>
       </c>
       <c r="J11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L11" t="s">
         <v>240</v>
@@ -16378,18 +16377,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -16401,16 +16400,16 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="J12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L12" t="s">
         <v>240</v>
@@ -16422,18 +16421,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13">
         <v>1450</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>771</v>
+      <c r="D13" t="s">
+        <v>769</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16445,16 +16444,16 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="J13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L13" t="s">
         <v>240</v>
@@ -16466,18 +16465,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C14">
         <v>2350</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>766</v>
+      <c r="D14" t="s">
+        <v>764</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -16489,16 +16488,16 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="J14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L14" t="s">
         <v>240</v>
@@ -16510,18 +16509,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C15">
         <v>595</v>
       </c>
       <c r="D15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -16533,16 +16532,16 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="J15" t="s">
+        <v>517</v>
+      </c>
+      <c r="K15" t="s">
         <v>518</v>
-      </c>
-      <c r="K15" t="s">
-        <v>519</v>
       </c>
       <c r="L15" t="s">
         <v>240</v>
@@ -16554,18 +16553,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16">
         <v>670</v>
       </c>
       <c r="D16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16577,16 +16576,16 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L16" t="s">
         <v>240</v>
@@ -16598,18 +16597,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17">
         <v>475</v>
       </c>
       <c r="D17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16621,16 +16620,16 @@
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L17" t="s">
         <v>240</v>
@@ -16642,18 +16641,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C18">
         <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16665,16 +16664,16 @@
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L18" t="s">
         <v>240</v>
@@ -16686,18 +16685,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C19">
         <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16709,16 +16708,16 @@
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L19" t="s">
         <v>240</v>
@@ -16730,18 +16729,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C20">
         <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16753,16 +16752,16 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L20" t="s">
         <v>240</v>
@@ -16774,18 +16773,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C21">
         <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16797,16 +16796,16 @@
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L21" t="s">
         <v>240</v>
@@ -16818,18 +16817,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C22">
         <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16841,16 +16840,16 @@
         <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L22" t="s">
         <v>240</v>
@@ -16862,18 +16861,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C23">
         <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16885,16 +16884,16 @@
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L23" t="s">
         <v>240</v>
@@ -16906,18 +16905,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C24">
         <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16929,16 +16928,16 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L24" t="s">
         <v>240</v>
@@ -16950,18 +16949,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C25">
         <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -16973,16 +16972,16 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K25" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L25" t="s">
         <v>240</v>
@@ -16994,18 +16993,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C26">
         <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -17017,16 +17016,16 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L26" t="s">
         <v>240</v>
@@ -17038,18 +17037,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27">
         <v>195</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>750</v>
+      <c r="D27" t="s">
+        <v>749</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -17061,16 +17060,16 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K27" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L27" t="s">
         <v>240</v>
@@ -17082,18 +17081,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C28">
         <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17105,16 +17104,16 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L28" t="s">
         <v>240</v>
@@ -17126,18 +17125,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C29">
         <v>260</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>678</v>
+      <c r="D29" t="s">
+        <v>677</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17149,16 +17148,16 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
+        <v>678</v>
+      </c>
+      <c r="K29" t="s">
         <v>679</v>
-      </c>
-      <c r="K29" t="s">
-        <v>680</v>
       </c>
       <c r="L29" t="s">
         <v>240</v>
@@ -17170,18 +17169,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C30">
         <v>175</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>682</v>
+      <c r="D30" t="s">
+        <v>681</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17193,16 +17192,16 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L30" t="s">
         <v>240</v>
@@ -17214,18 +17213,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C31">
         <v>1795</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>734</v>
+      <c r="D31" t="s">
+        <v>733</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17237,16 +17236,16 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="J31" t="s">
+        <v>694</v>
+      </c>
+      <c r="K31" t="s">
         <v>695</v>
-      </c>
-      <c r="K31" t="s">
-        <v>696</v>
       </c>
       <c r="L31" t="s">
         <v>240</v>
@@ -17272,15 +17271,15 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17324,12 +17323,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C2">
         <v>90</v>
@@ -17365,12 +17364,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -17406,17 +17405,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C4">
         <v>995</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>100</v>
       </c>
       <c r="E4" t="s">
@@ -17447,12 +17446,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C5">
         <v>1095</v>
@@ -17488,12 +17487,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C6">
         <v>1045</v>
@@ -17523,24 +17522,24 @@
         <v>103</v>
       </c>
       <c r="M6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C7">
         <v>165</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>769</v>
+      <c r="D7" t="s">
+        <v>767</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17570,18 +17569,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8">
         <v>125</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>790</v>
+      <c r="D8" s="8" t="s">
+        <v>788</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17611,12 +17610,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C9">
         <v>125</v>
@@ -17652,17 +17651,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C10">
         <v>545</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>119</v>
       </c>
       <c r="E10" t="s">
@@ -17693,18 +17692,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>721</v>
+      <c r="D11" t="s">
+        <v>720</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17734,18 +17733,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C12">
         <v>375</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>768</v>
+      <c r="D12" t="s">
+        <v>766</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17775,12 +17774,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -17816,12 +17815,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C14">
         <v>390</v>
@@ -17857,18 +17856,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C15">
         <v>125</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>691</v>
+      <c r="D15" t="s">
+        <v>690</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -17898,12 +17897,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -17939,18 +17938,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C17">
         <v>795</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>788</v>
+      <c r="D17" t="s">
+        <v>786</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -17980,12 +17979,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -18021,12 +18020,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C19">
         <v>650</v>
@@ -18062,18 +18061,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C20">
         <v>345</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>573</v>
+      <c r="D20" t="s">
+        <v>572</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -18103,18 +18102,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>792</v>
+      <c r="D21" t="s">
+        <v>790</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18144,18 +18143,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -18185,18 +18184,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>664</v>
+      <c r="D23" t="s">
+        <v>663</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -18226,12 +18225,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C24">
         <v>375</v>
@@ -18267,12 +18266,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C25">
         <v>45</v>
@@ -18308,18 +18307,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C26">
         <v>340</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>777</v>
+      <c r="D26" t="s">
+        <v>775</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -18349,12 +18348,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -18390,12 +18389,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C28">
         <v>195</v>
@@ -18407,7 +18406,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
@@ -18431,18 +18430,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -18472,12 +18471,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C30">
         <v>545</v>
@@ -18513,18 +18512,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C31">
         <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18536,7 +18535,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18554,18 +18553,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C32">
         <v>220</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>702</v>
+      <c r="D32" t="s">
+        <v>701</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18577,7 +18576,7 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -18595,18 +18594,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>729</v>
+      </c>
+      <c r="B33" t="s">
         <v>730</v>
-      </c>
-      <c r="B33" t="s">
-        <v>731</v>
       </c>
       <c r="C33">
         <v>450</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>732</v>
+      <c r="D33" t="s">
+        <v>731</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -18618,7 +18617,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -18650,14 +18649,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18701,12 +18700,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2">
         <v>65</v>
@@ -18742,18 +18741,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>742</v>
+      <c r="D3" t="s">
+        <v>741</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18783,18 +18782,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C4">
         <v>325</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>735</v>
+      <c r="D4" t="s">
+        <v>734</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -18824,12 +18823,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5">
         <v>195</v>
@@ -18865,12 +18864,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -18906,12 +18905,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C7">
         <v>160</v>
@@ -18947,12 +18946,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C8">
         <v>145</v>
@@ -18988,12 +18987,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C9">
         <v>225</v>
@@ -19029,18 +19028,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C10">
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -19070,18 +19069,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -19111,18 +19110,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -19152,18 +19151,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C13">
         <v>65</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>692</v>
+      <c r="D13" t="s">
+        <v>691</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19193,12 +19192,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -19234,18 +19233,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>782</v>
+      <c r="D15" t="s">
+        <v>780</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19275,12 +19274,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -19316,12 +19315,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C17">
         <v>125</v>
@@ -19357,17 +19356,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E18" t="s">
@@ -19398,12 +19397,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -19439,18 +19438,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C20">
         <v>275</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>687</v>
+      <c r="D20" t="s">
+        <v>686</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19480,12 +19479,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -19521,12 +19520,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C22">
         <v>35</v>
@@ -19562,12 +19561,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -19603,18 +19602,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C24">
         <v>895</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>727</v>
+      <c r="D24" t="s">
+        <v>726</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19644,12 +19643,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C25">
         <v>295</v>
@@ -19685,12 +19684,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>219</v>
       </c>
       <c r="B26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C26">
         <v>425</v>
@@ -19726,12 +19725,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -19767,18 +19766,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>225</v>
       </c>
       <c r="B28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C28">
         <v>75</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>786</v>
+      <c r="D28" t="s">
+        <v>784</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19808,12 +19807,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>227</v>
       </c>
       <c r="B29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C29">
         <v>70</v>
@@ -19849,12 +19848,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C30">
         <v>145</v>
@@ -19890,17 +19889,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C31">
         <v>700</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>234</v>
       </c>
       <c r="E31" t="s">
@@ -19931,12 +19930,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -19972,18 +19971,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C33">
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -19995,7 +19994,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -20013,18 +20012,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>508</v>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>507</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C34">
         <v>1295</v>
       </c>
       <c r="D34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20036,13 +20035,13 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I34">
         <v>4164744786</v>
       </c>
       <c r="J34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K34" t="s">
         <v>214</v>
@@ -20070,15 +20069,15 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20122,12 +20121,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C2">
         <v>495</v>
@@ -20160,18 +20159,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C3">
         <v>695</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>672</v>
+      <c r="D3" t="s">
+        <v>671</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20198,12 +20197,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -20236,17 +20235,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>252</v>
       </c>
       <c r="E5" t="s">
@@ -20274,12 +20273,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C6">
         <v>245</v>
@@ -20312,18 +20311,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>719</v>
+      <c r="D7" t="s">
+        <v>718</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20350,12 +20349,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>258</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -20388,17 +20387,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9">
         <v>125</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>262</v>
       </c>
       <c r="E9" t="s">
@@ -20426,18 +20425,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C10">
         <v>375</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>783</v>
+      <c r="D10" t="s">
+        <v>781</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20464,12 +20463,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -20502,12 +20501,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -20540,12 +20539,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C13">
         <v>145</v>
@@ -20578,12 +20577,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -20616,12 +20615,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C15">
         <v>55</v>
@@ -20654,12 +20653,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -20692,18 +20691,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C17">
         <v>85</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>669</v>
+      <c r="D17" t="s">
+        <v>668</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -20730,12 +20729,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C18">
         <v>275</v>
@@ -20768,12 +20767,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -20806,18 +20805,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>785</v>
+      <c r="D20" t="s">
+        <v>783</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20844,18 +20843,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C21">
         <v>545</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>794</v>
+      <c r="D21" t="s">
+        <v>792</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20882,18 +20881,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C22">
         <v>150</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>773</v>
+      <c r="D22" t="s">
+        <v>771</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -20920,18 +20919,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C23">
         <v>180</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>784</v>
+      <c r="D23" t="s">
+        <v>782</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -20958,18 +20957,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C24">
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20996,18 +20995,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>700</v>
+      <c r="D25" t="s">
+        <v>699</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -21034,12 +21033,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C26">
         <v>55</v>
@@ -21072,18 +21071,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C27">
         <v>340</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>779</v>
+      <c r="D27" t="s">
+        <v>777</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21110,12 +21109,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C28">
         <v>50</v>
@@ -21148,18 +21147,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C29">
         <v>325</v>
       </c>
       <c r="D29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21171,7 +21170,7 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I29">
         <v>6477864344</v>
@@ -21186,18 +21185,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C30">
         <v>395</v>
       </c>
       <c r="D30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21209,7 +21208,7 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21224,18 +21223,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>666</v>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="B31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C31">
         <v>260</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>667</v>
+      <c r="D31" t="s">
+        <v>666</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21247,7 +21246,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21262,18 +21261,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C32">
         <v>95</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>737</v>
+      <c r="D32" t="s">
+        <v>736</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21285,7 +21284,7 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21313,1243 +21312,1084 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2">
         <v>250</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>6477864344</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3">
         <v>250</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>6477864344</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4">
+        <v>275</v>
+      </c>
+      <c r="D4" t="s">
+        <v>696</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>453</v>
+      </c>
+      <c r="I4">
+        <v>6477864344</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5">
+        <v>245</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>6477864344</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>6477864344</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7">
+        <v>325</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>6477864344</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>6477864344</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>669</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>566</v>
+      </c>
+      <c r="I9">
+        <v>6477864344</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>6477864344</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>6477864344</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>6477864344</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13">
+        <v>295</v>
+      </c>
+      <c r="D13" t="s">
+        <v>723</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <v>6477864344</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14">
+        <v>6477864344</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>789</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>6477864344</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>740</v>
+      </c>
+      <c r="B16" t="s">
+        <v>568</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>739</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16">
+        <v>6477864344</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17">
+        <v>6477864344</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>6477864344</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>375</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19">
+        <v>6477864344</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20">
+        <v>6477864344</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>569</v>
+      </c>
+      <c r="C21">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>710</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21">
+        <v>6477864344</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>697</v>
+      </c>
+      <c r="B22" t="s">
+        <v>461</v>
+      </c>
+      <c r="C22">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>743</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22">
+        <v>6477864344</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>735</v>
+      </c>
+      <c r="B23" t="s">
+        <v>569</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>698</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23">
+        <v>6477864344</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24">
+        <v>6477864344</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25">
+        <v>475</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25">
+        <v>6477864344</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>722</v>
+      </c>
+      <c r="B26" t="s">
+        <v>465</v>
+      </c>
+      <c r="C26">
+        <v>225</v>
+      </c>
+      <c r="D26" t="s">
+        <v>721</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26">
+        <v>6477864344</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>454</v>
+      </c>
+      <c r="C27">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27">
+        <v>6477864344</v>
+      </c>
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>553</v>
+      </c>
+      <c r="C28">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28">
+        <v>6477864344</v>
+      </c>
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>570</v>
+      </c>
+      <c r="C29">
+        <v>195</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29">
+        <v>6477864344</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>744</v>
+      </c>
+      <c r="B30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30">
+        <v>495</v>
+      </c>
+      <c r="D30" t="s">
+        <v>632</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>633</v>
+      </c>
+      <c r="I30">
+        <v>6477864344</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B31" t="s">
+        <v>465</v>
+      </c>
+      <c r="C31">
+        <v>745</v>
+      </c>
+      <c r="D31" t="s">
+        <v>657</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>658</v>
+      </c>
+      <c r="I31">
+        <v>6477864344</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C32">
+        <v>975</v>
+      </c>
+      <c r="D32" t="s">
+        <v>661</v>
+      </c>
+      <c r="E32" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F32" t="s">
+        <v>375</v>
+      </c>
+      <c r="G32" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H32" t="s">
+        <v>662</v>
+      </c>
+      <c r="I32">
         <v>6477864344</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="N32" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C4" s="2">
-        <v>275</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>751</v>
+      </c>
+      <c r="B33" t="s">
+        <v>752</v>
+      </c>
+      <c r="C33">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>753</v>
+      </c>
+      <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G33" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="I4" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="2">
-        <v>245</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" s="2">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C7" s="2">
-        <v>325</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8" s="2">
-        <v>325</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C9" s="2">
-        <v>225</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="I9" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C10" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C11" s="2">
-        <v>130</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C12" s="2">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C13" s="2">
-        <v>295</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C15" s="2">
-        <v>225</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C16" s="2">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C17" s="2">
-        <v>225</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C18" s="2">
-        <v>100</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C19" s="2">
-        <v>120</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C20" s="2">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C21" s="2">
-        <v>65</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C22" s="2">
-        <v>115</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C23" s="2">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C24" s="2">
-        <v>90</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C25" s="2">
-        <v>475</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C26" s="2">
-        <v>225</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C27" s="2">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C28" s="2">
-        <v>85</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C29" s="2">
-        <v>195</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C30" s="2">
-        <v>495</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="I30" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C31" s="2">
-        <v>745</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="I31" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C32" s="2">
-        <v>975</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="I32" s="2">
-        <v>6477864344</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="C33" s="2">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="H33" t="s">
         <v>754</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="I33">
         <v>6477864345</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
+      <c r="N33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -22567,15 +22407,15 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22619,12 +22459,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2">
         <v>145</v>
@@ -22654,18 +22494,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C3">
         <v>195</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>770</v>
+      <c r="D3" t="s">
+        <v>768</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22689,18 +22529,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C4">
         <v>345</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>704</v>
+      <c r="D4" t="s">
+        <v>703</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22724,18 +22564,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5">
         <v>395</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>689</v>
+      <c r="D5" t="s">
+        <v>688</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -22759,12 +22599,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C6">
         <v>75</v>
@@ -22794,18 +22634,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7">
         <v>945</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>767</v>
+      <c r="D7" t="s">
+        <v>765</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -22829,12 +22669,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C8">
         <v>195</v>
@@ -22864,12 +22704,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -22899,12 +22739,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -22934,12 +22774,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C11">
         <v>125</v>
@@ -22969,12 +22809,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -23004,12 +22844,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>331</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C13">
         <v>35</v>
@@ -23039,12 +22879,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>334</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C14">
         <v>145</v>
@@ -23074,12 +22914,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -23109,12 +22949,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>340</v>
       </c>
       <c r="B16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C16">
         <v>345</v>
@@ -23144,12 +22984,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>343</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17">
         <v>95</v>
@@ -23179,12 +23019,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>346</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -23214,17 +23054,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>349</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>350</v>
       </c>
       <c r="E19" t="s">
@@ -23249,12 +23089,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -23284,18 +23124,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C21">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>665</v>
+      <c r="D21" t="s">
+        <v>664</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -23319,12 +23159,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -23354,12 +23194,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C23">
         <v>95</v>
@@ -23389,18 +23229,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C24">
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -23424,12 +23264,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C25">
         <v>175</v>
@@ -23459,12 +23299,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>366</v>
       </c>
       <c r="B26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C26">
         <v>160</v>
@@ -23494,12 +23334,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>369</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27">
         <v>325</v>
@@ -23529,18 +23369,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>372</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>793</v>
+      <c r="D28" t="s">
+        <v>791</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23564,18 +23404,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>374</v>
       </c>
       <c r="B29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C29">
         <v>125</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>781</v>
+      <c r="D29" t="s">
+        <v>779</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23599,18 +23439,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C30">
         <v>830</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>728</v>
+      <c r="D30" t="s">
+        <v>727</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -23634,12 +23474,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>377</v>
       </c>
       <c r="B31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C31">
         <v>645</v>
@@ -23669,18 +23509,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C32">
         <v>1095</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>686</v>
+      <c r="D32" t="s">
+        <v>685</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23692,16 +23532,16 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L32" t="s">
         <v>240</v>
@@ -23713,18 +23553,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>705</v>
+      <c r="D33" t="s">
+        <v>704</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -23736,16 +23576,16 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
       </c>
       <c r="J33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K33" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L33" t="s">
         <v>240</v>
@@ -23757,18 +23597,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C34">
         <v>95</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>787</v>
+      <c r="D34" t="s">
+        <v>785</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -23780,16 +23620,16 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
       </c>
       <c r="J34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K34" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="L34" t="s">
         <v>240</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HILL PATEL\OneDrive\Documents\Kijiji-Ad-Reposter - Version 2.0\Kijiji-Ad-Reposter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D00949A-A5FE-490A-B83C-C3E09FFDF2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A73FECF-2F36-4D31-8B37-F7C875DBDC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="797">
   <si>
     <t>Title</t>
   </si>
@@ -5270,6 +5270,9 @@
   </si>
   <si>
     <t>Hyper Bikes</t>
+  </si>
+  <si>
+    <t>Mini Chainsaw - Mini Chainsaw Cordless 6-Inch chain Saw</t>
   </si>
   <si>
     <t>Mini Chainsaw</t>
@@ -8668,9 +8671,6 @@
   </si>
   <si>
     <t>70-77</t>
-  </si>
-  <si>
-    <t>samsung</t>
   </si>
   <si>
     <t>Macbook Air - 13 Inch, 8GB RAM, 256GB STORAGE</t>
@@ -12132,6 +12132,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Samsung Tab S9 256GB X710 WIFI With Keyboard Case </t>
+  </si>
+  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store! ✨
@@ -13967,10 +13970,49 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>Samsung Tab S9 256GB X710 WIFI With Keyboard Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini Chainsaw - Mini Chainsaw Cordless 6-Inch chain Saw  </t>
+    <t>Samsung Galaxy Tab S7+ Wifi 256GB Open Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Samsung Galaxy Tab S7+ (Wifi) 
+(NEW OPEN BOX WITH WARRANTY)
+- 12.4" Display
+- 256GB Storage
+- 8GB RAM
+Price - $395 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Samsung Tab S7+</t>
   </si>
 </sst>
 </file>
@@ -14066,17 +14108,15 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -14396,24 +14436,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="72.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14457,17 +14497,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>794</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>709</v>
       </c>
       <c r="E2" t="s">
@@ -14480,13 +14520,13 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="K2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L2" t="s">
         <v>240</v>
@@ -14498,18 +14538,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C3">
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14521,16 +14561,16 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L3" t="s">
         <v>240</v>
@@ -14542,18 +14582,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C4">
         <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -14565,16 +14605,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L4" t="s">
         <v>240</v>
@@ -14586,17 +14626,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C5">
         <v>295</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>725</v>
       </c>
       <c r="E5" t="s">
@@ -14615,10 +14655,10 @@
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L5" t="s">
         <v>240</v>
@@ -14630,17 +14670,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C6">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>670</v>
       </c>
       <c r="E6" t="s">
@@ -14653,16 +14693,16 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L6" t="s">
         <v>240</v>
@@ -14674,18 +14714,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C7">
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -14697,16 +14737,16 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L7" t="s">
         <v>240</v>
@@ -14718,17 +14758,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>717</v>
       </c>
       <c r="E8" t="s">
@@ -14741,16 +14781,16 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L8" t="s">
         <v>240</v>
@@ -14762,17 +14802,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C9">
         <v>295</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>708</v>
       </c>
       <c r="E9" t="s">
@@ -14785,13 +14825,13 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="K9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L9" t="s">
         <v>240</v>
@@ -14803,18 +14843,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C10">
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -14826,13 +14866,13 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="K10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L10" t="s">
         <v>240</v>
@@ -14844,18 +14884,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -14867,13 +14907,13 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I11">
         <v>4164744786</v>
       </c>
       <c r="K11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L11" t="s">
         <v>240</v>
@@ -14885,17 +14925,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>742</v>
       </c>
       <c r="E12" t="s">
@@ -14908,13 +14948,13 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="K12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L12" t="s">
         <v>240</v>
@@ -14926,18 +14966,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C13">
         <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -14949,13 +14989,13 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="K13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L13" t="s">
         <v>240</v>
@@ -14967,17 +15007,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>674</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C14">
         <v>325</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>755</v>
       </c>
       <c r="E14" t="s">
@@ -14990,7 +15030,7 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
@@ -15008,18 +15048,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C15">
         <v>135</v>
       </c>
-      <c r="D15" t="s">
-        <v>596</v>
+      <c r="D15" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -15031,7 +15071,7 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
@@ -15049,18 +15089,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C16">
         <v>135</v>
       </c>
-      <c r="D16" t="s">
-        <v>778</v>
+      <c r="D16" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15072,7 +15112,7 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
@@ -15090,18 +15130,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C17">
         <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -15113,7 +15153,7 @@
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
@@ -15131,18 +15171,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C18">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -15154,7 +15194,7 @@
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
@@ -15172,18 +15212,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B19" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C19">
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -15195,7 +15235,7 @@
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
@@ -15213,17 +15253,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C20">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>714</v>
       </c>
       <c r="E20" t="s">
@@ -15236,7 +15276,7 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
@@ -15254,18 +15294,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -15277,7 +15317,7 @@
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
@@ -15295,17 +15335,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>673</v>
       </c>
       <c r="B22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C22">
         <v>120</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>672</v>
       </c>
       <c r="E22" t="s">
@@ -15318,7 +15358,7 @@
         <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
@@ -15336,17 +15376,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C23">
         <v>375</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>715</v>
       </c>
       <c r="E23" t="s">
@@ -15359,7 +15399,7 @@
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
@@ -15377,18 +15417,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C24">
         <v>195</v>
       </c>
-      <c r="D24" t="s">
-        <v>763</v>
+      <c r="D24" s="2" t="s">
+        <v>764</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -15400,7 +15440,7 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
@@ -15418,18 +15458,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C25">
         <v>845</v>
       </c>
       <c r="D25" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -15441,7 +15481,7 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
@@ -15459,18 +15499,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C26">
         <v>345</v>
       </c>
       <c r="D26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -15482,7 +15522,7 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
@@ -15500,18 +15540,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C27">
         <v>195</v>
       </c>
-      <c r="D27" t="s">
-        <v>770</v>
+      <c r="D27" s="2" t="s">
+        <v>771</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -15523,7 +15563,7 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
@@ -15541,18 +15581,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C28">
         <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -15564,7 +15604,7 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
@@ -15582,17 +15622,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B29" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>724</v>
       </c>
       <c r="E29" t="s">
@@ -15605,7 +15645,7 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
@@ -15623,18 +15663,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B30" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C30">
         <v>295</v>
       </c>
-      <c r="D30" t="s">
-        <v>448</v>
+      <c r="D30" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -15646,7 +15686,7 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
@@ -15664,18 +15704,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B31" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C31">
         <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -15687,7 +15727,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -15705,18 +15745,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C32">
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -15728,7 +15768,7 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15746,17 +15786,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>711</v>
       </c>
       <c r="B33" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C33">
         <v>75</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>712</v>
       </c>
       <c r="E33" t="s">
@@ -15787,17 +15827,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>758</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C34">
         <v>695</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>759</v>
       </c>
       <c r="E34" t="s">
@@ -15810,7 +15850,7 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -15828,18 +15868,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>793</v>
+        <v>760</v>
       </c>
       <c r="B35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C35">
         <v>795</v>
       </c>
-      <c r="D35" t="s">
-        <v>760</v>
+      <c r="D35" s="2" t="s">
+        <v>761</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -15851,7 +15891,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I35">
         <v>4164744788</v>
@@ -15880,20 +15920,20 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15937,18 +15977,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C2">
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -15960,16 +16000,16 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="J2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L2" t="s">
         <v>240</v>
@@ -15981,18 +16021,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -16004,16 +16044,16 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L3" t="s">
         <v>240</v>
@@ -16025,18 +16065,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -16048,16 +16088,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L4" t="s">
         <v>240</v>
@@ -16069,18 +16109,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C5">
         <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -16092,16 +16132,16 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L5" t="s">
         <v>240</v>
@@ -16113,18 +16153,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C6">
         <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -16136,16 +16176,16 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L6" t="s">
         <v>240</v>
@@ -16157,18 +16197,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C7">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16180,16 +16220,16 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L7" t="s">
         <v>240</v>
@@ -16201,18 +16241,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C8">
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -16224,16 +16264,16 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L8" t="s">
         <v>240</v>
@@ -16245,17 +16285,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C9">
         <v>1295</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>756</v>
       </c>
       <c r="E9" t="s">
@@ -16268,16 +16308,16 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="J9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L9" t="s">
         <v>240</v>
@@ -16289,17 +16329,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C10">
         <v>1195</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>757</v>
       </c>
       <c r="E10" t="s">
@@ -16312,16 +16352,16 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="J10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L10" t="s">
         <v>240</v>
@@ -16333,12 +16373,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C11">
         <v>1045</v>
@@ -16362,10 +16402,10 @@
         <v>4164744786</v>
       </c>
       <c r="J11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L11" t="s">
         <v>240</v>
@@ -16377,18 +16417,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -16400,16 +16440,16 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="J12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L12" t="s">
         <v>240</v>
@@ -16421,18 +16461,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C13">
         <v>1450</v>
       </c>
-      <c r="D13" t="s">
-        <v>769</v>
+      <c r="D13" s="2" t="s">
+        <v>770</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16444,16 +16484,16 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="J13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L13" t="s">
         <v>240</v>
@@ -16465,18 +16505,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C14">
         <v>2350</v>
       </c>
-      <c r="D14" t="s">
-        <v>764</v>
+      <c r="D14" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -16488,16 +16528,16 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="J14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L14" t="s">
         <v>240</v>
@@ -16509,18 +16549,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>750</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C15">
         <v>595</v>
       </c>
       <c r="D15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -16532,16 +16572,16 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="J15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L15" t="s">
         <v>240</v>
@@ -16553,18 +16593,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C16">
         <v>670</v>
       </c>
       <c r="D16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16576,16 +16616,16 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K16" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L16" t="s">
         <v>240</v>
@@ -16597,18 +16637,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C17">
         <v>475</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16620,16 +16660,16 @@
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K17" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L17" t="s">
         <v>240</v>
@@ -16641,18 +16681,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C18">
         <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16664,16 +16704,16 @@
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K18" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L18" t="s">
         <v>240</v>
@@ -16685,18 +16725,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B19" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C19">
         <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16708,16 +16748,16 @@
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K19" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L19" t="s">
         <v>240</v>
@@ -16729,18 +16769,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C20">
         <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16752,16 +16792,16 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K20" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L20" t="s">
         <v>240</v>
@@ -16773,18 +16813,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C21">
         <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16796,16 +16836,16 @@
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L21" t="s">
         <v>240</v>
@@ -16817,18 +16857,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C22">
         <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16840,16 +16880,16 @@
         <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K22" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L22" t="s">
         <v>240</v>
@@ -16861,18 +16901,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>748</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C23">
         <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16884,16 +16924,16 @@
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K23" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L23" t="s">
         <v>240</v>
@@ -16905,18 +16945,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C24">
         <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16934,10 +16974,10 @@
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K24" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L24" t="s">
         <v>240</v>
@@ -16949,18 +16989,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B25" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C25">
         <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -16972,16 +17012,16 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K25" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L25" t="s">
         <v>240</v>
@@ -16993,18 +17033,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C26">
         <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -17016,16 +17056,16 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K26" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L26" t="s">
         <v>240</v>
@@ -17037,17 +17077,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C27">
         <v>195</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>749</v>
       </c>
       <c r="E27" t="s">
@@ -17060,16 +17100,16 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K27" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L27" t="s">
         <v>240</v>
@@ -17081,18 +17121,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>675</v>
       </c>
       <c r="B28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C28">
         <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17104,16 +17144,16 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K28" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L28" t="s">
         <v>240</v>
@@ -17125,17 +17165,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>676</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C29">
         <v>260</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>677</v>
       </c>
       <c r="E29" t="s">
@@ -17169,17 +17209,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>680</v>
       </c>
       <c r="B30" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C30">
         <v>175</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>681</v>
       </c>
       <c r="E30" t="s">
@@ -17213,17 +17253,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>692</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C31">
         <v>1795</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>733</v>
       </c>
       <c r="E31" t="s">
@@ -17265,21 +17305,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17323,12 +17367,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C2">
         <v>90</v>
@@ -17364,12 +17408,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -17405,17 +17449,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C4">
         <v>995</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E4" t="s">
@@ -17446,12 +17490,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C5">
         <v>1095</v>
@@ -17487,12 +17531,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C6">
         <v>1045</v>
@@ -17522,24 +17566,24 @@
         <v>103</v>
       </c>
       <c r="M6" t="s">
-        <v>655</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C7">
         <v>165</v>
       </c>
-      <c r="D7" t="s">
-        <v>767</v>
+      <c r="D7" s="2" t="s">
+        <v>768</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17569,18 +17613,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C8">
         <v>125</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>788</v>
+      <c r="D8" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17610,12 +17654,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C9">
         <v>125</v>
@@ -17651,17 +17695,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C10">
         <v>545</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E10" t="s">
@@ -17692,17 +17736,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>720</v>
       </c>
       <c r="E11" t="s">
@@ -17733,18 +17777,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C12">
         <v>375</v>
       </c>
-      <c r="D12" t="s">
-        <v>766</v>
+      <c r="D12" s="2" t="s">
+        <v>767</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17774,12 +17818,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -17815,12 +17859,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C14">
         <v>390</v>
@@ -17856,17 +17900,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>689</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C15">
         <v>125</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>690</v>
       </c>
       <c r="E15" t="s">
@@ -17897,12 +17941,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -17938,18 +17982,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C17">
         <v>795</v>
       </c>
-      <c r="D17" t="s">
-        <v>786</v>
+      <c r="D17" s="2" t="s">
+        <v>787</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -17979,12 +18023,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -18020,12 +18064,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C19">
         <v>650</v>
@@ -18061,18 +18105,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C20">
         <v>345</v>
       </c>
-      <c r="D20" t="s">
-        <v>572</v>
+      <c r="D20" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -18102,18 +18146,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
-        <v>790</v>
+      <c r="D21" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18143,18 +18187,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -18184,17 +18228,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>663</v>
       </c>
       <c r="E23" t="s">
@@ -18225,12 +18269,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C24">
         <v>375</v>
@@ -18266,12 +18310,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C25">
         <v>45</v>
@@ -18307,18 +18351,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B26" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C26">
         <v>340</v>
       </c>
-      <c r="D26" t="s">
-        <v>775</v>
+      <c r="D26" s="2" t="s">
+        <v>776</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -18348,12 +18392,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -18389,12 +18433,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C28">
         <v>195</v>
@@ -18406,7 +18450,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>655</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
@@ -18430,18 +18474,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -18471,12 +18515,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C30">
         <v>545</v>
@@ -18512,18 +18556,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>745</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C31">
         <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18535,7 +18579,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18553,17 +18597,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>700</v>
       </c>
       <c r="B32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C32">
         <v>220</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>701</v>
       </c>
       <c r="E32" t="s">
@@ -18594,7 +18638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>729</v>
       </c>
@@ -18604,7 +18648,7 @@
       <c r="C33">
         <v>450</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>731</v>
       </c>
       <c r="E33" t="s">
@@ -18632,6 +18676,47 @@
         <v>103</v>
       </c>
       <c r="N33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>794</v>
+      </c>
+      <c r="B34" t="s">
+        <v>459</v>
+      </c>
+      <c r="C34">
+        <v>395</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>796</v>
+      </c>
+      <c r="I34">
+        <v>4164744788</v>
+      </c>
+      <c r="K34" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -18645,18 +18730,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADAF3E-0AA5-4F19-ACED-4BBE31AE540C}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18700,12 +18786,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C2">
         <v>65</v>
@@ -18741,17 +18827,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>741</v>
       </c>
       <c r="E3" t="s">
@@ -18782,17 +18868,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C4">
         <v>325</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E4" t="s">
@@ -18823,12 +18909,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C5">
         <v>195</v>
@@ -18864,12 +18950,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -18905,12 +18991,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C7">
         <v>160</v>
@@ -18946,12 +19032,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C8">
         <v>145</v>
@@ -18987,12 +19073,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C9">
         <v>225</v>
@@ -19028,18 +19114,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C10">
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -19069,18 +19155,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -19110,18 +19196,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -19151,17 +19237,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C13">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>691</v>
       </c>
       <c r="E13" t="s">
@@ -19192,12 +19278,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -19233,18 +19319,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
-        <v>780</v>
+      <c r="D15" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19274,12 +19360,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -19315,12 +19401,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C17">
         <v>125</v>
@@ -19356,17 +19442,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E18" t="s">
@@ -19397,12 +19483,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -19438,17 +19524,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>687</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C20">
         <v>275</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>686</v>
       </c>
       <c r="E20" t="s">
@@ -19479,12 +19565,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -19520,12 +19606,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C22">
         <v>35</v>
@@ -19561,12 +19647,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -19602,17 +19688,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C24">
         <v>895</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>726</v>
       </c>
       <c r="E24" t="s">
@@ -19643,12 +19729,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C25">
         <v>295</v>
@@ -19684,12 +19770,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>219</v>
       </c>
       <c r="B26" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C26">
         <v>425</v>
@@ -19725,12 +19811,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -19766,18 +19852,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>225</v>
       </c>
       <c r="B28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C28">
         <v>75</v>
       </c>
-      <c r="D28" t="s">
-        <v>784</v>
+      <c r="D28" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19807,12 +19893,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>227</v>
       </c>
       <c r="B29" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C29">
         <v>70</v>
@@ -19848,12 +19934,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C30">
         <v>145</v>
@@ -19889,17 +19975,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C31">
         <v>700</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>234</v>
       </c>
       <c r="E31" t="s">
@@ -19930,12 +20016,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -19971,18 +20057,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B33" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C33">
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -19994,7 +20080,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -20012,18 +20098,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>507</v>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>508</v>
       </c>
       <c r="B34" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C34">
         <v>1295</v>
       </c>
       <c r="D34" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20035,13 +20121,13 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I34">
         <v>4164744786</v>
       </c>
       <c r="J34" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K34" t="s">
         <v>214</v>
@@ -20065,19 +20151,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20121,12 +20207,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C2">
         <v>495</v>
@@ -20159,17 +20245,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C3">
         <v>695</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>671</v>
       </c>
       <c r="E3" t="s">
@@ -20197,12 +20283,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -20235,17 +20321,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>252</v>
       </c>
       <c r="E5" t="s">
@@ -20273,12 +20359,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C6">
         <v>245</v>
@@ -20311,17 +20397,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>719</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>718</v>
       </c>
       <c r="E7" t="s">
@@ -20349,12 +20435,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -20387,17 +20473,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C9">
         <v>125</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E9" t="s">
@@ -20425,18 +20511,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C10">
         <v>375</v>
       </c>
-      <c r="D10" t="s">
-        <v>781</v>
+      <c r="D10" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20463,12 +20549,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -20501,12 +20587,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -20539,12 +20625,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C13">
         <v>145</v>
@@ -20577,12 +20663,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -20615,12 +20701,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C15">
         <v>55</v>
@@ -20653,12 +20739,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -20691,17 +20777,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B17" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C17">
         <v>85</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>668</v>
       </c>
       <c r="E17" t="s">
@@ -20729,12 +20815,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C18">
         <v>275</v>
@@ -20767,12 +20853,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -20805,18 +20891,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
-      <c r="D20" t="s">
-        <v>783</v>
+      <c r="D20" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20843,18 +20929,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C21">
         <v>545</v>
       </c>
-      <c r="D21" t="s">
-        <v>792</v>
+      <c r="D21" s="2" t="s">
+        <v>793</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20881,18 +20967,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C22">
         <v>150</v>
       </c>
-      <c r="D22" t="s">
-        <v>771</v>
+      <c r="D22" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -20919,18 +21005,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C23">
         <v>180</v>
       </c>
-      <c r="D23" t="s">
-        <v>782</v>
+      <c r="D23" s="2" t="s">
+        <v>783</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -20957,18 +21043,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C24">
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20995,17 +21081,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>699</v>
       </c>
       <c r="E25" t="s">
@@ -21033,12 +21119,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C26">
         <v>55</v>
@@ -21071,18 +21157,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C27">
         <v>340</v>
       </c>
-      <c r="D27" t="s">
-        <v>777</v>
+      <c r="D27" s="2" t="s">
+        <v>778</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21109,12 +21195,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C28">
         <v>50</v>
@@ -21147,18 +21233,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>747</v>
       </c>
       <c r="B29" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C29">
         <v>325</v>
       </c>
       <c r="D29" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21170,7 +21256,7 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I29">
         <v>6477864344</v>
@@ -21185,18 +21271,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>746</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C30">
         <v>395</v>
       </c>
       <c r="D30" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21208,7 +21294,7 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21223,17 +21309,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>665</v>
       </c>
       <c r="B31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C31">
         <v>260</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>666</v>
       </c>
       <c r="E31" t="s">
@@ -21261,17 +21347,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>737</v>
       </c>
       <c r="B32" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C32">
         <v>95</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>736</v>
       </c>
       <c r="E32" t="s">
@@ -21308,1088 +21394,1247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="2">
+        <v>250</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="2">
+        <v>250</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="2">
+        <v>275</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="2">
+        <v>245</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="2">
+        <v>325</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="2">
+        <v>325</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="2">
+        <v>225</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C10" s="2">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="2">
+        <v>130</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="2">
+        <v>295</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="2">
+        <v>225</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="2">
+        <v>225</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C19" s="2">
+        <v>120</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C21" s="2">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C22" s="2">
+        <v>115</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C23" s="2">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C2">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C24" s="2">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2">
+      <c r="H24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N2" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O24" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3">
-        <v>250</v>
-      </c>
-      <c r="D3" t="s">
-        <v>659</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25" s="2">
+        <v>475</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
+      <c r="H25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N3" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O25" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4">
-        <v>275</v>
-      </c>
-      <c r="D4" t="s">
-        <v>696</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C26" s="2">
+        <v>225</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>453</v>
-      </c>
-      <c r="I4">
+      <c r="H26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N4" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O26" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5">
-        <v>245</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C27" s="2">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5">
+      <c r="H27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N5" t="s">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O27" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C28" s="2">
+        <v>85</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6">
+      <c r="H28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N6" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O28" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>565</v>
-      </c>
-      <c r="C7">
-        <v>325</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C29" s="2">
+        <v>195</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7">
+      <c r="H29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N7" t="s">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O29" s="2" t="s">
+        <v>572</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C8">
-        <v>325</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C30" s="2">
+        <v>495</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="I30" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C31" s="2">
+        <v>745</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="I31" s="2">
+        <v>6477864344</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="2">
+        <v>975</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8">
+      <c r="H32" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="I32" s="2">
         <v>6477864344</v>
       </c>
-      <c r="N8" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O32" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C9">
-        <v>225</v>
-      </c>
-      <c r="D9" t="s">
-        <v>669</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C33" s="2">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F33" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
-        <v>566</v>
-      </c>
-      <c r="I9">
-        <v>6477864344</v>
-      </c>
-      <c r="N9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B10" t="s">
-        <v>567</v>
-      </c>
-      <c r="C10">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>638</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10">
-        <v>6477864344</v>
-      </c>
-      <c r="N10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C11">
-        <v>130</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>6477864344</v>
-      </c>
-      <c r="N11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>454</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12">
-        <v>6477864344</v>
-      </c>
-      <c r="N12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>463</v>
-      </c>
-      <c r="C13">
-        <v>295</v>
-      </c>
-      <c r="D13" t="s">
-        <v>723</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13">
-        <v>6477864344</v>
-      </c>
-      <c r="N13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14">
-        <v>6477864344</v>
-      </c>
-      <c r="N14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>461</v>
-      </c>
-      <c r="C15">
-        <v>225</v>
-      </c>
-      <c r="D15" t="s">
-        <v>789</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15">
-        <v>6477864344</v>
-      </c>
-      <c r="N15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>740</v>
-      </c>
-      <c r="B16" t="s">
-        <v>568</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>739</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16">
-        <v>6477864344</v>
-      </c>
-      <c r="N16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>461</v>
-      </c>
-      <c r="C17">
-        <v>225</v>
-      </c>
-      <c r="D17" t="s">
-        <v>639</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17">
-        <v>6477864344</v>
-      </c>
-      <c r="N17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>461</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>375</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18">
-        <v>6477864344</v>
-      </c>
-      <c r="N18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>461</v>
-      </c>
-      <c r="C19">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>375</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19">
-        <v>6477864344</v>
-      </c>
-      <c r="N19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>463</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20">
-        <v>6477864344</v>
-      </c>
-      <c r="N20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>569</v>
-      </c>
-      <c r="C21">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>710</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21">
-        <v>6477864344</v>
-      </c>
-      <c r="N21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>697</v>
-      </c>
-      <c r="B22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22">
-        <v>115</v>
-      </c>
-      <c r="D22" t="s">
-        <v>743</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22">
-        <v>6477864344</v>
-      </c>
-      <c r="N22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>735</v>
-      </c>
-      <c r="B23" t="s">
-        <v>569</v>
-      </c>
-      <c r="C23">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>698</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23">
-        <v>6477864344</v>
-      </c>
-      <c r="N23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>464</v>
-      </c>
-      <c r="C24">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24">
-        <v>6477864344</v>
-      </c>
-      <c r="N24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>455</v>
-      </c>
-      <c r="C25">
-        <v>475</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25">
-        <v>6477864344</v>
-      </c>
-      <c r="N25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>722</v>
-      </c>
-      <c r="B26" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26">
-        <v>225</v>
-      </c>
-      <c r="D26" t="s">
-        <v>721</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26">
-        <v>6477864344</v>
-      </c>
-      <c r="N26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>454</v>
-      </c>
-      <c r="C27">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27">
-        <v>6477864344</v>
-      </c>
-      <c r="N27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" t="s">
-        <v>553</v>
-      </c>
-      <c r="C28">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28">
-        <v>6477864344</v>
-      </c>
-      <c r="N28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>570</v>
-      </c>
-      <c r="C29">
-        <v>195</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29">
-        <v>6477864344</v>
-      </c>
-      <c r="N29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>744</v>
-      </c>
-      <c r="B30" t="s">
-        <v>462</v>
-      </c>
-      <c r="C30">
-        <v>495</v>
-      </c>
-      <c r="D30" t="s">
-        <v>632</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" t="s">
-        <v>633</v>
-      </c>
-      <c r="I30">
-        <v>6477864344</v>
-      </c>
-      <c r="N30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="B31" t="s">
-        <v>465</v>
-      </c>
-      <c r="C31">
-        <v>745</v>
-      </c>
-      <c r="D31" t="s">
-        <v>657</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s">
-        <v>658</v>
-      </c>
-      <c r="I31">
-        <v>6477864344</v>
-      </c>
-      <c r="N31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="B32" t="s">
-        <v>461</v>
-      </c>
-      <c r="C32">
-        <v>975</v>
-      </c>
-      <c r="D32" t="s">
-        <v>661</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>375</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" t="s">
-        <v>662</v>
-      </c>
-      <c r="I32">
-        <v>6477864344</v>
-      </c>
-      <c r="N32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>751</v>
-      </c>
-      <c r="B33" t="s">
-        <v>752</v>
-      </c>
-      <c r="C33">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>753</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>375</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>6477864345</v>
       </c>
-      <c r="N33" t="s">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -22403,19 +22648,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22459,12 +22704,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C2">
         <v>145</v>
@@ -22494,18 +22739,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C3">
         <v>195</v>
       </c>
-      <c r="D3" t="s">
-        <v>768</v>
+      <c r="D3" s="2" t="s">
+        <v>769</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22529,17 +22774,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C4">
         <v>345</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>703</v>
       </c>
       <c r="E4" t="s">
@@ -22564,17 +22809,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C5">
         <v>395</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>688</v>
       </c>
       <c r="E5" t="s">
@@ -22599,12 +22844,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C6">
         <v>75</v>
@@ -22634,18 +22879,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C7">
         <v>945</v>
       </c>
-      <c r="D7" t="s">
-        <v>765</v>
+      <c r="D7" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -22669,12 +22914,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C8">
         <v>195</v>
@@ -22704,12 +22949,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -22739,12 +22984,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -22774,12 +23019,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C11">
         <v>125</v>
@@ -22809,12 +23054,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -22844,12 +23089,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>331</v>
       </c>
       <c r="B13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C13">
         <v>35</v>
@@ -22879,12 +23124,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>334</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C14">
         <v>145</v>
@@ -22914,12 +23159,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -22949,12 +23194,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>340</v>
       </c>
       <c r="B16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C16">
         <v>345</v>
@@ -22984,12 +23229,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>343</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C17">
         <v>95</v>
@@ -23019,12 +23264,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>346</v>
       </c>
       <c r="B18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -23054,17 +23299,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>349</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>350</v>
       </c>
       <c r="E19" t="s">
@@ -23089,12 +23334,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -23124,17 +23369,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C21">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>664</v>
       </c>
       <c r="E21" t="s">
@@ -23159,12 +23404,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -23194,12 +23439,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C23">
         <v>95</v>
@@ -23229,18 +23474,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C24">
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -23264,12 +23509,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C25">
         <v>175</v>
@@ -23299,12 +23544,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>366</v>
       </c>
       <c r="B26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C26">
         <v>160</v>
@@ -23334,12 +23579,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>369</v>
       </c>
       <c r="B27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C27">
         <v>325</v>
@@ -23369,18 +23614,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>372</v>
       </c>
       <c r="B28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
-        <v>791</v>
+      <c r="D28" s="2" t="s">
+        <v>792</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23404,18 +23649,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>374</v>
       </c>
       <c r="B29" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C29">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
-        <v>779</v>
+      <c r="D29" s="2" t="s">
+        <v>780</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23439,17 +23684,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>728</v>
       </c>
       <c r="B30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C30">
         <v>830</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>727</v>
       </c>
       <c r="E30" t="s">
@@ -23474,12 +23719,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>377</v>
       </c>
       <c r="B31" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C31">
         <v>645</v>
@@ -23509,17 +23754,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B32" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C32">
         <v>1095</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>685</v>
       </c>
       <c r="E32" t="s">
@@ -23532,16 +23777,16 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K32" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L32" t="s">
         <v>240</v>
@@ -23553,17 +23798,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>705</v>
       </c>
       <c r="B33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>704</v>
       </c>
       <c r="E33" t="s">
@@ -23582,7 +23827,7 @@
         <v>4164744787</v>
       </c>
       <c r="J33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K33" t="s">
         <v>706</v>
@@ -23597,18 +23842,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B34" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C34">
         <v>95</v>
       </c>
-      <c r="D34" t="s">
-        <v>785</v>
+      <c r="D34" s="2" t="s">
+        <v>786</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -23620,16 +23865,16 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
       </c>
       <c r="J34" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K34" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L34" t="s">
         <v>240</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A73FECF-2F36-4D31-8B37-F7C875DBDC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E52B5C-B429-4E9E-8F61-24099E1733DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="798">
   <si>
     <t>Title</t>
   </si>
@@ -8305,186 +8305,13 @@
     <t>Elgato Streaming - Elgato HD60X, HD60S, Facecam</t>
   </si>
   <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Arctic King Window Air Conditioner - 10000 BTU - 450 sq ft (MWHUK10CRN8BCL0)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $469 + TAX
-OUR PRICE: $375 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
     <t>Arctic King Window AC</t>
   </si>
   <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Forest Air 3-in-1 Portable Air Conditioner - 8000 BTU - 200-250 sq ft (A01908KR)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $445.50 + TAX
-OUR PRICE: $345 (CASH NO TAX)
-------------------------------------------------------
-OMNIMAX 3-in-1 Portable Air Conditioner - 8000 BTU - 150 sq ft (OP08N3WBA1RCM)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $449.99 + TAX
-OUR PRICE: $345 (CASH NO TAX)
-------------------------------------------------------
-Arctic King Portable Air Conditioner - 8000 BTU - 150 sq ft (AP53SEWBA1RCM)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $379 + TAX
-OUR PRICE: $325 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
     <t>8000 BTU AC</t>
   </si>
   <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Arctic King Portable Air Conditioner - 10000 BTU - 300 sq ft (AP07SEWBA1RCM) 
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $549 + TAX
-OUR PRICE: $395 (CASH NO TAX)
-------------------------------------------------------
-KOOLKING Portable Air Conditioner - 10000 BTU - 540 sq ft
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $499.99 + TAX
-OUR PRICE: $395 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
     <t>10000 BTU AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Arctic King 3-in-1 Portable Air Conditioner - 13500 BTU - 450 sq ft (AP10SEWBA1RCM)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $689 + TAX
-OUR PRICE: $545 (CASH NO TAX)
-------------------------------------------------------
-Hisense 3-in-1 Portable Smart Air Conditioner - 13000 BTU - 450 sq ft (AP1022CW1G)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $697 + TAX
-OUR PRICE: $545 (CASH NO TAX)
-------------------------------------------------------
-Arctic King 3-in-1 Portable Air Conditioner - 12000 BTU - 350 sq ft (AP08SEWBA1RCM)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
-REGULAR PRICE: $649 + TAX
-OUR PRICE: $495 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
   </si>
   <si>
     <t>High BTU AC</t>
@@ -11167,50 +10994,6 @@
   </si>
   <si>
     <t>Apple Iphones - Iphone 14 Pro Max, iPhone 14 Pro, Iphone 14 Plus</t>
-  </si>
-  <si>
-    <t>Sony Play Station 5 Disc Version (PS5) Open Box</t>
-  </si>
-  <si>
-    <t>Buy &amp; Sell;Video Games &amp; Consoles;Sony Playstation 5</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Play Station 5 Disc Version 
-(BRAND NEW OPEN BOX WITH WARRANTY)
-PRICE - 450 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>PS5</t>
   </si>
   <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -14014,6 +13797,230 @@
   <si>
     <t>Samsung Tab S7+</t>
   </si>
+  <si>
+    <t>Master Portable Lock - 5480D, 5482D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+5482D - Master Lock Portable Lock Box
+(Brand New)
+Price - $40(CASH NO TAX)
+5480D - Master Lock Portable Lock Box
+(Brand New)
+Price - $35 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>50-76</t>
+  </si>
+  <si>
+    <t>Master Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Arctic King Window Air Conditioner - 10000 BTU - 450 sq ft (MWHUK10CRN8BCL0)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $469 + TAX
+OUR PRICE: $325 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Buy &amp; Sell;Home Renovation Materials;Heating, Cooling &amp; Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Forest Air 3-in-1 Portable Air Conditioner - 8000 BTU - 200-250 sq ft (A01908KR)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $445.50 + TAX
+OUR PRICE: $300 (CASH NO TAX)
+------------------------------------------------------
+OMNIMAX 3-in-1 Portable Air Conditioner - 8000 BTU - 150 sq ft (OP08N3WBA1RCM)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $449.99 + TAX
+OUR PRICE: $325 (CASH NO TAX)
+------------------------------------------------------
+Arctic King Portable Air Conditioner - 8000 BTU - 150 sq ft (AP53SEWBA1RCM)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $379 + TAX
+OUR PRICE: $275 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Arctic King Portable Air Conditioner - 10000 BTU - 300 sq ft (AP07SEWBA1RCM) 
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $549 + TAX
+OUR PRICE: $300 (CASH NO TAX)
+------------------------------------------------------
+KOOLKING Portable Air Conditioner - 10000 BTU - 540 sq ft
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $499.99 + TAX
+OUR PRICE: $300 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Arctic King 3-in-1 Portable Air Conditioner - 13500 BTU - 450 sq ft (AP10SEWBA1RCM)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $689 + TAX
+OUR PRICE: $450 (CASH NO TAX)
+------------------------------------------------------
+Hisense 3-in-1 Portable Smart Air Conditioner - 13000 BTU - 450 sq ft (AP1022CW1G)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $697 + TAX
+OUR PRICE: $450 (CASH NO TAX)
+------------------------------------------------------
+Arctic King 3-in-1 Portable Air Conditioner - 12000 BTU - 350 sq ft (AP08SEWBA1RCM)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFACTURER WARRANTY)
+REGULAR PRICE: $649 + TAX
+OUR PRICE: $425 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
 </sst>
 </file>
 
@@ -14105,7 +14112,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -14117,6 +14124,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -14436,8 +14446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14508,7 +14518,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14637,7 +14647,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14681,7 +14691,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14769,7 +14779,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14813,7 +14823,7 @@
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14936,7 +14946,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -15009,7 +15019,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B14" t="s">
         <v>459</v>
@@ -15018,7 +15028,7 @@
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -15100,7 +15110,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15264,7 +15274,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15337,7 +15347,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B22" t="s">
         <v>457</v>
@@ -15346,7 +15356,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15378,7 +15388,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B23" t="s">
         <v>462</v>
@@ -15387,7 +15397,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15428,7 +15438,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -15551,7 +15561,7 @@
         <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -15633,7 +15643,7 @@
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -15788,7 +15798,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B33" t="s">
         <v>570</v>
@@ -15797,7 +15807,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -15809,7 +15819,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15829,7 +15839,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B34" t="s">
         <v>459</v>
@@ -15838,7 +15848,7 @@
         <v>695</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -15850,7 +15860,7 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -15870,7 +15880,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B35" t="s">
         <v>459</v>
@@ -15879,7 +15889,7 @@
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -15891,7 +15901,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="I35">
         <v>4164744788</v>
@@ -15917,10 +15927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16296,7 +16306,7 @@
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16340,7 +16350,7 @@
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16472,7 +16482,7 @@
         <v>1450</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16493,7 +16503,7 @@
         <v>504</v>
       </c>
       <c r="K13" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L13" t="s">
         <v>240</v>
@@ -16516,7 +16526,7 @@
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -16537,7 +16547,7 @@
         <v>507</v>
       </c>
       <c r="K14" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L14" t="s">
         <v>240</v>
@@ -16551,7 +16561,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B15" t="s">
         <v>467</v>
@@ -16625,7 +16635,7 @@
         <v>523</v>
       </c>
       <c r="K16" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="L16" t="s">
         <v>240</v>
@@ -16669,7 +16679,7 @@
         <v>527</v>
       </c>
       <c r="K17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L17" t="s">
         <v>240</v>
@@ -16713,7 +16723,7 @@
         <v>531</v>
       </c>
       <c r="K18" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="L18" t="s">
         <v>240</v>
@@ -16757,7 +16767,7 @@
         <v>535</v>
       </c>
       <c r="K19" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L19" t="s">
         <v>240</v>
@@ -16801,7 +16811,7 @@
         <v>535</v>
       </c>
       <c r="K20" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="L20" t="s">
         <v>240</v>
@@ -16845,7 +16855,7 @@
         <v>542</v>
       </c>
       <c r="K21" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L21" t="s">
         <v>240</v>
@@ -16889,7 +16899,7 @@
         <v>546</v>
       </c>
       <c r="K22" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="L22" t="s">
         <v>240</v>
@@ -16903,7 +16913,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B23" t="s">
         <v>457</v>
@@ -16933,7 +16943,7 @@
         <v>593</v>
       </c>
       <c r="K23" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="L23" t="s">
         <v>240</v>
@@ -16968,7 +16978,7 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
@@ -16977,7 +16987,7 @@
         <v>601</v>
       </c>
       <c r="K24" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="L24" t="s">
         <v>240</v>
@@ -17021,7 +17031,7 @@
         <v>605</v>
       </c>
       <c r="K25" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L25" t="s">
         <v>240</v>
@@ -17065,7 +17075,7 @@
         <v>609</v>
       </c>
       <c r="K26" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L26" t="s">
         <v>240</v>
@@ -17088,7 +17098,7 @@
         <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -17109,7 +17119,7 @@
         <v>612</v>
       </c>
       <c r="K27" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="L27" t="s">
         <v>240</v>
@@ -17123,7 +17133,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B28" t="s">
         <v>463</v>
@@ -17131,8 +17141,8 @@
       <c r="C28">
         <v>95</v>
       </c>
-      <c r="D28" t="s">
-        <v>636</v>
+      <c r="D28" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17144,7 +17154,7 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
@@ -17153,7 +17163,7 @@
         <v>614</v>
       </c>
       <c r="K28" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="L28" t="s">
         <v>240</v>
@@ -17167,7 +17177,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B29" t="s">
         <v>457</v>
@@ -17176,7 +17186,7 @@
         <v>260</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17188,16 +17198,16 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K29" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L29" t="s">
         <v>240</v>
@@ -17211,7 +17221,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B30" t="s">
         <v>457</v>
@@ -17220,7 +17230,7 @@
         <v>175</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17232,16 +17242,16 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="L30" t="s">
         <v>240</v>
@@ -17255,7 +17265,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B31" t="s">
         <v>462</v>
@@ -17264,7 +17274,7 @@
         <v>1795</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17276,16 +17286,16 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="J31" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="K31" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="L31" t="s">
         <v>240</v>
@@ -17294,6 +17304,50 @@
         <v>103</v>
       </c>
       <c r="N31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>789</v>
+      </c>
+      <c r="B32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C32">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>375</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>792</v>
+      </c>
+      <c r="I32">
+        <v>4164744787</v>
+      </c>
+      <c r="J32" t="s">
+        <v>690</v>
+      </c>
+      <c r="K32" t="s">
+        <v>791</v>
+      </c>
+      <c r="L32" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" t="s">
+        <v>103</v>
+      </c>
+      <c r="N32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -17305,10 +17359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17583,7 +17637,7 @@
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17624,7 +17678,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17747,7 +17801,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17788,7 +17842,7 @@
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17902,7 +17956,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B15" t="s">
         <v>459</v>
@@ -17911,7 +17965,7 @@
         <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -17984,7 +18038,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B17" t="s">
         <v>456</v>
@@ -17993,7 +18047,7 @@
         <v>795</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -18157,7 +18211,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18239,7 +18293,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -18353,7 +18407,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B26" t="s">
         <v>555</v>
@@ -18362,7 +18416,7 @@
         <v>340</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -18556,18 +18610,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>794</v>
       </c>
       <c r="C31">
-        <v>375</v>
-      </c>
-      <c r="D31" t="s">
-        <v>627</v>
+        <v>325</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>793</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18579,7 +18633,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18599,7 +18653,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B32" t="s">
         <v>464</v>
@@ -18608,7 +18662,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18620,7 +18674,7 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -18640,16 +18694,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>729</v>
+        <v>786</v>
       </c>
       <c r="B33" t="s">
-        <v>730</v>
+        <v>459</v>
       </c>
       <c r="C33">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>731</v>
+        <v>787</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -18661,10 +18715,10 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>732</v>
+        <v>788</v>
       </c>
       <c r="I33">
-        <v>4164744787</v>
+        <v>4164744788</v>
       </c>
       <c r="K33" t="s">
         <v>102</v>
@@ -18673,50 +18727,9 @@
         <v>103</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="N33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>794</v>
-      </c>
-      <c r="B34" t="s">
-        <v>459</v>
-      </c>
-      <c r="C34">
-        <v>395</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" t="s">
-        <v>796</v>
-      </c>
-      <c r="I34">
-        <v>4164744788</v>
-      </c>
-      <c r="K34" t="s">
-        <v>102</v>
-      </c>
-      <c r="L34" t="s">
-        <v>103</v>
-      </c>
-      <c r="M34" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -18838,7 +18851,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18879,7 +18892,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -19248,7 +19261,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19330,7 +19343,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19526,7 +19539,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B20" t="s">
         <v>466</v>
@@ -19535,7 +19548,7 @@
         <v>275</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19699,7 +19712,7 @@
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19863,7 +19876,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20151,8 +20164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20160,6 +20173,7 @@
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20256,7 +20270,7 @@
         <v>695</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20399,7 +20413,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B7" t="s">
         <v>455</v>
@@ -20408,7 +20422,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20522,7 +20536,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20788,7 +20802,7 @@
         <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -20902,7 +20916,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20940,7 +20954,7 @@
         <v>545</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20978,7 +20992,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -21016,7 +21030,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -21092,7 +21106,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -21168,7 +21182,7 @@
         <v>340</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21235,16 +21249,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B29" t="s">
         <v>463</v>
       </c>
       <c r="C29">
-        <v>325</v>
-      </c>
-      <c r="D29" t="s">
-        <v>629</v>
+        <v>275</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>795</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21256,7 +21270,7 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I29">
         <v>6477864344</v>
@@ -21273,16 +21287,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B30" t="s">
         <v>463</v>
       </c>
       <c r="C30">
-        <v>395</v>
-      </c>
-      <c r="D30" t="s">
-        <v>631</v>
+        <v>300</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>796</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21294,7 +21308,7 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21311,7 +21325,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B31" t="s">
         <v>565</v>
@@ -21320,7 +21334,7 @@
         <v>260</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21332,7 +21346,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21349,7 +21363,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B32" t="s">
         <v>462</v>
@@ -21358,7 +21372,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21370,7 +21384,7 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21394,8 +21408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21464,7 +21478,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21501,7 +21515,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -21538,7 +21552,7 @@
         <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21723,7 +21737,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -21751,7 +21765,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>568</v>
@@ -21760,7 +21774,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -21871,7 +21885,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -21945,7 +21959,7 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -21973,7 +21987,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>569</v>
@@ -21982,7 +21996,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -22018,8 +22032,8 @@
       <c r="C17" s="2">
         <v>225</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>640</v>
+      <c r="D17" t="s">
+        <v>636</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -22167,7 +22181,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22195,7 +22209,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>462</v>
@@ -22204,7 +22218,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22232,7 +22246,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>570</v>
@@ -22241,7 +22255,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22343,7 +22357,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>466</v>
@@ -22352,7 +22366,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22493,16 +22507,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>463</v>
       </c>
       <c r="C30" s="2">
-        <v>495</v>
+        <v>425</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>633</v>
+        <v>797</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22514,7 +22528,7 @@
         <v>34</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -22530,7 +22544,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>466</v>
@@ -22539,7 +22553,7 @@
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -22551,7 +22565,7 @@
         <v>34</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -22567,7 +22581,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>462</v>
@@ -22576,7 +22590,7 @@
         <v>975</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -22588,7 +22602,7 @@
         <v>34</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -22604,16 +22618,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C33" s="2">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -22625,7 +22639,7 @@
         <v>34</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="I33" s="2">
         <v>6477864345</v>
@@ -22648,8 +22662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22750,7 +22764,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22785,7 +22799,7 @@
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22820,7 +22834,7 @@
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -22890,7 +22904,7 @@
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -23380,7 +23394,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -23625,7 +23639,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23660,7 +23674,7 @@
         <v>125</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23686,7 +23700,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B30" t="s">
         <v>462</v>
@@ -23695,7 +23709,7 @@
         <v>830</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -23765,7 +23779,7 @@
         <v>1095</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23800,7 +23814,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B33" t="s">
         <v>455</v>
@@ -23809,7 +23823,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -23821,7 +23835,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -23830,7 +23844,7 @@
         <v>515</v>
       </c>
       <c r="K33" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L33" t="s">
         <v>240</v>
@@ -23844,7 +23858,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B34" t="s">
         <v>464</v>
@@ -23853,7 +23867,7 @@
         <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -23865,7 +23879,7 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
@@ -23874,7 +23888,7 @@
         <v>515</v>
       </c>
       <c r="K34" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="L34" t="s">
         <v>240</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3927CCD6-AF91-41C4-BF37-FA5138D04546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3406B075-3922-408A-9207-2BC4442F5AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="796">
   <si>
     <t>Title</t>
   </si>
@@ -6681,44 +6681,6 @@
     <t>APPLE WATCH ULTRA (GPS + CELLULAR) 49MM</t>
   </si>
   <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-APPLE WATCH ULTRA (GPS + CELLULAR)
-------------------------------------------------------
-APPLE WATCH ULTRA (GPS + CELLULAR) 49MM
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $670 (CASH NO TAX)
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
     <t>Apple watch Ultra</t>
   </si>
   <si>
@@ -7974,130 +7936,6 @@
   </si>
   <si>
     <t>Miele C1 Vacuum</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-APPLE Watches - Apple watch ultra, Аpple Watch Series 9, Apple Watch Series 8, Apple Series 7, Apple Watch Series 6,Apple Watch Series 3, Aрple Watch SE, Apple Watch SE 2
-------------------------------------------------------------------------
-(GPS + CELLULAR)
-------------------------------------------------------------------------
-APPLE WATCH ULTRA (GРS + CELLULAR) 49MM
-(OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $670 (CASH NO TAX)
----------------------------------------------------------------------
-APPLE WATCH SERIЕS 8 (GPS + CELLULAR) 45MM
-(BRAND NEW IN BОX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $495 (CASH NO TAX)
-APPLE WATCH SERIES 8 STAINLESS STEEL (GPS + CELLULAR) 45MM
-(NEW ОPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $450 (CASH NO TAX)
-APPLE WATCH SЕRIES 8 (GPS + CELLULAR) 45MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $400 (CASH NO TAX)
----------------------------------------------------------------------
-APPLE WATCH SERIES 8 (GPS + CELLULAR) 41MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRАNTY)
-PRICE - $450 (CASH NO TAX)
-APРLE WATCH SERIES 8 STAINLESS STEEL (GPS + CELLULAR) 41MM
-(NEW OPEN BOX WITH 6 MONTHS STОRE WARRANTY)
-PRICE - $400 (CASH NO TAX)
-APPLE WATCH SERIES 8 (GPS + CELLULAR) 41MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $375 (CASH NO TAX)
----------------------------------------------------------------------
-APPLE WATCH SERIES 3 (GPS + CELLULAR) 42MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $250 (CASH NO TAX)
----------------------------------------------------------------------
-APPLE WATCH SE 2nd GEN (GPS+CELLULAR) 44MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $295 (CASH NO TAX)
-APPLE WATCH SE 1st GEN (GPS+CELLULAR) 44MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $295(CASH NO TAX)
-APPLE WATCH SE 1st GEN (GPS+CELLULAR) 44MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $245 (CASH NO TAX)
----------------------------------------------------------------------
-APPLЕ WATCH SE 1st GEN (GPS+CELLULAR) 40MM
-(BRАND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $245 (CASH NO TAX)
-APPLE WATCH SE 1st GEN (GPS+CELLULAR) 40MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $225 (CASH NO TAX)
-------------------------------------------------------------------------
-(GPS)
----------------------------------------------------------------------
-APPLE WATCH SERIES 9 (GPS) 45MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $475 (CASH NO TAX)
-APPLE WATCH SERIES 9 (GPS) 41MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRIСE - $425 (CASH NO TAX)
-------------------------------------------------------------------------
-APPLE WATCH SERIES 8 (GPS) 45MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $410 (CASH NO TAX)
-APPLE WATCH SERIES 8 (GPS) 45MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $375 (CASH NO TAX)
-APPLE WATCH SERIES 8 (GPS) 41MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $375 (CASH NО TAX)
-APPLE WATCH SERIES 8 (GPS) 41MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $345 (CASH NO TAX)
-------------------------------------------------------------------------
-APPLE WATCH SERIES 7 (GPS) 45MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
-PRICE - $335 (CASH NO TAX)
-APPLE WATCH SERIES 7 (GPS) 41MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
-PRICE - $295 (CASH NO TAX)
-------------------------------------------------------------------------
-APPLE WATCH SERIES 6 (GPS) 44MM 
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
-PRICE - $295  (CASH NO TAX) 
----------------------------------------------------------------------
-APPLE WATCH SE 2nd GEN (GPS) 44MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $275 (CASH NO TАX)
-APPLE WATCH SE 2nd GEN (GPS) 40MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $245 (CASH NO TAX)
-------------------------------------------------------------------------
-APPLE WATCH SE 1st GEN (GPS) 44MM
-(OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $245 (CASH NO TAX)
-------------------------------------------------------------------------
-Same day delivery available in GTA area - delivery chаrges are extra depends on location
-------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with mоnthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is opеn to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -9297,9 +9135,6 @@
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM
 </t>
-  </si>
-  <si>
-    <t>Lenovo Laptops Intel i7 - IdeaPad 3, T490s, T470, T470s, T560</t>
   </si>
   <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -13918,6 +13753,220 @@
   </si>
   <si>
     <t>HP Laptops Intel i5 - 840 G7, 430 G5, 430 G3, 840 G6</t>
+  </si>
+  <si>
+    <t>Lenovo Laptops Intel i7 - IdeaPad 3, T490s, T470, T470s, T560, T480</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+APPLE Watches - Apple watch ultra, Аpple Watch Series 9, Apple Watch Series 8, Apple Series 7, Apple Watch Series 6,Apple Watch Series 3, Aрple Watch SE, Apple Watch SE 2
+------------------------------------------------------------------------
+(GPS + CELLULAR)
+------------------------------------------------------------------------
+APPLE WATCH ULTRA (GРS + CELLULAR) 49MM
+(OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $650 (CASH NO TAX)
+---------------------------------------------------------------------
+APPLE WATCH SERIЕS 8 (GPS + CELLULAR) 45MM
+(BRAND NEW IN BОX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $495 (CASH NO TAX)
+APPLE WATCH SERIES 8 STAINLESS STEEL (GPS + CELLULAR) 45MM
+(NEW ОPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $450 (CASH NO TAX)
+APPLE WATCH SЕRIES 8 (GPS + CELLULAR) 45MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $400 (CASH NO TAX)
+---------------------------------------------------------------------
+APPLE WATCH SERIES 8 (GPS + CELLULAR) 41MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRАNTY)
+PRICE - $450 (CASH NO TAX)
+APРLE WATCH SERIES 8 STAINLESS STEEL (GPS + CELLULAR) 41MM
+(NEW OPEN BOX WITH 6 MONTHS STОRE WARRANTY)
+PRICE - $400 (CASH NO TAX)
+APPLE WATCH SERIES 8 (GPS + CELLULAR) 41MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $375 (CASH NO TAX)
+---------------------------------------------------------------------
+APPLE WATCH SERIES 3 (GPS + CELLULAR) 42MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $250 (CASH NO TAX)
+---------------------------------------------------------------------
+APPLE WATCH SE 2nd GEN (GPS+CELLULAR) 44MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $295 (CASH NO TAX)
+APPLE WATCH SE 1st GEN (GPS+CELLULAR) 44MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $295(CASH NO TAX)
+APPLE WATCH SE 1st GEN (GPS+CELLULAR) 44MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $245 (CASH NO TAX)
+---------------------------------------------------------------------
+APPLЕ WATCH SE 1st GEN (GPS+CELLULAR) 40MM
+(BRАND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $245 (CASH NO TAX)
+APPLE WATCH SE 1st GEN (GPS+CELLULAR) 40MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $225 (CASH NO TAX)
+------------------------------------------------------------------------
+(GPS)
+---------------------------------------------------------------------
+APPLE WATCH SERIES 9 (GPS) 45MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $475 (CASH NO TAX)
+APPLE WATCH SERIES 9 (GPS) 41MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRIСE - $425 (CASH NO TAX)
+------------------------------------------------------------------------
+APPLE WATCH SERIES 8 (GPS) 45MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $410 (CASH NO TAX)
+APPLE WATCH SERIES 8 (GPS) 45MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $375 (CASH NO TAX)
+APPLE WATCH SERIES 8 (GPS) 41MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $375 (CASH NО TAX)
+APPLE WATCH SERIES 8 (GPS) 41MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $345 (CASH NO TAX)
+------------------------------------------------------------------------
+APPLE WATCH SERIES 7 (GPS) 45MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $335 (CASH NO TAX)
+APPLE WATCH SERIES 7 (GPS) 41MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $295 (CASH NO TAX)
+------------------------------------------------------------------------
+APPLE WATCH SERIES 6 (GPS) 44MM 
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $295  (CASH NO TAX) 
+---------------------------------------------------------------------
+APPLE WATCH SE 2nd GEN (GPS) 44MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $275 (CASH NO TАX)
+APPLE WATCH SE 2nd GEN (GPS) 40MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $245 (CASH NO TAX)
+------------------------------------------------------------------------
+APPLE WATCH SE 1st GEN (GPS) 44MM
+(OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $245 (CASH NO TAX)
+------------------------------------------------------------------------
+Same day delivery available in GTA area - delivery chаrges are extra depends on location
+------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with mоnthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is opеn to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+APPLE WATCH ULTRA (GPS + CELLULAR)
+------------------------------------------------------
+APPLE WATCH ULTRA (GPS + CELLULAR) 49MM
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $650 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>T7S Robot Vacuum and Mop Combo MAMNV with Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+T7S Robot Vacuum and Mop Combo, 2 in 1 Mopping Robot Vacuum Cleaner with Schedule
+Wi-Fi/App, 2000Pa Max Suction, Self-Charging Robotic Vacuum, Slim, Ideal for Hard Floor, Pet Hair, Low-Pile Carpet
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $95 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>50-77</t>
+  </si>
+  <si>
+    <t>T7S Robot Vacuum</t>
+  </si>
+  <si>
+    <t>Robot Vacuum, T7s Vacuum</t>
   </si>
 </sst>
 </file>
@@ -14341,8 +14390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14413,7 +14462,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14454,7 +14503,7 @@
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14542,7 +14591,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14586,7 +14635,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14674,7 +14723,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14718,7 +14767,7 @@
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14841,7 +14890,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -14914,7 +14963,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B14" t="s">
         <v>453</v>
@@ -14923,7 +14972,7 @@
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -14964,7 +15013,7 @@
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -15005,7 +15054,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15160,7 +15209,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B20" t="s">
         <v>453</v>
@@ -15169,7 +15218,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15242,7 +15291,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B22" t="s">
         <v>451</v>
@@ -15251,7 +15300,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15283,7 +15332,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B23" t="s">
         <v>456</v>
@@ -15292,7 +15341,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15333,7 +15382,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -15456,7 +15505,7 @@
         <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -15488,7 +15537,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B28" t="s">
         <v>458</v>
@@ -15496,8 +15545,8 @@
       <c r="C28">
         <v>245</v>
       </c>
-      <c r="D28" t="s">
-        <v>613</v>
+      <c r="D28" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -15538,7 +15587,7 @@
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -15570,7 +15619,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B30" t="s">
         <v>462</v>
@@ -15579,7 +15628,7 @@
         <v>295</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -15652,7 +15701,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B32" t="s">
         <v>450</v>
@@ -15661,7 +15710,7 @@
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -15673,7 +15722,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15693,16 +15742,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C33">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -15714,7 +15763,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15734,7 +15783,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B34" t="s">
         <v>453</v>
@@ -15743,7 +15792,7 @@
         <v>695</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -15755,7 +15804,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -15775,7 +15824,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B35" t="s">
         <v>453</v>
@@ -15784,7 +15833,7 @@
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -15796,7 +15845,7 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I35">
         <v>4164744788</v>
@@ -15822,10 +15871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15887,7 +15936,7 @@
         <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C2">
         <v>160</v>
@@ -15931,7 +15980,7 @@
         <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -15975,7 +16024,7 @@
         <v>472</v>
       </c>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -16113,7 +16162,7 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16201,7 +16250,7 @@
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16245,7 +16294,7 @@
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16327,7 +16376,7 @@
         <v>492</v>
       </c>
       <c r="B12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -16377,7 +16426,7 @@
         <v>1450</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16398,7 +16447,7 @@
         <v>498</v>
       </c>
       <c r="K13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L13" t="s">
         <v>237</v>
@@ -16421,7 +16470,7 @@
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -16442,7 +16491,7 @@
         <v>501</v>
       </c>
       <c r="K14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L14" t="s">
         <v>237</v>
@@ -16456,7 +16505,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B15" t="s">
         <v>461</v>
@@ -16506,10 +16555,10 @@
         <v>458</v>
       </c>
       <c r="C16">
-        <v>670</v>
-      </c>
-      <c r="D16" t="s">
-        <v>515</v>
+        <v>650</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>790</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16521,16 +16570,16 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K16" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L16" t="s">
         <v>237</v>
@@ -16544,7 +16593,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
         <v>458</v>
@@ -16553,7 +16602,7 @@
         <v>475</v>
       </c>
       <c r="D17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16565,16 +16614,16 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L17" t="s">
         <v>237</v>
@@ -16588,7 +16637,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B18" t="s">
         <v>458</v>
@@ -16597,7 +16646,7 @@
         <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16609,16 +16658,16 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L18" t="s">
         <v>237</v>
@@ -16632,7 +16681,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
         <v>458</v>
@@ -16641,7 +16690,7 @@
         <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16653,16 +16702,16 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L19" t="s">
         <v>237</v>
@@ -16676,7 +16725,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B20" t="s">
         <v>458</v>
@@ -16685,7 +16734,7 @@
         <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16697,16 +16746,16 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L20" t="s">
         <v>237</v>
@@ -16720,7 +16769,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B21" t="s">
         <v>458</v>
@@ -16729,7 +16778,7 @@
         <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16741,16 +16790,16 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L21" t="s">
         <v>237</v>
@@ -16764,7 +16813,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B22" t="s">
         <v>458</v>
@@ -16773,7 +16822,7 @@
         <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16785,16 +16834,16 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K22" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L22" t="s">
         <v>237</v>
@@ -16808,7 +16857,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B23" t="s">
         <v>451</v>
@@ -16817,7 +16866,7 @@
         <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16829,16 +16878,16 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K23" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L23" t="s">
         <v>237</v>
@@ -16852,7 +16901,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B24" t="s">
         <v>456</v>
@@ -16861,7 +16910,7 @@
         <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16873,16 +16922,16 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K24" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L24" t="s">
         <v>237</v>
@@ -16896,7 +16945,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B25" t="s">
         <v>456</v>
@@ -16905,7 +16954,7 @@
         <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -16917,16 +16966,16 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K25" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L25" t="s">
         <v>237</v>
@@ -16940,7 +16989,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B26" t="s">
         <v>456</v>
@@ -16949,7 +16998,7 @@
         <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -16961,16 +17010,16 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K26" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="L26" t="s">
         <v>237</v>
@@ -16984,7 +17033,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B27" t="s">
         <v>457</v>
@@ -16993,7 +17042,7 @@
         <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -17005,16 +17054,16 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K27" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L27" t="s">
         <v>237</v>
@@ -17028,7 +17077,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B28" t="s">
         <v>451</v>
@@ -17037,7 +17086,7 @@
         <v>260</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17049,16 +17098,16 @@
         <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K28" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L28" t="s">
         <v>237</v>
@@ -17072,7 +17121,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B29" t="s">
         <v>451</v>
@@ -17081,7 +17130,7 @@
         <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17093,16 +17142,16 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K29" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L29" t="s">
         <v>237</v>
@@ -17116,7 +17165,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B30" t="s">
         <v>456</v>
@@ -17125,7 +17174,7 @@
         <v>1795</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17137,16 +17186,16 @@
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K30" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L30" t="s">
         <v>237</v>
@@ -17160,16 +17209,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C31">
         <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17181,16 +17230,16 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I31">
         <v>4164744787</v>
       </c>
       <c r="J31" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K31" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L31" t="s">
         <v>237</v>
@@ -17199,6 +17248,50 @@
         <v>102</v>
       </c>
       <c r="N31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>791</v>
+      </c>
+      <c r="B32" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32">
+        <v>95</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>371</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s">
+        <v>794</v>
+      </c>
+      <c r="I32">
+        <v>4164744788</v>
+      </c>
+      <c r="J32" t="s">
+        <v>795</v>
+      </c>
+      <c r="K32" t="s">
+        <v>793</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="s">
+        <v>102</v>
+      </c>
+      <c r="N32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -17318,7 +17411,7 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -17479,7 +17572,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B7" t="s">
         <v>458</v>
@@ -17488,7 +17581,7 @@
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17529,7 +17622,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17605,7 +17698,7 @@
         <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C10">
         <v>545</v>
@@ -17646,13 +17739,13 @@
         <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17693,7 +17786,7 @@
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17769,7 +17862,7 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C14">
         <v>390</v>
@@ -17807,7 +17900,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B15" t="s">
         <v>453</v>
@@ -17816,7 +17909,7 @@
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -17851,7 +17944,7 @@
         <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -17889,7 +17982,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B17" t="s">
         <v>450</v>
@@ -17898,7 +17991,7 @@
         <v>1050</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -17933,7 +18026,7 @@
         <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -18021,7 +18114,7 @@
         <v>345</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -18062,7 +18155,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18097,13 +18190,13 @@
         <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -18144,7 +18237,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -18217,16 +18310,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C25">
         <v>340</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -18340,7 +18433,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B28" t="s">
         <v>458</v>
@@ -18349,7 +18442,7 @@
         <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -18384,7 +18477,7 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C29">
         <v>545</v>
@@ -18422,16 +18515,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B30" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C30">
         <v>325</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -18443,7 +18536,7 @@
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
@@ -18463,7 +18556,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B31" t="s">
         <v>458</v>
@@ -18472,7 +18565,7 @@
         <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18484,7 +18577,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18504,7 +18597,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B32" t="s">
         <v>453</v>
@@ -18513,7 +18606,7 @@
         <v>395</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18525,7 +18618,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="I32">
         <v>4164744788</v>
@@ -18554,7 +18647,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18661,7 +18754,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18702,7 +18795,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -18778,7 +18871,7 @@
         <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -18860,7 +18953,7 @@
         <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C8">
         <v>145</v>
@@ -18948,7 +19041,7 @@
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -18980,16 +19073,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -19024,13 +19117,13 @@
         <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -19071,7 +19164,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19106,7 +19199,7 @@
         <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -19147,13 +19240,13 @@
         <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19270,7 +19363,7 @@
         <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -19311,7 +19404,7 @@
         <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -19349,7 +19442,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>672</v>
+        <v>788</v>
       </c>
       <c r="B20" t="s">
         <v>460</v>
@@ -19358,7 +19451,7 @@
         <v>275</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19475,7 +19568,7 @@
         <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -19522,7 +19615,7 @@
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19598,7 +19691,7 @@
         <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C26">
         <v>425</v>
@@ -19639,7 +19732,7 @@
         <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -19686,7 +19779,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19882,7 +19975,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B33" t="s">
         <v>457</v>
@@ -19891,7 +19984,7 @@
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -19903,7 +19996,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -20074,13 +20167,13 @@
         <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C3">
         <v>695</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20112,7 +20205,7 @@
         <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -20150,7 +20243,7 @@
         <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -20188,7 +20281,7 @@
         <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C6">
         <v>245</v>
@@ -20223,7 +20316,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B7" t="s">
         <v>449</v>
@@ -20232,7 +20325,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20346,7 +20439,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20378,7 +20471,7 @@
         <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -20416,7 +20509,7 @@
         <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -20454,7 +20547,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C13">
         <v>145</v>
@@ -20530,7 +20623,7 @@
         <v>272</v>
       </c>
       <c r="B15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C15">
         <v>55</v>
@@ -20568,7 +20661,7 @@
         <v>275</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -20606,13 +20699,13 @@
         <v>278</v>
       </c>
       <c r="B17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C17">
         <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -20644,7 +20737,7 @@
         <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C18">
         <v>275</v>
@@ -20682,7 +20775,7 @@
         <v>283</v>
       </c>
       <c r="B19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -20726,7 +20819,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20764,7 +20857,7 @@
         <v>545</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20793,7 +20886,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B22" t="s">
         <v>456</v>
@@ -20802,7 +20895,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -20840,7 +20933,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -20869,7 +20962,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B24" t="s">
         <v>456</v>
@@ -20878,7 +20971,7 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20916,7 +21009,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -20948,7 +21041,7 @@
         <v>296</v>
       </c>
       <c r="B26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C26">
         <v>55</v>
@@ -20986,13 +21079,13 @@
         <v>238</v>
       </c>
       <c r="B27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C27">
         <v>340</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21059,7 +21152,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B29" t="s">
         <v>457</v>
@@ -21068,7 +21161,7 @@
         <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21080,7 +21173,7 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I29">
         <v>6477864344</v>
@@ -21097,7 +21190,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B30" t="s">
         <v>457</v>
@@ -21106,7 +21199,7 @@
         <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21118,7 +21211,7 @@
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21135,16 +21228,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C31">
         <v>260</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21156,7 +21249,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21173,7 +21266,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B32" t="s">
         <v>456</v>
@@ -21182,7 +21275,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21194,7 +21287,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21218,7 +21311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -21279,7 +21372,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>460</v>
@@ -21288,7 +21381,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21325,7 +21418,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -21353,7 +21446,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>460</v>
@@ -21362,7 +21455,7 @@
         <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21430,7 +21523,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C6" s="2">
         <v>25</v>
@@ -21467,7 +21560,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C7" s="2">
         <v>325</v>
@@ -21541,13 +21634,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C9" s="2">
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -21559,7 +21652,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I9" s="2">
         <v>6477864344</v>
@@ -21575,16 +21668,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C10" s="2">
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -21615,7 +21708,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C11" s="2">
         <v>130</v>
@@ -21695,7 +21788,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -21769,7 +21862,7 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -21797,16 +21890,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -21843,7 +21936,7 @@
         <v>225</v>
       </c>
       <c r="D17" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -21985,13 +22078,13 @@
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C21" s="2">
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22019,7 +22112,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>456</v>
@@ -22028,7 +22121,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22056,16 +22149,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22167,7 +22260,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>460</v>
@@ -22176,7 +22269,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22244,7 +22337,7 @@
         <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C28" s="2">
         <v>85</v>
@@ -22281,7 +22374,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C29" s="2">
         <v>195</v>
@@ -22312,12 +22405,12 @@
         <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>457</v>
@@ -22326,7 +22419,7 @@
         <v>425</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22338,7 +22431,7 @@
         <v>33</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -22354,7 +22447,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>460</v>
@@ -22363,7 +22456,7 @@
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -22375,7 +22468,7 @@
         <v>33</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -22391,7 +22484,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>456</v>
@@ -22400,7 +22493,7 @@
         <v>975</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -22412,7 +22505,7 @@
         <v>33</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -22428,16 +22521,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C33" s="2">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -22449,7 +22542,7 @@
         <v>33</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I33" s="2">
         <v>6477864345</v>
@@ -22533,7 +22626,7 @@
         <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C2">
         <v>145</v>
@@ -22574,7 +22667,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22609,7 +22702,7 @@
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22644,7 +22737,7 @@
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -22673,7 +22766,7 @@
         <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6">
         <v>75</v>
@@ -22705,7 +22798,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B7" t="s">
         <v>460</v>
@@ -22714,7 +22807,7 @@
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -22743,7 +22836,7 @@
         <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C8">
         <v>195</v>
@@ -22813,7 +22906,7 @@
         <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -22883,7 +22976,7 @@
         <v>324</v>
       </c>
       <c r="B12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -22988,7 +23081,7 @@
         <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -23023,7 +23116,7 @@
         <v>336</v>
       </c>
       <c r="B16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C16">
         <v>345</v>
@@ -23204,7 +23297,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -23233,7 +23326,7 @@
         <v>353</v>
       </c>
       <c r="B22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -23265,7 +23358,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B23" t="s">
         <v>458</v>
@@ -23300,7 +23393,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B24" t="s">
         <v>450</v>
@@ -23309,7 +23402,7 @@
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -23338,7 +23431,7 @@
         <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C25">
         <v>175</v>
@@ -23449,7 +23542,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23484,7 +23577,7 @@
         <v>125</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23510,7 +23603,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B30" t="s">
         <v>456</v>
@@ -23519,7 +23612,7 @@
         <v>830</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -23548,7 +23641,7 @@
         <v>373</v>
       </c>
       <c r="B31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C31">
         <v>645</v>
@@ -23589,7 +23682,7 @@
         <v>1095</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23624,7 +23717,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B33" t="s">
         <v>449</v>
@@ -23633,7 +23726,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -23645,7 +23738,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -23654,7 +23747,7 @@
         <v>509</v>
       </c>
       <c r="K33" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L33" t="s">
         <v>237</v>
@@ -23668,7 +23761,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B34" t="s">
         <v>458</v>
@@ -23677,7 +23770,7 @@
         <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -23689,7 +23782,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
@@ -23698,7 +23791,7 @@
         <v>509</v>
       </c>
       <c r="K34" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="L34" t="s">
         <v>237</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3406B075-3922-408A-9207-2BC4442F5AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C34F77-2148-408D-ACE0-4E6A1A196D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9064,77 +9064,6 @@
 Open Everyday:
 Monday to Friday - 8AM to 8 PM
 Weekends - 10AM to 7PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Lenovo Laptops Intel i7 - Lenovo IdeaPad 3, ThinkPad T490s, Lenovo T470, Lenovo T470s, T560, Lenovo P1 Gen 2 Mobile Workstation
-------------------------------------------------------
-Lenovo IdeaPad 3 14" FHD Laptop
-Intel Core i7 - 11th Gen
-8GB RAM
-512GB SSD
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $675 (CASH NO TAX)
-------------------------------------------------------
-Lenovo ThinkPad P1 Gen 2 Mobile Workstation - 15.6"
-(20QT001XUS)
-INTEL i7 - 9TH GEN
-16GB / 512GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $645 (CASH NO TAX)
-------------------------------------------------------
-Lenovo ThinkPad T490s Laptop - 14"
-INTEL i7 - 8TH GEN
-16GB RAM / 512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $395 (CASH NO TAX)
-------------------------------------------------------
-Lenovo ThinkPad T560 Laptop - 15.6"
-INTEL i7 - 6TH GEN
-8GB RAM / 512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $345 (CASH NO TAX)
-------------------------------------------------------
-Lenovo ThinkPad T470 Laptop - 14"
-INTEL i7 - 7TH GEN
-16GB RAM /512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX)
-Lenovo ThinkPad T470s Laptop - 14"
-INTEL i7 - 7TH GEN
-12GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $275 (CASH NO TAX)
-------------------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright*
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
   </si>
   <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -13349,69 +13278,6 @@
 Best Price, Best Quality 
 Buy with Confidence from our store!
 ------------------------------------------------------
-Apple iPads - Apple iPad Air 5th Generation, Ipad Air 2nd Generation, iPad Air 1st Generation
-BLOWOUT SALE!!!
-------------------------------------------------------
-WIFI + CELLULAR
-IPAD AIR 5TH GENERATION WIFI + CELLULAR 64GB
-(BRAND NEW IN BOX WITH APPLE WARRANTY)
-PRICE - $795 (CASH NO TAX)
-IPAD AIR 2ND GENERATION WIFI + CELLULAR 64GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-IPAD AIR 2ND GENERATION WIFI + CELLULAR 32GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-IPAD AIR 2ND GENERATION WIFI + CELLULAR 16GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $145 (CASH NO TAX)
-IPAD AIR 1ST GENERATION WIFI + CELLULAR 16GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $135 (CASH NO TAX)
-------------------------------------------------------------------------
-WIFI
-iPAD AIR 5TH GENERATION WIFI 256GB
-(BRAND NEW WITH 1 YEAR APPLE WARRANTY)
-PRICE - $850 (CASH NO TAX)
-iPAD AIR 5TH GENERATION WIFI 64GB
-(BRAND NEW WITH 1 YEAR APPLE WARRANTY)
-PRICE - $695 (CASH NO TAX)
-IPAD AIR 2ND GENERATION WIFI 64GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $175(CASH NO TAX)
-------------------------------------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
-------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - SATURDAY: 8AM - 8PM
-SUNDAY: 9AM - 8PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
 Apple iPads - Apple iPad 10th Generation, iPad 9th Generation, iPad 8th Generation, iPad 7th Generation, iPad 6th Generation, iPad 5th Generation, iPad 4th Generation, iPad 1st Generation
 BLOWOUT SALE!!!
 ------------------------------------------------------
@@ -13642,19 +13508,24 @@
 </t>
   </si>
   <si>
+    <t>HP Laptops Intel i5 - 840 G7, 430 G5, 430 G3, 840 G6</t>
+  </si>
+  <si>
+    <t>Lenovo Laptops Intel i7 - IdeaPad 3, T490s, T470, T470s, T560, T480</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Dyson Vacuums - Dyson Gen5 Outsize
-----------------------------------------------------
-Dyson Gen5 Outsize Absolute Stick Vacuum
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $1050 (CASH NO TAX)
-Dyson Gen5 Outsize Cordless Stick Vacuum
-(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
-Price - $1050 (CASH NO TAX)
----------------------------------------------------------------------
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+APPLE WATCH ULTRA (GPS + CELLULAR)
+------------------------------------------------------
+APPLE WATCH ULTRA (GPS + CELLULAR) 49MM
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $650 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
 BUY NOW. PAY LATER.
 Get easy monthly financing when you shop with Canadian Outlet
 Split your purchase into stress-free, automatic installments with monthly Plans for:-
@@ -13662,11 +13533,11 @@
 6 Months
 12 Months
 *All financing done through Pay Bright
--------------------------------------------------------------------
+------------------------------------------------------
 Storefront is open to public 7 days a week
--------------------------------------------------------------------
+------------------------------------------------------
 We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
+------------------------------------------------------
 STORE LOCATION:
 CANADIAN OUTLET
 1431 YONGE STREET
@@ -13681,218 +13552,17 @@
 </t>
   </si>
   <si>
-    <t>Dyson Vacuums - Dyson Gen5 Outsize</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidеnce from our store!
-------------------------------------------------------
-HP Laptops Intel i5 - HP PrоBook 440 G3, HP ELITEBOOK 840 G7, HР ELITEBOOK 840 G6, HP Probook 430 G5, HP 15 DY2795WM, HP ProBook 430 G3, HP ELITEBOOK 840 G4, HP ELITEBOOK 840 G6
-------------------------------------------------------
-HP 15 DY2795WM 15.6
-INTEL i5 - 11TH GEN
-8GB RAM
-256GB SSD
-(Brand New In Box With Warranty)
-PRICE - $595 (CASH NO TAX)
-------------------------------------------------------
-HP ELITEBOOK 840 G7 - 14"
-INTEL i5 - 10TH GEN
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $475 (CASH NO TAX)
-------------------------------------------------------
-HP ELITEBOOK 840 G6 - 14"
-INTEL i5 - 8TH GEN
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $325(CASH NO TAX)
------------------------------------------------------
-HP ELITEBOOK 840 G6 - 14"
-INTEL i5 - 8TH GEN
-8GB RAM
-256GB SSD
-(LIKE NEW IN BОX WITH WARRANTY)
-PRICE - $295(CASH NO TAX)
-------------------------------------------------------
-HP Probook 430 G5 - 13.3"
-INTEL i5 - 8TH GEN
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRIСE - $275(CASH NO TAX)
-------------------------------------------------------
-Same day delivery availablе in GTA area -delivery charges are еxtra depends on location
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shоp with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans fоr:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>HP Laptops Intel i5 - 840 G7, 430 G5, 430 G3, 840 G6</t>
-  </si>
-  <si>
-    <t>Lenovo Laptops Intel i7 - IdeaPad 3, T490s, T470, T470s, T560, T480</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
+    <t>T7S Robot Vacuum and Mop Combo MAMNV with Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
 Buy with Confidence from our store! ✨
 ------------------------------------------------------
-APPLE Watches - Apple watch ultra, Аpple Watch Series 9, Apple Watch Series 8, Apple Series 7, Apple Watch Series 6,Apple Watch Series 3, Aрple Watch SE, Apple Watch SE 2
-------------------------------------------------------------------------
-(GPS + CELLULAR)
-------------------------------------------------------------------------
-APPLE WATCH ULTRA (GРS + CELLULAR) 49MM
-(OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $650 (CASH NO TAX)
----------------------------------------------------------------------
-APPLE WATCH SERIЕS 8 (GPS + CELLULAR) 45MM
-(BRAND NEW IN BОX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $495 (CASH NO TAX)
-APPLE WATCH SERIES 8 STAINLESS STEEL (GPS + CELLULAR) 45MM
-(NEW ОPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $450 (CASH NO TAX)
-APPLE WATCH SЕRIES 8 (GPS + CELLULAR) 45MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $400 (CASH NO TAX)
----------------------------------------------------------------------
-APPLE WATCH SERIES 8 (GPS + CELLULAR) 41MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRАNTY)
-PRICE - $450 (CASH NO TAX)
-APРLE WATCH SERIES 8 STAINLESS STEEL (GPS + CELLULAR) 41MM
-(NEW OPEN BOX WITH 6 MONTHS STОRE WARRANTY)
-PRICE - $400 (CASH NO TAX)
-APPLE WATCH SERIES 8 (GPS + CELLULAR) 41MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $375 (CASH NO TAX)
----------------------------------------------------------------------
-APPLE WATCH SERIES 3 (GPS + CELLULAR) 42MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $250 (CASH NO TAX)
----------------------------------------------------------------------
-APPLE WATCH SE 2nd GEN (GPS+CELLULAR) 44MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $295 (CASH NO TAX)
-APPLE WATCH SE 1st GEN (GPS+CELLULAR) 44MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $295(CASH NO TAX)
-APPLE WATCH SE 1st GEN (GPS+CELLULAR) 44MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $245 (CASH NO TAX)
----------------------------------------------------------------------
-APPLЕ WATCH SE 1st GEN (GPS+CELLULAR) 40MM
-(BRАND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $245 (CASH NO TAX)
-APPLE WATCH SE 1st GEN (GPS+CELLULAR) 40MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $225 (CASH NO TAX)
-------------------------------------------------------------------------
-(GPS)
----------------------------------------------------------------------
-APPLE WATCH SERIES 9 (GPS) 45MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $475 (CASH NO TAX)
-APPLE WATCH SERIES 9 (GPS) 41MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRIСE - $425 (CASH NO TAX)
-------------------------------------------------------------------------
-APPLE WATCH SERIES 8 (GPS) 45MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $410 (CASH NO TAX)
-APPLE WATCH SERIES 8 (GPS) 45MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $375 (CASH NO TAX)
-APPLE WATCH SERIES 8 (GPS) 41MM
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-PRICE - $375 (CASH NО TAX)
-APPLE WATCH SERIES 8 (GPS) 41MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $345 (CASH NO TAX)
-------------------------------------------------------------------------
-APPLE WATCH SERIES 7 (GPS) 45MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
-PRICE - $335 (CASH NO TAX)
-APPLE WATCH SERIES 7 (GPS) 41MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
-PRICE - $295 (CASH NO TAX)
-------------------------------------------------------------------------
-APPLE WATCH SERIES 6 (GPS) 44MM 
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
-PRICE - $295  (CASH NO TAX) 
----------------------------------------------------------------------
-APPLE WATCH SE 2nd GEN (GPS) 44MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $275 (CASH NO TАX)
-APPLE WATCH SE 2nd GEN (GPS) 40MM
-(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $245 (CASH NO TAX)
-------------------------------------------------------------------------
-APPLE WATCH SE 1st GEN (GPS) 44MM
-(OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $245 (CASH NO TAX)
-------------------------------------------------------------------------
-Same day delivery available in GTA area - delivery chаrges are extra depends on location
-------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with mоnthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is opеn to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-APPLE WATCH ULTRA (GPS + CELLULAR)
-------------------------------------------------------
-APPLE WATCH ULTRA (GPS + CELLULAR) 49MM
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $650 (CASH NO TAX)
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
+T7S Robot Vacuum and Mop Combo, 2 in 1 Mopping Robot Vacuum Cleaner with Schedule
+Wi-Fi/App, 2000Pa Max Suction, Self-Charging Robotic Vacuum, Slim, Ideal for Hard Floor, Pet Hair, Low-Pile Carpet
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $95 (CASH NO TAX)
 ------------------------------------------------------
 BUY NOW. PAY LATER.
 Get easy monthly financing when you shop with Canadian Outlet
@@ -13901,6 +13571,8 @@
 6 Months
 12 Months
 *All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
 ------------------------------------------------------
 Storefront is open to public 7 days a week
 ------------------------------------------------------
@@ -13920,17 +13592,77 @@
 </t>
   </si>
   <si>
-    <t>T7S Robot Vacuum and Mop Combo MAMNV with Schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-T7S Robot Vacuum and Mop Combo, 2 in 1 Mopping Robot Vacuum Cleaner with Schedule
-Wi-Fi/App, 2000Pa Max Suction, Self-Charging Robotic Vacuum, Slim, Ideal for Hard Floor, Pet Hair, Low-Pile Carpet
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $95 (CASH NO TAX)
+    <t>50-77</t>
+  </si>
+  <si>
+    <t>T7S Robot Vacuum</t>
+  </si>
+  <si>
+    <t>Robot Vacuum, T7s Vacuum</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+HP Laptops Intel i5 - HP ProBook 440 G3, HP ELITEBOOK 840 G7, HP ELITEBOOK 840 G6, HP Probook 430 G5, HP 15 DY2795WM, HP ProBook 430 G3, HP ELITEBOOK 840 G4, HP ELITEBOOK 840 G6, HP 840 G3, HP Elite X2
+------------------------------------------------------
+HP 15 DY2795WM 15.6
+INTEL i5 - 11TH GEN
+8GB RAM
+256GB SSD
+(Brand New In Box With Warranty)
+PRICE - $595 (CASH NO TAX)
+------------------------------------------------------
+HP ELITEBOOK 840 G7 - 14"
+INTEL i5 - 10TH GEN
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $475 (CASH NO TAX)
+------------------------------------------------------
+HP ELITEBOOK 840 G6 - 14"
+INTEL i5 - 8TH GEN
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $325(CASH NO TAX)
+-----------------------------------------------------
+HP ELITEBOOK 840 G6 - 14"
+INTEL i5 - 8TH GEN
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $295(CASH NO TAX)
+------------------------------------------------------
+HP Probook 430 G5 - 13.3"
+INTEL i5 - 8TH GEN
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275(CASH NO TAX)
+------------------------------------------------------
+HP Elite X2 Business Tablet Laptop - 12.3-inch
+INTEL i5 - 8th Gen
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+------------------------------------------------------
+HP Elitebook 840 G3 - 14" (Touchscreen)
+INTEL i5 - 6th Gen
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+HP Elitebook 840 G3 - 14"
+INTEL i5 - 6th Gen
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195(CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
 ------------------------------------------------------
 BUY NOW. PAY LATER.
 Get easy monthly financing when you shop with Canadian Outlet
@@ -13940,12 +13672,93 @@
 12 Months
 *All financing done through Pay Bright
 ------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
 Storefront is open to public 7 days a week
 ------------------------------------------------------
 We are providing FREE parking facility for our customers (Contact us)!!
 ------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Lenovo Laptops Intel i7 - Lenovo IdeaPad 3, ThinkPad T490s, Lenovo T470, Lenovo T470s, T560, Lenovo P1 Gen 2 Mobile Workstation, T480
+------------------------------------------------------
+Lenovo IdeaPad 3 14" FHD Laptop
+Intel Core i7 - 11th Gen
+8GB RAM
+512GB SSD
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $675 (CASH NO TAX)
+------------------------------------------------------
+Lenovo ThinkPad P1 Gen 2 Mobile Workstation - 15.6"
+(20QT001XUS)
+INTEL i7 - 9TH GEN
+16GB / 512GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $645 (CASH NO TAX)
+------------------------------------------------------
+Lenovo ThinkPad T490s Laptop - 14"
+INTEL i7 - 8TH GEN
+16GB RAM / 512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $395 (CASH NO TAX)
+------------------------------------------------------
+Lenovo ThinkPad T480 Laptop - 14"
+INTEL i7 - 8TH GEN
+16GB RAM /256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $375 (CASH NO TAX)
+------------------------------------------------------
+Lenovo ThinkPad T560 Laptop - 15.6"
+INTEL i7 - 6TH GEN
+8GB RAM / 512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $345 (CASH NO TAX)
+------------------------------------------------------
+Lenovo ThinkPad T470 Laptop - 14"
+INTEL i7 - 7TH GEN
+16GB RAM /512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $295 (CASH NO TAX)
+Lenovo ThinkPad T470s Laptop - 14"
+INTEL i7 - 7TH GEN
+12GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+------------------------------------------------------
+Lenovo ThinkPad X1 Yoga - 14"
+INTEL i7 - 6th GENERATION
+16GB RAM 
+256GB STORAGE
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright*
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
 STORE LOCATION:
 CANADIAN OUTLET
 1431 YONGE STREET
@@ -13960,13 +13773,238 @@
 </t>
   </si>
   <si>
-    <t>50-77</t>
-  </si>
-  <si>
-    <t>T7S Robot Vacuum</t>
-  </si>
-  <si>
-    <t>Robot Vacuum, T7s Vacuum</t>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Dyson Vacuums - Dyson Gen5 Outsize, Dyson Outsize Total Clean, Dyson V15s Detect Submarine
+----------------------------------------------------
+Dyson Gen5 Outsize Absolute Stick Vacuum
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $1050 (CASH NO TAX)
+Dyson Gen5 Outsize Cordless Stick Vacuum
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $1050 (CASH NO TAX)
+---------------------------------------------------------------------
+Dyson V15s Detect Submarine Absolute Vacuum
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $995 (CASH NO TAX)
+Dyson V15s Detect Submarine Vacuum 
+(BRAND NEW IN BOX WITH MANUFACTURER WARRANTY)
+Price - $995 (CASH NO TAX)
+---------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Dyson Vacuums - Dyson Gen5 Outsize, V15s Detect Submarine</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice! Best Price, Best Quality Buy with Confidence from our store!
+------------------------------------------------------
+APPLE Watches - Apple watch ultra, Apple Watch Series 9, Apple Watch Series 8, Apple watch series 7, Apple Watch Series 6, Apple Watch Series 3, Apple Watch SE, Apple Watch SE 2
+BLOWOUT SALE!!!
+------------------------------------------------------------------------
+(GPS + CELLULAR)
+------------------------------------------------------------------------
+APPLE WATCH ULTRA (GPS + CELLULAR) 49MM
+(OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $650(CASH NO TAX) 
+---------------------------------------------------------------------
+APPLE WATCH SERIES 8 (GPS + CELLULAR) 45MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $495 (CASH NO TAX)
+APPLE WATCH SERIES 8 STAINLESS STEEL (GPS + CELLULAR) 45MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $450 (CASH NO TAX)
+APPLE WATCH SERIES 8 (GPS + CELLULAR) 45MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $400 (CASH NO TAX)
+---------------------------------------------------------------------
+APPLE WATCH SERIES 8 (GPS + CELLULAR) 41MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $450 (CASH NO TAX)
+APPLE WATCH SERIES 8 STAINLESS STEEL (GPS + CELLULAR) 41MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $400 (CASH NO TAX)
+APPLE WATCH SERIES 8 (GPS + CELLULAR) 41MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $375 (CASH NO TAX)
+------------------------------------------------------------------------
+APPLE WATCH SERIES 7 (GPS + CELLULAR) 45MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $335 (CASH NO TAX)
+APPLE WATCH SERIES 7 (GPS + CELLULAR) 41MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $295 (CASH NO TAX)
+------------------------------------------------------------------------
+APPLE WATCH SERIES 6 (GPS+CELLULAR) 44MM 
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $295 (CASH NO TAX) 
+---------------------------------------------------------------------
+APPLE WATCH SERIES 3 (GPS + CELLULAR) 42MM 
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $250 (CASH NO TAX)
+---------------------------------------------------------------------
+APPLE WATCH SE 2nd GEN (GPS+CELLULAR) 44MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $295 (CASH NO TAX)
+APPLE WATCH SE 1st GEN (GPS+CELLULAR) 44MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $295(CASH NO TAX)
+APPLE WATCH SE 1st GEN (GPS+CELLULAR) 44MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $245 (CASH NO TAX)
+---------------------------------------------------------------------
+APPLE WATCH SE 1st GEN (GPS+CELLULAR) 40MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $245 (CASH NO TAX)
+APPLE WATCH SE 1st GEN (GPS+CELLULAR) 40MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $225 (CASH NO TAX)
+------------------------------------------------------------------------
+(GPS)
+---------------------------------------------------------------------
+APPLE WATCH SERIES 9 (GPS) 45MM 
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $475 (CASH NO TAX)
+APPLE WATCH SERIES 9 (GPS) 41MM 
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $425 (CASH NO TAX)
+------------------------------------------------------------------------
+APPLE WATCH SERIES 8 (GPS) 45MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $410 (CASH NO TAX)
+APPLE WATCH SERIES 8 (GPS) 45MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $375 (CASH NO TAX)
+APPLE WATCH SERIES 8 (GPS) 41MM
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
+PRICE - $375 (CASH NO TAX)
+APPLE WATCH SERIES 8 (GPS) 41MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $345 (CASH NO TAX)
+---------------------------------------------------------------------
+APPLE WATCH SE 2nd GEN (GPS) 44MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $275 (CASH NO TAX)
+APPLE WATCH SE 2nd GEN (GPS) 40MM
+(NEW OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $245 (CASH NO TAX)
+------------------------------------------------------------------------
+APPLE WATCH SE 1st GEN (GPS) 44MM
+(OPEN BOX WITH 6 MONTHS STORE WARRANTY) 
+PRICE - $245 (CASH NO TAX)
+------------------------------------------------------------------------Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Apple iPads - Apple iPad Air 5th Generation, Ipad Air 2nd Generation, iPad Air 1st Generation
+BLOWOUT SALE!!!
+------------------------------------------------------
+WIFI + CELLULAR
+IPAD AIR 5TH GENERATION WIFI + CELLULAR 64GB
+(BRAND NEW IN BOX WITH APPLE WARRANTY)
+PRICE - $795 (CASH NO TAX)
+IPAD AIR 2ND GENERATION WIFI + CELLULAR 64GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+IPAD AIR 2ND GENERATION WIFI + CELLULAR 32GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+IPAD AIR 2ND GENERATION WIFI + CELLULAR 16GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $145 (CASH NO TAX)
+IPAD AIR 1ST GENERATION WIFI + CELLULAR 16GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $135 (CASH NO TAX)
+------------------------------------------------------------------------
+WIFI
+iPAD AIR 5TH GENERATION WIFI 256GB
+(BRAND NEW WITH 1 YEAR APPLE WARRANTY)
+PRICE - $850 (CASH NO TAX)
+iPAD AIR 5TH GENERATION WIFI 64GB
+(BRAND NEW WITH 1 YEAR APPLE WARRANTY)
+PRICE - $695 (CASH NO TAX)
+IPAD AIR 2ND GENERATION WIFI 64GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195(CASH NO TAX)
+------------------------------------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - SATURDAY: 8AM - 8PM
+SUNDAY: 9AM - 8PM
+</t>
   </si>
 </sst>
 </file>
@@ -14390,8 +14428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14462,7 +14500,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14591,7 +14629,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14723,7 +14761,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14767,7 +14805,7 @@
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14890,7 +14928,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -14972,7 +15010,7 @@
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -15054,7 +15092,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15218,7 +15256,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15341,7 +15379,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15382,7 +15420,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -15505,7 +15543,7 @@
         <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -15546,7 +15584,7 @@
         <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -15587,7 +15625,7 @@
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -15619,7 +15657,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B30" t="s">
         <v>462</v>
@@ -15628,7 +15666,7 @@
         <v>295</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -15742,7 +15780,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B33" t="s">
         <v>563</v>
@@ -15751,7 +15789,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -15763,7 +15801,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15783,7 +15821,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B34" t="s">
         <v>453</v>
@@ -15792,7 +15830,7 @@
         <v>695</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -15804,7 +15842,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -15824,7 +15862,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B35" t="s">
         <v>453</v>
@@ -15833,7 +15871,7 @@
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -15845,7 +15883,7 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I35">
         <v>4164744788</v>
@@ -15873,8 +15911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16250,7 +16288,7 @@
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16294,7 +16332,7 @@
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16426,7 +16464,7 @@
         <v>1450</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16470,7 +16508,7 @@
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -16505,7 +16543,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B15" t="s">
         <v>461</v>
@@ -16558,7 +16596,7 @@
         <v>650</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16857,7 +16895,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B23" t="s">
         <v>451</v>
@@ -17033,7 +17071,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B27" t="s">
         <v>457</v>
@@ -17165,7 +17203,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B30" t="s">
         <v>456</v>
@@ -17174,7 +17212,7 @@
         <v>1795</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17186,16 +17224,16 @@
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
+        <v>674</v>
+      </c>
+      <c r="K30" t="s">
         <v>675</v>
-      </c>
-      <c r="K30" t="s">
-        <v>676</v>
       </c>
       <c r="L30" t="s">
         <v>237</v>
@@ -17209,7 +17247,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B31" t="s">
         <v>562</v>
@@ -17218,7 +17256,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17230,16 +17268,16 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I31">
         <v>4164744787</v>
       </c>
       <c r="J31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L31" t="s">
         <v>237</v>
@@ -17253,7 +17291,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B32" t="s">
         <v>450</v>
@@ -17262,7 +17300,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -17274,16 +17312,16 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="I32">
         <v>4164744788</v>
       </c>
       <c r="J32" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="K32" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="L32" t="s">
         <v>237</v>
@@ -17305,14 +17343,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="114.140625" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
@@ -17581,7 +17619,7 @@
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17622,7 +17660,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17745,7 +17783,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17786,7 +17824,7 @@
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17900,7 +17938,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B15" t="s">
         <v>453</v>
@@ -17909,7 +17947,7 @@
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -17982,16 +18020,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="B17" t="s">
         <v>450</v>
       </c>
       <c r="C17">
-        <v>1050</v>
+        <v>995</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -18155,7 +18193,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18310,7 +18348,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B25" t="s">
         <v>548</v>
@@ -18319,7 +18357,7 @@
         <v>340</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -18515,16 +18553,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C30">
         <v>325</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -18556,7 +18594,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B31" t="s">
         <v>458</v>
@@ -18565,7 +18603,7 @@
         <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18577,7 +18615,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18597,7 +18635,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B32" t="s">
         <v>453</v>
@@ -18606,7 +18644,7 @@
         <v>395</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18618,7 +18656,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I32">
         <v>4164744788</v>
@@ -18646,8 +18684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADAF3E-0AA5-4F19-ACED-4BBE31AE540C}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18754,7 +18792,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18795,7 +18833,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -19164,7 +19202,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19246,7 +19284,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19442,16 +19480,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B20" t="s">
         <v>460</v>
       </c>
       <c r="C20">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>669</v>
+        <v>791</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19615,7 +19653,7 @@
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19779,7 +19817,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20316,7 +20354,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B7" t="s">
         <v>449</v>
@@ -20325,7 +20363,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20439,7 +20477,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20819,7 +20857,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20857,7 +20895,7 @@
         <v>545</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20895,7 +20933,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -20933,7 +20971,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -21009,7 +21047,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -21085,7 +21123,7 @@
         <v>340</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21152,7 +21190,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B29" t="s">
         <v>457</v>
@@ -21161,7 +21199,7 @@
         <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21190,7 +21228,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B30" t="s">
         <v>457</v>
@@ -21199,7 +21237,7 @@
         <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21266,7 +21304,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B32" t="s">
         <v>456</v>
@@ -21275,7 +21313,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21287,7 +21325,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21311,8 +21349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21381,7 +21419,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21446,16 +21484,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>460</v>
       </c>
       <c r="C4" s="2">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21788,7 +21826,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -21862,7 +21900,7 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -21890,7 +21928,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>562</v>
@@ -21899,7 +21937,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -22084,7 +22122,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22112,7 +22150,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>456</v>
@@ -22121,7 +22159,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22149,7 +22187,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>563</v>
@@ -22158,7 +22196,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22260,7 +22298,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>460</v>
@@ -22269,7 +22307,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22410,7 +22448,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>457</v>
@@ -22419,7 +22457,7 @@
         <v>425</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22521,16 +22559,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="C33" s="2">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -22542,7 +22580,7 @@
         <v>33</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I33" s="2">
         <v>6477864345</v>
@@ -22566,7 +22604,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22667,7 +22705,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22702,7 +22740,7 @@
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22737,7 +22775,7 @@
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -22798,7 +22836,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B7" t="s">
         <v>460</v>
@@ -22807,7 +22845,7 @@
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -23542,7 +23580,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23577,7 +23615,7 @@
         <v>125</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23603,7 +23641,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B30" t="s">
         <v>456</v>
@@ -23612,7 +23650,7 @@
         <v>830</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -23717,7 +23755,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B33" t="s">
         <v>449</v>
@@ -23726,7 +23764,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -23738,7 +23776,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
@@ -23747,7 +23785,7 @@
         <v>509</v>
       </c>
       <c r="K33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L33" t="s">
         <v>237</v>
@@ -23761,7 +23799,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B34" t="s">
         <v>458</v>
@@ -23770,7 +23808,7 @@
         <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -23782,7 +23820,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
@@ -23791,7 +23829,7 @@
         <v>509</v>
       </c>
       <c r="K34" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L34" t="s">
         <v>237</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C34F77-2148-408D-ACE0-4E6A1A196D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1B8B9-1393-44D9-B611-1B43E52EC75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3560,55 +3560,6 @@
     <t>Earbuds - Jabra Elite 4, Marley Little Bird, Wicked Audio Axoma</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-EARBUDS - Hоuse of Marley Champion, Skull Candy, Wicked Audio and Jabra Elite, Marley Little Bird
-------------------------------------------------------------------------
-House of Marley True Wirelеss Champion Earbuds - Bluetooth 5.0 Earphones
-(BRAND NEW)
-PRICE - $85 (CASH NO TAX)
-Jabra Elite 4 In-Ear Noise Cancelling True Wirеless Earbuds
-(BRAND NEW)
-PRICE - $80 (CASH NO TAX)
-Skullcandy Grind In-Ear Wireless Earbuds
-(BRAND NEW)
-PRICE - $65 (CASH NO TAX)
-House of Marley Little Bird True Wireless Earbuds, Touch Controls
-(BRAND NEW)
-PRICE - $35 (CASH NO TAX)
-Wicked Audio Axoma True Wireless Headphones, Earbuds with Charging Case
-(BRAND NEW)
-PRICE - $25 (CASH NO TAX)
----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
     <t>Marley Earbuds</t>
   </si>
   <si>
@@ -4578,66 +4529,6 @@
   </si>
   <si>
     <t>Logitech Webcams</t>
-  </si>
-  <si>
-    <t>Huawei Phones - Huawei P30 Pro, P40 Lite, P20 Lite</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Сhoice!
-Best Price, Best Quality
-Buy with Confidenсe from our store! ✨
----------------------------------------------
-HUAWEI Phones - HUAWEI P30 PR, HUAWEI P40 LITE, HUAWEI P20 LITE
-BLOWOUT SALE!!!
---------------------------------------------
-HUAWEI P30 PRO (CANАDIAN MODEL)
-6.47" DISPLAY
-6GB RAM / 128GB
-40MP CАMERA
-4200mAh BATTERY
-(OPEN BOX WITH WARRANTY)
-PRICE - $425 (CASH NO TAX)
---------------------------------------------
-HUAWEI P40 LITE
-6.4" DISPLAY
-8GB RAM / 128GB
-48MP CAMERA
-4200mAh BATTERY
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX)
---------------------------------------------
-HUAWEI P20 LITE
-5.8" DISPLAY
-4GB RAM / 32GB
-16MP CAMERA
-3000mAh BATTERY
-(OPEN BOX WITH WARRANTY)
-PRICE - $145 (CASH NO TAX)
---------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-BUY NOW. РAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to рublic 7 days a week
--------------------------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Huawei Phones</t>
@@ -12089,173 +11980,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Samsung Phones - A15, A14, A13, A12, A11, A10S, A10E
-------------------------------------------------------
-Samsung Galaxy A15 5G 128GB/ 6GB (Dual SIM)
-(Brand New In Box With Warranty)
-Price - $195 (Cash No Tax)
-Samsung Galaxy A15 5G 128GB (Dual SIM)
-(Like New In Box With Warranty)
-Price - $180 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A15 128GB (Dual SIM)
-(Brand New In Box With Warranty)
-Price - $165 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A14 128GB (Dual SIM)
-(New In Box With Warranty)
-Price - $170 (Cash No Tax)
-Samsung Galaxy A14 64GB (Dual SIM)
-(New In Box With Warranty)
-Price - $155 (Cash No Tax)
-Samsung Galaxy A14 5G 64GB
-(New Open Box With 6 Months Store Warranty)
-Price - $165 (Cash No Tax)
----------------------------------------------------
-Samsung Galaxy A13 4GB/128GB (Dual Sim)
-(New in Box with Warranty)
-Price: $175 (Cash No Tax)
-Samsung Galaxy A13 4GB/64GB (Dual Sim)
-(New in Box with Warranty)
-Price: $140 (Cash No Tax)
-Samsung Galaxy A13 5G 4GB/64GB
-(Like New in Box with Warranty)
-Price: $135 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A12 128GB (Dual Sim)
-(New Open Box With Warranty)
-Price: $165 (Cash No Tax)
-Samsung Galaxy A12 64GB/ 4GB RAM (Dual Sim)
-(New In Box With Warranty)
-Price: $145 (Cash No Tax)
-Samsung Galaxy A12 32GB
-(Like New In Box With Warranty)
-Price: $135 (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A11 32GB
-(New In Box With Warranty)
-Price: $125 (Cash No Tax)
-Samsung Galaxy A11 32GB
-(Fully Functional with Warranty)
-Price: $100  (Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A10s 32GB (Dual Sim)
-(Like New In Box With Warranty)
-Price: $100(Cash No Tax)
-------------------------------------------------------
-Samsung Galaxy A10E 32GB
-(Fully Functional with Warranty)
-Price: $105 (Cash No Tax)
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
----------------------------------------------------
-Storefront is open to public 7 days a week
-----------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Samsung Phones - Samsung Galaxy A05s, Samsung Galaxy A05, Samsung Galaxy A04, Samsung Galaxy A04e, Samsung Galaxy A03s, Samsung Galaxy A02s, Samsung Galaxy A02, Samsung Galaxy A03 Core phone
-BLOWOUT SALE!!!
----------------------------------------------
-Samsung Galaxy A05s 128GB (Dual Sim)
-(New In Box With Warranty)
-Price: $145 (Cash No Tax)
-Samsung Galaxy A05s 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $135 (Cash No Tax)
-Samsung Galaxy A05 128GB (Dual Sim)
-(New In Box With Warranty)
-Price: $130 (Cash No Tax)
-Samsung Galaxy A05 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $115 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A04 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $125 (Cash No Tax)
-Samsung Galaxy A04 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $115 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A04e 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $125 (Cash No Tax)
-Samsung Galaxy A04e 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $105 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A03s 32GB 
-(New In Box With Warranty)
-Price: $95 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A02s 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $90 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A02 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $90 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A03 Core 32GB
-(New In Box With Warranty)
-Price: $95 (Cash No Tax)
----------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
----------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store!
@@ -13141,137 +12865,6 @@
   </si>
   <si>
     <t>Ecohouzng Tower Air Cooler 41 inch</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-Motorola Phones - Moto Edge Plus, Moto Edge, Moto G 5G, Moto G60S, Moto One Ace 5G, Moto G Stylus 5G, Moto G Power, Moto G Play, Moto G Pure Phone
-BLOWOUT SALE!!!
--------------------------------------------
-MOTO EDGE PLUS 2020 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $495 (CASH NO TAX)
--------------------------------------------
-MOTO EDGE 2022 ( CANADIAN MODEL) 256GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $395 (CASH NO TAX)
-MOTO EDGE 2022 256GB (CANADIAN MODEL)
-(OPEN BOX WITH WARRANTY)
-PRICE - $345 (CASH NO TAX)
--------------------------------------------
-MOTO EDGE 2021 256GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $275 (CASH NO TAX)
--------------------------------------------
-MOTO EDGE 20 LITE 5G 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX)
-------------------------------------------
-MOTO G 5G 64GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $125 (CASH NO TAX)
--------------------------------------------
-MOTO G9 Plus 4GB RAM 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX)
--------------------------------------------
-MOTO G60S 6GB RAM 128GB (DUAL SIM)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $260 (CASH NO TAX)
--------------------------------------------
-MOTO G PRO 4GB RAM 128GB WITH STYLUS (DUAL SIM)
-(OPEN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
--------------------------------------------
-Moto G Stylus 5G 2023 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Moto G Stylus 5G 2022 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-Moto G Stylus 5G 2021 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Moto G Stylus 4G 2023 64GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $145 (CASH NO TAX)
-Moto G Stylus 4G 2022 128GB
-(BRAND NEW WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Moto G Stylus 4G 2022 128GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $170(CASH NO TAX)
-Moto G Stylus 2020 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $150 (CASH NO TAX)
--------------------------------------------
-MOTOROLA MOTO ONE ACE 5G 128GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-MOTOROLA MOTO ONE ACE 5G 64GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $160 (CASH NO TAX)
----------------------------------------------
-MOTOROLA MOTO ONE MACRO 64GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
----------------------------------------------
-Moto G POWER 128GB
-(BRAND NEW IN BOX WITH WARRANTY) 
-PRICE - $195 (CASH NO TAX)
-Moto G POWER 64GB 2022
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $140 (CASH NO TAX)
-Moto G POWER 64GB 2021
-(BRAND NEW IN BOX WITH WARRANTY) 
-PRICE - $125 (CASH NO TAX)
--------------------------------------------
-MOTO E13 2GB RAM 64GB (DUAL SIM)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $150 (CASH NO TAX)
--------------------------------------------
-MOTO G PLAY 2023 32GB
-(BRAND NEW IN BOX WITH WARRANTY) 
-PRICE - $175 (CASH NO TAX)
-MOTO G PLAY 2023 32GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $110 (CASH NO TAX)
----------------------------------------------
-MOTO E 32GB UNLOCKED
-(OPEN BOX WITH WARRANTY)
-PRICE - $125 (CASH NO TAX)
----------------------------------------------
-MOTO G PURE 32GB UNLOCKED
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $115 (CASH NO TAX)
----------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -14005,6 +13598,461 @@
 MONDAY - SATURDAY: 8AM - 8PM
 SUNDAY: 9AM - 8PM
 </t>
+  </si>
+  <si>
+    <t>Huawei Phones - Huawei P30 Pro, P40 Lite, P20 Lite, P20, P40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+HUAWEI Phones - HUAWEI P30 PRO, HUAWEI P40 LITE, HUAWEI P20 LITE, Huawei P40, Huawei P20
+BLOWOUT SALE!!!
+------------------------------------------------------
+HUAWEI P30 PRO (CANADIAN MODEL)
+6.47" DISPLAY
+6GB RAM / 128GB
+40MP CAMERA
+4200mAh BATTERY
+(OPEN BOX WITH WARRANTY)
+PRICE - $425 (CASH NO TAX)
+------------------------------------------------------
+HUAWEI P40
+6.4" DISPLAY
+8GB RAM / 128GB
+48MP CAMERA
+4200mAh BATTERY
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $345 (CASH NO TAX)
+------------------------------------------------------
+HUAWEI P40 LITE
+6.4" DISPLAY
+8GB RAM / 128GB
+48MP CAMERA
+4200mAh BATTERY
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $295 (CASH NO TAX)
+------------------------------------------------------
+Huawei P20 
+5.8" DISPLAY
+4GB RAM / 128GB 
+20MP CAMERA
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+------------------------------------------------------
+HUAWEI P20 LITE
+5.8" DISPLAY
+4GB RAM / 32GB
+16MP CAMERA
+3000mAh BATTERY
+(OPEN BOX WITH WARRANTY)
+PRICE - $145 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------------------------
+EARBUDS - House of Marley Champion, Skull Candy, Wicked Audio and Jabra Elite, Marley Little Bird, Marshal Minor III, Huawei Freebuds Lite, Defunc True Go Slim, Wicked Audio Hiro, Skullcandy Mod, Borne Airbuds BTWS250
+------------------------------------------------------------------------
+Marshal Minor III
+(BRAND NEW)
+PRICE - $125 (CASH NO TAX)
+House of Marley True Wireless Champion Earbuds - Bluetooth 5.0 Earphones
+(BRAND NEW)
+PRICE - $85 (CASH NO TAX)
+Jabra Elite 4 In-Ear Noise Cancelling True Wireless Earbuds
+(BRAND NEW)
+PRICE - $80 (CASH NO TAX)
+Huawei Freebuds Lite
+(BRAND NEW)
+PRICE - $75 (CASH NO TAX)
+Wicked Audio Mojo Earbuds
+(BRAND NEW)
+PRICE - $55 (CASH NO TAX)
+Skullcandy Grind In-Ear Wireless Earbuds
+(BRAND NEW)
+PRICE - $50(CASH NO TAX)
+Defunc True Go Slim
+(BRAND NEW)
+PRICE - $35(CASH NO TAX)
+House of Marley Little Bird True Wireless Earbuds, Touch Controls
+(BRAND NEW)
+PRICE - $35 (CASH NO TAX)
+Wicked Audio Hiro True Wireless
+(BRAND NEW)
+PRICE - $35 (CASH NO TAX)
+Skullcandy Mod Earbuds
+(BRAND NEW)
+PRICE - $35 (CASH NO TAX)
+Wicked Audio Axoma True Wireless Headphones, Earbuds with Charging Case
+(BRAND NEW)
+PRICE - $25 (CASH NO TAX)
+Borne Airbuds BTWS250
+(BRAND NEW)
+PRICE - $20(CASH NO TAX)
+---------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Samsung Phones - Samsung Galaxy A05s, Samsung Galaxy A05, Samsung Galaxy A04, Samsung Galaxy A04e, Samsung Galaxy A03s, Samsung Galaxy A02s, Samsung Galaxy A02, Samsung Galaxy A03 Core phone
+BLOWOUT SALE!!!
+---------------------------------------------
+Samsung Galaxy A05s 128GB (Dual Sim)
+(New In Box With Warranty)
+Price: $165 (Cash No Tax)
+Samsung Galaxy A05s 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $145 (Cash No Tax)
+Samsung Galaxy A05 128GB (Dual Sim)
+(New In Box With Warranty)
+Price: $140 (Cash No Tax)
+Samsung Galaxy A05 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $120 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A04 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $125 (Cash No Tax)
+Samsung Galaxy A04 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $115 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A04e 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $125 (Cash No Tax)
+Samsung Galaxy A04e 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $105 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A03s 32GB 
+(New In Box With Warranty)
+Price: $95 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A02s 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $90 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A02 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $90 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A03 Core 32GB
+(New In Box With Warranty)
+Price: $95 (Cash No Tax)
+---------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+---------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+Motorola Phones - Moto Edge Plus, Moto Edge, Moto G 5G, Moto G60S, Moto One Ace 5G, Moto G Stylus 5G, Moto G Power, Moto G Play, Moto G Pure Phone, Moto G24 Power
+BLOWOUT SALE!!!
+-------------------------------------------
+MOTO EDGE PLUS 2020 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $495 (CASH NO TAX)
+-------------------------------------------
+MOTO EDGE 2022 ( CANADIAN MODEL) 256GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $395 (CASH NO TAX)
+MOTO EDGE 2022 256GB (CANADIAN MODEL)
+(OPEN BOX WITH WARRANTY)
+PRICE - $345 (CASH NO TAX)
+-------------------------------------------
+MOTO EDGE 2021 256GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+-------------------------------------------
+MOTO EDGE 20 LITE 5G 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $295 (CASH NO TAX)
+------------------------------------------
+MOTO G 5G 64GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $125 (CASH NO TAX)
+-------------------------------------------
+MOTO G9 Plus 4GB RAM 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $295 (CASH NO TAX)
+-------------------------------------------
+MOTO G60S 6GB RAM 128GB (DUAL SIM)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $260 (CASH NO TAX)
+-------------------------------------------
+MOTO G PRO 4GB RAM 128GB WITH STYLUS (DUAL SIM)
+(OPEN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+-------------------------------------------
+Moto G Stylus 5G 2023 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+Moto G Stylus 5G 2022 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+Moto G Stylus 5G 2021 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+Moto G Stylus 4G 2023 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $195  (CASH NO TAX)
+Moto G Stylus 4G 2023 64GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $145 (CASH NO TAX)
+Moto G Stylus 4G 2022 128GB
+(BRAND NEW WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+Moto G Stylus 4G 2022 128GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $170(CASH NO TAX)
+Moto G Stylus 2020 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $150 (CASH NO TAX)
+-------------------------------------------
+Motorola E32 64GB 2022 (DUAL SIM)
+(OPEN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-------------------------------------------
+Motorola G24 Power 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - 195 (CASH NO TAX)
+-------------------------------------------
+MOTOROLA MOTO ONE ACE 5G 128GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+MOTOROLA MOTO ONE ACE 5G 64GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $160 (CASH NO TAX)
+---------------------------------------------
+MOTOROLA MOTO ONE MACRO 64GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+---------------------------------------------
+Moto G POWER 128GB
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $195 (CASH NO TAX)
+Moto G POWER 64GB 2022
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $140 (CASH NO TAX)
+Moto G POWER 64GB 2021
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $125 (CASH NO TAX)
+-------------------------------------------
+MOTO E13 2GB RAM 64GB (DUAL SIM)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $150 (CASH NO TAX)
+-------------------------------------------
+MOTO G PLAY 2023 32GB
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $175 (CASH NO TAX)
+MOTO G PLAY 2023 32GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $110 (CASH NO TAX)
+---------------------------------------------
+MOTO E 32GB UNLOCKED
+(OPEN BOX WITH WARRANTY)
+PRICE - $125 (CASH NO TAX)
+---------------------------------------------
+MOTO G PURE 32GB UNLOCKED
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $115 (CASH NO TAX)
+---------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Samsung Phones - A15, A14, A13, A12, A11, A10S, A10E
+------------------------------------------------------
+Samsung Galaxy A15 5G 128GB/ 6GB (Dual SIM)
+(Brand New In Box With Warranty)
+Price - $185 (Cash No Tax)
+Samsung Galaxy A15 5G 128GB (Dual SIM)
+(Like New In Box With Warranty)
+Price - $180 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A15 128GB (Dual SIM)
+(Brand New In Box With Warranty)
+Price - $165 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A14 128GB (Dual SIM)
+(New In Box With Warranty)
+Price - $170 (Cash No Tax)
+Samsung Galaxy A14 64GB (Dual SIM)
+(New In Box With Warranty)
+Price - $155 (Cash No Tax)
+Samsung Galaxy A14 5G 64GB
+(New Open Box With 6 Months Store Warranty)
+Price - $165 (Cash No Tax)
+---------------------------------------------------
+Samsung Galaxy A13 4GB/128GB (Dual Sim)
+(New in Box with Warranty)
+Price: $175 (Cash No Tax)
+Samsung Galaxy A13 4GB/64GB (Dual Sim)
+(New in Box with Warranty)
+Price: $140 (Cash No Tax)
+Samsung Galaxy A13 5G 4GB/64GB
+(Like New in Box with Warranty)
+Price: $135 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A12 128GB (Dual Sim)
+(New Open Box With Warranty)
+Price: $165 (Cash No Tax)
+Samsung Galaxy A12 64GB/ 4GB RAM (Dual Sim)
+(New In Box With Warranty)
+Price: $145 (Cash No Tax)
+Samsung Galaxy A12 32GB
+(Like New In Box With Warranty)
+Price: $135 (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A11 32GB
+(New In Box With Warranty)
+Price: $125 (Cash No Tax)
+Samsung Galaxy A11 32GB
+(Fully Functional with Warranty)
+Price: $100  (Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A10s 32GB (Dual Sim)
+(Like New In Box With Warranty)
+Price: $100(Cash No Tax)
+------------------------------------------------------
+Samsung Galaxy A10E 32GB
+(Fully Functional with Warranty)
+Price: $105 (Cash No Tax)
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+---------------------------------------------------
+Storefront is open to public 7 days a week
+----------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+----------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
   </si>
 </sst>
 </file>
@@ -14428,8 +14476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14491,16 +14539,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14512,13 +14560,13 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="K2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L2" t="s">
         <v>237</v>
@@ -14532,16 +14580,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C3">
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14553,16 +14601,16 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L3" t="s">
         <v>237</v>
@@ -14576,16 +14624,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C4">
         <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -14597,16 +14645,16 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L4" t="s">
         <v>237</v>
@@ -14620,16 +14668,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C5">
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14641,16 +14689,16 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L5" t="s">
         <v>237</v>
@@ -14664,16 +14712,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C6">
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14685,16 +14733,16 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L6" t="s">
         <v>237</v>
@@ -14708,16 +14756,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C7">
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -14729,16 +14777,16 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L7" t="s">
         <v>237</v>
@@ -14752,16 +14800,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14773,16 +14821,16 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L8" t="s">
         <v>237</v>
@@ -14796,16 +14844,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C9">
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14817,13 +14865,13 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="K9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L9" t="s">
         <v>237</v>
@@ -14837,16 +14885,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C10">
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -14858,13 +14906,13 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="K10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L10" t="s">
         <v>237</v>
@@ -14878,16 +14926,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -14899,13 +14947,13 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I11">
         <v>4164744786</v>
       </c>
       <c r="K11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L11" t="s">
         <v>237</v>
@@ -14919,16 +14967,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -14940,13 +14988,13 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="K12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L12" t="s">
         <v>237</v>
@@ -14960,16 +15008,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C13">
         <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -14981,13 +15029,13 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="K13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L13" t="s">
         <v>237</v>
@@ -15001,16 +15049,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C14">
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -15022,7 +15070,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
@@ -15042,16 +15090,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C15">
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -15063,7 +15111,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
@@ -15083,16 +15131,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C16">
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15104,7 +15152,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
@@ -15124,16 +15172,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C17">
         <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -15145,7 +15193,7 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
@@ -15165,16 +15213,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C18">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -15186,7 +15234,7 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
@@ -15206,16 +15254,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C19">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
-        <v>423</v>
+      <c r="D19" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -15227,7 +15275,7 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
@@ -15247,16 +15295,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B20" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C20">
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15268,7 +15316,7 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
@@ -15288,16 +15336,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -15309,7 +15357,7 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
@@ -15329,16 +15377,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C22">
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15350,7 +15398,7 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
@@ -15370,16 +15418,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C23">
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15391,7 +15439,7 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
@@ -15411,28 +15459,28 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C24">
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
@@ -15452,16 +15500,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C25">
         <v>845</v>
       </c>
       <c r="D25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -15473,7 +15521,7 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
@@ -15493,16 +15541,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C26">
         <v>345</v>
       </c>
       <c r="D26" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -15514,7 +15562,7 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
@@ -15534,28 +15582,28 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C27">
         <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
@@ -15575,28 +15623,28 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B28" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C28">
         <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
@@ -15616,28 +15664,28 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B29" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
@@ -15657,28 +15705,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C30">
         <v>295</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
@@ -15698,28 +15746,28 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C31">
         <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -15739,28 +15787,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C32">
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15780,28 +15828,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B33" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C33">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15821,28 +15869,28 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C34">
         <v>695</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -15862,28 +15910,28 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B35" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C35">
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="I35">
         <v>4164744788</v>
@@ -15971,16 +16019,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C2">
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -15992,16 +16040,16 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="J2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L2" t="s">
         <v>237</v>
@@ -16015,16 +16063,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -16036,16 +16084,16 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L3" t="s">
         <v>237</v>
@@ -16059,16 +16107,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -16080,16 +16128,16 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L4" t="s">
         <v>237</v>
@@ -16103,16 +16151,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C5">
         <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -16124,16 +16172,16 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L5" t="s">
         <v>237</v>
@@ -16147,16 +16195,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C6">
         <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -16168,16 +16216,16 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L6" t="s">
         <v>237</v>
@@ -16191,16 +16239,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C7">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16212,16 +16260,16 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L7" t="s">
         <v>237</v>
@@ -16235,16 +16283,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C8">
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -16256,16 +16304,16 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L8" t="s">
         <v>237</v>
@@ -16279,16 +16327,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C9">
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16300,16 +16348,16 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="J9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L9" t="s">
         <v>237</v>
@@ -16323,16 +16371,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C10">
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16344,16 +16392,16 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="J10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L10" t="s">
         <v>237</v>
@@ -16370,7 +16418,7 @@
         <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C11">
         <v>1045</v>
@@ -16394,10 +16442,10 @@
         <v>4164744786</v>
       </c>
       <c r="J11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L11" t="s">
         <v>237</v>
@@ -16411,16 +16459,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B12" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -16432,16 +16480,16 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="J12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L12" t="s">
         <v>237</v>
@@ -16455,16 +16503,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C13">
         <v>1450</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16476,16 +16524,16 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="J13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K13" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L13" t="s">
         <v>237</v>
@@ -16499,37 +16547,37 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C14">
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="J14" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K14" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L14" t="s">
         <v>237</v>
@@ -16543,16 +16591,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C15">
         <v>595</v>
       </c>
       <c r="D15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -16564,16 +16612,16 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="J15" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L15" t="s">
         <v>237</v>
@@ -16587,16 +16635,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C16">
         <v>650</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16608,16 +16656,16 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K16" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L16" t="s">
         <v>237</v>
@@ -16631,16 +16679,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C17">
         <v>475</v>
       </c>
       <c r="D17" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16652,16 +16700,16 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L17" t="s">
         <v>237</v>
@@ -16675,16 +16723,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C18">
         <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16696,16 +16744,16 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K18" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L18" t="s">
         <v>237</v>
@@ -16719,16 +16767,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C19">
         <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16740,16 +16788,16 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K19" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L19" t="s">
         <v>237</v>
@@ -16763,16 +16811,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C20">
         <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16784,16 +16832,16 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K20" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L20" t="s">
         <v>237</v>
@@ -16807,16 +16855,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C21">
         <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16828,16 +16876,16 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K21" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L21" t="s">
         <v>237</v>
@@ -16851,16 +16899,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B22" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C22">
         <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16872,16 +16920,16 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K22" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="L22" t="s">
         <v>237</v>
@@ -16895,16 +16943,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C23">
         <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16916,16 +16964,16 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K23" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L23" t="s">
         <v>237</v>
@@ -16939,16 +16987,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C24">
         <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16960,16 +17008,16 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K24" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L24" t="s">
         <v>237</v>
@@ -16983,16 +17031,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B25" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C25">
         <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -17004,16 +17052,16 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L25" t="s">
         <v>237</v>
@@ -17027,16 +17075,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C26">
         <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -17048,16 +17096,16 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K26" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L26" t="s">
         <v>237</v>
@@ -17071,16 +17119,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C27">
         <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -17092,16 +17140,16 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K27" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L27" t="s">
         <v>237</v>
@@ -17115,16 +17163,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B28" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C28">
         <v>260</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17136,16 +17184,16 @@
         <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K28" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L28" t="s">
         <v>237</v>
@@ -17159,16 +17207,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B29" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C29">
         <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17180,16 +17228,16 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L29" t="s">
         <v>237</v>
@@ -17203,37 +17251,37 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C30">
         <v>1795</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K30" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="L30" t="s">
         <v>237</v>
@@ -17247,37 +17295,37 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B31" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C31">
         <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="I31">
         <v>4164744787</v>
       </c>
       <c r="J31" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K31" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="L31" t="s">
         <v>237</v>
@@ -17291,37 +17339,37 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C32">
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="I32">
         <v>4164744788</v>
       </c>
       <c r="J32" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="K32" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="L32" t="s">
         <v>237</v>
@@ -17343,8 +17391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17408,7 +17456,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C2">
         <v>90</v>
@@ -17449,7 +17497,7 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -17490,7 +17538,7 @@
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C4">
         <v>995</v>
@@ -17531,7 +17579,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C5">
         <v>1095</v>
@@ -17572,7 +17620,7 @@
         <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C6">
         <v>1045</v>
@@ -17610,16 +17658,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C7">
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17654,13 +17702,13 @@
         <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C8">
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17695,7 +17743,7 @@
         <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C9">
         <v>125</v>
@@ -17736,7 +17784,7 @@
         <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C10">
         <v>545</v>
@@ -17777,13 +17825,13 @@
         <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17818,13 +17866,13 @@
         <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C12">
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17848,7 +17896,7 @@
         <v>102</v>
       </c>
       <c r="M12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N12" t="s">
         <v>16</v>
@@ -17859,7 +17907,7 @@
         <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -17900,7 +17948,7 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C14">
         <v>390</v>
@@ -17938,16 +17986,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C15">
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -17971,7 +18019,7 @@
         <v>102</v>
       </c>
       <c r="M15" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N15" t="s">
         <v>16</v>
@@ -17982,7 +18030,7 @@
         <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -18020,16 +18068,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C17">
         <v>995</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -18064,7 +18112,7 @@
         <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -18105,7 +18153,7 @@
         <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C19">
         <v>650</v>
@@ -18146,13 +18194,13 @@
         <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C20">
         <v>345</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -18176,7 +18224,7 @@
         <v>102</v>
       </c>
       <c r="M20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N20" t="s">
         <v>16</v>
@@ -18187,13 +18235,13 @@
         <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18228,13 +18276,13 @@
         <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -18269,13 +18317,13 @@
         <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -18310,7 +18358,7 @@
         <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C24">
         <v>375</v>
@@ -18348,16 +18396,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C25">
         <v>340</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -18392,7 +18440,7 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -18433,7 +18481,7 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C27">
         <v>195</v>
@@ -18471,16 +18519,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B28" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C28">
         <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -18515,7 +18563,7 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C29">
         <v>545</v>
@@ -18553,16 +18601,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B30" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C30">
         <v>325</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -18574,7 +18622,7 @@
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
@@ -18594,16 +18642,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C31">
         <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18615,7 +18663,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18635,16 +18683,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B32" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C32">
         <v>395</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18656,7 +18704,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I32">
         <v>4164744788</v>
@@ -18684,8 +18732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADAF3E-0AA5-4F19-ACED-4BBE31AE540C}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18745,7 +18793,7 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C2">
         <v>65</v>
@@ -18786,13 +18834,13 @@
         <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18827,19 +18875,19 @@
         <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C4">
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -18868,7 +18916,7 @@
         <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C5">
         <v>195</v>
@@ -18909,7 +18957,7 @@
         <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -18950,7 +18998,7 @@
         <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C7">
         <v>160</v>
@@ -18991,7 +19039,7 @@
         <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C8">
         <v>145</v>
@@ -19032,7 +19080,7 @@
         <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C9">
         <v>225</v>
@@ -19073,13 +19121,13 @@
         <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C10">
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -19111,16 +19159,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -19155,13 +19203,13 @@
         <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -19196,13 +19244,13 @@
         <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C13">
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19226,7 +19274,7 @@
         <v>212</v>
       </c>
       <c r="M13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N13" t="s">
         <v>164</v>
@@ -19237,7 +19285,7 @@
         <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -19278,13 +19326,13 @@
         <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19319,7 +19367,7 @@
         <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -19360,7 +19408,7 @@
         <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C17">
         <v>125</v>
@@ -19390,7 +19438,7 @@
         <v>212</v>
       </c>
       <c r="M17" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N17" t="s">
         <v>164</v>
@@ -19401,7 +19449,7 @@
         <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -19442,7 +19490,7 @@
         <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -19480,16 +19528,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C20">
         <v>245</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19524,7 +19572,7 @@
         <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -19565,7 +19613,7 @@
         <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C22">
         <v>35</v>
@@ -19595,7 +19643,7 @@
         <v>212</v>
       </c>
       <c r="M22" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N22" t="s">
         <v>16</v>
@@ -19606,7 +19654,7 @@
         <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -19647,13 +19695,13 @@
         <v>209</v>
       </c>
       <c r="B24" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C24">
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19688,7 +19736,7 @@
         <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C25">
         <v>295</v>
@@ -19729,7 +19777,7 @@
         <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C26">
         <v>425</v>
@@ -19770,7 +19818,7 @@
         <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -19811,13 +19859,13 @@
         <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C28">
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>755</v>
+        <v>793</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19852,7 +19900,7 @@
         <v>224</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C29">
         <v>70</v>
@@ -19893,7 +19941,7 @@
         <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C30">
         <v>145</v>
@@ -19934,7 +19982,7 @@
         <v>230</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C31">
         <v>700</v>
@@ -19975,7 +20023,7 @@
         <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -20013,16 +20061,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B33" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C33">
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -20034,7 +20082,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -20054,16 +20102,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B34" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C34">
         <v>1295</v>
       </c>
       <c r="D34" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20075,13 +20123,13 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I34">
         <v>4164744786</v>
       </c>
       <c r="J34" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K34" t="s">
         <v>211</v>
@@ -20105,8 +20153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20167,7 +20215,7 @@
         <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C2">
         <v>495</v>
@@ -20205,13 +20253,13 @@
         <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C3">
         <v>695</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20243,7 +20291,7 @@
         <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -20281,13 +20329,13 @@
         <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>249</v>
+        <v>792</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -20299,7 +20347,7 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I5">
         <v>6477864344</v>
@@ -20316,16 +20364,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C6">
         <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -20337,7 +20385,7 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I6">
         <v>6477864344</v>
@@ -20354,16 +20402,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20375,7 +20423,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I7">
         <v>6477864344</v>
@@ -20392,16 +20440,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -20413,7 +20461,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I8">
         <v>6477864344</v>
@@ -20430,16 +20478,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C9">
         <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -20451,7 +20499,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I9">
         <v>6477864344</v>
@@ -20468,16 +20516,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C10">
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20489,7 +20537,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I10">
         <v>6477864344</v>
@@ -20509,7 +20557,7 @@
         <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -20544,16 +20592,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C12">
         <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -20565,7 +20613,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I12">
         <v>6477864344</v>
@@ -20582,16 +20630,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C13">
         <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -20603,7 +20651,7 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I13">
         <v>6477864344</v>
@@ -20620,16 +20668,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C14">
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -20641,7 +20689,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I14">
         <v>6477864344</v>
@@ -20658,16 +20706,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C15">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -20679,7 +20727,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I15">
         <v>6477864344</v>
@@ -20696,16 +20744,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C16">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -20717,7 +20765,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I16">
         <v>6477864344</v>
@@ -20734,16 +20782,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C17">
         <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -20755,7 +20803,7 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I17">
         <v>6477864344</v>
@@ -20772,16 +20820,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C18">
         <v>275</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -20793,7 +20841,7 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I18">
         <v>6477864344</v>
@@ -20810,16 +20858,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C19">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -20831,7 +20879,7 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I19">
         <v>6477864344</v>
@@ -20848,16 +20896,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20869,7 +20917,7 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I20">
         <v>6477864344</v>
@@ -20886,28 +20934,28 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C21">
         <v>545</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I21">
         <v>6477864344</v>
@@ -20924,16 +20972,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B22" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C22">
         <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -20945,7 +20993,7 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I22">
         <v>6477864344</v>
@@ -20962,16 +21010,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C23">
         <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -20983,7 +21031,7 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23">
         <v>6477864344</v>
@@ -21000,16 +21048,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C24">
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -21021,7 +21069,7 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I24">
         <v>6477864344</v>
@@ -21038,16 +21086,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -21059,7 +21107,7 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I25">
         <v>6477864344</v>
@@ -21076,16 +21124,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C26">
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -21097,7 +21145,7 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I26">
         <v>6477864344</v>
@@ -21117,13 +21165,13 @@
         <v>238</v>
       </c>
       <c r="B27" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C27">
         <v>340</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21155,7 +21203,7 @@
         <v>240</v>
       </c>
       <c r="B28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C28">
         <v>50</v>
@@ -21190,16 +21238,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B29" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C29">
         <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21211,7 +21259,7 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I29">
         <v>6477864344</v>
@@ -21228,16 +21276,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C30">
         <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21249,7 +21297,7 @@
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21266,16 +21314,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B31" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C31">
         <v>260</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21287,7 +21335,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21304,16 +21352,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C32">
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21325,7 +21373,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21349,8 +21397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21410,16 +21458,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C2" s="2">
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21450,13 +21498,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -21484,16 +21532,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C4" s="2">
         <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21505,7 +21553,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I4" s="2">
         <v>6477864344</v>
@@ -21524,7 +21572,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C5" s="2">
         <v>245</v>
@@ -21561,7 +21609,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C6" s="2">
         <v>25</v>
@@ -21598,7 +21646,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C7" s="2">
         <v>325</v>
@@ -21635,7 +21683,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C8" s="2">
         <v>325</v>
@@ -21647,7 +21695,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>33</v>
@@ -21672,13 +21720,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C9" s="2">
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -21690,7 +21738,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I9" s="2">
         <v>6477864344</v>
@@ -21706,16 +21754,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C10" s="2">
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -21746,7 +21794,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C11" s="2">
         <v>130</v>
@@ -21783,7 +21831,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C12" s="2">
         <v>50</v>
@@ -21820,13 +21868,13 @@
         <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C13" s="2">
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -21857,7 +21905,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C14" s="2">
         <v>45</v>
@@ -21894,13 +21942,13 @@
         <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C15" s="2">
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -21928,16 +21976,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -21968,13 +22016,13 @@
         <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C17" s="2">
         <v>225</v>
       </c>
       <c r="D17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -22005,7 +22053,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
@@ -22017,7 +22065,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>33</v>
@@ -22042,7 +22090,7 @@
         <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C19" s="2">
         <v>120</v>
@@ -22054,7 +22102,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>33</v>
@@ -22079,7 +22127,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C20" s="2">
         <v>30</v>
@@ -22116,13 +22164,13 @@
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C21" s="2">
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22150,16 +22198,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C22" s="2">
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22187,16 +22235,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22227,7 +22275,7 @@
         <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C24" s="2">
         <v>90</v>
@@ -22264,7 +22312,7 @@
         <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C25" s="2">
         <v>475</v>
@@ -22298,16 +22346,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C26" s="2">
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22338,7 +22386,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C27" s="2">
         <v>65</v>
@@ -22375,7 +22423,7 @@
         <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C28" s="2">
         <v>85</v>
@@ -22412,7 +22460,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C29" s="2">
         <v>195</v>
@@ -22443,21 +22491,21 @@
         <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C30" s="2">
         <v>425</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22469,7 +22517,7 @@
         <v>33</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -22485,16 +22533,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C31" s="2">
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -22506,7 +22554,7 @@
         <v>33</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -22522,28 +22570,28 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C32" s="2">
         <v>975</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -22559,28 +22607,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C33" s="2">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="I33" s="2">
         <v>6477864345</v>
@@ -22603,8 +22651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22661,16 +22709,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C2">
         <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -22682,7 +22730,7 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I2">
         <v>6477864344</v>
@@ -22696,16 +22744,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C3">
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22717,7 +22765,7 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I3">
         <v>6477864344</v>
@@ -22731,16 +22779,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C4">
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22752,7 +22800,7 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I4">
         <v>6477864344</v>
@@ -22766,16 +22814,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C5">
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -22787,7 +22835,7 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I5">
         <v>6477864344</v>
@@ -22801,16 +22849,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C6">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -22822,7 +22870,7 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I6">
         <v>6477864344</v>
@@ -22836,16 +22884,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C7">
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -22857,7 +22905,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I7">
         <v>6477864344</v>
@@ -22871,16 +22919,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C8">
         <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -22892,7 +22940,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I8">
         <v>6477864344</v>
@@ -22906,16 +22954,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -22927,7 +22975,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I9">
         <v>6477864344</v>
@@ -22941,16 +22989,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -22962,7 +23010,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I10">
         <v>6477864344</v>
@@ -22976,16 +23024,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C11">
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -22997,7 +23045,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I11">
         <v>6477864344</v>
@@ -23011,16 +23059,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C12">
         <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -23032,7 +23080,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12">
         <v>6477864344</v>
@@ -23046,16 +23094,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C13">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -23067,7 +23115,7 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I13">
         <v>6477864344</v>
@@ -23081,16 +23129,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>790</v>
       </c>
       <c r="B14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C14">
         <v>145</v>
       </c>
-      <c r="D14" t="s">
-        <v>331</v>
+      <c r="D14" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -23102,7 +23150,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I14">
         <v>6477864344</v>
@@ -23116,16 +23164,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C15">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -23137,7 +23185,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I15">
         <v>6477864344</v>
@@ -23151,16 +23199,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C16">
         <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -23172,7 +23220,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I16">
         <v>6477864344</v>
@@ -23186,16 +23234,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C17">
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -23207,7 +23255,7 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I17">
         <v>6477864344</v>
@@ -23221,16 +23269,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C18">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -23242,7 +23290,7 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I18">
         <v>6477864344</v>
@@ -23256,16 +23304,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -23277,7 +23325,7 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I19">
         <v>6477864344</v>
@@ -23291,16 +23339,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C20">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -23312,7 +23360,7 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I20">
         <v>6477864344</v>
@@ -23326,16 +23374,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C21">
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -23347,7 +23395,7 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I21">
         <v>6477864344</v>
@@ -23361,16 +23409,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -23382,7 +23430,7 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I22">
         <v>6477864344</v>
@@ -23396,16 +23444,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -23417,7 +23465,7 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I23">
         <v>6477864344</v>
@@ -23431,16 +23479,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C24">
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -23452,7 +23500,7 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I24">
         <v>6477864344</v>
@@ -23466,16 +23514,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C25">
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -23487,7 +23535,7 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I25">
         <v>6477864344</v>
@@ -23501,16 +23549,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C26">
         <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -23522,7 +23570,7 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I26">
         <v>6477864344</v>
@@ -23536,16 +23584,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C27">
         <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -23557,7 +23605,7 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I27">
         <v>6477864344</v>
@@ -23571,16 +23619,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23592,7 +23640,7 @@
         <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I28">
         <v>6477864344</v>
@@ -23606,16 +23654,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C29">
         <v>125</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23641,28 +23689,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C30">
         <v>830</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -23676,16 +23724,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B31" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C31">
         <v>645</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -23697,7 +23745,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -23711,16 +23759,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C32">
         <v>1095</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23732,16 +23780,16 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K32" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L32" t="s">
         <v>237</v>
@@ -23755,16 +23803,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B33" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -23776,16 +23824,16 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
       </c>
       <c r="J33" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K33" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="L33" t="s">
         <v>237</v>
@@ -23799,16 +23847,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C34">
         <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -23820,16 +23868,16 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
       </c>
       <c r="J34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K34" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="L34" t="s">
         <v>237</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1B8B9-1393-44D9-B611-1B43E52EC75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A42D5C-C2F1-495E-BA27-B90936F9107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
@@ -10258,68 +10258,6 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WЕEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store!
-------------------------------------------------------
-Apple iPhones - iPhone 14 PRO MAX, iPhone 14 Pro, iPhone 14 Plus
-------------------------------------------------------
-iPhone 14 PRO MAX 256GB
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-Battery - 85% and Up
-Condition - 10 Out of 10 Like New
-Price - $1195 (CASH NO TAX)
-------------------------------------------------------
-iPhone 14 Pro 256GB
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-Battery - 85% and Up
-Condition - 10 Out of 10 Like New
-Price - $1095 (CASH NO TAX)
-------------------------------------------------------
-iPhone 14 Plus 512GB
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-Bаttery - 85% and Up
-Condition - 10 Out of 10 Likе New
-Price - $975 (CASH NO TAX)
-iPhone 14 Plus 256GB
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-Battery - 85% and Up
-Condition - 10 Out of 10 Like New
-Price - $930 (CASH NO TAX)
-------------------------------------------------------
-iPhone 14 Plus 256GB
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-Battery - 85% and Up
-Condition - Minor Scratches on Screen
-Price - $830 (CASH NO TAX)
-------------------------------------------------------
-Same day delivery available in GTA аrea - delivery charges are extra depends on locatiоn
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Sрlit your purchase into stress-free, automatic instаllments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done by Pay Bright
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing a FREE parking fаcility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Apple Iphones - Iphone 14 Pro Max, iPhone 14 Pro, Iphone 14 Plus</t>
@@ -11421,90 +11359,6 @@
 Best Price, Best Quality
 Buy with Confidence from our store! ✨
 ---------------------------------------------
-Apple iPhones - Apple iPhone XS Max, Apple iPhone XS, Apple iPhone XR, Apple iPhone X, Apple iPhone SE 2nd Gen
------------------------------------------------------------
-iPhone XS MAX 256GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $425 (CASH NO TAX)
-iPhone XS MAX 64GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $345 (CASH NO TAX)
----------------------------------------------
-iPhone XS 512GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $375 (CASH NO TAX)
-iPhone XS 256GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $345 (CASH NO TAX)
-iPhone XS 64GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Рrice - $250 (CASH NO TAX)
---------------------------------------------
-iPhone XR 128GB UNLOCKED
-(LIKE NEW IN A BОX WITH WARRANTY)
-Price - $295 (CASH NO TAX)
-iPhone XR 64GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $245 (CASH NO TAX)
----------------------------------------------
-iPhone X 256GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRАNTY)
-Price - $275 (CASH NO TAX)
-iPhоne X 64GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $240 (CASH NO TAX)
----------------------------------------------
-iPhone SE 3rd Gen 256GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $345 (CASH NO TAX) (SOLD OUT)
-iPhone SE 3rd Gen 128GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $310 (CASH NO TAX)
-iPhone SE 3rd Gen 64GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $275 (CASH NO TAX)
----------------------------------------------
-iPhone SE 2nd Gen 256GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $225 (CASH NO TAX)
-iPhone SE 2nd Gen 128GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $210 (CASH NO TАX)
-iPhone SE 2nd Gen 64GB UNLOCKED
-(LIKE NEW IN A BOX WITH WARRANTY)
-Price - $195 (CASH NO TAX)
----------------------------------------------
-Same day delivery available in GTA area - delivеry charges are extra depends on location
----------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Cаnadian Outlet
-Split your purchase intо stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done by Рay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a wеek
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
 Samsung Phones - Samsung Galaxy A73, Samsung Galaxy A72, Samsung Galaxy A71, Samsung Galaxy A55, Samsung Galaxy A54, Samsung Galaxy A53, Samsung Galaxy A52s, Samsung Galaxy A52, Samsung Galaxy A51 Phone, Samsung A50
 BLOWOUT SALE!!!
 ---------------------------------------------
@@ -14054,6 +13908,147 @@
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
   </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Apple iPhones - iPhone 14 PRO MAX, iPhone 14 Pro, iPhone 14 Plus
+------------------------------------------------------
+iPhone 14 PRO MAX 256GB
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+Battery - 85% and Up
+Condition - 10 Out of 10 Like New
+Price - $1195 (CASH NO TAX)
+------------------------------------------------------
+iPhone 14 Pro 256GB
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+Battery - 85% and Up
+Condition - 10 Out of 10 Like New
+Price - $1095 (CASH NO TAX)
+------------------------------------------------------
+iPhone 14 Plus 512GB
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+Battery - 85% and Up
+Condition - 10 Out of 10 Like New
+Price - $930 (CASH NO TAX)
+iPhone 14 Plus 256GB 
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+Battery - 85% and Up
+Condition - 10 Out of 10 Like New
+Price - $830 (CASH NO TAX)
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done by Pay Bright
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Apple iPhones - Apple iPhone XS Max, Apple iPhone XS, Apple iPhone XR, Apple iPhone X, Apple iPhone SE 2nd Gen
+-----------------------------------------------------------
+iPhone XS MAX 256GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $425 (CASH NO TAX)
+iPhone XS MAX 64GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $345 (CASH NO TAX)
+---------------------------------------------
+iPhone XS 512GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $375 (CASH NO TAX)
+iPhone XS 256GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $345 (CASH NO TAX)
+iPhone XS 64GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Рrice - $250 (CASH NO TAX)
+--------------------------------------------
+iPhone XR 128GB UNLOCKED
+(LIKE NEW IN A BОX WITH WARRANTY)
+Price - $295 (CASH NO TAX)
+iPhone XR 64GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $245 (CASH NO TAX)
+---------------------------------------------
+iPhone X 256GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRАNTY)
+Price - $275 (CASH NO TAX)
+iPhоne X 64GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $240 (CASH NO TAX)
+---------------------------------------------
+iPhone SE 3rd Gen 256GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $345 (CASH NO TAX) (SOLD OUT)
+iPhone SE 3rd Gen 128GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $310 (CASH NO TAX) (SOLD OUT)
+iPhone SE 3rd Gen 64GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $275 (CASH NO TAX)
+---------------------------------------------
+iPhone SE 2nd Gen 256GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $225 (CASH NO TAX)
+iPhone SE 2nd Gen 128GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $210 (CASH NO TАX)
+iPhone SE 2nd Gen 64GB UNLOCKED
+(LIKE NEW IN A BOX WITH WARRANTY)
+Price - $195 (CASH NO TAX)
+---------------------------------------------
+Same day delivery available in GTA area - delivеry charges are extra depends on location
+---------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Cаnadian Outlet
+Split your purchase intо stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done by Рay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a wеek
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
 </sst>
 </file>
 
@@ -14145,7 +14140,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -14157,6 +14152,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -14476,8 +14474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14809,7 +14807,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14976,7 +14974,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -15058,7 +15056,7 @@
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -15140,7 +15138,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15468,7 +15466,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -15591,7 +15589,7 @@
         <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>739</v>
+        <v>795</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -15632,7 +15630,7 @@
         <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -15705,7 +15703,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B30" t="s">
         <v>459</v>
@@ -15714,7 +15712,7 @@
         <v>295</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -15869,7 +15867,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B34" t="s">
         <v>450</v>
@@ -15878,7 +15876,7 @@
         <v>695</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -15890,7 +15888,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -15910,7 +15908,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B35" t="s">
         <v>450</v>
@@ -15919,7 +15917,7 @@
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -15931,7 +15929,7 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I35">
         <v>4164744788</v>
@@ -15960,7 +15958,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16336,7 +16334,7 @@
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16380,7 +16378,7 @@
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16512,7 +16510,7 @@
         <v>1450</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16556,7 +16554,7 @@
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -16591,7 +16589,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B15" t="s">
         <v>458</v>
@@ -16644,7 +16642,7 @@
         <v>650</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16943,7 +16941,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B23" t="s">
         <v>448</v>
@@ -17119,7 +17117,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B27" t="s">
         <v>454</v>
@@ -17260,7 +17258,7 @@
         <v>1795</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17295,7 +17293,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B31" t="s">
         <v>559</v>
@@ -17304,7 +17302,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17316,7 +17314,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I31">
         <v>4164744787</v>
@@ -17325,7 +17323,7 @@
         <v>671</v>
       </c>
       <c r="K31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L31" t="s">
         <v>237</v>
@@ -17339,7 +17337,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B32" t="s">
         <v>447</v>
@@ -17348,7 +17346,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -17360,16 +17358,16 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I32">
         <v>4164744788</v>
       </c>
       <c r="J32" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K32" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L32" t="s">
         <v>237</v>
@@ -17667,7 +17665,7 @@
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17708,7 +17706,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17872,7 +17870,7 @@
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17995,7 +17993,7 @@
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -18068,7 +18066,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B17" t="s">
         <v>447</v>
@@ -18077,7 +18075,7 @@
         <v>995</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -18241,7 +18239,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18396,7 +18394,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B25" t="s">
         <v>545</v>
@@ -18405,7 +18403,7 @@
         <v>340</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -18601,16 +18599,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C30">
         <v>325</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -18683,7 +18681,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B32" t="s">
         <v>450</v>
@@ -18692,7 +18690,7 @@
         <v>395</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18704,7 +18702,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I32">
         <v>4164744788</v>
@@ -18840,7 +18838,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18881,7 +18879,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -19332,7 +19330,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19528,7 +19526,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B20" t="s">
         <v>457</v>
@@ -19537,7 +19535,7 @@
         <v>245</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19865,7 +19863,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20335,7 +20333,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -20525,7 +20523,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20905,7 +20903,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20943,7 +20941,7 @@
         <v>545</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -20981,7 +20979,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -21019,7 +21017,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -21171,7 +21169,7 @@
         <v>340</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21238,7 +21236,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B29" t="s">
         <v>454</v>
@@ -21247,7 +21245,7 @@
         <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21276,7 +21274,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B30" t="s">
         <v>454</v>
@@ -21285,7 +21283,7 @@
         <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21352,7 +21350,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B32" t="s">
         <v>453</v>
@@ -21361,7 +21359,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21373,7 +21371,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21532,7 +21530,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>457</v>
@@ -21541,7 +21539,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21948,7 +21946,7 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -21976,7 +21974,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>559</v>
@@ -21985,7 +21983,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -22207,7 +22205,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22235,7 +22233,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>560</v>
@@ -22496,7 +22494,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>454</v>
@@ -22505,7 +22503,7 @@
         <v>425</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22607,16 +22605,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="C33" s="2">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -22628,7 +22626,7 @@
         <v>33</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I33" s="2">
         <v>6477864345</v>
@@ -22651,8 +22649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22753,7 +22751,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22884,7 +22882,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B7" t="s">
         <v>457</v>
@@ -22893,7 +22891,7 @@
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -23129,7 +23127,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B14" t="s">
         <v>453</v>
@@ -23138,7 +23136,7 @@
         <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -23628,7 +23626,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23663,7 +23661,7 @@
         <v>125</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23687,9 +23685,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B30" t="s">
         <v>453</v>
@@ -23697,8 +23695,8 @@
       <c r="C30">
         <v>830</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>702</v>
+      <c r="D30" s="9" t="s">
+        <v>794</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -23847,7 +23845,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B34" t="s">
         <v>455</v>
@@ -23856,7 +23854,7 @@
         <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -23868,7 +23866,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
@@ -23877,7 +23875,7 @@
         <v>506</v>
       </c>
       <c r="K34" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L34" t="s">
         <v>237</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFA6A32-3A46-481F-8B9B-4E5A3F7AFEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0665EE9C-ED55-432D-A64E-D571DE17CCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="801">
   <si>
     <t>Title</t>
   </si>
@@ -13525,88 +13525,6 @@
 Best Price, Best Quality 
 Buy with Confidence from our store!
 ---------------------------------------------
-Apple MacBook Pro 2023 - 14"
-M3 PRO
-18GB RAM
-512GB SSD Storage
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY)
-Price - $2350(CASH NO TAX)
----------------------------------------------------
-Apple MacBook Pro - 16"
-Intel Core i9 Processor
-16GB RAM
-512GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY)
-Price - $1095 (CASH NO TAX)
----------------------------------------------------
-Apple Macbook Air - 13.3"
-Intel Core i5 Processor
-16GB RAM
-512GB STORAGE
-(NEW IN BOX WITH WARRANTY)
-Price - $845 (CASH NO TAX)
----------------------------------------------------
-Apple Macbook Air - 13.3"
-M1 Chip
-8GB RAM
-256GB STORAGE
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $745 (CASH NO TAX)
----------------------------------------------------
-Apple MacBook Pro - 15.4" 
-Intel Core i7 Processor
-16GB RAM
-512GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY)
-Price - $675 (CASH NO TAX)
-Apple MacBook Pro - 13" 
-Intel Core i7 Processor
-16GB RAM
-512GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY)
-Price - $525(CASH NO TAX)
-Apple MacBook Pro - 13" 
-Intel Core i7 Processor
-16GB RAM
-256GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY)
-Price - $475 (CASH NO TAX)
----------------------------------------------------
-Apple MacBook Pro - 13.3" 
-Intel Core i5 Processor
-4GB RAM
-128GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY)
-Price - $195 (CASH NO TAX)
----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
----------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!!!
-OPEN EVERYDAY FROM:
-Monday to Friday - 8AM - 8PM
-Weekends - 10AM - 7PM
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
 BLOWOUT SALE!!! 
 Samsung Galaxy S24 Ultra, Samsung Galaxy S24, Samsung Galaxy S23 Ultra, Samsung Galaxy S23, Samsung Galaxy S23+, Samsung Galaxy S23 FE, Samsung Galaxy S22 Ultra, Samsung Galaxy S22+, Samsung Galaxy S22
 -----------------------------------------------------------------------
@@ -14047,6 +13965,128 @@
   </si>
   <si>
     <t>Apple Iphones - Iphone 14 Pro Max, iPhone 14 Pro, iPhone 14 Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+Apple MacBook Pro 2023 - 14"
+M3 PRO
+18GB RAM
+512GB SSD Storage
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY - 23)
+Price - $2350(CASH NO TAX)
+---------------------------------------------------
+Apple MacBook Pro - 16"
+Intel Core i9 Processor
+16GB RAM
+512GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 19)
+Price - $1095 (CASH NO TAX)
+---------------------------------------------------
+Apple Macbook Air - 13.3"
+M1 Chip
+8GB RAM
+256GB STORAGE
+(LIKE NEW IN BOX WITH WARRANTY - 20)
+PRICE - $745 (CASH NO TAX)
+---------------------------------------------------
+Apple MacBook Pro - 15.4" 
+Intel Core i7 Processor
+16GB RAM
+512GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 16)
+Price - $675 (CASH NO TAX)
+Apple MacBook Pro - 13" 
+Intel Core i7 Processor
+16GB RAM
+512GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 17)
+Price - $525(CASH NO TAX)
+Apple MacBook Pro - 13" 
+Intel Core i7 Processor
+16GB RAM
+256GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 17)
+Price - $475 (CASH NO TAX)
+---------------------------------------------------
+Apple MacBook Pro - 13.3" 
+Intel Core i5 Processor
+4GB RAM
+128GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 11)
+Price - $195 (CASH NO TAX)
+---------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+---------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!!!
+OPEN EVERYDAY FROM:
+Monday to Friday - 8AM - 8PM
+Weekends - 10AM - 7PM
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+5TH WHEEL V30 PRO Electric Scooter with Turn Signals, 32KM Range &amp; 29 KM/H, 350W Motor
+(OPEN BOX WITH WARRANTY)
+PRICE - $295(CASH NO TAX) 
+----------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>E-bike - 5th Wheel V30 Pro E - Scooter with Turn Signals</t>
+  </si>
+  <si>
+    <t>Buy &amp; Sell;Bikes;eBike</t>
+  </si>
+  <si>
+    <t>50-78</t>
+  </si>
+  <si>
+    <t>5th wheel V30 Pro</t>
   </si>
 </sst>
 </file>
@@ -14470,8 +14510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14583,7 +14623,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14671,7 +14711,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -15462,7 +15502,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -15951,10 +15991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17375,6 +17415,50 @@
         <v>16</v>
       </c>
     </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>797</v>
+      </c>
+      <c r="B33" t="s">
+        <v>798</v>
+      </c>
+      <c r="C33">
+        <v>295</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>360</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>800</v>
+      </c>
+      <c r="I33">
+        <v>4164744789</v>
+      </c>
+      <c r="J33" t="s">
+        <v>764</v>
+      </c>
+      <c r="K33" t="s">
+        <v>799</v>
+      </c>
+      <c r="L33" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17386,7 +17470,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18784,7 +18868,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B2" t="s">
         <v>448</v>
@@ -18793,7 +18877,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -19235,7 +19319,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B13" t="s">
         <v>442</v>
@@ -19244,7 +19328,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -20147,7 +20231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -20519,7 +20603,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -21391,7 +21475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -21563,7 +21647,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>449</v>
@@ -21572,7 +21656,7 @@
         <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -22645,7 +22729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -23683,7 +23767,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B30" t="s">
         <v>445</v>
@@ -23692,7 +23776,7 @@
         <v>975</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0665EE9C-ED55-432D-A64E-D571DE17CCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D47A0-8F2A-444C-937D-EB00EA159827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="800">
   <si>
     <t>Title</t>
   </si>
@@ -4128,40 +4128,6 @@
   </si>
   <si>
     <t>Massagers - Lunix LX7, Latme Electric Smart Scalp Massager</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Lunix LX7 Tоuchscreen Electric Hand Massager, Latme Electriс Smart Scalp Massager
-------------------------------------------------------
-Lunix LX7 Touchscreen Electric Hand Massager with Compression
-(Brand New In Box)
-Price - $95(CASH NO TAX)
----------------------------------------------------
-Latme Electric Smart Scalp Massager (ST-701)
-Relive scalp and massage head
-(Brand New In Box)
-Price - $25 (CASH NO TAX)
----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
--------------------------------------------------------------------
-Storefront is open to public 7 days a weеk
--------------------------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Massagers</t>
@@ -10898,15 +10864,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>POS Stand for iPad by Square (1st Generation)</t>
-  </si>
-  <si>
-    <t>70-81</t>
-  </si>
-  <si>
-    <t>Pos Stand</t>
-  </si>
-  <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality
 Buy with Confidence from our store! ✨
@@ -11293,42 +11250,6 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-POS Stand for iPad (1st Generation) by Square (A-SKU-0590) - White Colour
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - 95 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
   </si>
   <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -14087,6 +14008,84 @@
   </si>
   <si>
     <t>5th wheel V30 Pro</t>
+  </si>
+  <si>
+    <t>Turtle Beach 500 and Turtle Beach 600 Wireless Headset</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Turtle Beach Stealth 600 Wireless Multiplatform Amplified Gaming Headset for PC, PS5, PS4, Nintendo Switch, Mobile – Bluetooth, 80-Hr Battery, Noise-Cancelling Flip-to-Mute Mic, Waves 3D Audio
+(BRAND NEW IN BOX)
+Price - $95 (CASH NO TAX)
+Turtle Beach Stealth 500 Wireless Gaming Headset Licensed for Xbox Series X|S, Xbox One &amp; Works via Bluetooth with PC, Switch &amp; Mobile – 40-Hr Battery, Memory Foam Cushions, Flip-to-Mute Mic
+(BRAND NEW IN BOX)
+Price - $80 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Turtle Beach</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Lunix LX7 Tоuchscreen Electric Hand Massager, Latme Electriс Smart Scalp Massager
+------------------------------------------------------
+Lunix LX7 Electric Hand Massager 
+(New Open Box)
+Price - $55 (CASH NO TAX)
+------------------------------------------------------
+Latme Electric Smart Scalp Massager (ST-701)
+Relive scalp and massage head
+(Brand New In Box)
+Price - $25 (CASH NO TAX)
+---------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+-------------------------------------------------------------------
+Storefront is open to public 7 days a weеk
+-------------------------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
   </si>
 </sst>
 </file>
@@ -14510,7 +14509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -14573,16 +14572,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14594,13 +14593,13 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="K2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L2" t="s">
         <v>230</v>
@@ -14614,16 +14613,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C3">
         <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -14635,16 +14634,16 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L3" t="s">
         <v>230</v>
@@ -14658,16 +14657,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C4">
         <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -14679,16 +14678,16 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L4" t="s">
         <v>230</v>
@@ -14702,16 +14701,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C5">
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14729,10 +14728,10 @@
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L5" t="s">
         <v>230</v>
@@ -14746,16 +14745,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C6">
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14767,16 +14766,16 @@
         <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L6" t="s">
         <v>230</v>
@@ -14790,16 +14789,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C7">
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -14811,16 +14810,16 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L7" t="s">
         <v>230</v>
@@ -14834,16 +14833,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14855,16 +14854,16 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L8" t="s">
         <v>230</v>
@@ -14878,16 +14877,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C9">
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14899,13 +14898,13 @@
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="K9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L9" t="s">
         <v>230</v>
@@ -14919,16 +14918,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C10">
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -14940,13 +14939,13 @@
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="K10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L10" t="s">
         <v>230</v>
@@ -14960,16 +14959,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -14981,13 +14980,13 @@
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I11">
         <v>4164744786</v>
       </c>
       <c r="K11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L11" t="s">
         <v>230</v>
@@ -15001,16 +15000,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -15022,13 +15021,13 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="K12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L12" t="s">
         <v>230</v>
@@ -15042,16 +15041,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C13">
         <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -15063,13 +15062,13 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="K13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L13" t="s">
         <v>230</v>
@@ -15083,16 +15082,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14">
         <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -15104,7 +15103,7 @@
         <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
@@ -15124,16 +15123,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15">
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -15145,7 +15144,7 @@
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
@@ -15165,16 +15164,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C16">
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15186,7 +15185,7 @@
         <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
@@ -15206,16 +15205,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17">
         <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -15227,7 +15226,7 @@
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
@@ -15247,16 +15246,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C18">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -15268,7 +15267,7 @@
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
@@ -15288,16 +15287,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C19">
         <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -15309,7 +15308,7 @@
         <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
@@ -15329,16 +15328,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C20">
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15350,7 +15349,7 @@
         <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
@@ -15370,16 +15369,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -15391,7 +15390,7 @@
         <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
@@ -15411,16 +15410,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C22">
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15432,7 +15431,7 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
@@ -15452,16 +15451,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C23">
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15473,7 +15472,7 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
@@ -15493,28 +15492,28 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24">
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
@@ -15534,16 +15533,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C25">
         <v>845</v>
       </c>
       <c r="D25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -15555,7 +15554,7 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
@@ -15575,16 +15574,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C26">
         <v>345</v>
       </c>
       <c r="D26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -15596,7 +15595,7 @@
         <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
@@ -15616,28 +15615,28 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C27">
         <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
@@ -15657,28 +15656,28 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C28">
         <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
@@ -15698,28 +15697,28 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C29">
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
@@ -15739,28 +15738,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C30">
         <v>295</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
@@ -15780,28 +15779,28 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C31">
         <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -15821,28 +15820,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C32">
         <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
@@ -15862,28 +15861,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C33">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -15903,28 +15902,28 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C34">
         <v>695</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -15944,28 +15943,28 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C35">
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I35">
         <v>4164744788</v>
@@ -15993,7 +15992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -16053,16 +16052,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C2">
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -16074,16 +16073,16 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="J2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L2" t="s">
         <v>230</v>
@@ -16097,16 +16096,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -16118,16 +16117,16 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L3" t="s">
         <v>230</v>
@@ -16141,16 +16140,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -16162,16 +16161,16 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L4" t="s">
         <v>230</v>
@@ -16185,16 +16184,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C5">
         <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -16206,16 +16205,16 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L5" t="s">
         <v>230</v>
@@ -16229,16 +16228,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C6">
         <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -16250,16 +16249,16 @@
         <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L6" t="s">
         <v>230</v>
@@ -16273,16 +16272,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C7">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16294,16 +16293,16 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L7" t="s">
         <v>230</v>
@@ -16317,16 +16316,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C8">
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -16338,16 +16337,16 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L8" t="s">
         <v>230</v>
@@ -16361,16 +16360,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C9">
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16382,16 +16381,16 @@
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="J9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L9" t="s">
         <v>230</v>
@@ -16405,16 +16404,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C10">
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16426,16 +16425,16 @@
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="J10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L10" t="s">
         <v>230</v>
@@ -16452,7 +16451,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C11">
         <v>1045</v>
@@ -16476,10 +16475,10 @@
         <v>4164744786</v>
       </c>
       <c r="J11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L11" t="s">
         <v>230</v>
@@ -16493,16 +16492,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -16514,16 +16513,16 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="J12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L12" t="s">
         <v>230</v>
@@ -16537,16 +16536,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C13">
         <v>1450</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16558,16 +16557,16 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="J13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L13" t="s">
         <v>230</v>
@@ -16581,37 +16580,37 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C14">
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="J14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L14" t="s">
         <v>230</v>
@@ -16625,16 +16624,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C15">
         <v>595</v>
       </c>
       <c r="D15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -16646,16 +16645,16 @@
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="J15" t="s">
+        <v>500</v>
+      </c>
+      <c r="K15" t="s">
         <v>501</v>
-      </c>
-      <c r="K15" t="s">
-        <v>502</v>
       </c>
       <c r="L15" t="s">
         <v>230</v>
@@ -16669,16 +16668,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C16">
         <v>650</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -16690,16 +16689,16 @@
         <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L16" t="s">
         <v>230</v>
@@ -16713,16 +16712,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17">
         <v>475</v>
       </c>
       <c r="D17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -16734,16 +16733,16 @@
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L17" t="s">
         <v>230</v>
@@ -16757,16 +16756,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C18">
         <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -16778,16 +16777,16 @@
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L18" t="s">
         <v>230</v>
@@ -16801,16 +16800,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C19">
         <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -16822,16 +16821,16 @@
         <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L19" t="s">
         <v>230</v>
@@ -16845,16 +16844,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C20">
         <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -16866,16 +16865,16 @@
         <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L20" t="s">
         <v>230</v>
@@ -16889,16 +16888,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C21">
         <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -16910,16 +16909,16 @@
         <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L21" t="s">
         <v>230</v>
@@ -16933,16 +16932,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C22">
         <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -16954,16 +16953,16 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L22" t="s">
         <v>230</v>
@@ -16977,16 +16976,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C23">
         <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -16998,16 +16997,16 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L23" t="s">
         <v>230</v>
@@ -17021,16 +17020,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C24">
         <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -17042,16 +17041,16 @@
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L24" t="s">
         <v>230</v>
@@ -17065,16 +17064,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C25">
         <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -17086,16 +17085,16 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L25" t="s">
         <v>230</v>
@@ -17109,16 +17108,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C26">
         <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -17130,16 +17129,16 @@
         <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L26" t="s">
         <v>230</v>
@@ -17153,16 +17152,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C27">
         <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -17174,16 +17173,16 @@
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L27" t="s">
         <v>230</v>
@@ -17197,16 +17196,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C28">
         <v>260</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17218,16 +17217,16 @@
         <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
+        <v>647</v>
+      </c>
+      <c r="K28" t="s">
         <v>648</v>
-      </c>
-      <c r="K28" t="s">
-        <v>649</v>
       </c>
       <c r="L28" t="s">
         <v>230</v>
@@ -17241,16 +17240,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C29">
         <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17262,16 +17261,16 @@
         <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L29" t="s">
         <v>230</v>
@@ -17285,37 +17284,37 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30">
         <v>1795</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="J30" t="s">
+        <v>659</v>
+      </c>
+      <c r="K30" t="s">
         <v>660</v>
-      </c>
-      <c r="K30" t="s">
-        <v>661</v>
       </c>
       <c r="L30" t="s">
         <v>230</v>
@@ -17329,37 +17328,37 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C31">
         <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="I31">
         <v>4164744787</v>
       </c>
       <c r="J31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K31" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="L31" t="s">
         <v>230</v>
@@ -17373,37 +17372,37 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C32">
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I32">
         <v>4164744788</v>
       </c>
       <c r="J32" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="K32" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="L32" t="s">
         <v>230</v>
@@ -17417,37 +17416,37 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B33" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C33">
         <v>295</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="I33">
         <v>4164744789</v>
       </c>
       <c r="J33" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="K33" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="L33" t="s">
         <v>230</v>
@@ -17467,10 +17466,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17534,7 +17533,7 @@
         <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C2">
         <v>90</v>
@@ -17575,7 +17574,7 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -17616,7 +17615,7 @@
         <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C4">
         <v>995</v>
@@ -17657,7 +17656,7 @@
         <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C5">
         <v>1095</v>
@@ -17698,7 +17697,7 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C6">
         <v>1045</v>
@@ -17736,16 +17735,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7">
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -17780,13 +17779,13 @@
         <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8">
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -17821,7 +17820,7 @@
         <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9">
         <v>125</v>
@@ -17862,7 +17861,7 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C10">
         <v>545</v>
@@ -17903,13 +17902,13 @@
         <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -17944,13 +17943,13 @@
         <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C12">
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -17974,7 +17973,7 @@
         <v>98</v>
       </c>
       <c r="M12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N12" t="s">
         <v>16</v>
@@ -17985,7 +17984,7 @@
         <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -18026,7 +18025,7 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C14">
         <v>390</v>
@@ -18064,16 +18063,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C15">
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -18097,7 +18096,7 @@
         <v>98</v>
       </c>
       <c r="M15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N15" t="s">
         <v>16</v>
@@ -18108,7 +18107,7 @@
         <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -18146,16 +18145,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C17">
         <v>995</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -18190,7 +18189,7 @@
         <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -18231,7 +18230,7 @@
         <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C19">
         <v>650</v>
@@ -18272,13 +18271,13 @@
         <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20">
         <v>345</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -18302,7 +18301,7 @@
         <v>98</v>
       </c>
       <c r="M20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N20" t="s">
         <v>16</v>
@@ -18313,13 +18312,13 @@
         <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -18354,13 +18353,13 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C22">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -18395,13 +18394,13 @@
         <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -18436,7 +18435,7 @@
         <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24">
         <v>375</v>
@@ -18474,16 +18473,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C25">
         <v>340</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -18518,7 +18517,7 @@
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -18559,7 +18558,7 @@
         <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C27">
         <v>195</v>
@@ -18597,16 +18596,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C28">
         <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -18641,7 +18640,7 @@
         <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C29">
         <v>545</v>
@@ -18679,16 +18678,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B30" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C30">
         <v>325</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -18700,7 +18699,7 @@
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
@@ -18720,16 +18719,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C31">
         <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -18741,7 +18740,7 @@
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
@@ -18761,16 +18760,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C32">
         <v>395</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -18782,10 +18781,10 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="I32">
-        <v>4164744788</v>
+        <v>4164744786</v>
       </c>
       <c r="K32" t="s">
         <v>97</v>
@@ -18797,6 +18796,47 @@
         <v>47</v>
       </c>
       <c r="N32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>796</v>
+      </c>
+      <c r="B33" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33">
+        <v>80</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>798</v>
+      </c>
+      <c r="I33">
+        <v>4164744786</v>
+      </c>
+      <c r="K33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -18868,16 +18908,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C2">
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -18912,13 +18952,13 @@
         <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -18953,19 +18993,19 @@
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4">
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -18994,7 +19034,7 @@
         <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C5">
         <v>195</v>
@@ -19035,7 +19075,7 @@
         <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -19076,7 +19116,7 @@
         <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C7">
         <v>160</v>
@@ -19117,7 +19157,7 @@
         <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C8">
         <v>145</v>
@@ -19158,7 +19198,7 @@
         <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C9">
         <v>225</v>
@@ -19199,13 +19239,13 @@
         <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C10">
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -19237,16 +19277,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -19281,13 +19321,13 @@
         <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -19319,16 +19359,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C13">
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19352,7 +19392,7 @@
         <v>205</v>
       </c>
       <c r="M13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N13" t="s">
         <v>158</v>
@@ -19363,7 +19403,7 @@
         <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -19404,13 +19444,13 @@
         <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19445,7 +19485,7 @@
         <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -19486,7 +19526,7 @@
         <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17">
         <v>125</v>
@@ -19516,7 +19556,7 @@
         <v>205</v>
       </c>
       <c r="M17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N17" t="s">
         <v>158</v>
@@ -19527,7 +19567,7 @@
         <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -19568,7 +19608,7 @@
         <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -19606,16 +19646,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C20">
         <v>245</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19650,7 +19690,7 @@
         <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -19691,7 +19731,7 @@
         <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C22">
         <v>35</v>
@@ -19721,7 +19761,7 @@
         <v>205</v>
       </c>
       <c r="M22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N22" t="s">
         <v>16</v>
@@ -19732,7 +19772,7 @@
         <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -19773,13 +19813,13 @@
         <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C24">
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -19814,7 +19854,7 @@
         <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C25">
         <v>295</v>
@@ -19855,7 +19895,7 @@
         <v>209</v>
       </c>
       <c r="B26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C26">
         <v>425</v>
@@ -19896,7 +19936,7 @@
         <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -19937,13 +19977,13 @@
         <v>215</v>
       </c>
       <c r="B28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C28">
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -19978,7 +20018,7 @@
         <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C29">
         <v>70</v>
@@ -20019,7 +20059,7 @@
         <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C30">
         <v>145</v>
@@ -20060,7 +20100,7 @@
         <v>223</v>
       </c>
       <c r="B31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C31">
         <v>700</v>
@@ -20101,7 +20141,7 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -20139,16 +20179,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C33">
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -20160,7 +20200,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -20180,16 +20220,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C34">
         <v>1295</v>
       </c>
       <c r="D34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20201,13 +20241,13 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I34">
         <v>4164744786</v>
       </c>
       <c r="J34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K34" t="s">
         <v>204</v>
@@ -20231,7 +20271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -20293,7 +20333,7 @@
         <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C2">
         <v>495</v>
@@ -20331,13 +20371,13 @@
         <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C3">
         <v>695</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20369,7 +20409,7 @@
         <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -20407,13 +20447,13 @@
         <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -20445,7 +20485,7 @@
         <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C6">
         <v>245</v>
@@ -20480,16 +20520,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20521,7 +20561,7 @@
         <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -20559,7 +20599,7 @@
         <v>250</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C9">
         <v>125</v>
@@ -20597,13 +20637,13 @@
         <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C10">
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -20635,7 +20675,7 @@
         <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -20673,7 +20713,7 @@
         <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -20711,7 +20751,7 @@
         <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C13">
         <v>145</v>
@@ -20749,7 +20789,7 @@
         <v>261</v>
       </c>
       <c r="B14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -20787,7 +20827,7 @@
         <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C15">
         <v>55</v>
@@ -20825,7 +20865,7 @@
         <v>267</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -20863,13 +20903,13 @@
         <v>270</v>
       </c>
       <c r="B17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C17">
         <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -20901,7 +20941,7 @@
         <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C18">
         <v>275</v>
@@ -20939,7 +20979,7 @@
         <v>275</v>
       </c>
       <c r="B19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -20974,16 +21014,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -21015,19 +21055,19 @@
         <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21">
         <v>545</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -21050,16 +21090,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C22">
         <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -21091,13 +21131,13 @@
         <v>282</v>
       </c>
       <c r="B23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C23">
         <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -21126,16 +21166,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C24">
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -21167,13 +21207,13 @@
         <v>285</v>
       </c>
       <c r="B25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -21205,7 +21245,7 @@
         <v>287</v>
       </c>
       <c r="B26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C26">
         <v>55</v>
@@ -21243,13 +21283,13 @@
         <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27">
         <v>340</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21281,7 +21321,7 @@
         <v>233</v>
       </c>
       <c r="B28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C28">
         <v>50</v>
@@ -21316,16 +21356,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C29">
         <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21337,7 +21377,7 @@
         <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I29">
         <v>6477864344</v>
@@ -21354,16 +21394,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C30">
         <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21375,7 +21415,7 @@
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21392,16 +21432,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C31">
         <v>260</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21413,7 +21453,7 @@
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21430,16 +21470,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C32">
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21451,7 +21491,7 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21536,16 +21576,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C2" s="2">
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21576,13 +21616,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -21610,16 +21650,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C4" s="2">
         <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -21631,7 +21671,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I4" s="2">
         <v>6477864344</v>
@@ -21647,16 +21687,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C5" s="2">
         <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -21687,7 +21727,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C6" s="2">
         <v>25</v>
@@ -21724,7 +21764,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C7" s="2">
         <v>325</v>
@@ -21761,7 +21801,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8" s="2">
         <v>325</v>
@@ -21773,7 +21813,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
@@ -21798,13 +21838,13 @@
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C9" s="2">
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -21816,7 +21856,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I9" s="2">
         <v>6477864344</v>
@@ -21832,16 +21872,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C10" s="2">
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -21872,7 +21912,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C11" s="2">
         <v>130</v>
@@ -21909,7 +21949,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C12" s="2">
         <v>50</v>
@@ -21946,13 +21986,13 @@
         <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C13" s="2">
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -21983,7 +22023,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C14" s="2">
         <v>45</v>
@@ -22020,13 +22060,13 @@
         <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="2">
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -22054,16 +22094,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -22094,13 +22134,13 @@
         <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C17" s="2">
         <v>225</v>
       </c>
       <c r="D17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -22131,7 +22171,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
@@ -22143,7 +22183,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>31</v>
@@ -22165,22 +22205,22 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C19" s="2">
         <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>31</v>
@@ -22205,7 +22245,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C20" s="2">
         <v>30</v>
@@ -22242,13 +22282,13 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C21" s="2">
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22276,16 +22316,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C22" s="2">
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22313,16 +22353,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22353,7 +22393,7 @@
         <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C24" s="2">
         <v>90</v>
@@ -22390,7 +22430,7 @@
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C25" s="2">
         <v>475</v>
@@ -22424,16 +22464,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C26" s="2">
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22464,7 +22504,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C27" s="2">
         <v>65</v>
@@ -22501,7 +22541,7 @@
         <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C28" s="2">
         <v>85</v>
@@ -22538,7 +22578,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C29" s="2">
         <v>195</v>
@@ -22569,21 +22609,21 @@
         <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C30" s="2">
         <v>425</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -22595,7 +22635,7 @@
         <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -22611,16 +22651,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C31" s="2">
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -22632,7 +22672,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -22648,28 +22688,28 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C32" s="2">
         <v>975</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -22685,28 +22725,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="C33" s="2">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I33" s="2">
         <v>6477864345</v>
@@ -22727,10 +22767,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22790,7 +22830,7 @@
         <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C2">
         <v>145</v>
@@ -22825,13 +22865,13 @@
         <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C3">
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -22860,13 +22900,13 @@
         <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C4">
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22895,13 +22935,13 @@
         <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C5">
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -22930,7 +22970,7 @@
         <v>299</v>
       </c>
       <c r="B6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C6">
         <v>75</v>
@@ -22962,16 +23002,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C7">
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -23000,7 +23040,7 @@
         <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C8">
         <v>195</v>
@@ -23035,13 +23075,13 @@
         <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>307</v>
+      <c r="D9" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -23053,7 +23093,7 @@
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I9">
         <v>6477864344</v>
@@ -23067,16 +23107,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -23088,7 +23128,7 @@
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I10">
         <v>6477864344</v>
@@ -23102,16 +23142,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C11">
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -23123,7 +23163,7 @@
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I11">
         <v>6477864344</v>
@@ -23137,16 +23177,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C12">
         <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -23158,7 +23198,7 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I12">
         <v>6477864344</v>
@@ -23172,16 +23212,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C13">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -23193,7 +23233,7 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I13">
         <v>6477864344</v>
@@ -23207,16 +23247,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C14">
         <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -23228,7 +23268,7 @@
         <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I14">
         <v>6477864344</v>
@@ -23242,16 +23282,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C15">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -23263,7 +23303,7 @@
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I15">
         <v>6477864344</v>
@@ -23277,16 +23317,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C16">
         <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -23298,7 +23338,7 @@
         <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I16">
         <v>6477864344</v>
@@ -23312,16 +23352,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17">
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -23333,7 +23373,7 @@
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I17">
         <v>6477864344</v>
@@ -23347,16 +23387,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C18">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -23368,7 +23408,7 @@
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I18">
         <v>6477864344</v>
@@ -23382,16 +23422,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -23403,7 +23443,7 @@
         <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I19">
         <v>6477864344</v>
@@ -23417,16 +23457,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C20">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -23438,7 +23478,7 @@
         <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I20">
         <v>6477864344</v>
@@ -23452,16 +23492,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C21">
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -23473,7 +23513,7 @@
         <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I21">
         <v>6477864344</v>
@@ -23487,16 +23527,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -23508,7 +23548,7 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I22">
         <v>6477864344</v>
@@ -23522,16 +23562,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C23">
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -23543,7 +23583,7 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I23">
         <v>6477864344</v>
@@ -23557,16 +23597,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C24">
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -23578,7 +23618,7 @@
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I24">
         <v>6477864344</v>
@@ -23592,16 +23632,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C25">
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -23613,7 +23653,7 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I25">
         <v>6477864344</v>
@@ -23627,16 +23667,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C26">
         <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -23648,7 +23688,7 @@
         <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I26">
         <v>6477864344</v>
@@ -23662,16 +23702,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C27">
         <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -23683,7 +23723,7 @@
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I27">
         <v>6477864344</v>
@@ -23697,16 +23737,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -23718,7 +23758,7 @@
         <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I28">
         <v>6477864344</v>
@@ -23732,16 +23772,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C29">
         <v>125</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -23767,28 +23807,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30">
         <v>975</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -23802,16 +23842,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C31">
         <v>645</v>
       </c>
       <c r="D31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -23823,7 +23863,7 @@
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -23837,16 +23877,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C32">
         <v>1095</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -23858,16 +23898,16 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I32">
         <v>4164744786</v>
       </c>
       <c r="J32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L32" t="s">
         <v>230</v>
@@ -23881,16 +23921,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -23902,16 +23942,16 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I33">
         <v>4164744787</v>
       </c>
       <c r="J33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L33" t="s">
         <v>230</v>
@@ -23920,50 +23960,6 @@
         <v>98</v>
       </c>
       <c r="N33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>724</v>
-      </c>
-      <c r="B34" t="s">
-        <v>447</v>
-      </c>
-      <c r="C34">
-        <v>95</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>726</v>
-      </c>
-      <c r="I34">
-        <v>4164744788</v>
-      </c>
-      <c r="J34" t="s">
-        <v>498</v>
-      </c>
-      <c r="K34" t="s">
-        <v>725</v>
-      </c>
-      <c r="L34" t="s">
-        <v>230</v>
-      </c>
-      <c r="M34" t="s">
-        <v>98</v>
-      </c>
-      <c r="N34" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFFED1A-35BA-4213-A07F-B54655F7CF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824BFAE-C753-495B-A543-E07FA7B15D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12749,9 +12749,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>E-bike - 5th Wheel V30 Pro E - Scooter with Turn Signals</t>
-  </si>
-  <si>
     <t>Buy &amp; Sell;Bikes;eBike</t>
   </si>
   <si>
@@ -14211,48 +14208,6 @@
 </t>
   </si>
   <si>
-    <t>Oneplus Nord CE 3 5G 256GB Brand New with Warranty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-OnePlus Nord CE 3 5G
-- 6.7" Display
-- 8GB RAM
-- 256GB Storage
-(Brand New in Box with 1 Year Warranty)
-PRICE - $345 (CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
     <t>Oneplus Nord CE 3</t>
   </si>
   <si>
@@ -14405,6 +14360,51 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEЕKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Oneplus Nord CE 3 Lite 5G 256GB Brand New with Warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+OnePlus Nord CE 3 Lite 5G
+- 6.7" Display
+- 8GB RAM
+- 256GB Storage
+(Brand New in Box with 1 Year Warranty)
+PRICE - $345 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>E-bike - 5th Wheel V30 Pro E - Scooter with Turn Signals - Sold Out</t>
   </si>
 </sst>
 </file>
@@ -14831,7 +14831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -15413,7 +15413,7 @@
         <v>275</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -15659,7 +15659,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15782,7 +15782,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15823,7 +15823,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -16314,8 +16314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>810</v>
+      </c>
+      <c r="B33" t="s">
         <v>770</v>
-      </c>
-      <c r="B33" t="s">
-        <v>771</v>
       </c>
       <c r="C33">
         <v>295</v>
@@ -17759,7 +17759,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I33">
         <v>4164744789</v>
@@ -17768,7 +17768,7 @@
         <v>742</v>
       </c>
       <c r="K33" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L33" t="s">
         <v>228</v>
@@ -18107,7 +18107,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -18271,7 +18271,7 @@
         <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -18836,7 +18836,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B26" t="s">
         <v>444</v>
@@ -18845,7 +18845,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -19123,7 +19123,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B33" t="s">
         <v>432</v>
@@ -19132,7 +19132,7 @@
         <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -19144,7 +19144,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
@@ -19164,7 +19164,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B34" t="s">
         <v>434</v>
@@ -19173,7 +19173,7 @@
         <v>275</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -19185,7 +19185,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I34">
         <v>4164744787</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B2" t="s">
         <v>440</v>
@@ -19280,7 +19280,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -20635,7 +20635,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20921,7 +20921,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B8" t="s">
         <v>438</v>
@@ -20930,7 +20930,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -21006,7 +21006,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -21871,7 +21871,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B33" t="s">
         <v>437</v>
@@ -21880,7 +21880,7 @@
         <v>595</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -21892,7 +21892,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I33">
         <v>6477864345</v>
@@ -21909,7 +21909,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B34" t="s">
         <v>437</v>
@@ -21918,7 +21918,7 @@
         <v>675</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -21930,7 +21930,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I34">
         <v>6477864346</v>
@@ -21947,7 +21947,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B35" t="s">
         <v>437</v>
@@ -21956,7 +21956,7 @@
         <v>875</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -21968,7 +21968,7 @@
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I35">
         <v>6477864346</v>
@@ -21985,7 +21985,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B36" t="s">
         <v>437</v>
@@ -21994,7 +21994,7 @@
         <v>950</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -22006,7 +22006,7 @@
         <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I36">
         <v>6477864346</v>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B37" t="s">
         <v>437</v>
@@ -22032,7 +22032,7 @@
         <v>345</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -22044,7 +22044,7 @@
         <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="I37">
         <v>6477864347</v>
@@ -22139,7 +22139,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>441</v>
@@ -23214,7 +23214,7 @@
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -23251,7 +23251,7 @@
         <v>945</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -23635,7 +23635,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -24300,7 +24300,7 @@
         <v>125</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4285F-DA2A-4D81-9E27-57DE4448DD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED808919-2D46-4BE2-BD41-6AAE9F168797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12247,128 +12247,6 @@
 ------------------------------------------------------
 We are providing FREE parking facility for our customers (Contact us)!!
 ------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-BLOWOUT SALE!!! 
-Samsung Galaxy S24 Ultra, Samsung Galaxy S24, Samsung Galaxy S23 Ultra, Samsung Galaxy S23, Samsung Galaxy S23+, Samsung Galaxy S23 FE, Samsung Galaxy S22 Ultra, Samsung Galaxy S22+, Samsung Galaxy S22
------------------------------------------------------------------------
-Samsung Galaxy S24 Ultra 12GB / 512GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1450 (CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 512GB (CANADIAN MODEL)
-(Brand New Open Box with Warranty)
-Price - $1295 (CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 256GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Warranty)
-Price - $1295 (CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1245(CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 256GB (CANADIAN MODEL)
-(Brand New Open Box with Warranty)
-Price - $1195 (CASH NO TAX)
------------------------------------------------------------------------
-Samsung Galaxy S24 256GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-PRICE - $795 (CASH NO TAX)
-Samsung Galaxy S24 256GB (CANADIAN MODEL)
-(Like New Open Box with 6 Months Warranty)
-PRICE - $750 (CASH NO TAX)
-Samsung Galaxy S24 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-PRICE - $695 (CASH NO TAX) (Sold Out)
------------------------------------------------------------------------
-Samsung Galaxy S23 Ultra 512GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1295 (CASH NO TAX)
-Samsung Galaxy S23 Ultra 256GB (DUAL SIM) 
-(Brand New in Box with 1 Year Warranty)
-Price - $1145 (CASH NO TAX)
-Samsung Galaxy S23 Ultra 256GB 
-(Like New Open Box with 6 Months Warranty)
-Price - $895 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23+ 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $995 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23 256GB (CANADIAN MODEL)
-(Brand New Open Box with Samsung Warranty)
-Price - $725  (CASH NO TAX)
-Samsung Galaxy S23 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-Price - $675 (CASH NO TAX)
-Samsung Galaxy S23 5G 128GB
-(Brand New Open Box with 6 Months Warranty) 
-Price - $625 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23 FE 5G 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $675 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 256GB
-(Brand New Open Box with 6 Months Warranty)
-Price - $595 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-Price - $575 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 128GB
-(Brand New Open Box with 6 Months Warranty)
-Price - $500 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22 Ultra 5G 512GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $695 (CASH NO TAX)
-Samsung Galaxy S22 Ultra 5G 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $595 (CASH NO TAX)
-Samsung Galaxy S22 Ultra 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $545 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22+ (Plus) 5G 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $495 (CASH NO TAX)
-Samsung Galaxy S22+ (Plus) 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $445 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22 5G 256GB 
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $395 (CASH NO TAX)
-Samsung Galaxy S22 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $375 (CASH NO TAX)
----------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
----------------------------------------------
-Storefront is open to public 7 days a week
----------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
----------------------------------------------
 STORE LOCATION:
 CANADIAN OUTLET
 1431 YONGE STREET
@@ -14425,6 +14303,128 @@
 ----------------------------------------------------
 We are providing a FREE parking facility for our customers (Contact us)!!
 ----------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+BLOWOUT SALE!!! 
+Samsung Galaxy S24 Ultra, Samsung Galaxy S24, Samsung Galaxy S23 Ultra, Samsung Galaxy S23, Samsung Galaxy S23+, Samsung Galaxy S23 FE, Samsung Galaxy S22 Ultra, Samsung Galaxy S22+, Samsung Galaxy S22
+-----------------------------------------------------------------------
+Samsung Galaxy S24 Ultra 12GB / 512GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $1450 (CASH NO TAX)
+Samsung Galaxy S24 Ultra 12GB / 512GB (CANADIAN MODEL)
+(Brand New Open Box with Warranty)
+Price - $1295 (CASH NO TAX)
+Samsung Galaxy S24 Ultra 12GB / 256GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Warranty)
+Price - $1395 (CASH NO TAX)
+Samsung Galaxy S24 Ultra 12GB / 256GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $1245(CASH NO TAX)
+Samsung Galaxy S24 Ultra 12GB / 256GB (CANADIAN MODEL)
+(Brand New Open Box with Warranty)
+Price - $1195 (CASH NO TAX)
+-----------------------------------------------------------------------
+Samsung Galaxy S24 256GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+PRICE - $795 (CASH NO TAX)
+Samsung Galaxy S24 256GB (CANADIAN MODEL)
+(Like New Open Box with 6 Months Warranty)
+PRICE - $750 (CASH NO TAX)
+Samsung Galaxy S24 128GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+PRICE - $695 (CASH NO TAX) (Sold Out)
+-----------------------------------------------------------------------
+Samsung Galaxy S23 Ultra 512GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $1295 (CASH NO TAX)
+Samsung Galaxy S23 Ultra 256GB (DUAL SIM) 
+(Brand New in Box with 1 Year Warranty)
+Price - $1145 (CASH NO TAX)
+Samsung Galaxy S23 Ultra 256GB 
+(Like New Open Box with 6 Months Warranty)
+Price - $895 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S23+ 256GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $995 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S23 256GB (CANADIAN MODEL)
+(Brand New Open Box with Samsung Warranty)
+Price - $725  (CASH NO TAX)
+Samsung Galaxy S23 128GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+Price - $675 (CASH NO TAX)
+Samsung Galaxy S23 5G 128GB
+(Brand New Open Box with 6 Months Warranty) 
+Price - $625 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S23 FE 5G 256GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $675 (CASH NO TAX)
+Samsung Galaxy S23 FE 5G 256GB
+(Brand New Open Box with 6 Months Warranty)
+Price - $595 (CASH NO TAX)
+Samsung Galaxy S23 FE 5G 128GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+Price - $575 (CASH NO TAX)
+Samsung Galaxy S23 FE 5G 128GB
+(Brand New Open Box with 6 Months Warranty)
+Price - $500 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S22 Ultra 5G 512GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $695 (CASH NO TAX)
+Samsung Galaxy S22 Ultra 5G 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $595 (CASH NO TAX)
+Samsung Galaxy S22 Ultra 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $545 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S22+ (Plus) 5G 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $495 (CASH NO TAX)
+Samsung Galaxy S22+ (Plus) 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $445 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S22 5G 256GB 
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $395 (CASH NO TAX)
+Samsung Galaxy S22 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $375 (CASH NO TAX)
+---------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+---------------------------------------------
+Storefront is open to public 7 days a week
+---------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+---------------------------------------------
 STORE LOCATION:
 CANADIAN OUTLET
 1431 YONGE STREET
@@ -15364,7 +15364,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -15446,7 +15446,7 @@
         <v>275</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -15692,7 +15692,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15815,7 +15815,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15897,7 +15897,7 @@
         <v>795</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -16020,7 +16020,7 @@
         <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -16052,7 +16052,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B29" t="s">
         <v>423</v>
@@ -16061,7 +16061,7 @@
         <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -16306,8 +16306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16848,7 +16848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>468</v>
       </c>
@@ -16858,7 +16858,7 @@
       <c r="C13">
         <v>1450</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>677</v>
       </c>
       <c r="E13" t="s">
@@ -17686,7 +17686,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B32" t="s">
         <v>725</v>
@@ -18014,7 +18014,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -18383,7 +18383,7 @@
         <v>995</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -18465,7 +18465,7 @@
         <v>595</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -18702,7 +18702,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B24" t="s">
         <v>513</v>
@@ -18711,7 +18711,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20376,7 +20376,7 @@
         <v>645</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -20490,7 +20490,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B34" t="s">
         <v>434</v>
@@ -20499,7 +20499,7 @@
         <v>1095</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20541,8 +20541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20609,7 +20609,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -20913,7 +20913,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -21293,7 +21293,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -21369,7 +21369,7 @@
         <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -22083,7 +22083,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -22148,7 +22148,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>433</v>
@@ -22157,7 +22157,7 @@
         <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -22786,7 +22786,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22925,7 +22925,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>433</v>
@@ -22934,7 +22934,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -23008,7 +23008,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -23230,7 +23230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -23962,7 +23962,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -24233,7 +24233,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B29" t="s">
         <v>429</v>
@@ -24242,7 +24242,7 @@
         <v>825</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -24303,7 +24303,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B31" t="s">
         <v>434</v>
@@ -24312,7 +24312,7 @@
         <v>895</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -24391,7 +24391,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B33" t="s">
         <v>434</v>
@@ -24400,7 +24400,7 @@
         <v>1295</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -24412,7 +24412,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I33">
         <v>4164744788</v>
@@ -24435,7 +24435,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B34" t="s">
         <v>434</v>
@@ -24444,7 +24444,7 @@
         <v>1495</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -24456,7 +24456,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
@@ -24465,7 +24465,7 @@
         <v>478</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L34" t="s">
         <v>200</v>
@@ -24479,7 +24479,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B35" t="s">
         <v>434</v>
@@ -24488,7 +24488,7 @@
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -24500,7 +24500,7 @@
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I35">
         <v>4164744789</v>
@@ -24509,7 +24509,7 @@
         <v>478</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L35" t="s">
         <v>200</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC7AC9-5C61-4364-8197-146EE290127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79873188-0E7B-48DB-BB9D-24D13B608636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7425,42 +7425,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
----------------------------------------------
-Apple AirPods Max Hеadphones
-------------------------------------------------------------------------------------
-Apрle AirPods Max Over-Ear Noise Cancelling Bluetooth Headphones
-(Brand New in Box with 1 Year Apple Warranty)
-Price - $695 (CASH NO TAX)
-------------------------------------------------------------------------------------
-Same day delivery available in GTA arеa - delivery charges are extra dеpends on location
-------------------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Gеt easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-freе, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------------------------------------
-Storefront is opеn to public 7 days a week from 10AM till 8PM
-------------------------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contaсt us)!!!!
-STORE LOCATION:
-СANADIAN OUTLET
-1431 YONGE STRЕET
-YONGE &amp; ST CLAIR
-TORONTО, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store!
@@ -10099,41 +10063,6 @@
 M4T 1Y7
 647 786 4344 (MAIN NUMBER)
 4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-5TH WHEEL V30 PRO Electric Scooter with Turn Signals, 32KM Range &amp; 29 KM/H, 350W Motor
-(OPEN BOX WITH WARRANTY)
-PRICE - $295(CASH NO TAX) 
-----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
@@ -12534,60 +12463,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-----------------------------------------------------
-LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s
------------------------------------------
-Lenovo ThinkPad T470s Laptop - 14"
-INTEL i5 - 7TH GEN
-16GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Lenovo ThinkPad T470s Laptop (Webcam) - 14"
-INTEL i5 - 7TH GEN
-12GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $235 (CASH NO TAX)
-Lenovo ThinkPad T470s Laptop - 14"
-INTEL i5 - 7TH GEN
-8GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-Lenovo ThinkPad T470 Laptop - 14"
-INTEL i5 - 6TH GEN
-16GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright*
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
     <t>LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s</t>
   </si>
   <si>
@@ -13503,190 +13378,6 @@
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM
 Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!Sheet4</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-Motorola Phones - Moto Edge Plus, Moto Edge, Moto G 5G, Moto G60S, Moto One Ace 5G, Moto G Stylus 5G, Moto G Power, Moto G Play, Moto G Pure Phone, Moto G24 Power
-BLOWOUT SALE!!!
--------------------------------------------
-MOTO EDGE PLUS 2020 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $345 (CASH NO TAX)
--------------------------------------------
-MOTO EDGE 2022 256GB (CANADIAN MODEL)
-(OPEN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-MOTO EDGE 5G 2022 128GB 
-(OPEN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
--------------------------------------------
-MOTO EDGE 2021 256GB
-(BRAND NEW OPEN BOX WITH WARRANTY) 
-PRICE - $195 (CASH NO TAX)
--------------------------------------------
-MOTO EDGE 20 LITE 5G 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-------------------------------------------
-MOTO G 5G 64GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $145 (CASH NO TAX)
--------------------------------------------
-MOTO G9 Plus 4GB RAM 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX)
--------------------------------------------
-MOTO G60S 6GB RAM 128GB (DUAL SIM)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $260 (CASH NO TAX)
--------------------------------------------
-MOTO G PRO 4GB RAM 128GB WITH STYLUS (DUAL SIM)
-(OPEN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
--------------------------------------------
-Moto G Stylus 5G 2023 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Moto G Stylus 5G 2023 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $175(CASH NO TAX)
--------------------------------------------
-Moto G Stylus 5G 2022 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-Moto G Stylus 5G 2021 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Moto G Stylus 4G 2023 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $195  (CASH NO TAX)
-Moto G Stylus 4G 2023 64GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $145 (CASH NO TAX)
-Moto G Stylus 4G 2022 128GB
-(BRAND NEW WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Moto G Stylus 4G 2022 128GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $170(CASH NO TAX)
-Moto G Stylus 2020 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $150 (CASH NO TAX)
--------------------------------------------
-Motorola E32 64GB 2022 (DUAL SIM)
-(OPEN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
--------------------------------------------
-Motorola G24 Power 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - 195 (CASH NO TAX)
--------------------------------------------
-MOTOROLA MOTO ONE ACE 5G 128GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-MOTOROLA MOTO ONE ACE 5G 64GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $160 (CASH NO TAX)
----------------------------------------------
-MOTOROLA MOTO ONE MACRO 64GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
----------------------------------------------
-Moto G POWER 128GB
-(BRAND NEW IN BOX WITH WARRANTY) 
-PRICE - $195 (CASH NO TAX)
-Moto G POWER 128GB 
-(LIKE NEW IN BOX WITH WARRANTY) 
-PRICE - $175 (CASH NO TAX)
-Moto G POWER 64GB 2022
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $140 (CASH NO TAX)
-Moto G POWER 64GB 2021
-(BRAND NEW IN BOX WITH WARRANTY) 
-PRICE - $125 (CASH NO TAX)
--------------------------------------------
-MOTO E13 2GB RAM 64GB (DUAL SIM)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $150 (CASH NO TAX)
--------------------------------------------
-MOTO G PLAY 2023 32GB
-(BRAND NEW IN BOX WITH WARRANTY) 
-PRICE - $175 (CASH NO TAX)
-MOTO G PLAY 2023 32GB
-(OPEN BOX WITH WARRANTY)
-PRICE - $110 (CASH NO TAX)
----------------------------------------------
-MOTO E 32GB UNLOCKED
-(OPEN BOX WITH WARRANTY)
-PRICE - $125 (CASH NO TAX)
----------------------------------------------
-MOTO G PURE 32GB UNLOCKED
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $115 (CASH NO TAX)
----------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Apple iPhone 15 Pro Max 512GB
-(BRAND NEW IN BOX WITH APPLE WARRANTY)
-PRICE - $1795 (CASH NO TAX)(SOLD OUT)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -14382,6 +14073,290 @@
 M4T 1Y7
 647 786 4344 (MAIN NUMBER)
 4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Apple iPhone 15 Pro Max 512GB
+(BRAND NEW IN BOX WITH APPLE WARRANTY)
+PRICE - $1795 (CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Apple AirPods Max Hеadphones
+------------------------------------------------------------------------------------
+Apple AirPods Max Over-Ear Noise Cancelling Bluetooth Headphones
+(Brand New in Box with 1 Year Apple Warranty)
+Price - $695(CASH NO TAX)
+Apple AirPods Max Over-Ear Noise Cancelling Bluetooth Headphones
+(New Open Box With Warranty)
+Price - $495 (CASH NO TAX)
+------------------------------------------------------------------------------------
+Same day delivery available in GTA arеa - delivery charges are extra dеpends on location
+------------------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Gеt easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-freе, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------------------------------------
+Storefront is opеn to public 7 days a week from 10AM till 8PM
+------------------------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contaсt us)!!!!
+STORE LOCATION:
+СANADIAN OUTLET
+1431 YONGE STRЕET
+YONGE &amp; ST CLAIR
+TORONTО, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+Motorola Phones - Moto Edge Plus, Moto Edge, Moto G 5G, Moto G60S, Moto One Ace 5G, Moto G Stylus 5G, Moto G Power, Moto G Play, Moto G Pure Phone, Moto G24 Power
+BLOWOUT SALE!!!
+-------------------------------------------
+MOTO EDGE PLUS 2020 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $345 (CASH NO TAX)
+-------------------------------------------
+MOTO EDGE 2022 256GB (CANADIAN MODEL)
+(OPEN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+MOTO EDGE 5G 2022 128GB 
+(OPEN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-------------------------------------------
+MOTO EDGE 2021 256GB
+(BRAND NEW OPEN BOX WITH WARRANTY) 
+PRICE - $195 (CASH NO TAX)
+-------------------------------------------
+MOTO EDGE 20 LITE 5G 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+------------------------------------------
+MOTO G 5G 64GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $135 (CASH NO TAX)
+-------------------------------------------
+MOTO G60S 6GB RAM 128GB (DUAL SIM)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+-------------------------------------------
+MOTO G PRO 4GB RAM 128GB WITH STYLUS
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $195 (CASH NO TAX)
+-------------------------------------------
+Moto G Stylus 5G 2023 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+Moto G Stylus 2023 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+Moto G Stylus 2023 64GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $145 (CASH NO TAX)
+-------------------------------------------
+Moto G Stylus 5G 128GB
+(BRAND NEW IN BOX WITH WARRANTY - 22)
+PRICE - $225 (CASH NO TAX)
+Moto G Stylus 128GB
+(OPEN BOX WITH WARRANTY- 22)
+PRICE - $175(CASH NO TAX)
+Moto G Stylus 5G 128GB
+(BRAND NEW IN BOX WITH WARRANTY - 21)
+PRICE - $175  (CASH NO TAX)
+ Moto G Stylus 128GB
+(LIKE NEW IN BOX WITH WARRANTY-20)
+PRICE - $125 (CASH NO TAX)
+-------------------------------------------
+Motorola E32 64GB 2022 (DUAL SIM)
+(OPEN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+-------------------------------------------
+Motorola G24 Power 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - 195 (CASH NO TAX)
+-------------------------------------------
+MOTOROLA MOTO ONE ACE 5G 128GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+---------------------------------------------
+MOTOROLA MOTO ONE MACRO 64GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $145 (CASH NO TAX)
+---------------------------------------------
+Moto G POWER 128GB 2023
+(LIKE NEW IN BOX WITH WARRANTY) 
+PRICE - $145(CASH NO TAX)
+Moto G POWER 64GB 
+(LIKE NEW IN BOX WITH WARRANTY - 21) 
+PRICE - $125 (CASH NO TAX)
+-------------------------------------------
+MOTO E13 2GB RAM 64GB (DUAL SIM)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $135  (CASH NO TAX)
+-------------------------------------------
+MOTO G PLAY 2023 32GB
+(BRAND NEW IN BOX WITH WARRANTY) 
+PRICE - $125 (CASH NO TAX)
+MOTO G PLAY 2023 32GB
+(OPEN BOX WITH WARRANTY)
+PRICE - $110 (CASH NO TAX)
+---------------------------------------------
+MOTO G PURE 32GB UNLOCKED
+(BRAND NEW OPEN BOX WITH WARRANTY)
+PRICE - $115 (CASH NO TAX)
+---------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+5TH WHEEL V30 PRO Electric Scooter with Turn Signals, 32KM Range &amp; 29 KM/H, 350W Motor
+(OPEN BOX WITH WARRANTY)
+PRICE - $295(CASH NO TAX) (SOLD OUT)
+----------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+----------------------------------------------------
+LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s
+-----------------------------------------
+Lenovo ThinkPad T470s Laptop (Webcam) - 14"
+INTEL i5 - 7TH GEN
+12GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $235 (CASH NO TAX)
+Lenovo ThinkPad T470s Laptop - 14"
+INTEL i5 - 7TH GEN
+8GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+Lenovo ThinkPad T470 Laptop - 14"
+INTEL i5 - 6TH GEN
+16GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-----------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+-----------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright*
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
@@ -14812,8 +14787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O34"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14884,7 +14859,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -14926,7 +14901,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -15014,7 +14989,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -15146,7 +15121,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -15190,7 +15165,7 @@
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -15316,7 +15291,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
@@ -15391,7 +15366,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>424</v>
@@ -15400,7 +15375,7 @@
         <v>275</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -15484,7 +15459,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -15652,7 +15627,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -15727,7 +15702,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>422</v>
@@ -15736,7 +15711,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -15778,7 +15753,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -15820,7 +15795,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -15862,7 +15837,7 @@
         <v>795</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -15946,7 +15921,7 @@
         <v>175</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -15988,7 +15963,7 @@
         <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -16021,7 +15996,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>421</v>
@@ -16030,7 +16005,7 @@
         <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -16147,7 +16122,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>526</v>
@@ -16156,7 +16131,7 @@
         <v>75</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -16168,7 +16143,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I32" s="2">
         <v>4164744786</v>
@@ -16189,7 +16164,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>424</v>
@@ -16198,7 +16173,7 @@
         <v>695</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -16210,7 +16185,7 @@
         <v>31</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I33" s="2">
         <v>4164744787</v>
@@ -16231,7 +16206,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>424</v>
@@ -16240,7 +16215,7 @@
         <v>795</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -16252,7 +16227,7 @@
         <v>31</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I34" s="2">
         <v>4164744788</v>
@@ -16281,8 +16256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16658,7 +16633,7 @@
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16702,7 +16677,7 @@
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16834,7 +16809,7 @@
         <v>1450</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16878,7 +16853,7 @@
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -16922,7 +16897,7 @@
         <v>650</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -17221,7 +17196,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B22" t="s">
         <v>422</v>
@@ -17274,7 +17249,7 @@
         <v>260</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -17286,7 +17261,7 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
@@ -17397,7 +17372,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B26" t="s">
         <v>428</v>
@@ -17441,7 +17416,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B27" t="s">
         <v>422</v>
@@ -17450,7 +17425,7 @@
         <v>260</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -17468,10 +17443,10 @@
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
+        <v>611</v>
+      </c>
+      <c r="K27" t="s">
         <v>612</v>
-      </c>
-      <c r="K27" t="s">
-        <v>613</v>
       </c>
       <c r="L27" t="s">
         <v>221</v>
@@ -17485,7 +17460,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B28" t="s">
         <v>422</v>
@@ -17494,7 +17469,7 @@
         <v>175</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17506,16 +17481,16 @@
         <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L28" t="s">
         <v>221</v>
@@ -17529,7 +17504,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B29" t="s">
         <v>427</v>
@@ -17538,7 +17513,7 @@
         <v>1795</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17550,16 +17525,16 @@
         <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
+        <v>622</v>
+      </c>
+      <c r="K29" t="s">
         <v>623</v>
-      </c>
-      <c r="K29" t="s">
-        <v>624</v>
       </c>
       <c r="L29" t="s">
         <v>221</v>
@@ -17573,7 +17548,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B30" t="s">
         <v>525</v>
@@ -17582,7 +17557,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17594,16 +17569,16 @@
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I30">
         <v>4164744787</v>
       </c>
       <c r="J30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L30" t="s">
         <v>221</v>
@@ -17617,7 +17592,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B31" t="s">
         <v>421</v>
@@ -17626,7 +17601,7 @@
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17638,16 +17613,16 @@
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I31">
         <v>4164744788</v>
       </c>
       <c r="J31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L31" t="s">
         <v>221</v>
@@ -17661,16 +17636,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B32" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C32">
         <v>295</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>710</v>
+        <v>805</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -17682,16 +17657,16 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I32">
         <v>4164744789</v>
       </c>
       <c r="J32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K32" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L32" t="s">
         <v>221</v>
@@ -17953,7 +17928,7 @@
         <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -17995,7 +17970,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -18121,7 +18096,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -18163,7 +18138,7 @@
         <v>375</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -18280,7 +18255,7 @@
     </row>
     <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>424</v>
@@ -18289,7 +18264,7 @@
         <v>135</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -18364,7 +18339,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>421</v>
@@ -18373,7 +18348,7 @@
         <v>995</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -18457,7 +18432,7 @@
         <v>595</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -18541,7 +18516,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -18700,7 +18675,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>511</v>
@@ -18709,7 +18684,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -18742,7 +18717,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>433</v>
@@ -18751,7 +18726,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -18910,16 +18885,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C29" s="2">
         <v>325</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -18952,7 +18927,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>424</v>
@@ -18961,7 +18936,7 @@
         <v>395</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -18973,7 +18948,7 @@
         <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I30" s="2">
         <v>4164744786</v>
@@ -18994,7 +18969,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>422</v>
@@ -19003,7 +18978,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -19015,7 +18990,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I31" s="2">
         <v>4164744786</v>
@@ -19036,7 +19011,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>424</v>
@@ -19045,7 +19020,7 @@
         <v>275</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -19057,7 +19032,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I32" s="2">
         <v>4164744787</v>
@@ -19086,8 +19061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADAF3E-0AA5-4F19-ACED-4BBE31AE540C}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19145,7 +19120,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B2" t="s">
         <v>430</v>
@@ -19154,7 +19129,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -19195,7 +19170,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -19236,7 +19211,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -19441,7 +19416,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -19596,7 +19571,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B13" t="s">
         <v>424</v>
@@ -19605,7 +19580,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19687,7 +19662,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19883,7 +19858,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B20" t="s">
         <v>431</v>
@@ -19892,7 +19867,7 @@
         <v>245</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20056,7 +20031,7 @@
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20220,7 +20195,7 @@
         <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20343,7 +20318,7 @@
         <v>645</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -20457,7 +20432,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B34" t="s">
         <v>432</v>
@@ -20466,7 +20441,7 @@
         <v>1095</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20508,8 +20483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20576,7 +20551,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -20611,10 +20586,10 @@
         <v>521</v>
       </c>
       <c r="C3">
-        <v>695</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>606</v>
+        <v>803</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20690,7 +20665,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -20757,7 +20732,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B7" t="s">
         <v>420</v>
@@ -20766,7 +20741,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20795,7 +20770,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B8" t="s">
         <v>428</v>
@@ -20804,7 +20779,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -20880,7 +20855,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -21146,7 +21121,7 @@
         <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -21251,7 +21226,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B20" t="s">
         <v>427</v>
@@ -21260,7 +21235,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -21298,7 +21273,7 @@
         <v>545</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -21336,7 +21311,7 @@
         <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -21374,7 +21349,7 @@
         <v>190</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -21450,7 +21425,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -21526,7 +21501,7 @@
         <v>340</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21593,7 +21568,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B29" t="s">
         <v>428</v>
@@ -21602,7 +21577,7 @@
         <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21631,7 +21606,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B30" t="s">
         <v>428</v>
@@ -21640,7 +21615,7 @@
         <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21707,7 +21682,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B32" t="s">
         <v>427</v>
@@ -21716,7 +21691,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21728,7 +21703,7 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21745,7 +21720,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B33" t="s">
         <v>427</v>
@@ -21754,7 +21729,7 @@
         <v>595</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -21766,7 +21741,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I33">
         <v>6477864345</v>
@@ -21783,7 +21758,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B34" t="s">
         <v>427</v>
@@ -21792,7 +21767,7 @@
         <v>675</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -21804,7 +21779,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I34">
         <v>6477864346</v>
@@ -21821,7 +21796,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B35" t="s">
         <v>427</v>
@@ -21830,7 +21805,7 @@
         <v>875</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -21842,7 +21817,7 @@
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I35">
         <v>6477864346</v>
@@ -21859,7 +21834,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B36" t="s">
         <v>427</v>
@@ -21868,7 +21843,7 @@
         <v>950</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -21880,7 +21855,7 @@
         <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I36">
         <v>6477864346</v>
@@ -21897,7 +21872,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B37" t="s">
         <v>427</v>
@@ -21906,7 +21881,7 @@
         <v>345</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -21918,7 +21893,7 @@
         <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I37">
         <v>6477864347</v>
@@ -21943,8 +21918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22004,7 +21979,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>431</v>
@@ -22013,7 +21988,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -22050,7 +22025,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -22078,7 +22053,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>431</v>
@@ -22087,7 +22062,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -22115,7 +22090,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>431</v>
@@ -22124,7 +22099,7 @@
         <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -22263,7 +22238,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>521</v>
@@ -22272,7 +22247,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -22420,7 +22395,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -22494,7 +22469,7 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -22522,7 +22497,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>525</v>
@@ -22531,7 +22506,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -22568,7 +22543,7 @@
         <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -22605,7 +22580,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -22633,7 +22608,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>427</v>
@@ -22642,7 +22617,7 @@
         <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -22716,7 +22691,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22744,7 +22719,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>427</v>
@@ -22753,7 +22728,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22781,7 +22756,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>526</v>
@@ -22790,7 +22765,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22892,7 +22867,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>431</v>
@@ -22901,7 +22876,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>779</v>
+        <v>806</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22975,7 +22950,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -23042,7 +23017,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>428</v>
@@ -23051,7 +23026,7 @@
         <v>425</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -23079,7 +23054,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>431</v>
@@ -23088,7 +23063,7 @@
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -23125,7 +23100,7 @@
         <v>945</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -23153,16 +23128,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="C33" s="2">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -23174,7 +23149,7 @@
         <v>31</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I33" s="2">
         <v>6477864345</v>
@@ -23299,7 +23274,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -23334,7 +23309,7 @@
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -23369,7 +23344,7 @@
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -23430,7 +23405,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B7" t="s">
         <v>431</v>
@@ -23439,7 +23414,7 @@
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -23509,7 +23484,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -23675,7 +23650,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B14" t="s">
         <v>427</v>
@@ -23684,7 +23659,7 @@
         <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -23929,7 +23904,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -24139,7 +24114,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -24174,7 +24149,7 @@
         <v>125</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -24200,7 +24175,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B29" t="s">
         <v>427</v>
@@ -24209,7 +24184,7 @@
         <v>825</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -24270,7 +24245,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B31" t="s">
         <v>432</v>
@@ -24279,7 +24254,7 @@
         <v>895</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -24314,7 +24289,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B32" t="s">
         <v>420</v>
@@ -24323,7 +24298,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -24335,7 +24310,7 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I32">
         <v>4164744787</v>
@@ -24358,7 +24333,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B33" t="s">
         <v>432</v>
@@ -24367,7 +24342,7 @@
         <v>1295</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -24379,7 +24354,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I33">
         <v>4164744788</v>
@@ -24402,7 +24377,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B34" t="s">
         <v>432</v>
@@ -24411,7 +24386,7 @@
         <v>1495</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -24423,7 +24398,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
@@ -24432,7 +24407,7 @@
         <v>476</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="L34" t="s">
         <v>198</v>
@@ -24446,7 +24421,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B35" t="s">
         <v>432</v>
@@ -24455,7 +24430,7 @@
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -24467,7 +24442,7 @@
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I35">
         <v>4164744789</v>
@@ -24476,7 +24451,7 @@
         <v>476</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="L35" t="s">
         <v>198</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79873188-0E7B-48DB-BB9D-24D13B608636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B01C2E-D9C8-431B-BF4B-6297CC0204D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="802">
   <si>
     <t>Title</t>
   </si>
@@ -6327,82 +6327,6 @@
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality
 Buy with Confidence from our store! ✨
----------------------------------------------
-Samsung Smart Watches - Samsung Watch Fit 3, Samsung Galaxy Watch 5 Pro, Watch 5, Watch 4 Clаssic, Watch 4
-BLOWOUT SALE!!!
-SAMSUNG GАLAXY WATCH 5
-------------------------------------------------------------------------
-SAMSUNG GALAXY WATCH 5 PRO (GPS) - 45MM
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $345 (CASH NO TAX)
-------------------------------------------------------------------------
-SAMSUNG GALAXY WATCH 5 (LTE) - 44MM (CАNADIAN MODEL)
-(BRAND NEW IN BOX WITH SAMSUNG WARRANTY)
-PRICE - $360 (CASH NO TAX)
-SAMSUNG GALAXY WATCH 5 (GPS) - 44MM (CANАDIAN MODEL)
-(BRAND NEW IN BOX WITH SAMSUNG WARRANTY)
-PRICE - $295 (CASH NO TAX)
-SAMSUNG GALAXY WATCH 5 (GPS) - 44MM
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CАSH NO TAX)
-------------------------------------------------------------------------
-SAMSUNG GALAXY WATCH 5 (LTE) - 40MM (CANADIАN MODEL)
-(BRAND NEW IN BOX WITH SAMSUNG WАRRANTY)
-PRICE - $325 (CASH NO TAX)
-SAMSUNG GALAXY WATCH 5 (GPS) - 40MM
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $215 (CASH NO TAX)
-------------------------------------------------------------------------
-SАMSUNG GALAXY WATCH 4
-------------------------------------------------------------------------
-SAMSUNG GALAXY WATCH 4 CLASSIC (GPS) - 46MM
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $215 (CASH NO TAX)
-------------------------------------------------------------------------
-SAMSUNG GALAXY WATCH 4 (GPS) - 44MM
-(BRAND NEW IN BOX WITH WARRАNTY)
-PRICE - $180 (CASH NO TAX)
-------------------------------------------------------------------------
-SAMSUNG GALAXY WATCH 4 (GPS) - 40MM
-(BRAND NEW IN BOX WITH WАRRANTY)
-PRICE - $160 (CASH NO TAX)
-------------------------------------------------------------------------
-SAMSUNG GALAXY WATCH FIT 3
-------------------------------------------------------------------------
-Samsung Galaxy Watch Fit 3 (R390)
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $85 (CASH NO TAX)
-------------------------------------------------------------------------
-Same day delivery available in GTA area -delivery charges arе extra depends on location
-------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is opеn to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
 -------------------------------------------------------------------
 Vacuum - Miele Boost CX1 Compact Canister Vacuum, Miele Boost Triflex HX1 Compact Canister Vacuum
 -------------------------------------------------------------------
@@ -8523,45 +8447,6 @@
   </si>
   <si>
     <t xml:space="preserve">Samsung Tab S9 256GB X710 WIFI With Keyboard Case </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Samsung Galaxy Tab S9 X710 (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
-(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
-- 11" Display
-- 256GB Storage
-- 12GB RAM
-Price - $795(CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
   </si>
   <si>
     <t>Tab S9</t>
@@ -10066,15 +9951,6 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Buy &amp; Sell;Bikes;eBike</t>
-  </si>
-  <si>
-    <t>50-78</t>
-  </si>
-  <si>
-    <t>5th wheel V30 Pro</t>
   </si>
   <si>
     <t>Turtle Beach 500 and Turtle Beach 600 Wireless Headset</t>
@@ -12101,154 +11977,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Google Pixel Phones - Pixel 8, Pixel 8 Pro, Pixel 7 Pro, Pixel 7a, Pixel 7, Pixel 6 Pro, Pixel 6, Pixel 6A, Pixel 5, Pixel 4A, Pixel 4 XL, Pixel 3A Phone
-BLOWOUT SALE!!!
-------------------------------------------------------
-Google Pixel Fold 256GB 
-Condition: 10/10 (Like New)
-(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $1245(CASH NO TAX)
-------------------------------------------------------
-Google Pixel 8 5G 128GB
-(BRAND NEW WITH 1 YEAR WARRANTY)
-PRICE - $645 (CASH NO TAX)
-Google Pixel 8A 128GB
-(BRAND NEW WITH 1 YEAR WARRANTY)
-PRICE - $625 (CASH NO TAX)
-------------------------------------------------------
-Google Pixel 7 Pro 5G 128GB
-(BRAND NEW WITH 1 YEAR WARRANTY)
-PRICE - $595 (CASH NO TAX)
-Google Pixel 7 Pro 5G 128GB
-(OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $475 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel 7a 128GB
-(BRAND NEW WITH WARRANTY)
-PRICE - $475 (CASH NO TAX)
-Google Pixel 7a 128GB
-(LIKE NEW WITH WARRANTY)
-PRICE - $375 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel 7 5G 128GB
-(BRAND NEW WITH 1 YEAR WARRANTY)
-PRICE - $475 (CASH NO TAX)
-Google Pixel 7 5G 128GB
-(OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $325 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel 6 Pro 5G 256GB
-(OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $370 (CASH NO TAX)
-Google Pixel 6 Pro 5G 128GB
-(OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $330 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel 6 5G 256GB
-(OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $345 (CASH NO TAX)
-Google Pixel 6 5G 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $400 (CASH NO TAX)
-Google Pixel 6 5G 128GB
-(OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $270 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel 6A 5G 128GB
-(BRAND NEW WITH 1 YEAR WARRANTY)
-PRICE - $365 (CASH NO TAX)
-Google Pixel 6A 5G 128GB
-(OPEN BOX WITH 6 MONTHS WARRANTY)
-PRICE - $285 (CASH NO TAX) 
-----------------------------------------------------
-Google Pixel 5 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $320 (CASH NO TAX)
-Google Pixel 5 128GB
-(OPEN BOX WITH 6 MONTHS STORE WARRANTY)
-PRICE - $225 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel 4A 5G 128GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $260 (CASH NO TAX)
-Google Pixel 4A 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Google Pixel 4A 128GB 
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel 4 XL 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Google Pixel 4 XL 64GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Google Pixel 4 64GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel 3A XL 64GB
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Google Pixel 3 XL 64GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-Google Pixel 3 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Google Pixel 3 64GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-Google Pixel 3A XL 64GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-Google Pixel 3A 64GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $150 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel 2XL 64GB
-(BRAND NEW WITH WARRANTY)
-PRICE - $145 (CASH NO TAX)
-----------------------------------------------------
-Google Pixel XL 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $135 (CASH NO TAX)
-----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-647 904 6040
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>E-bike - 5th Wheel V30 Pro E - Scooter with Turn Signals</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store!
@@ -12691,306 +12419,6 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-PLEASE CLIСK ON "SHOW MORE" TO SEE ALL MODELS AND РRICES!!!
-SAMSUNG TABLETS - Samsung Tаb A9, Samsung Tab A9+, Samsung Tab A8, Samsung Tab A7, Samsung Tab A7 Lite, Samsung Tab A, Samsung Tab E, Tab T630 Active4 Pro
--------------------------------------------------------
-(WIFI + CELLULAR)
-------------------------------------------------------
-Samsung Galaxy Tab A9+ 5G X216 (WIFI+CELLULAR) 
-(BRAND NEW IN BOX WITH WARRANTY) 
-- 11” DISPLAY
-- 64GB STORAGE
-- 4GB RAM
-PRICE - $315 (CASH NO TAX)
-------------------------------------------------------
-Samsung Tab A9 X115 (WIFI + CELLULAR)
-(BRAND NEW IN BOX WITH WARRANTY)
-- 8.7" DISPLAY
-- 64GB STORAGE
-- 4GB RAM
-PRICЕ - $195(CASH NO TAX)
-SAMSUNG TAB A8 X205 (WIFI + CELLULAR)
-- 10.5" DISPLAY
-- 64GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $300(CASH NO TAX)
-SAMSUNG TAB A7 SM-T505 (WIFI + Cellular)
-- 10.4" DISPLAY
-- 64GB STORAGE
-(BRAND NEW IN BOX WITH WARRАNTY)
-PRICE:- $280 (CASH NO TAX)
-SАMSUNG TAB A7 SM-T505 (WIFI + Cellular)
-- 10.4" DISPLAY
-- 32GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE:- $260 (CASH NO TAX)
-Samsung Galaxy Tab T225 A7 Lite (WIFI + Cellular)
-- 8.7" DISPLAY
-- 32GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE:- $195 (CASH NO TAX)
-SAMSUNG TAB A T307U (WIFI + Cellular)
-- 8.4" DISPLAY
-- 32GB STORAGE
-(LIKЕ NEW IN BOX WITH WARRANTY)
-PRICE:- $105 (CASH NO TAX)
-------------------------------------------------
-SAMSUNG TAB A T295 (WIFI + Cellular)
-- 8" DISPLAY
-- 32GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE:- $145 (CASH NO TAX)
-----------------------------------------------------
-WIFI
-----------------------------------------------------
-Samsung Galaxy Tab T630 Aсtive PRO (WIFI)
-- 10.1" DISPLAY
-- 128GB STORAGE
-- 6GB RAM
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $695 (CASH NO TAX)
---------------------------------------------------------
-Samsung Tab A9+ Plus X210 (WIFI)
-- 11" DISPLAY
-- 64GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $235 (CASH NO TAX)
-----------------------------------------------------
-Samsung Tab A9 X110 (WIFI)
-- 8.7" DISPLAY
-- 64GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $175 (CASH NO TAX)
-----------------------------------------------------
-SAMSUNG TAB A8 X200 (WIFI)
-- 10.5" DISPLAY
-- 128GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $250 (CASH NO TAX)
-SAMSUNG TAB A8 X200 (WIFI)
-- 10.5" DISPLAY
-- 64GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-SAMSUNG TAB A8 X200 (WIFI)
-- 10.5" DISPLAY
-- 32GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $215 (CASH NO TAX)
-SAMSUNG TAB A8 X200 (WIFI)
-- 10.5" DISPLAY
-- 32GB STORАGE
-( NEW OPEN BOX WITH WARRANTY)
-PRICE - $180 (CASH NO TAX)
-------------------------------------------------
-Samsung Galaxy Tab A7 T500 / T503 (WIFI)
-- 10.4" DISPLAY
-- 32GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE:- $185 (CASH NO TAX)
-------------------------------------------------
-Samsung Tab A T510 WIFI
-- 10.1" DISPLAY
-- 32GB STORAGE
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE:- $175(CASH NO TAX)
-------------------------------------------------
-SAMSUNG GALAXY TAB A7 Lite T227U (WIFI)
-- 8.7" DISРLAY
-- 32GB STORAGE
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE:- $125 (CASH NO TAX)
-Samsung Galaxy Tab T220 A7 Lite (WIFI)
-- 8.7" DISPLAY
-- 32GB STORAGE
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE:- $145 (CASH NO TAX)
-Samsung Galaxy Tab T220 A7 Lite (WIFI)
-- 8.7" DISPLAY
-- 32GB STORAGE
-( NEW OPEN BOX WITH WАRRANTY)
-PRICE:- $120 (CASH NO TAX)
-------------------------------------------------
-SAMSUNG TAB A T290 (WIFI)
-- 8" DISPLAY
-- 32GB STORAGE
-(OPEN BOX WITH WARRANTY)
-PRICE:- $110 (CASH NO TAX)
-------------------------------------------------
-Same day delivery available in GTA area - delivery charges arе extra depends on location
-------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days а week
--------------------------------------------------------------------
-We аre providing FREE parking facility for оur customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-СANADIAN OUTLET
-1431 YONGE STREET
-YONGЕ &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEЕKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-Samsung Tablets - Samsung Tab S6 Lite, Samsung Tab S7+, Samsung Tab S9 Ultra, Samsung Tab S9+ Tablet, Tab S9 FE
--------------------------------------------
-WIFI + CELLULAR
------------------------------------------------
-Samsung Tab S9 FE 5G ( WiFi+CELLULAR)
-(LIKE NEW IN BOX WITH WARRANTY)
-- 10.9" Display
-- 128GB Storage
-Price - $475 (CASH NO TAX)
-------------------------------------------------
-WIFI
-------------------------------------------------
-Samsung Galaxy Tab S9 Ultra 14.6" 512GB Android Tablet with Snapdragon Gen 2 Processor (CANADIAN MODEL)
-(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
-- 14.6" Display
-- 512GB Storage
-- 12GB RAM
-Price - $1295 (CASH NO TAX)
-Samsung Galaxy Tab S9 ULTRA (Wi-Fi) With Keyboard Case (which is worth $150 for Free) (International Model)
-(BRAND NEW IN BOX WITH 1-Year WARRANTY)
-- 14.6" Display
-- 512GB Storage
-- 12GB RAM
-Price - $1295 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Tab S9 ULTRA (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
-(BRAND NEW IN BOX WITH 1-Year WARRANTY)
-- 14.6" Display
-- 256GB Storage
-- 12GB RAM
-Price - $1195 (CASH NO TAX)
-Samsung Galaxy Tab S9 ULTRA (Wi-Fi) (CANADIAN MODEL)
-(BRAND NEW OPEN BOX WITH 6 Months WARRANTY)
-- 14.6" Display
-- 512GB Storage
-- 12GB RAM
-Price - $1095 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Tab S9+ (Wi-Fi) X810 With Keyboard Case (which is worth $150 for Free)(International Model)
-(BRAND NEW IN BOX WITH 1 YEAR WARRANTY )
--12.4'  Display
-- 512GB Storage
-- 12GB RAM
-Price - $1045 (CASH NO TAX)
-Samsung Galaxy Tab S9+ (Wi-Fi) X810 (Canadian Model)
-(BRAND NEW IN BOX WITH SAMSUNG WARRANTY )
--12.4'  Display
-- 512GB Storage
-- 12GB RAM
-Price - $1045 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Tab S9 X710 (Wi-Fi) (Canadian Model)
-(BRAND NEW OPEN BOX WITH SAMSUNG WARRANTY)
-- 11" Display
-- 256GB Storage
-- 12GB RAM
-Price - $845 (CASH NO TAX)
-Samsung Galaxy Tab S9 X710 (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
-(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
-- 11" Display
-- 256GB Storage
-- 12GB RAM
-Price - $795(CASH NO TAX)
-----------------------------------------------------
-Samsung Tab S9 FE+ (WiFi)
-(BRAND NEW IN BOX WITH WARRANTY)
-- 12.4" Display
-- 256GB Storage
-- 12GB RAM
-Price - $695 (CASH NO TAX)
-----------------------------------------------------
-Samsung Tab S9 FE (WiFi)
-(BRAND NEW IN BOX WITH WARRANTY)
-- 10.9" Display
-- 128GB Storage
-- 6GB RAM
-Price - $410 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Tab S7+ (Wifi) 
-(NEW OPEN BOX WITH WARRANTY)
-- 12.4" Display
-- 256GB Storage
-- 8GB RAM
-Price - $395 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Tab S6 Lite P620 (Wi-Fi) (2024)
-(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
-- 10.4" Display
-- 128GB Storage
-- 4GB RAM
-Price - $395(CASH NO TAX)
-Samsung Galaxy Tab S6 Lite P613 (Wi-Fi) 
-(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
-- 10.4" Display
-- 128GB Storage
-- 4GB RAM
-Price - $300 (CASH NO TAX)
-----------------------------------------------------
-Samsung Galaxy Tab S6 Lite P620 (Wi-Fi) (2024)
-(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
-- 10.4" Display
-- 64GB Storage
-- 4GB RAM
-Price - $325(CASH NO TAX)
-Samsung Galaxy Tab S6 Lite P613 (Wi-Fi) 
-(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
-- 10.4" Display
-- 64GB Storage
-- 4GB RAM
-Price - $275(CASH NO TAX)
-----------------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for :-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-----------------------------------------------------
-Storefront is open to public 7 days a week
-----------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 9AM - 8PM
-</t>
   </si>
   <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -13725,88 +13153,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Samsung Phones - Samsung Galaxy A05s, Samsung Galaxy A05, Samsung Galaxy A04, Samsung Galaxy A04e, Samsung Galaxy A03s, Samsung Galaxy A02s, Samsung Galaxy A02, Samsung Galaxy A03 Core phone, X Cover Pro 
-BLOWOUT SALE!!!
----------------------------------------------
-Samsung Galaxy A05s 128GB (Dual Sim)
-(New In Box With Warranty)
-Price: $165 (Cash No Tax)
-Samsung Galaxy A05s 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $140 (Cash No Tax)
-Samsung Galaxy A05 128GB (Dual Sim)
-(New In Box With Warranty)
-Price: $135 (Cash No Tax)
-Samsung Galaxy A05 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $115 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A04 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $125 (Cash No Tax)
-Samsung Galaxy A04 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $115 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A04e 64GB (Dual Sim)
-(New In Box With Warranty)
-Price: $125 (Cash No Tax)
-Samsung Galaxy A04e 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $105 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A03s 32GB 
-(New In Box With Warranty)
-Price: $95 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A02s 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $90 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A02 32GB (Dual Sim)
-(New In Box With Warranty)
-Price: $90 (Cash No Tax)
----------------------------------------------
-Samsung Galaxy A03 Core 32GB
-(New In Box With Warranty)
-Price: $95 (Cash No Tax)
----------------------------------------------
-Samsung X Cover Pro 64GB 
-(Like New in Box with Warranty)
-Price - 145 (CASH NO TAX)
----------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
----------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
-  </si>
-  <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store!
@@ -14281,41 +13627,6 @@
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store!
-------------------------------------------------------
-5TH WHEEL V30 PRO Electric Scooter with Turn Signals, 32KM Range &amp; 29 KM/H, 350W Motor
-(OPEN BOX WITH WARRANTY)
-PRICE - $295(CASH NO TAX) (SOLD OUT)
-----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
 ----------------------------------------------------
 LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s
 -----------------------------------------
@@ -14357,6 +13668,662 @@
 M4T 1Y7
 647 786 4344 (MAIN NUMBER)
 416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Samsung Phones - Samsung Galaxy A05s, Samsung Galaxy A05, Samsung Galaxy A04, Samsung Galaxy A04e, Samsung Galaxy A03s, Samsung Galaxy A02s, Samsung Galaxy A02, Samsung Galaxy A03 Core phone, X Cover Pro 
+BLOWOUT SALE!!!
+---------------------------------------------
+Samsung Galaxy A05s 128GB (Dual Sim)
+(New In Box With Warranty)
+Price: $165 (Cash No Tax)
+Samsung Galaxy A05s 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $140 (Cash No Tax)
+Samsung Galaxy A05 128GB (Dual Sim)
+(New In Box With Warranty)
+Price: $135 (Cash No Tax)
+Samsung Galaxy A05 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $115 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A04 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $125 (Cash No Tax)
+Samsung Galaxy A04 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $115 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A04e 64GB (Dual Sim)
+(New In Box With Warranty)
+Price: $125 (Cash No Tax)
+Samsung Galaxy A04e 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $105 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A03s 32GB 
+(New In Box With Warranty)
+Price: $95 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A02s 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $90 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A02 32GB (Dual Sim)
+(New In Box With Warranty)
+Price: $90 (Cash No Tax)
+---------------------------------------------
+Samsung Galaxy A03 Core 32GB
+(New In Box With Warranty)
+Price: $95 (Cash No Tax)
+---------------------------------------------
+Samsung X Cover Pro 64GB 
+(New in Box with Warranty)
+Price - 175 (CASH NO TAX)
+---------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+---------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Google Pixel Phones - Pixel 8, Pixel 8 Pro, Pixel 7 Pro, Pixel 7a, Pixel 7, Pixel 6 Pro, Pixel 6, Pixel 6A, Pixel 5, Pixel 4A, Pixel 4 XL, Pixel 3A Phone
+BLOWOUT SALE!!!
+------------------------------------------------------
+Google Pixel Fold 256GB 
+Condition: 10/10 (Like New)
+(NEW OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $1245(CASH NO TAX)
+------------------------------------------------------
+Google Pixel 8 Pro 5G 256GB 
+(BRAND NEW WITH 1 YEAR WARRANTY)
+PRICE - $975 (CASH NO TAX)
+------------------------------------------------------
+Google Pixel 8 5G 128GB
+(BRAND NEW WITH 1 YEAR WARRANTY)
+PRICE - $645 (CASH NO TAX)
+Google Pixel 8A 128GB
+(BRAND NEW WITH 1 YEAR WARRANTY)
+PRICE - $625 (CASH NO TAX)
+------------------------------------------------------
+Google Pixel 7 Pro 5G 128GB
+(BRAND NEW WITH 1 YEAR WARRANTY)
+PRICE - $595 (CASH NO TAX)
+Google Pixel 7 Pro 5G 128GB
+(OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $475 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel 7a 128GB
+(BRAND NEW WITH WARRANTY)
+PRICE - $475 (CASH NO TAX)
+Google Pixel 7a 128GB
+(LIKE NEW WITH WARRANTY)
+PRICE - $375 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel 7 5G 128GB
+(BRAND NEW WITH 1 YEAR WARRANTY)
+PRICE - $475 (CASH NO TAX)
+Google Pixel 7 5G 128GB
+(OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $325 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel 6 Pro 5G 256GB
+(OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $370 (CASH NO TAX)
+Google Pixel 6 Pro 5G 128GB
+(OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $330 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel 6 5G 256GB
+(OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $345 (CASH NO TAX)
+Google Pixel 6 5G 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $400 (CASH NO TAX)
+Google Pixel 6 5G 128GB
+(OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $270 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel 6A 5G 128GB
+(BRAND NEW WITH 1 YEAR WARRANTY)
+PRICE - $365 (CASH NO TAX)
+Google Pixel 6A 5G 128GB
+(OPEN BOX WITH 6 MONTHS WARRANTY)
+PRICE - $285 (CASH NO TAX) 
+----------------------------------------------------
+Google Pixel 5 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $320 (CASH NO TAX)
+Google Pixel 5 128GB
+(OPEN BOX WITH 6 MONTHS STORE WARRANTY)
+PRICE - $225 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel 4A 5G 128GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $260 (CASH NO TAX)
+Google Pixel 4A 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+Google Pixel 4A 128GB 
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel 4 XL 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+Google Pixel 4 XL 64GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+Google Pixel 4 64GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel 3A XL 64GB
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+Google Pixel 3 XL 64GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+Google Pixel 3 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX)
+Google Pixel 3 64GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+Google Pixel 3A XL 64GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $175 (CASH NO TAX)
+Google Pixel 3A 64GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $150 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel 2XL 64GB
+(BRAND NEW WITH WARRANTY)
+PRICE - $145 (CASH NO TAX)
+----------------------------------------------------
+Google Pixel XL 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $135 (CASH NO TAX)
+----------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+647 904 6040
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+Samsung Tablets - Samsung Tab S6 Lite, Samsung Tab S7+, Samsung Tab S9 Ultra, Samsung Tab S9+ Tablet, Tab S9 FE
+-------------------------------------------
+WIFI + CELLULAR
+-----------------------------------------------
+Samsung Tab S9 FE 5G ( WiFi+CELLULAR)
+(LIKE NEW IN BOX WITH WARRANTY)
+- 10.9" Display
+- 128GB Storage
+Price - $475 (CASH NO TAX)
+------------------------------------------------
+WIFI
+------------------------------------------------
+Samsung Galaxy Tab S9 Ultra 14.6" 512GB Android Tablet with Snapdragon Gen 2 Processor (CANADIAN MODEL)
+(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
+- 14.6" Display
+- 512GB Storage
+- 12GB RAM
+Price - $1295 (CASH NO TAX)
+Samsung Galaxy Tab S9 ULTRA (Wi-Fi) With Keyboard Case (which is worth $150 for Free) (International Model)
+(BRAND NEW IN BOX WITH 1-Year WARRANTY)
+- 14.6" Display
+- 512GB Storage
+- 12GB RAM
+Price - $1295 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Tab S9 ULTRA (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
+(BRAND NEW IN BOX WITH 1-Year WARRANTY)
+- 14.6" Display
+- 256GB Storage
+- 12GB RAM
+Price - $1195 (CASH NO TAX)
+Samsung Galaxy Tab S9 ULTRA (Wi-Fi) (CANADIAN MODEL)
+(BRAND NEW OPEN BOX WITH 6 Months WARRANTY)
+- 14.6" Display
+- 512GB Storage
+- 12GB RAM
+Price - $1095 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Tab S9+ (Wi-Fi) X810 With Keyboard Case (which is worth $150 for Free)(International Model)
+(BRAND NEW IN BOX WITH 1 YEAR WARRANTY )
+-12.4'  Display
+- 512GB Storage
+- 12GB RAM
+Price - $1045 (CASH NO TAX)
+Samsung Galaxy Tab S9+ (Wi-Fi) X810 (Canadian Model)
+(BRAND NEW IN BOX WITH SAMSUNG WARRANTY )
+-12.4'  Display
+- 512GB Storage
+- 12GB RAM
+Price - $1045 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Tab S9 X710 (Wi-Fi) (Canadian Model)
+(BRAND NEW OPEN BOX WITH SAMSUNG WARRANTY)
+- 11" Display
+- 256GB Storage
+- 12GB RAM
+Price - $845 (CASH NO TAX)
+Samsung Galaxy Tab S9 X710 (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
+(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
+- 11" Display
+- 256GB Storage
+- 12GB RAM
+Price - $745(CASH NO TAX)
+----------------------------------------------------
+Samsung Tab S9 FE+ (WiFi)
+(BRAND NEW IN BOX WITH WARRANTY)
+- 12.4" Display
+- 256GB Storage
+- 12GB RAM
+Price - $695 (CASH NO TAX)
+----------------------------------------------------
+Samsung Tab S9 FE (WiFi)
+(BRAND NEW IN BOX WITH WARRANTY)
+- 10.9" Display
+- 128GB Storage
+- 6GB RAM
+Price - $410 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Tab S7+ (Wifi) 
+(NEW OPEN BOX WITH WARRANTY)
+- 12.4" Display
+- 256GB Storage
+- 8GB RAM
+Price - $395 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Tab S6 Lite P620 (Wi-Fi) (2024)
+(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
+- 10.4" Display
+- 128GB Storage
+- 4GB RAM
+Price - $395(CASH NO TAX)
+Samsung Galaxy Tab S6 Lite P613 (Wi-Fi) 
+(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
+- 10.4" Display
+- 128GB Storage
+- 4GB RAM
+Price - $300 (CASH NO TAX)
+----------------------------------------------------
+Samsung Galaxy Tab S6 Lite P620 (Wi-Fi) (2024)
+(BRAND NEW IN BOX WITH 1 YEAR SAMSUNG WARRANTY)
+- 10.4" Display
+- 64GB Storage
+- 4GB RAM
+Price - $325(CASH NO TAX)
+Samsung Galaxy Tab S6 Lite P613 (Wi-Fi) 
+(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
+- 10.4" Display
+- 64GB Storage
+- 4GB RAM
+Price - $275(CASH NO TAX)
+----------------------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+----------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for :-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+----------------------------------------------------
+Storefront is open to public 7 days a week
+----------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+----------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 9AM - 8PM
+</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+PLEASE CLIСK ON "SHOW MORE" TO SEE ALL MODELS AND РRICES!!!
+SAMSUNG TABLETS - Samsung Tаb A9, Samsung Tab A9+, Samsung Tab A8, Samsung Tab A7, Samsung Tab A7 Lite, Samsung Tab A, Samsung Tab E, Tab T630 Active4 Pro
+-------------------------------------------------------
+(WIFI + CELLULAR)
+------------------------------------------------------
+Samsung Galaxy Tab A9+ 5G X216 (WIFI+CELLULAR) 
+(BRAND NEW IN BOX WITH WARRANTY) 
+- 11” DISPLAY
+- 128GB STORAGE
+- 8GB RAM
+PRICE - $315 (CASH NO TAX)
+------------------------------------------------------
+Samsung Galaxy Tab A9+ 5G X216 (WIFI+CELLULAR) 
+(BRAND NEW IN BOX WITH WARRANTY) 
+- 11” DISPLAY
+- 64GB STORAGE
+- 4GB RAM
+PRICE - $315 (CASH NO TAX)
+------------------------------------------------------
+Samsung Tab A9 X115 (WIFI + CELLULAR)
+(BRAND NEW IN BOX WITH WARRANTY)
+- 8.7" DISPLAY
+- 64GB STORAGE
+- 4GB RAM
+PRICЕ - $195(CASH NO TAX)
+SAMSUNG TAB A8 X205 (WIFI + CELLULAR)
+- 10.5" DISPLAY
+- 64GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $300(CASH NO TAX)
+SAMSUNG TAB A7 SM-T505 (WIFI + Cellular)
+- 10.4" DISPLAY
+- 64GB STORAGE
+(BRAND NEW IN BOX WITH WARRАNTY)
+PRICE:- $280 (CASH NO TAX)
+SАMSUNG TAB A7 SM-T505 (WIFI + Cellular)
+- 10.4" DISPLAY
+- 32GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE:- $260 (CASH NO TAX)
+Samsung Galaxy Tab T225 A7 Lite (WIFI + Cellular)
+- 8.7" DISPLAY
+- 32GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE:- $195 (CASH NO TAX)
+SAMSUNG TAB A T307U (WIFI + Cellular)
+- 8.4" DISPLAY
+- 32GB STORAGE
+(LIKЕ NEW IN BOX WITH WARRANTY)
+PRICE:- $105 (CASH NO TAX)
+------------------------------------------------
+SAMSUNG TAB A T295 (WIFI + Cellular)
+- 8" DISPLAY
+- 32GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE:- $145 (CASH NO TAX)
+----------------------------------------------------
+WIFI
+----------------------------------------------------
+Samsung Galaxy Tab T630 Aсtive PRO (WIFI)
+- 10.1" DISPLAY
+- 128GB STORAGE
+- 6GB RAM
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $695 (CASH NO TAX)
+--------------------------------------------------------
+Samsung Tab A9+ Plus X210 (WIFI)
+- 11" DISPLAY
+- 64GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $235 (CASH NO TAX)
+----------------------------------------------------
+Samsung Tab A9 X110 (WIFI)
+- 8.7" DISPLAY
+- 64GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $165 (CASH NO TAX)
+----------------------------------------------------
+SAMSUNG TAB A8 X200 (WIFI)
+- 10.5" DISPLAY
+- 128GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $250 (CASH NO TAX)
+SAMSUNG TAB A8 X200 (WIFI)
+- 10.5" DISPLAY
+- 64GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+SAMSUNG TAB A8 X200 (WIFI)
+- 10.5" DISPLAY
+- 32GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $215 (CASH NO TAX)
+SAMSUNG TAB A8 X200 (WIFI)
+- 10.5" DISPLAY
+- 32GB STORАGE
+( NEW OPEN BOX WITH WARRANTY)
+PRICE - $180 (CASH NO TAX)
+------------------------------------------------
+Samsung Galaxy Tab A7 T500 / T503 (WIFI)
+- 10.4" DISPLAY
+- 32GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE:- $185 (CASH NO TAX)
+------------------------------------------------
+Samsung Tab A T510 WIFI
+- 10.1" DISPLAY
+- 32GB STORAGE
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE:- $175(CASH NO TAX)
+------------------------------------------------
+SAMSUNG GALAXY TAB A7 Lite T227U (WIFI)
+- 8.7" DISРLAY
+- 32GB STORAGE
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE:- $125 (CASH NO TAX)
+Samsung Galaxy Tab T220 A7 Lite (WIFI)
+- 8.7" DISPLAY
+- 32GB STORAGE
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE:- $145 (CASH NO TAX)
+Samsung Galaxy Tab T220 A7 Lite (WIFI)
+- 8.7" DISPLAY
+- 32GB STORAGE
+( NEW OPEN BOX WITH WАRRANTY)
+PRICE:- $120 (CASH NO TAX)
+------------------------------------------------
+SAMSUNG TAB A T290 (WIFI)
+- 8" DISPLAY
+- 32GB STORAGE
+(OPEN BOX WITH WARRANTY)
+PRICE:- $110 (CASH NO TAX)
+------------------------------------------------
+Same day delivery available in GTA area - delivery charges arе extra depends on location
+------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days а week
+-------------------------------------------------------------------
+We аre providing FREE parking facility for оur customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+СANADIAN OUTLET
+1431 YONGE STREET
+YONGЕ &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEЕKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Samsung Galaxy Tab S9 X710 (Wi-Fi) With Keyboard Case (which is worth $150 for Free)(International Model)
+(BRAND NEW IN BOX WITH 1 YEAR WARRANTY)
+- 11" Display
+- 256GB Storage
+- 12GB RAM
+Price - $745(CASH NO TAX)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+---------------------------------------------
+Samsung Smart Watches - Samsung Watch Fit 3, Samsung Galaxy Watch 5 Pro, Watch 5, Watch 4 Clаssic, Watch 4
+BLOWOUT SALE!!!
+SAMSUNG GАLAXY WATCH 5
+------------------------------------------------------------------------
+SAMSUNG GALAXY WATCH 5 PRO (GPS) - 45MM
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $345 (CASH NO TAX)
+------------------------------------------------------------------------
+SAMSUNG GALAXY WATCH 5 (LTE) - 44MM (CАNADIAN MODEL)
+(BRAND NEW IN BOX WITH SAMSUNG WARRANTY)
+PRICE - $360 (CASH NO TAX)
+SAMSUNG GALAXY WATCH 5 (GPS) - 44MM (CANАDIAN MODEL)
+(BRAND NEW IN BOX WITH SAMSUNG WARRANTY)
+PRICE - $295 (CASH NO TAX)
+SAMSUNG GALAXY WATCH 5 (GPS) - 44MM
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CАSH NO TAX)
+------------------------------------------------------------------------
+SAMSUNG GALAXY WATCH 5 (LTE) - 40MM (CANADIАN MODEL)
+(BRAND NEW IN BOX WITH SAMSUNG WАRRANTY)
+PRICE - $325 (CASH NO TAX)
+SAMSUNG GALAXY WATCH 5 (GPS) - 40MM
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $215 (CASH NO TAX)
+------------------------------------------------------------------------
+SАMSUNG GALAXY WATCH 4
+------------------------------------------------------------------------
+SAMSUNG GALAXY WATCH 4 CLASSIC (GPS) - 46MM
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $215 (CASH NO TAX)
+------------------------------------------------------------------------
+SAMSUNG GALAXY WATCH 4 (GPS) - 44MM
+(BRAND NEW IN BOX WITH WARRАNTY)
+PRICE - $180 (CASH NO TAX)
+------------------------------------------------------------------------
+SAMSUNG GALAXY WATCH 4 (GPS) - 40MM
+(BRAND NEW IN BOX WITH WАRRANTY)
+PRICE - $160 (CASH NO TAX)
+SAMSUNG GALAXY WATCH 4 (GPS) - 40MM
+(BRAND NEW OPEN BOX WITH WARRANTY)
+PRICE - $150 (CASH NO TAX)
+------------------------------------------------------------------------
+SAMSUNG GALAXY WATCH FIT 3
+------------------------------------------------------------------------
+Samsung Galaxy Watch Fit 3 (R390)
+(BRAND NEW IN BOX WITH WARRANTY)
+PRICE - $85 (CASH NO TAX)
+------------------------------------------------------------------------
+Same day delivery available in GTA area -delivery charges arе extra depends on location
+------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is opеn to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+4164744786
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
@@ -14787,8 +14754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14859,7 +14826,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -14901,7 +14868,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -14989,7 +14956,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -15033,7 +15000,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -15121,7 +15088,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -15165,7 +15132,7 @@
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -15291,7 +15258,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
@@ -15366,7 +15333,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>424</v>
@@ -15375,7 +15342,7 @@
         <v>275</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -15417,7 +15384,7 @@
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -15459,7 +15426,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -15618,7 +15585,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>424</v>
@@ -15627,7 +15594,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -15702,7 +15669,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>422</v>
@@ -15711,7 +15678,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -15744,7 +15711,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>427</v>
@@ -15753,7 +15720,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -15795,7 +15762,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -15837,7 +15804,7 @@
         <v>795</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -15921,7 +15888,7 @@
         <v>175</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -15954,7 +15921,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>429</v>
@@ -15963,7 +15930,7 @@
         <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -15996,7 +15963,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>421</v>
@@ -16005,7 +15972,7 @@
         <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -16080,7 +16047,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>421</v>
@@ -16089,7 +16056,7 @@
         <v>395</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -16101,7 +16068,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I31" s="2">
         <v>4164744786</v>
@@ -16122,7 +16089,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>526</v>
@@ -16131,7 +16098,7 @@
         <v>75</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -16143,7 +16110,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I32" s="2">
         <v>4164744786</v>
@@ -16164,7 +16131,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>424</v>
@@ -16173,7 +16140,7 @@
         <v>695</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -16185,7 +16152,7 @@
         <v>31</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I33" s="2">
         <v>4164744787</v>
@@ -16206,16 +16173,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>424</v>
       </c>
       <c r="C34" s="2">
-        <v>795</v>
+        <v>745</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>662</v>
+        <v>800</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -16227,7 +16194,7 @@
         <v>31</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I34" s="2">
         <v>4164744788</v>
@@ -16254,10 +16221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF0F93-37CE-42DF-A525-5C6BE8FF10C8}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16545,7 +16512,7 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16633,7 +16600,7 @@
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16677,7 +16644,7 @@
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16809,7 +16776,7 @@
         <v>1450</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16830,7 +16797,7 @@
         <v>468</v>
       </c>
       <c r="K13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L13" t="s">
         <v>221</v>
@@ -16853,7 +16820,7 @@
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -16874,7 +16841,7 @@
         <v>471</v>
       </c>
       <c r="K14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L14" t="s">
         <v>221</v>
@@ -16897,7 +16864,7 @@
         <v>650</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -16918,7 +16885,7 @@
         <v>479</v>
       </c>
       <c r="K15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L15" t="s">
         <v>221</v>
@@ -16962,7 +16929,7 @@
         <v>483</v>
       </c>
       <c r="K16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L16" t="s">
         <v>221</v>
@@ -17006,7 +16973,7 @@
         <v>487</v>
       </c>
       <c r="K17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L17" t="s">
         <v>221</v>
@@ -17050,7 +17017,7 @@
         <v>491</v>
       </c>
       <c r="K18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L18" t="s">
         <v>221</v>
@@ -17094,7 +17061,7 @@
         <v>491</v>
       </c>
       <c r="K19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L19" t="s">
         <v>221</v>
@@ -17138,7 +17105,7 @@
         <v>498</v>
       </c>
       <c r="K20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L20" t="s">
         <v>221</v>
@@ -17182,7 +17149,7 @@
         <v>502</v>
       </c>
       <c r="K21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L21" t="s">
         <v>221</v>
@@ -17196,7 +17163,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B22" t="s">
         <v>422</v>
@@ -17205,7 +17172,7 @@
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -17217,16 +17184,16 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L22" t="s">
         <v>221</v>
@@ -17240,7 +17207,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B23" t="s">
         <v>427</v>
@@ -17249,7 +17216,7 @@
         <v>260</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -17261,16 +17228,16 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L23" t="s">
         <v>221</v>
@@ -17284,7 +17251,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B24" t="s">
         <v>427</v>
@@ -17293,7 +17260,7 @@
         <v>245</v>
       </c>
       <c r="D24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -17305,16 +17272,16 @@
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L24" t="s">
         <v>221</v>
@@ -17328,7 +17295,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B25" t="s">
         <v>427</v>
@@ -17337,7 +17304,7 @@
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -17349,16 +17316,16 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L25" t="s">
         <v>221</v>
@@ -17372,7 +17339,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B26" t="s">
         <v>428</v>
@@ -17381,7 +17348,7 @@
         <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -17393,16 +17360,16 @@
         <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L26" t="s">
         <v>221</v>
@@ -17416,7 +17383,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B27" t="s">
         <v>422</v>
@@ -17425,7 +17392,7 @@
         <v>260</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -17437,16 +17404,16 @@
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
+        <v>610</v>
+      </c>
+      <c r="K27" t="s">
         <v>611</v>
-      </c>
-      <c r="K27" t="s">
-        <v>612</v>
       </c>
       <c r="L27" t="s">
         <v>221</v>
@@ -17460,7 +17427,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B28" t="s">
         <v>422</v>
@@ -17469,7 +17436,7 @@
         <v>175</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17481,16 +17448,16 @@
         <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L28" t="s">
         <v>221</v>
@@ -17504,7 +17471,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B29" t="s">
         <v>427</v>
@@ -17513,7 +17480,7 @@
         <v>1795</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17525,16 +17492,16 @@
         <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
+        <v>621</v>
+      </c>
+      <c r="K29" t="s">
         <v>622</v>
-      </c>
-      <c r="K29" t="s">
-        <v>623</v>
       </c>
       <c r="L29" t="s">
         <v>221</v>
@@ -17548,7 +17515,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B30" t="s">
         <v>525</v>
@@ -17557,7 +17524,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -17569,16 +17536,16 @@
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I30">
         <v>4164744787</v>
       </c>
       <c r="J30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K30" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L30" t="s">
         <v>221</v>
@@ -17592,7 +17559,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B31" t="s">
         <v>421</v>
@@ -17601,7 +17568,7 @@
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -17613,16 +17580,16 @@
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I31">
         <v>4164744788</v>
       </c>
       <c r="J31" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K31" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L31" t="s">
         <v>221</v>
@@ -17631,50 +17598,6 @@
         <v>93</v>
       </c>
       <c r="N31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>772</v>
-      </c>
-      <c r="B32" t="s">
-        <v>709</v>
-      </c>
-      <c r="C32">
-        <v>295</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>345</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" t="s">
-        <v>711</v>
-      </c>
-      <c r="I32">
-        <v>4164744789</v>
-      </c>
-      <c r="J32" t="s">
-        <v>695</v>
-      </c>
-      <c r="K32" t="s">
-        <v>710</v>
-      </c>
-      <c r="L32" t="s">
-        <v>221</v>
-      </c>
-      <c r="M32" t="s">
-        <v>93</v>
-      </c>
-      <c r="N32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -17688,8 +17611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17919,7 +17842,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>429</v>
@@ -17928,7 +17851,7 @@
         <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -17970,7 +17893,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -18096,7 +18019,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -18138,7 +18061,7 @@
         <v>375</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -18253,9 +18176,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>424</v>
@@ -18263,8 +18186,8 @@
       <c r="C14" s="2">
         <v>135</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>790</v>
+      <c r="D14" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -18339,7 +18262,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>421</v>
@@ -18348,7 +18271,7 @@
         <v>995</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -18432,7 +18355,7 @@
         <v>595</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -18516,7 +18439,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -18555,10 +18478,10 @@
         <v>509</v>
       </c>
       <c r="C21" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>539</v>
+        <v>801</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -18600,7 +18523,7 @@
         <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -18675,7 +18598,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>511</v>
@@ -18684,7 +18607,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -18717,7 +18640,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>433</v>
@@ -18726,7 +18649,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -18801,7 +18724,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>429</v>
@@ -18810,7 +18733,7 @@
         <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -18885,16 +18808,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C29" s="2">
         <v>325</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -18906,7 +18829,7 @@
         <v>31</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I29" s="2">
         <v>4164744786</v>
@@ -18927,7 +18850,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>424</v>
@@ -18936,7 +18859,7 @@
         <v>395</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -18948,7 +18871,7 @@
         <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I30" s="2">
         <v>4164744786</v>
@@ -18969,7 +18892,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>422</v>
@@ -18978,7 +18901,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -18990,7 +18913,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="I31" s="2">
         <v>4164744786</v>
@@ -19011,7 +18934,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>424</v>
@@ -19020,7 +18943,7 @@
         <v>275</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -19032,7 +18955,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I32" s="2">
         <v>4164744787</v>
@@ -19061,8 +18984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADAF3E-0AA5-4F19-ACED-4BBE31AE540C}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19120,7 +19043,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B2" t="s">
         <v>430</v>
@@ -19129,7 +19052,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -19170,7 +19093,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -19211,7 +19134,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -19416,7 +19339,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -19457,7 +19380,7 @@
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -19489,7 +19412,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s">
         <v>515</v>
@@ -19498,7 +19421,7 @@
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -19571,7 +19494,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B13" t="s">
         <v>424</v>
@@ -19580,7 +19503,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19662,7 +19585,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19858,7 +19781,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B20" t="s">
         <v>431</v>
@@ -19867,7 +19790,7 @@
         <v>245</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -20031,7 +19954,7 @@
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20195,7 +20118,7 @@
         <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20318,7 +20241,7 @@
         <v>645</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -20391,7 +20314,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B33" t="s">
         <v>428</v>
@@ -20400,7 +20323,7 @@
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -20432,7 +20355,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B34" t="s">
         <v>432</v>
@@ -20441,7 +20364,7 @@
         <v>1095</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20483,8 +20406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20551,7 +20474,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -20589,7 +20512,7 @@
         <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20665,7 +20588,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -20732,7 +20655,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B7" t="s">
         <v>420</v>
@@ -20741,7 +20664,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -20770,7 +20693,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B8" t="s">
         <v>428</v>
@@ -20779,7 +20702,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -20855,7 +20778,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -21121,7 +21044,7 @@
         <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -21226,7 +21149,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B20" t="s">
         <v>427</v>
@@ -21235,7 +21158,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -21273,7 +21196,7 @@
         <v>545</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -21302,7 +21225,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B22" t="s">
         <v>427</v>
@@ -21311,7 +21234,7 @@
         <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -21349,7 +21272,7 @@
         <v>190</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -21378,7 +21301,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B24" t="s">
         <v>427</v>
@@ -21387,7 +21310,7 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -21425,7 +21348,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -21501,7 +21424,7 @@
         <v>340</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -21568,7 +21491,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B29" t="s">
         <v>428</v>
@@ -21577,7 +21500,7 @@
         <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -21589,7 +21512,7 @@
         <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I29">
         <v>6477864344</v>
@@ -21606,7 +21529,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B30" t="s">
         <v>428</v>
@@ -21615,7 +21538,7 @@
         <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -21627,7 +21550,7 @@
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I30">
         <v>6477864344</v>
@@ -21644,7 +21567,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B31" t="s">
         <v>521</v>
@@ -21653,7 +21576,7 @@
         <v>260</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -21665,7 +21588,7 @@
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I31">
         <v>6477864344</v>
@@ -21682,7 +21605,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B32" t="s">
         <v>427</v>
@@ -21691,7 +21614,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -21703,7 +21626,7 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I32">
         <v>6477864344</v>
@@ -21720,7 +21643,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B33" t="s">
         <v>427</v>
@@ -21729,7 +21652,7 @@
         <v>595</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -21741,7 +21664,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I33">
         <v>6477864345</v>
@@ -21758,7 +21681,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B34" t="s">
         <v>427</v>
@@ -21767,7 +21690,7 @@
         <v>675</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -21779,7 +21702,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I34">
         <v>6477864346</v>
@@ -21796,7 +21719,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B35" t="s">
         <v>427</v>
@@ -21805,7 +21728,7 @@
         <v>875</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -21817,7 +21740,7 @@
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="I35">
         <v>6477864346</v>
@@ -21834,7 +21757,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B36" t="s">
         <v>427</v>
@@ -21843,7 +21766,7 @@
         <v>950</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -21855,7 +21778,7 @@
         <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="I36">
         <v>6477864346</v>
@@ -21872,7 +21795,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B37" t="s">
         <v>427</v>
@@ -21881,7 +21804,7 @@
         <v>345</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -21893,7 +21816,7 @@
         <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="I37">
         <v>6477864347</v>
@@ -21918,8 +21841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21979,7 +21902,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>431</v>
@@ -21988,7 +21911,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -22025,7 +21948,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -22053,7 +21976,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>431</v>
@@ -22062,7 +21985,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -22090,7 +22013,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>431</v>
@@ -22099,7 +22022,7 @@
         <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -22238,7 +22161,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>521</v>
@@ -22247,7 +22170,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -22275,7 +22198,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>524</v>
@@ -22284,7 +22207,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -22395,7 +22318,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -22469,7 +22392,7 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -22497,7 +22420,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>525</v>
@@ -22506,7 +22429,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -22543,7 +22466,7 @@
         <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -22580,7 +22503,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -22608,7 +22531,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>427</v>
@@ -22617,7 +22540,7 @@
         <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -22691,7 +22614,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -22719,7 +22642,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>427</v>
@@ -22728,7 +22651,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22756,7 +22679,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>526</v>
@@ -22765,7 +22688,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -22867,7 +22790,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>431</v>
@@ -22876,7 +22799,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22950,7 +22873,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -23017,7 +22940,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>428</v>
@@ -23026,7 +22949,7 @@
         <v>425</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -23038,7 +22961,7 @@
         <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I30" s="2">
         <v>6477864344</v>
@@ -23054,7 +22977,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>431</v>
@@ -23063,7 +22986,7 @@
         <v>745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -23075,7 +22998,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I31" s="2">
         <v>6477864344</v>
@@ -23091,7 +23014,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>427</v>
@@ -23100,7 +23023,7 @@
         <v>945</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -23112,7 +23035,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I32" s="2">
         <v>6477864344</v>
@@ -23128,16 +23051,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="C33" s="2">
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -23149,7 +23072,7 @@
         <v>31</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I33" s="2">
         <v>6477864345</v>
@@ -23172,7 +23095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -23274,7 +23197,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -23309,7 +23232,7 @@
         <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -23344,7 +23267,7 @@
         <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -23405,7 +23328,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B7" t="s">
         <v>431</v>
@@ -23414,7 +23337,7 @@
         <v>945</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -23484,7 +23407,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -23650,7 +23573,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B14" t="s">
         <v>427</v>
@@ -23659,7 +23582,7 @@
         <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -23904,7 +23827,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -23965,7 +23888,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B23" t="s">
         <v>429</v>
@@ -24000,7 +23923,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B24" t="s">
         <v>421</v>
@@ -24009,7 +23932,7 @@
         <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -24114,7 +24037,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -24149,7 +24072,7 @@
         <v>125</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -24175,7 +24098,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B29" t="s">
         <v>427</v>
@@ -24184,7 +24107,7 @@
         <v>825</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -24245,7 +24168,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B31" t="s">
         <v>432</v>
@@ -24254,7 +24177,7 @@
         <v>895</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -24289,7 +24212,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B32" t="s">
         <v>420</v>
@@ -24298,7 +24221,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -24310,7 +24233,7 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I32">
         <v>4164744787</v>
@@ -24333,7 +24256,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B33" t="s">
         <v>432</v>
@@ -24342,7 +24265,7 @@
         <v>1295</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -24354,7 +24277,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="I33">
         <v>4164744788</v>
@@ -24377,7 +24300,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B34" t="s">
         <v>432</v>
@@ -24386,7 +24309,7 @@
         <v>1495</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -24398,7 +24321,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
@@ -24407,7 +24330,7 @@
         <v>476</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L34" t="s">
         <v>198</v>
@@ -24421,7 +24344,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B35" t="s">
         <v>432</v>
@@ -24430,7 +24353,7 @@
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -24442,7 +24365,7 @@
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="I35">
         <v>4164744789</v>
@@ -24451,7 +24374,7 @@
         <v>476</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L35" t="s">
         <v>198</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B01C2E-D9C8-431B-BF4B-6297CC0204D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702D077-8DFE-4C3D-8B48-0570945A32EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10162,87 +10162,6 @@
     <t>Macbook Air - 13 Inch, 16GB RAM, 256GB STORAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-Apple MacBook Pro 2023 - 14"
-M3 PRO
-18GB RAM
-512GB SSD Storage
-(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY - 23)
-Price - $2350(CASH NO TAX)
----------------------------------------------------
-Apple MacBook Pro - 16"
-Intel Core i9 Processor
-16GB RAM
-512GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY - 19)
-Price - $1095 (CASH NO TAX)
----------------------------------------------------
-Apple Macbook Air - 13.3"
-M1 Chip
-8GB RAM
-256GB STORAGE
-(LIKE NEW IN BOX WITH WARRANTY - 20)
-PRICE - $745 (CASH NO TAX)
-Apple Macbook Air - 13.3"
-Intel Core i5
-16GB RAM
-256GB STORAGE
-(LIKE NEW IN BOX WITH WARRANTY - 20)
-PRICE - $745 (CASH NO TAX)
----------------------------------------------------
-Apple MacBook Pro - 15.4" 
-Intel Core i7 Processor
-16GB RAM
-512GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY - 16)
-Price - $675 (CASH NO TAX)
-Apple MacBook Pro - 13" 
-Intel Core i7 Processor
-16GB RAM
-512GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY - 17)
-Price - $525(CASH NO TAX)
-Apple MacBook Pro - 13" 
-Intel Core i7 Processor
-16GB RAM
-256GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY - 17)
-Price - $475 (CASH NO TAX)
----------------------------------------------------
-Apple MacBook Pro - 13.3" 
-Intel Core i5 Processor
-4GB RAM
-128GB SSD Storage
-(LIKE NEW IN BOX WITH WARRANTY - 11)
-Price - $195 (CASH NO TAX)
----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
----------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!!!
-OPEN EVERYDAY FROM:
-Monday to Friday - 8AM - 8PM
-Weekends - 10AM - 7PM
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-</t>
-  </si>
-  <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality
 Buy with Confidence from our store!
@@ -11206,145 +11125,6 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-DELL Laptops Intel i7 - Dell 7440, Dell 7560, Dell 7550, Dell 7430, Dell 7420, Dell 7480, Dell 5590, Dell 5490, Dell 5400, G15 5511, Dell 9430
-------------------------------------------------------
-Dell Latitude 7440 - 14" Touch
-INTEL i7 - 13th Generation
-32GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $1095 (CASH NO TAX)
-Dell Latitude 7440 - 14" Touch
-INTEL i7 - 13th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $795 (CASH NO TAX)
-------------------------------------------------------
-Dell Precision 7560 - 15.6"
-INTEL i7 - 11th Generation
-32GB RAM
-1TB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $845 (CASH NO TAX)
-------------------------------------------------------
-Dell Precision 7550 - 15.6"
-INTEL i7 - 10th Generation
-32GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $745 (CASH NO TAX)
-------------------------------------------------------
-Dell Latitude 9430 - 13.5"
-INTEL i7 - 12th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $695 (CASH NO TAX)
-------------------------------------------------------
-Dell Latitude 7430 - 14"
-INTEL i7 - 12th Generation
-32GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $695 (CASH NO TAX)
-------------------------------------------------------
-DELL G15 5511
-Intel i7 - 11th Generation
-8GB RAM
-256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $675 (CASH NO TAX)
-------------------------------------------------------
-Dell Latitude 7420 - 14" Touchscreen
-INTEL i7 - 11th Generation
-32GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $595 (CASH NO TAX)
-------------------------------------------------------
-Dell Latitude 5501 - 15.6"
-Intel i7 - 9th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-Price $425 (CASH NO TAX) 
-------------------------------------------------------
-Dell 7400 (Touchscreen) - 14" 
-Intel i7 - 8th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $375 (CASH NO TAX)
-------------------------------------------------------
-Dell 5490 - 14"
-Intel i7 - 8th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $375 (CASH NO TAX)
-Dell 5490 - 14"
-Intel i7 - 8th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $335 (CASH NO TAX)
-------------------------------------------------------
-Dell 5400 (Touchscreen) - 14"
-Intel i7 - 8th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $395 (CASH NO TAX)
-Dell 5400 - 14" Webcam
-Intel i7 - 8th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $345(CASH NO TAX)
-Dell 5400 - 14"
-INTEL i7 – 8th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $275 (CASH NO TAX)
-------------------------------------------------------
-Dell 5590 - 15.4" webcam
-Intel i7 - 8th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $325 (CASH NO TAX)
-------------------------------------------------------
-Dell 7480 – 14”
-INTEL i7 – 6th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $250 (CASH NO TAX)
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
-----------------------------------------------------
-We are providing a FREE parking facility for our customers (Contact us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
   </si>
   <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
@@ -12191,9 +11971,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store!
@@ -12241,136 +12018,6 @@
   </si>
   <si>
     <t>Apple Iphones - iPhone 14 Pro, iPhone 14 Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-------------------------------------------------------
-Dell Laptops Intel i5 - Dell inspiron 13, Dell 7480, Dell Latitude 7390, Dell Latitude 7420, Dell 5400, Dell Latitude 7400, Dell 7490, Dell 3400, Dell 7480, Dell 5470 
-------------------------------------------------------
-Dell Latitude 7420 - 14" Touch
-INTEL i5 - 11th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $545 (CASH NO TAX)
-------------------------------------------------------
-Dell inspiron 13
-Intel i5 - 8th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $425 (CASH NO TAX)
-------------------------------------------------------
-Dell 7480 - 14" Touch
-Intel i5 - 7th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $395 (CASH NO TAX)
-------------------------------------------------------
-Dell 7410 
-INTEL i5 - 10th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $375 (CASH NO TAX)
-------------------------------------------------------
-Dell Latitude 7390 (Touchscreen) - 13.3"
-INTEL i5 - 8th Generation
-16GB RAM
-512GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $325 (CASH NO TAX) 
-------------------------------------------------------
-Dell 5400 - 14"
-Intel i5 - 8th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $295 (CASH NO TAX) 
-------------------------------------------------------
-Dell Latitude 7400 - 14" Webcam
-INTEL i5 - 8th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $275 (CASH NO TAX)
-------------------------------------------------------
-Dell 3400 - 14" Webcam
-Intel i5 - 8th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $250(CASH NO TAX)
------------------------------------------
-Dell 7490 - 14" Touchscreen
-Intel i5 - 7th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $275 (CASH NO TAX)
-Dell 7490 - 14"
-Intel i5 - 8th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $245 (CASH NO TAX)
-Dell 7490 - 14"
-Intel i5 - 7th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX) 
------------------------------------------
-Dell 7480 - 14"
-Intel i5 - 7th Generation
-16GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
------------------------------------------
-Dell 7480 - 14"
-Intel i5 - 6th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX) (SOLD OUT)
------------------------------------------
-Dell 5470 14"
-Intel i5 - 6th Generation
-8GB RAM
-256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195(CASH NO TAX) (SOLD OUT)
------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
-</t>
   </si>
   <si>
     <t>Consoles - Switch Lite, Switch, Nintendo Switch (OLED)</t>
@@ -13624,55 +13271,6 @@
 WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
-----------------------------------------------------
-LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s
------------------------------------------
-Lenovo ThinkPad T470s Laptop (Webcam) - 14"
-INTEL i5 - 7TH GEN
-12GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $235 (CASH NO TAX)
-Lenovo ThinkPad T470s Laptop - 14"
-INTEL i5 - 7TH GEN
-8GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
-Lenovo ThinkPad T470 Laptop - 14"
-INTEL i5 - 6TH GEN
-16GB RAM / 256GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $225 (CASH NO TAX)
------------------------------------------
-Same day delivery available in GTA area -delivery charges are extra depends on location
------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright*
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
 Best Price, Best Quality 
 Buy with Confidence from our store!
@@ -14327,6 +13925,518 @@
 TIMINGS:
 MONDAY - FRIDAY: 8AM - 8PM
 WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+------------------------------------------------------
+Dell Laptops Intel i5 - Dell inspiron 13, Dell 7480, Dell Latitude 7390, Dell Latitude 7420, Dell 5400, Dell Latitude 7400, Dell 7490, Dell 3400, Dell 7480, Dell 5470, Dell 5500, Dell 5401
+------------------------------------------------------
+Dell Latitude 7420 - 14" Touch
+INTEL i5 - 11th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $545 (CASH NO TAX)
+------------------------------------------------------
+Dell inspiron 13
+Intel i5 - 8th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $425 (CASH NO TAX)
+------------------------------------------------------
+Dell 7480 - 14" Touch
+Intel i5 - 7th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $395 (CASH NO TAX)
+------------------------------------------------------
+Dell 7410 
+INTEL i5 - 10th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $375 (CASH NO TAX)
+------------------------------------------------------
+Dell Latitude 7390 (Touchscreen) - 13.3"
+INTEL i5 - 8th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $325 (CASH NO TAX) 
+------------------------------------------------------
+Dell 5401 - 14"
+Intel i5 - 9th Generation 
+16GB RAM
+256GB SSD
+Price - 295 (CASH NO TAX)
+------------------------------------------------------
+Dell 5500 - 14"
+Intel i5 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX) 
+------------------------------------------------------
+Dell 5400 - 14" Touch
+Intel i5 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX) 
+Dell 5400 - 14"
+Intel i5 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX) 
+------------------------------------------------------
+Dell Latitude 7400 - 14" Webcam
+INTEL i5 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+------------------------------------------------------
+Dell 3400 - 14" Webcam
+Intel i5 - 8th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $250(CASH NO TAX)
+-----------------------------------------
+Dell 7490 - 14" Touchscreen
+Intel i5 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+Dell 7490 - 14" 
+Intel i5 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $245(CASH NO TAX)
+Dell 7490 - 14" Touchscreen
+Intel i5 - 7th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+Dell 7490 - 14"
+Intel i5 - 8th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $245 (CASH NO TAX)
+Dell 7490 - 14"
+Intel i5 - 7th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX) 
+-----------------------------------------
+Dell 7480 - 14"
+Intel i5 - 7th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-----------------------------------------
+Dell 7480 - 14"
+Intel i5 - 6th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195 (CASH NO TAX) (SOLD OUT)
+-----------------------------------------
+Dell 5470 14"
+Intel i5 - 6th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $195(CASH NO TAX) (SOLD OUT)
+-----------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+-----------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+DELL Laptops Intel i7 - Dell 7440, Dell 7560, Dell 7550, Dell 7430, Dell 7420, Dell 7480, Dell 5590, Dell 5490, Dell 5400, G15 5511, Dell 9430, Dell 7400
+------------------------------------------------------
+Dell Latitude 7440 - 14" Touch
+INTEL i7 - 13th Generation
+32GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $1095 (CASH NO TAX)
+Dell Latitude 7440 - 14" Touch
+INTEL i7 - 13th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $795 (CASH NO TAX)
+------------------------------------------------------
+Dell Precision 7560 - 15.6"
+INTEL i7 - 11th Generation
+32GB RAM
+1TB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $845 (CASH NO TAX)
+------------------------------------------------------
+Dell Precision 7550 - 15.6"
+INTEL i7 - 10th Generation
+32GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $745 (CASH NO TAX)
+------------------------------------------------------
+Dell Latitude 9430 - 13.5"
+INTEL i7 - 12th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $695 (CASH NO TAX)
+------------------------------------------------------
+Dell Latitude 7430 - 14"
+INTEL i7 - 12th Generation
+32GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $695 (CASH NO TAX)
+------------------------------------------------------
+DELL G15 5511
+Intel i7 - 11th Generation
+8GB RAM
+256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $675 (CASH NO TAX)
+------------------------------------------------------
+Dell Latitude 7420 - 14" Touchscreen
+INTEL i7 - 11th Generation
+32GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $595 (CASH NO TAX)
+------------------------------------------------------
+Dell Latitude 5501 - 15.6"
+Intel i7 - 9th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+Price $425 (CASH NO TAX) 
+------------------------------------------------------
+Dell 7400 (Touchscreen) - 14" 
+Intel i7 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $375 (CASH NO TAX)
+------------------------------------------------------
+Dell 5490 - 14"
+Intel i7 - 8th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $375 (CASH NO TAX)
+Dell 5490 - 14"
+Intel i7 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $335 (CASH NO TAX)
+------------------------------------------------------
+Dell 5400 (Touchscreen) - 14"
+Intel i7 - 8th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $395 (CASH NO TAX)
+Dell 5400 - 14" Webcam
+Intel i7 - 8th Generation
+16GB RAM
+512GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $345(CASH NO TAX)
+Dell 5400 - 14"
+INTEL i7 – 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $275 (CASH NO TAX)
+------------------------------------------------------
+Dell 5590 - 15.4" webcam
+Intel i7 - 8th Generation
+16GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $325 (CASH NO TAX)
+------------------------------------------------------
+Dell 7480 – 14”
+INTEL i7 – 6th Generation
+8GB RAM
+256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $250 (CASH NO TAX)
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+----------------------------------------------------
+We are providing a FREE parking facility for our customers (Contact us)!!
+----------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+----------------------------------------------------
+LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s, Lenovo T14, T14s
+-----------------------------------------
+Lenovo T14
+Intel i5 - 10th Generation 
+24GB RAM
+256GB SSD
+Price - 395 (CASH NO TAX)
+Lenovo T14s
+Intel i5 - 10th Generation 
+16GB RAM
+256GB SSD
+Price - 395 (CASH NO TAX)
+-----------------------------------------
+Lenovo ThinkPad T470s Laptop (Webcam) - 14"
+INTEL i5 - 7TH GEN
+12GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $235 (CASH NO TAX)
+Lenovo ThinkPad T470s Laptop - 14"
+INTEL i5 - 7TH GEN
+8GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+Lenovo ThinkPad T470 Laptop - 14"
+INTEL i5 - 6TH GEN
+16GB RAM / 256GB SSD
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE - $225 (CASH NO TAX)
+-----------------------------------------
+Same day delivery available in GTA area -delivery charges are extra depends on location
+-----------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright*
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
+  </si>
+  <si>
+    <t>LENOVO Laptops Intel i5 - Lenovo ThinkPad T470, T470s, T14, T14s</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+Apple MacBook Pro 2023 - 14"
+M3 PRO
+18GB RAM
+512GB SSD Storage
+(BRAND NEW IN BOX WITH 1 YEAR APPLE WARRANTY - 23)
+Price - $2350(CASH NO TAX)
+---------------------------------------------------
+Apple MacBook Pro - 16"
+Intel Core i9 Processor
+16GB RAM
+1TB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 19)
+Price - $995 (CASH NO TAX)
+Apple MacBook Pro - 16"
+Intel Core i9 Processor
+16GB RAM
+512GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 19)
+Price - $945 (CASH NO TAX)
+---------------------------------------------------
+Apple Macbook Air - 13.3"
+M1 Chip
+8GB RAM
+256GB STORAGE
+(LIKE NEW IN BOX WITH WARRANTY - 20)
+PRICE - $745 (CASH NO TAX)
+Apple Macbook Air - 13.3"
+Intel Core i5
+16GB RAM
+256GB STORAGE
+(LIKE NEW IN BOX WITH WARRANTY - 20)
+PRICE - $745 (CASH NO TAX)
+---------------------------------------------------
+Apple MacBook Pro - 15.4" 
+Intel Core i7 Processor
+16GB RAM
+512GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 16)
+Price - $675 (CASH NO TAX)
+Apple MacBook Pro - 13" 
+Intel Core i7 Processor
+16GB RAM
+512GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 17)
+Price - $525(CASH NO TAX)
+Apple MacBook Pro - 13" 
+Intel Core i7 Processor
+16GB RAM
+256GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 17)
+Price - $475 (CASH NO TAX)
+---------------------------------------------------
+Apple MacBook Pro - 13" 
+Intel Core i5 Processor
+8GB RAM
+512GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 15)
+Price - $475 (CASH NO TAX)
+Apple MacBook Pro - 13" 
+Intel Core i5 Processor
+8GB RAM
+256GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 15)
+Price - $425 (CASH NO TAX)
+Apple MacBook Pro - 13" 
+Intel Core i5 Processor
+8GB RAM
+128GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 15)
+Price - $375 (CASH NO TAX)
+---------------------------------------------------
+Apple Macbook Air - 13.3"
+Intel Core i7 Processor
+8GB RAM
+256GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 17)
+Price - $395 (CASH NO TAX)
+Apple Macbook Air - 13.3"
+Intel Core i5 Processor
+8GB RAM
+256GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 17)
+Price - $345 (CASH NO TAX)
+Apple Macbook Air - 13.3"
+Intel Core i5 Processor
+8GB RAM
+256GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 17)
+Price - $295 (CASH NO TAX)
+---------------------------------------------------
+Apple Macbook Air - 13.3"
+Intel Core i5 Processor
+4GB RAM
+512GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 15)
+Price - $375 (CASH NO TAX)
+Apple Macbook Air - 13.3"
+Intel Core i5 Processor
+4GB RAM
+256GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 15)
+Price - $325 (CASH NO TAX)
+Apple Macbook Air - 13.3"
+Intel Core i5 Processor
+8GB RAM
+128GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 15)
+Price - $325 (CASH NO TAX)
+Apple Macbook Air - 13.3"
+Intel Core i5 Processor
+4GB RAM
+128GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 15)
+Price - $295 (CASH NO TAX)
+---------------------------------------------------
+Apple MacBook Pro - 13.3" 
+Intel Core i5 Processor
+4GB RAM
+128GB SSD Storage
+(LIKE NEW IN BOX WITH WARRANTY - 11)
+Price - $195 (CASH NO TAX)
+---------------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+---------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+---------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!!!
+OPEN EVERYDAY FROM:
+Monday to Friday - 8AM - 8PM
+Weekends - 10AM - 7PM
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786</t>
   </si>
 </sst>
 </file>
@@ -14754,8 +14864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C37E95-DA10-4114-8C3C-4F9671C16C16}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15258,7 +15368,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
@@ -15342,7 +15452,7 @@
         <v>275</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -15594,7 +15704,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -15720,7 +15830,7 @@
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -15762,7 +15872,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -15804,7 +15914,7 @@
         <v>795</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -15888,7 +15998,7 @@
         <v>175</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -15930,7 +16040,7 @@
         <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -15963,7 +16073,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>421</v>
@@ -15972,7 +16082,7 @@
         <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -16182,7 +16292,7 @@
         <v>745</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -17216,7 +17326,7 @@
         <v>260</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -17480,7 +17590,7 @@
         <v>1795</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -17611,8 +17721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADB41E-785A-48F0-A5BB-95A0C52C54F9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17893,7 +18003,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -18061,7 +18171,7 @@
         <v>375</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -18187,7 +18297,7 @@
         <v>135</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -18271,7 +18381,7 @@
         <v>995</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -18355,7 +18465,7 @@
         <v>595</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -18439,7 +18549,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -18481,7 +18591,7 @@
         <v>150</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -18598,7 +18708,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>511</v>
@@ -18607,7 +18717,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -18934,7 +19044,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>424</v>
@@ -18943,7 +19053,7 @@
         <v>275</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -18955,7 +19065,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I32" s="2">
         <v>4164744787</v>
@@ -18984,8 +19094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADAF3E-0AA5-4F19-ACED-4BBE31AE540C}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19043,7 +19153,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B2" t="s">
         <v>430</v>
@@ -19052,7 +19162,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -19134,7 +19244,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -19339,7 +19449,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -20118,7 +20228,7 @@
         <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20241,7 +20351,7 @@
         <v>645</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -20355,7 +20465,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B34" t="s">
         <v>432</v>
@@ -20364,7 +20474,7 @@
         <v>1095</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20406,7 +20516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DC4EA-AA62-4FCC-9A5F-F63981EA274A}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -20474,7 +20584,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -20512,7 +20622,7 @@
         <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -20693,7 +20803,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B8" t="s">
         <v>428</v>
@@ -20702,7 +20812,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -20778,7 +20888,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -21044,7 +21154,7 @@
         <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -21158,7 +21268,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -21234,7 +21344,7 @@
         <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -21272,7 +21382,7 @@
         <v>190</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -21643,7 +21753,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B33" t="s">
         <v>427</v>
@@ -21652,7 +21762,7 @@
         <v>595</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -21664,7 +21774,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I33">
         <v>6477864345</v>
@@ -21681,7 +21791,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B34" t="s">
         <v>427</v>
@@ -21690,7 +21800,7 @@
         <v>675</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -21702,7 +21812,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I34">
         <v>6477864346</v>
@@ -21719,7 +21829,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B35" t="s">
         <v>427</v>
@@ -21728,7 +21838,7 @@
         <v>875</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -21740,7 +21850,7 @@
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I35">
         <v>6477864346</v>
@@ -21757,7 +21867,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B36" t="s">
         <v>427</v>
@@ -21766,7 +21876,7 @@
         <v>950</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -21778,7 +21888,7 @@
         <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I36">
         <v>6477864346</v>
@@ -21795,7 +21905,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B37" t="s">
         <v>427</v>
@@ -21804,7 +21914,7 @@
         <v>345</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -21816,7 +21926,7 @@
         <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I37">
         <v>6477864347</v>
@@ -21841,8 +21951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC7EE2-A1EB-433C-A565-CD8D185EEC9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21911,7 +22021,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>745</v>
+        <v>798</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -21948,7 +22058,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -22013,7 +22123,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>431</v>
@@ -22022,7 +22132,7 @@
         <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -22161,7 +22271,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>521</v>
@@ -22170,7 +22280,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -22318,7 +22428,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -22392,7 +22502,7 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -22466,7 +22576,7 @@
         <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -22503,7 +22613,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -22531,7 +22641,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>427</v>
@@ -22540,7 +22650,7 @@
         <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -22651,7 +22761,7 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -22790,7 +22900,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>431</v>
@@ -22799,7 +22909,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -22873,7 +22983,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -23095,8 +23205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECE094-2462-4974-B0F3-77B949CAF0B2}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23197,7 +23307,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -23827,7 +23937,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -24072,7 +24182,7 @@
         <v>125</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -24098,7 +24208,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B29" t="s">
         <v>427</v>
@@ -24107,7 +24217,7 @@
         <v>825</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -24168,7 +24278,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B31" t="s">
         <v>432</v>
@@ -24177,7 +24287,7 @@
         <v>895</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -24256,7 +24366,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B33" t="s">
         <v>432</v>
@@ -24265,7 +24375,7 @@
         <v>1295</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -24277,7 +24387,7 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I33">
         <v>4164744788</v>
@@ -24300,7 +24410,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B34" t="s">
         <v>432</v>
@@ -24309,7 +24419,7 @@
         <v>1495</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -24321,7 +24431,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I34">
         <v>4164744788</v>
@@ -24330,7 +24440,7 @@
         <v>476</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L34" t="s">
         <v>198</v>
@@ -24344,7 +24454,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B35" t="s">
         <v>432</v>
@@ -24353,7 +24463,7 @@
         <v>795</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -24365,7 +24475,7 @@
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I35">
         <v>4164744789</v>
@@ -24374,7 +24484,7 @@
         <v>476</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L35" t="s">
         <v>198</v>

--- a/Master Excel.xlsx
+++ b/Master Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Kijiji Ad Reposter\Kijiji-Ad-Reposter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702D077-8DFE-4C3D-8B48-0570945A32EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A4ECA8-832B-4D02-A923-A03261BBBEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{393D3522-DE12-4350-BF0C-774FF81A8306}"/>
   </bookViews>
@@ -1183,9 +1183,6 @@
   </si>
   <si>
     <t>Google Phones</t>
-  </si>
-  <si>
-    <t>Caterpillar Phones - Caterpillar CAT S42, CAT S62 Phone</t>
   </si>
   <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Yоur Trusted Choice!
@@ -2759,134 +2756,6 @@
   </si>
   <si>
     <t>Laptops - Acer Laptop, ASUS Laptop, HP Laptop, SAMSUNG,LENOVO</t>
-  </si>
-  <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Chromebooks - ASUS CHROMEBOOK C425, LENOVO IDЕAPAD 1, Chromebook 3, HP Chromebook, Samsung Gаlaxy Book Go, Samsung Galaxy Chromebook Go, Acеr Chromebook, Acer Chromebook 314, Acer Chromebook 511, Lenovo S345
----------------------------------------------
-ASUS CHROMEBOOK
-АSUS CHROMEBOOK C425 - 14"
-Intel Core M3-8100Y
-8GB RAM
-128GB SSD
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $295(CASH NO TAX)
----------------------------------------------
-LENOVO CHROMEBOOK
-LENOVO IDEAPAD 1 - 14"
-INTEL N5030
-4GB RAM / 128GB EMMC
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $260 (CASH NO TAX)
------------------------------------------
-LENOVO IDEAPAD 1 - 14"
-INTEL N4020
-4GB RAM / 128GB EMMC
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $250 (CASH NO TAX)
------------------------------------------
-Lenovo Chromebook S345 - 14"
-AMD A6-9220C
-4GB RAM / 32GB STORAGE
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
------------------------------------------
-LENOVO IDEAPAD 1 - 15.6"
-AMD ATHLON SILVER 3050U
-4GB RAM / 128GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
------------------------------------------
-LENOVO IDEAPAD 1 - 14"
-INTEL N4020
-4GB RAM / 128GB EMMC
-(LIKE NEW IN BOX WITH WARRANTY)
-РRICE - $175 (CASH NO TAX)
----------------------------------------------
-LENOVO IDEAPAD 1 - 14"
-AMD ATHLON SILVER 3050U
-4GB RAM / 128GB SSD
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE - $165 (CASH NO TAX)
----------------------------------
-LENOVO CHROMEBOOK 3 - 14"
-MEDIATEK MT8183
-4GB RAM / 64GB Storage
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $185 (CASH NO TAX)
------------------------------------------
-HP CHROMEBOOK
-HP Chromebоok 14"
-Intel Pentium N5030 Processor
-4GB RAM
-64GB EMMC
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $175(CASH NO TAX)
------------------------------------------
-SAMSUNG CHROMEBOOK
-Samsung Galaxy Book Go Laptop - 14"
-Qualcomm Snapdragon 7c Gen 2
-4GB RAM
-64GB SSD
-(BRAND NEW IN BOX WITH WARRANTY)
-PRICE - $195 (CASH NO TAX)
-Samsung Galaxy Chromebook Go Laptop - 14" (WIFI + LTE)
-Intel Celeron N4500
-4GB RAM
-32GB SSD
-(OРEN BOX WITH WARRANTY)
-PRICE - $150 (CASH NO TAX)
----------------------------------------------
-ACER CHROMEBOOK
-Acer Chromebook - 14"
-Intel N18Q11
-4GB RAM / 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-Price - $250 (CASH NO TAX)
----------------------------------------------
-Acer Chromebok 314 - 14"
-Intel N4000 Celeron
-4 GB RAM
-32GB
-ChrоmeOS
-(LIKE NW IN BOX WITH WARRANTY)
-Pricе - $145 (CASH NO TAX)
----------------------------------------------
-ACER CHROMEBOOK 511 - 11.6"
-QUALCOMM SNAPDRAGON OCTACORE
-4GB RAM
-32GB SSD
-(BRAND NEW IN BOX WITH WARRАNTY)
-PRICE - $145(CASH NO TAX)
-----------------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-----------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split yоur purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-----------------------------------------------------
-Storefront is open to public 7 days a week
-----------------------------------------------------
-We are providing a FREЕ parking facility for our customers (Contact us)!!
-----------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLЕT
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-4164744786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
   </si>
   <si>
     <t>Chromebooks</t>
@@ -9777,91 +9646,6 @@
     <t>Dell Laptops Intel i7 - Dell 7550, 7430, 5590, 5490, 7480, 7440, 9430</t>
   </si>
   <si>
-    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store!
-------------------------------------------------------
-PLEASE CLICK ON "SHOW MORE" TO SEE ALL MODELS AND PRICES!!!
-------------------------------------------------------
-DEWALT 20V Max Lithium-Ion Cordless 1/2-inch Hammer Drill with (2) 4Ah Batteries, Charger and Case (DCD985M2)
-(BRAND NEW IN BOX WITH 1 YEAR MANUFAСTURER WARRANTY)
-Price - $295 (CASH NO TAX)
-------------------------------------------------------
-DEWALT 20V MAX* Brushless Cordless 3-Tool Combo Kit (DCK379D2)
-This 3-Tool Combo Kit includes three 20V MAX* brushless tools, two batteries, charger, and kit bag
-Рrice - $295 (CASH NO TAX)
-------------------------------------------------------
-DEWALT 20V MAX Brushless 1/2 in. Cordless Compact Drill Driver Kit, Ratcheting Chuck, LED (DCD793D1)
-(BRAND NEW IN BOX WITH WARRANTY) 
-Price - $165 (CASH NO TAX)
-------------------------------------------------------
-DEWALT 20V MAX Lithium-Ion Brushless Cordless Drill/Driver with Battery &amp; Charger (DCD777C1)
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $165 (CASH NO TAX)
-------------------------------------------------------
-Dewalt Heavy-Duty 2-Watt Jobsite FRS Walkie Talkies (DXFRS800)
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $100 (CASH NO TAX)
-------------------------------------------------------
-DEWALT 7-1/4-Inch Lightweight Circular Saw with Carbide-Tipped Blade &amp; Wrench (DWE575)
-(BRAND NEW IN BOX WITH WARRANTY)
-Price - $125 (CASH NO TAX)
- ------------------------------------------------------
-DEWALT DWE305 12A Keyless 4-Position Variable Speed T-Shank Reciprocating Saw (#054-1236-6)
-(BRAND NEW WITH WARRANTY)
-Price - $95 (CASH NO TAX)
-----------------------------------------------------
-DEWALT 20V MAX Lithium-Ion Cordless Compact Hammer Drill/Driver Kit with (2) 1.5Ah Batteries, Charger and Bag
-Model # DCD785C2 | Store SKU # 1000708407
-(BRAND NEW WITH WARRANTY)
-Price - $95 (CASH NO TAX)
-----------------------------------------------------
-DEWALT Drywall Screw Gun, 6.3-Amp (DW272) 
-(BRAND NEW WITH WARRANTY)
-Price - $95 (CASH NO TAX)
-----------------------------------------------------
-Dewalt 3/8" (10mm) VSR Pistol Grip Drill Kit with Keyless Chuck (DWD110K)
-(BRAND NEW WITH MANUFACTURER WARRANTY)
-Price - $60 (CASH NO TAX)
-----------------------------------------------------
-DEWALT 12V MAX* 5.0AH Lithium Ion Battery Pack (DCB126)
-(BRAND NEW WITH WARRANTY)
-Price - $65 (CASH NO TAX)
-----------------------------------------------------
-Makita Tools
-----------------------------------------------------
-Makita 18V LXT 2 Tool Combo Kit (DLX2089M)
-(BRAND NEW WITH 1 YEAR MANUFACTURЕR WARRANTY)
-Price - $395 (CASH NO TAX)
-Makita 18V (Compact) LXT 2 Tool Combo Kit (DLX2141SX1)
-(BRAND NEW WITH 1 YEAR MANUFACTURER WARRANTY)
-Price - $245 (CASH NO TAX)
----------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing donе through Pay Bright
--------------------------------------------------------------------
-Storefront is open to public 7 days a week
--------------------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
--------------------------------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MАIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM</t>
-  </si>
-  <si>
     <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choicе!
 Best Price, Best Quality
 Buy with Confidence from our store! ✨
@@ -11205,39 +10989,6 @@
   </si>
   <si>
     <t>Sony TV - Buy Sony 75 inch LED Ultra HD TV X90J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality
-Buy with Confidence from our store! ✨
-------------------------------------------------------
-Sony XRJ-75X90J BRAVIA XR 75V 4K LCD TV, Double Speed, Google TV, 4K/120 fps, Recommended 2021 Model 
-(BRAND NEW WITH WARRANTY)
-PRICE - $895(CASH NO TAX)
-------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
-------------------------------------------------------
-Storefront is open to public 7 days a week
-------------------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
-------------------------------------------------------
-STORE LOCATION:
-Canadian Outlet
-1431 Yonge street
-Yonge &amp; St Clair
-Toronto, ON M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-Open Everyday:
-Monday to Friday - 8AM to 8 PM
-Weekends - 10AM to 7PM</t>
   </si>
   <si>
     <t>Samsung 75 inch UHD HDR OLED Smart TV Q80C</t>
@@ -12515,128 +12266,6 @@
 TIMINGS:
 MONDAY - SATURDAY: 8AM - 8PM
 SUNDAY: 9AM - 8PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
-Best Price, Best Quality 
-Buy with Confidence from our store!
----------------------------------------------
-BLOWOUT SALE!!! 
-Samsung Galaxy S24 Ultra, Samsung Galaxy S24, Samsung Galaxy S23 Ultra, Samsung Galaxy S23, Samsung Galaxy S23+, Samsung Galaxy S23 FE, Samsung Galaxy S22 Ultra, Samsung Galaxy S22+, Samsung Galaxy S22
------------------------------------------------------------------------
-Samsung Galaxy S24 Ultra 12GB / 512GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1450 (CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 512GB (CANADIAN MODEL)
-(Brand New Open Box with Warranty)
-Price - $1295 (CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 256GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Warranty)
-Price - $1395 (CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1245(CASH NO TAX)
-Samsung Galaxy S24 Ultra 12GB / 256GB (CANADIAN MODEL)
-(Brand New Open Box with Warranty)
-Price - $1195 (CASH NO TAX)
------------------------------------------------------------------------
-Samsung Galaxy S24 256GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-PRICE - $795 (CASH NO TAX)
-Samsung Galaxy S24 256GB (CANADIAN MODEL)
-(Like New Open Box with 6 Months Warranty)
-PRICE - $750 (CASH NO TAX)
-Samsung Galaxy S24 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-PRICE - $695 (CASH NO TAX) 
------------------------------------------------------------------------
-Samsung Galaxy S23 Ultra 512GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $1295 (CASH NO TAX)
-Samsung Galaxy S23 Ultra 256GB (DUAL SIM) 
-(Brand New in Box with 1 Year Warranty)
-Price - $1145 (CASH NO TAX)
-Samsung Galaxy S23 Ultra 256GB 
-(New Open Box with 6 Months Warranty)
-Price - $895 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23+ 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $995 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23 256GB (CANADIAN MODEL)
-(Brand New Open Box with Samsung Warranty)
-Price - $725  (CASH NO TAX)
-Samsung Galaxy S23 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-Price - $675 (CASH NO TAX)
-Samsung Galaxy S23 5G 128GB
-(Brand New Open Box with 6 Months Warranty) 
-Price - $625 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S23 FE 5G 256GB (DUAL SIM)
-(Brand New in Box with 1 Year Warranty)
-Price - $675 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 256GB
-(Brand New Open Box with 6 Months Warranty)
-Price - $595 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 128GB (CANADIAN MODEL)
-(Brand New in Box with 1 Year Samsung Warranty)
-Price - $575 (CASH NO TAX)
-Samsung Galaxy S23 FE 5G 128GB
-(Brand New Open Box with 6 Months Warranty)
-Price - $500 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22 Ultra 5G 512GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $695 (CASH NO TAX)
-Samsung Galaxy S22 Ultra 5G 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $595 (CASH NO TAX)
-Samsung Galaxy S22 Ultra 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $545 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22+ (Plus) 5G 256GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $495 (CASH NO TAX)
-Samsung Galaxy S22+ (Plus) 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $445 (CASH NO TAX)
----------------------------------------------
-Samsung Galaxy S22 5G 256GB 
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $395 (CASH NO TAX)
-Samsung Galaxy S22 5G 128GB
-(LIKE NEW IN BOX WITH WARRANTY)
-PRICE: $375 (CASH NO TAX)
----------------------------------------------
-Same day delivery available in GTA area - delivery charges are extra depends on location
-------------------------------------------------------------------------
-BUY NOW. PAY LATER.
-Get easy monthly financing when you shop with Canadian Outlet
-Split your purchase into stress-free, automatic installments with monthly Plans for:-
-3 Months
-6 Months
-12 Months
-*All financing done through Pay Bright
----------------------------------------------
-Storefront is open to public 7 days a week
----------------------------------------------
-We are providing FREE parking facility for our customers (Contact us)!!
----------------------------------------------
-STORE LOCATION:
-CANADIAN OUTLET
-1431 YONGE STREET
-YONGE &amp; ST CLAIR
-TORONTO, ON
-M4T 1Y7
-647 786 4344 (MAIN NUMBER)
-416 474 4786
-TIMINGS:
-MONDAY - FRIDAY: 8AM - 8PM
-WEEKENDS: 10AM - 7PM
 </t>
   </si>
   <si>
@@ -14437,6 +14066,250 @@
 M4T 1Y7
 647 786 4344 (MAIN NUMBER)
 416 474 4786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store! ✨
+------------------------------------------------------
+Sony XRJ-75X90J BRAVIA XR 75V 4K LCD TV, Double Speed, Google TV, 4K/120 fps, Recommended 2021 Model 
+(BRAND NEW WITH WARRANTY)
+PRICE - $895(CASH NO TAX) (Sold Out)
+------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+------------------------------------------------------
+Storefront is open to public 7 days a week
+------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+------------------------------------------------------
+STORE LOCATION:
+Canadian Outlet
+1431 Yonge street
+Yonge &amp; St Clair
+Toronto, ON M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+Open Everyday:
+Monday to Friday - 8AM to 8 PM
+Weekends - 10AM to 7PM</t>
+  </si>
+  <si>
+    <t>pixel Buds - Google Pixel Buds Pro, Google Pixel Buds A Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality 
+Buy with Confidence from our store!
+---------------------------------------------
+BLOWOUT SALE!!! 
+Samsung Galaxy S24 Ultra, Samsung Galaxy S24, Samsung Galaxy S23 Ultra, Samsung Galaxy S23, Samsung Galaxy S23+, Samsung Galaxy S23 FE, Samsung Galaxy S22 Ultra, Samsung Galaxy S22+, Samsung Galaxy S22
+-----------------------------------------------------------------------
+Samsung Galaxy S24 Ultra 12GB / 512GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+Price - $1525 (CASH NO TAX)
+Samsung Galaxy S24 Ultra 12GB / 512GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $1450 (CASH NO TAX)
+Samsung Galaxy S24 Ultra 12GB / 512GB (CANADIAN MODEL)
+(Brand New Open Box with Warranty)
+Price - $1295 (CASH NO TAX)
+Samsung Galaxy S24 Ultra 12GB / 256GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+Price - $1395 (CASH NO TAX)
+Samsung Galaxy S24 Ultra 12GB / 256GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $1245(CASH NO TAX)
+Samsung Galaxy S24 Ultra 12GB / 256GB (CANADIAN MODEL)
+(Brand New Open Box with Warranty)
+Price - $1195 (CASH NO TAX)
+-----------------------------------------------------------------------
+Samsung Galaxy S24 256GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+PRICE - $795 (CASH NO TAX)
+Samsung Galaxy S24 256GB (CANADIAN MODEL)
+(Like New Open Box with 6 Months Warranty)
+PRICE - $750 (CASH NO TAX)
+Samsung Galaxy S24 128GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+PRICE - $695 (CASH NO TAX) 
+-----------------------------------------------------------------------
+Samsung Galaxy S23 Ultra 512GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $1295 (CASH NO TAX)
+Samsung Galaxy S23 Ultra 256GB (DUAL SIM) 
+(Brand New in Box with 1 Year Warranty)
+Price - $1145 (CASH NO TAX)
+Samsung Galaxy S23 Ultra 256GB 
+(New Open Box with 6 Months Warranty)
+Price - $895 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S23+ 256GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $995 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S23 256GB (CANADIAN MODEL)
+(Brand New Open Box with Samsung Warranty)
+Price - $725  (CASH NO TAX)
+Samsung Galaxy S23 128GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+Price - $675 (CASH NO TAX)
+Samsung Galaxy S23 5G 128GB
+(Brand New Open Box with 6 Months Warranty) 
+Price - $625 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S23 FE 5G 256GB (DUAL SIM)
+(Brand New in Box with 1 Year Warranty)
+Price - $675 (CASH NO TAX)
+Samsung Galaxy S23 FE 5G 256GB
+(Brand New Open Box with 6 Months Warranty)
+Price - $595 (CASH NO TAX)
+Samsung Galaxy S23 FE 5G 128GB (CANADIAN MODEL)
+(Brand New in Box with 1 Year Samsung Warranty)
+Price - $575 (CASH NO TAX)
+Samsung Galaxy S23 FE 5G 128GB
+(Brand New Open Box with 6 Months Warranty)
+Price - $500 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S22 Ultra 5G 512GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $695 (CASH NO TAX)
+Samsung Galaxy S22 Ultra 5G 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $595 (CASH NO TAX)
+Samsung Galaxy S22 Ultra 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $545 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S22+ (Plus) 5G 256GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $495 (CASH NO TAX)
+Samsung Galaxy S22+ (Plus) 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $445 (CASH NO TAX)
+---------------------------------------------
+Samsung Galaxy S22 5G 256GB 
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $395 (CASH NO TAX)
+Samsung Galaxy S22 5G 128GB
+(LIKE NEW IN BOX WITH WARRANTY)
+PRICE: $375 (CASH NO TAX)
+---------------------------------------------
+Same day delivery available in GTA area - delivery charges are extra depends on location
+------------------------------------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing done through Pay Bright
+---------------------------------------------
+Storefront is open to public 7 days a week
+---------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+---------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MAIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM
+</t>
+  </si>
+  <si>
+    <t>Oneplus 12 512GB Brand New with Warranty</t>
+  </si>
+  <si>
+    <t>Shop Smart, Shop Secure: Canadian Outlet, Your Trusted Choice!
+Best Price, Best Quality
+Buy with Confidence from our store!
+------------------------------------------------------
+PLEASE CLICK ON "SHOW MORE" TO SEE ALL MODELS AND PRICES!!!
+------------------------------------------------------
+DEWALT 20V Max Lithium-Ion Cordless 1/2-inch Hammer Drill with (2) 4Ah Batteries, Charger and Case (DCD985M2)
+(BRAND NEW IN BOX WITH 1 YEAR MANUFAСTURER WARRANTY)
+Price - $295 (CASH NO TAX)
+------------------------------------------------------
+DEWALT 20V MAX* Brushless Cordless 3-Tool Combo Kit (DCK379D2)
+This 3-Tool Combo Kit includes three 20V MAX* brushless tools, two batteries, charger, and kit bag
+Рrice - $295 (CASH NO TAX)
+------------------------------------------------------
+DEWALT 20V MAX Brushless 1/2 in. Cordless Compact Drill Driver Kit, Ratcheting Chuck, LED (DCD793D1)
+(BRAND NEW IN BOX WITH WARRANTY) 
+Price - $165 (CASH NO TAX)
+------------------------------------------------------
+DEWALT 20V MAX Lithium-Ion Brushless Cordless Drill/Driver with Battery &amp; Charger (DCD777C1)
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $165 (CASH NO TAX)
+------------------------------------------------------
+Dewalt Heavy-Duty 2-Watt Jobsite FRS Walkie Talkies (DXFRS800)
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $100 (CASH NO TAX)
+------------------------------------------------------
+DEWALT 7-1/4-Inch Lightweight Circular Saw with Carbide-Tipped Blade &amp; Wrench (DWE575)
+(BRAND NEW IN BOX WITH WARRANTY)
+Price - $125 (CASH NO TAX)
+ ------------------------------------------------------
+DEWALT DWE305 12A Keyless 4-Position Variable Speed T-Shank Reciprocating Saw (#054-1236-6)
+(BRAND NEW WITH WARRANTY)
+Price - $95 (CASH NO TAX)
+----------------------------------------------------
+DEWALT Drywall Screw Gun, 6.3-Amp (DW272) 
+(BRAND NEW WITH WARRANTY)
+Price - $95 (CASH NO TAX)
+----------------------------------------------------
+Dewalt 3/8" (10mm) VSR Pistol Grip Drill Kit with Keyless Chuck (DWD110K)
+(BRAND NEW WITH MANUFACTURER WARRANTY)
+Price - $60 (CASH NO TAX)
+----------------------------------------------------
+DEWALT 12V MAX* 5.0AH Lithium Ion Battery Pack (DCB126)
+(BRAND NEW WITH WARRANTY)
+Price - $65 (CASH NO TAX)
+----------------------------------------------------
+Makita Tools
+----------------------------------------------------
+Makita 18V LXT 2 Tool Combo Kit (DLX2089M)
+(BRAND NEW WITH 1 YEAR MANUFACTURЕR WARRANTY)
+Price - $395 (CASH NO TAX)
+Makita 18V (Compact) LXT 2 Tool Combo Kit (DLX2141SX1)
+(BRAND NEW WITH 1 YEAR MANUFACTURER WARRANTY)
+Price - $245 (CASH NO TAX)
+---------------------------------------------
+BUY NOW. PAY LATER.
+Get easy monthly financing when you shop with Canadian Outlet
+Split your purchase into stress-free, automatic installments with monthly Plans for:-
+3 Months
+6 Months
+12 Months
+*All financing donе through Pay Bright
+-------------------------------------------------------------------
+Storefront is open to public 7 days a week
+-------------------------------------------------------------------
+We are providing FREE parking facility for our customers (Contact us)!!
+-------------------------------------------------------------------
+STORE LOCATION:
+CANADIAN OUTLET
+1431 YONGE STREET
+YONGE &amp; ST CLAIR
+TORONTO, ON
+M4T 1Y7
+647 786 4344 (MАIN NUMBER)
+416 474 4786
+TIMINGS:
+MONDAY - FRIDAY: 8AM - 8PM
+WEEKENDS: 10AM - 7PM</t>
   </si>
 </sst>
 </file>
@@ -14865,7 +14738,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14927,16 +14800,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -14948,17 +14821,17 @@
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I2" s="2">
         <v>4164744786</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>93</v>
@@ -14969,16 +14842,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C3" s="2">
         <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -14990,19 +14863,19 @@
         <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I3" s="2">
         <v>4164744786</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>93</v>
@@ -15013,16 +14886,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C4" s="2">
         <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -15034,19 +14907,19 @@
         <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I4" s="2">
         <v>4164744786</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>93</v>
@@ -15057,16 +14930,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C5" s="2">
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>703</v>
+        <v>801</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -15078,19 +14951,19 @@
         <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I5" s="2">
         <v>4164744786</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>93</v>
@@ -15101,16 +14974,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C6" s="2">
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -15122,19 +14995,19 @@
         <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I6" s="2">
         <v>4164744786</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>93</v>
@@ -15145,16 +15018,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C7" s="2">
         <v>195</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -15166,19 +15039,19 @@
         <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I7" s="2">
         <v>4164744786</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>93</v>
@@ -15189,16 +15062,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C8" s="2">
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -15210,19 +15083,19 @@
         <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I8" s="2">
         <v>4164744786</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>93</v>
@@ -15233,16 +15106,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C9" s="2">
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -15254,17 +15127,17 @@
         <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I9" s="2">
         <v>4164744786</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>93</v>
@@ -15275,16 +15148,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C10" s="2">
         <v>125</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -15296,17 +15169,17 @@
         <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I10" s="2">
         <v>4164744786</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>93</v>
@@ -15317,16 +15190,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C11" s="2">
         <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -15338,17 +15211,17 @@
         <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I11" s="2">
         <v>4164744786</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>93</v>
@@ -15359,16 +15232,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C12" s="2">
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
@@ -15380,17 +15253,17 @@
         <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I12" s="2">
         <v>4164744786</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>93</v>
@@ -15401,16 +15274,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C13" s="2">
         <v>395</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -15422,17 +15295,17 @@
         <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I13" s="2">
         <v>4164744786</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>93</v>
@@ -15443,16 +15316,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C14" s="2">
         <v>275</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -15464,7 +15337,7 @@
         <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I14" s="2">
         <v>4164744786</v>
@@ -15474,7 +15347,7 @@
         <v>92</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>46</v>
@@ -15485,16 +15358,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C15" s="2">
         <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -15506,7 +15379,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I15" s="2">
         <v>4164744786</v>
@@ -15516,7 +15389,7 @@
         <v>92</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>93</v>
@@ -15527,16 +15400,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C16" s="2">
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -15548,7 +15421,7 @@
         <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I16" s="2">
         <v>4164744786</v>
@@ -15558,7 +15431,7 @@
         <v>92</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>93</v>
@@ -15569,16 +15442,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C17" s="2">
         <v>245</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -15590,7 +15463,7 @@
         <v>31</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I17" s="2">
         <v>4164744786</v>
@@ -15600,7 +15473,7 @@
         <v>92</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>93</v>
@@ -15611,16 +15484,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C18" s="2">
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -15632,7 +15505,7 @@
         <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I18" s="2">
         <v>4164744786</v>
@@ -15642,7 +15515,7 @@
         <v>92</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>93</v>
@@ -15653,16 +15526,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C19" s="2">
         <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -15674,7 +15547,7 @@
         <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I19" s="2">
         <v>4164744786</v>
@@ -15684,7 +15557,7 @@
         <v>92</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>93</v>
@@ -15695,16 +15568,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C20" s="2">
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -15716,7 +15589,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I20" s="2">
         <v>4164744786</v>
@@ -15726,7 +15599,7 @@
         <v>92</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>46</v>
@@ -15737,16 +15610,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C21" s="2">
         <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -15758,7 +15631,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I21" s="2">
         <v>4164744786</v>
@@ -15768,7 +15641,7 @@
         <v>92</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>93</v>
@@ -15779,16 +15652,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C22" s="2">
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -15800,7 +15673,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I22" s="2">
         <v>4164744786</v>
@@ -15810,7 +15683,7 @@
         <v>92</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>93</v>
@@ -15821,16 +15694,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C23" s="2">
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -15842,7 +15715,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I23" s="2">
         <v>4164744786</v>
@@ -15852,7 +15725,7 @@
         <v>92</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>93</v>
@@ -15863,28 +15736,28 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C24" s="2">
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I24" s="2">
         <v>4164744786</v>
@@ -15894,7 +15767,7 @@
         <v>92</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>93</v>
@@ -15905,16 +15778,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C25" s="2">
         <v>795</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -15926,7 +15799,7 @@
         <v>31</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I25" s="2">
         <v>4164744786</v>
@@ -15936,7 +15809,7 @@
         <v>92</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>93</v>
@@ -15947,16 +15820,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C26" s="2">
         <v>345</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -15968,7 +15841,7 @@
         <v>31</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I26" s="2">
         <v>4164744786</v>
@@ -15978,7 +15851,7 @@
         <v>92</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>93</v>
@@ -15989,28 +15862,28 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C27" s="2">
         <v>175</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I27" s="2">
         <v>4164744786</v>
@@ -16020,7 +15893,7 @@
         <v>92</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>93</v>
@@ -16031,28 +15904,28 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C28" s="2">
         <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I28" s="2">
         <v>4164744786</v>
@@ -16062,7 +15935,7 @@
         <v>92</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>93</v>
@@ -16073,28 +15946,28 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C29" s="2">
         <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I29" s="2">
         <v>4164744786</v>
@@ -16104,7 +15977,7 @@
         <v>92</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>93</v>
@@ -16115,28 +15988,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C30" s="2">
         <v>150</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I30" s="2">
         <v>4164744786</v>
@@ -16146,7 +16019,7 @@
         <v>92</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>93</v>
@@ -16157,28 +16030,28 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C31" s="2">
         <v>395</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I31" s="2">
         <v>4164744786</v>
@@ -16188,7 +16061,7 @@
         <v>92</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>93</v>
@@ -16199,28 +16072,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C32" s="2">
         <v>75</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I32" s="2">
         <v>4164744786</v>
@@ -16230,7 +16103,7 @@
         <v>92</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>93</v>
@@ -16241,28 +16114,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C33" s="2">
         <v>695</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I33" s="2">
         <v>4164744787</v>
@@ -16272,7 +16145,7 @@
         <v>92</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>46</v>
@@ -16283,28 +16156,28 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C34" s="2">
         <v>745</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I34" s="2">
         <v>4164744788</v>
@@ -16314,7 +16187,7 @@
         <v>92</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>46</v>
@@ -16334,7 +16207,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16393,16 +16266,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C2">
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -16414,19 +16287,19 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="J2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
         <v>93</v>
@@ -16437,16 +16310,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -16458,19 +16331,19 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="J3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M3" t="s">
         <v>93</v>
@@ -16481,16 +16354,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -16502,19 +16375,19 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="J4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M4" t="s">
         <v>93</v>
@@ -16525,16 +16398,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C5">
         <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -16546,19 +16419,19 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="J5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -16569,16 +16442,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C6">
         <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -16590,19 +16463,19 @@
         <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="J6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M6" t="s">
         <v>46</v>
@@ -16613,16 +16486,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C7">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -16634,19 +16507,19 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="J7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M7" t="s">
         <v>46</v>
@@ -16657,16 +16530,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C8">
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -16678,19 +16551,19 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="J8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
@@ -16701,16 +16574,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C9">
         <v>1295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -16722,19 +16595,19 @@
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="J9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M9" t="s">
         <v>46</v>
@@ -16745,16 +16618,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C10">
         <v>1195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -16766,19 +16639,19 @@
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="J10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M10" t="s">
         <v>46</v>
@@ -16792,7 +16665,7 @@
         <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C11">
         <v>1045</v>
@@ -16816,13 +16689,13 @@
         <v>4164744786</v>
       </c>
       <c r="J11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -16833,16 +16706,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -16854,19 +16727,19 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="J12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M12" t="s">
         <v>93</v>
@@ -16877,16 +16750,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C13">
         <v>1450</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -16898,19 +16771,19 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="J13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -16921,40 +16794,40 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C14">
         <v>2350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="J14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M14" t="s">
         <v>93</v>
@@ -16965,16 +16838,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C15">
         <v>650</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -16986,19 +16859,19 @@
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="J15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K15" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M15" t="s">
         <v>93</v>
@@ -17009,16 +16882,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C16">
         <v>475</v>
       </c>
       <c r="D16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -17030,19 +16903,19 @@
         <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="J16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M16" t="s">
         <v>93</v>
@@ -17053,16 +16926,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C17">
         <v>295</v>
       </c>
       <c r="D17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -17074,19 +16947,19 @@
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="J17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M17" t="s">
         <v>93</v>
@@ -17097,16 +16970,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C18">
         <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -17118,19 +16991,19 @@
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="J18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M18" t="s">
         <v>93</v>
@@ -17141,16 +17014,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C19">
         <v>375</v>
       </c>
       <c r="D19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -17162,19 +17035,19 @@
         <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="J19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s">
         <v>93</v>
@@ -17185,16 +17058,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C20">
         <v>245</v>
       </c>
       <c r="D20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -17206,19 +17079,19 @@
         <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="J20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s">
         <v>93</v>
@@ -17229,16 +17102,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C21">
         <v>275</v>
       </c>
       <c r="D21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -17250,19 +17123,19 @@
         <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="J21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s">
         <v>93</v>
@@ -17273,16 +17146,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C22">
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -17294,19 +17167,19 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="J22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K22" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s">
         <v>93</v>
@@ -17317,16 +17190,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C23">
         <v>260</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -17338,19 +17211,19 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="J23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s">
         <v>93</v>
@@ -17361,16 +17234,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C24">
         <v>245</v>
       </c>
       <c r="D24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -17382,19 +17255,19 @@
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="J24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K24" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s">
         <v>93</v>
@@ -17405,16 +17278,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C25">
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -17426,19 +17299,19 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="J25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s">
         <v>93</v>
@@ -17449,16 +17322,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C26">
         <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -17470,19 +17343,19 @@
         <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="J26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s">
         <v>93</v>
@@ -17493,16 +17366,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C27">
         <v>260</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -17514,19 +17387,19 @@
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="J27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K27" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s">
         <v>93</v>
@@ -17537,16 +17410,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B28" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C28">
         <v>175</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -17558,19 +17431,19 @@
         <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="J28" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K28" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s">
         <v>93</v>
@@ -17581,40 +17454,40 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C29">
         <v>1795</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="J29" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K29" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s">
         <v>93</v>
@@ -17625,40 +17498,40 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C30">
         <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I30">
         <v>4164744787</v>
       </c>
       <c r="J30" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K30" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M30" t="s">
         <v>93</v>
@@ -17669,40 +17542,40 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B31" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C31">
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I31">
         <v>4164744788</v>
       </c>
       <c r="J31" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K31" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M31" t="s">
         <v>93</v>
@@ -17722,7 +17595,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17787,7 +17660,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2">
         <v>90</v>
@@ -17829,7 +17702,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
@@ -17871,7 +17744,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C4" s="2">
         <v>995</v>
@@ -17913,7 +17786,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C5" s="2">
         <v>1095</v>
@@ -17952,16 +17825,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C6" s="2">
         <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -17997,13 +17870,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C7" s="2">
         <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -18036,16 +17909,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>798</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C8" s="2">
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -18057,7 +17930,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2">
         <v>4164744786</v>
@@ -18078,16 +17951,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C9" s="2">
         <v>545</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -18099,7 +17972,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="2">
         <v>4164744786</v>
@@ -18120,16 +17993,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C10" s="2">
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -18141,7 +18014,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2">
         <v>4164744786</v>
@@ -18162,16 +18035,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C11" s="2">
         <v>375</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -18183,7 +18056,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="2">
         <v>4164744786</v>
@@ -18196,7 +18069,7 @@
         <v>93</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>16</v>
@@ -18204,16 +18077,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C12" s="2">
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
@@ -18225,7 +18098,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2">
         <v>4164744786</v>
@@ -18246,16 +18119,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C13" s="2">
         <v>390</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -18267,7 +18140,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="2">
         <v>4164744786</v>
@@ -18288,16 +18161,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C14" s="2">
         <v>135</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -18309,7 +18182,7 @@
         <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I14" s="2">
         <v>4164744786</v>
@@ -18322,7 +18195,7 @@
         <v>93</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>16</v>
@@ -18330,16 +18203,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -18351,7 +18224,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I15" s="2">
         <v>4164744786</v>
@@ -18372,16 +18245,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C16" s="2">
         <v>995</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -18393,7 +18266,7 @@
         <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I16" s="2">
         <v>4164744786</v>
@@ -18414,16 +18287,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C17" s="2">
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -18435,7 +18308,7 @@
         <v>31</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I17" s="2">
         <v>4164744786</v>
@@ -18456,16 +18329,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C18" s="2">
         <v>595</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -18477,7 +18350,7 @@
         <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I18" s="2">
         <v>4164744786</v>
@@ -18498,16 +18371,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C19" s="2">
         <v>345</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -18519,7 +18392,7 @@
         <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19" s="2">
         <v>4164744786</v>
@@ -18532,7 +18405,7 @@
         <v>93</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>16</v>
@@ -18540,16 +18413,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -18561,7 +18434,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="2">
         <v>4164744786</v>
@@ -18582,16 +18455,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C21" s="2">
         <v>150</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -18603,7 +18476,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I21" s="2">
         <v>4164744786</v>
@@ -18624,16 +18497,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C22" s="2">
         <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -18645,7 +18518,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" s="2">
         <v>4164744786</v>
@@ -18666,16 +18539,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C23" s="2">
         <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -18687,7 +18560,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I23" s="2">
         <v>4164744786</v>
@@ -18708,16 +18581,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C24" s="2">
         <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -18750,16 +18623,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C25" s="2">
         <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -18795,7 +18668,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C26" s="2">
         <v>195</v>
@@ -18834,16 +18707,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C27" s="2">
         <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -18879,7 +18752,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C28" s="2">
         <v>545</v>
@@ -18918,16 +18791,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C29" s="2">
         <v>325</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -18939,7 +18812,7 @@
         <v>31</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I29" s="2">
         <v>4164744786</v>
@@ -18960,16 +18833,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C30" s="2">
         <v>395</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -18981,7 +18854,7 @@
         <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I30" s="2">
         <v>4164744786</v>
@@ -19002,16 +18875,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C31" s="2">
         <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -19023,7 +18896,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="I31" s="2">
         <v>4164744786</v>
@@ -19044,16 +18917,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C32" s="2">
         <v>275</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -19065,7 +18938,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I32" s="2">
         <v>4164744787</v>
@@ -19094,8 +18967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADAF3E-0AA5-4F19-ACED-4BBE31AE540C}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19153,16 +19026,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C2">
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -19174,36 +19047,36 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2">
         <v>4164744786</v>
       </c>
       <c r="K2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" t="s">
         <v>197</v>
       </c>
-      <c r="L2" t="s">
-        <v>198</v>
-      </c>
       <c r="M2" t="s">
         <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -19215,77 +19088,77 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3">
         <v>4164744786</v>
       </c>
       <c r="K3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" t="s">
         <v>197</v>
       </c>
-      <c r="L3" t="s">
-        <v>198</v>
-      </c>
       <c r="M3" t="s">
         <v>93</v>
       </c>
       <c r="N3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C4">
         <v>325</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4">
         <v>4164744786</v>
       </c>
       <c r="K4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
         <v>197</v>
       </c>
-      <c r="L4" t="s">
-        <v>198</v>
-      </c>
       <c r="M4" t="s">
         <v>93</v>
       </c>
       <c r="N4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C5">
         <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -19297,36 +19170,36 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I5">
         <v>4164744786</v>
       </c>
       <c r="K5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" t="s">
         <v>197</v>
       </c>
-      <c r="L5" t="s">
-        <v>198</v>
-      </c>
       <c r="M5" t="s">
         <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C6">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -19338,36 +19211,36 @@
         <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6">
         <v>4164744786</v>
       </c>
       <c r="K6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" t="s">
         <v>197</v>
       </c>
-      <c r="L6" t="s">
-        <v>198</v>
-      </c>
       <c r="M6" t="s">
         <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C7">
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -19379,36 +19252,36 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7">
         <v>4164744786</v>
       </c>
       <c r="K7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" t="s">
         <v>197</v>
       </c>
-      <c r="L7" t="s">
-        <v>198</v>
-      </c>
       <c r="M7" t="s">
         <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C8">
         <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -19420,36 +19293,36 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I8">
         <v>4164744786</v>
       </c>
       <c r="K8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" t="s">
         <v>197</v>
       </c>
-      <c r="L8" t="s">
-        <v>198</v>
-      </c>
       <c r="M8" t="s">
         <v>93</v>
       </c>
       <c r="N8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C9">
         <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -19461,36 +19334,36 @@
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I9">
         <v>4164744786</v>
       </c>
       <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" t="s">
         <v>197</v>
       </c>
-      <c r="L9" t="s">
-        <v>198</v>
-      </c>
       <c r="M9" t="s">
         <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C10">
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -19502,36 +19375,36 @@
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I10">
         <v>4164744786</v>
       </c>
       <c r="K10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" t="s">
         <v>197</v>
       </c>
-      <c r="L10" t="s">
-        <v>198</v>
-      </c>
       <c r="M10" t="s">
         <v>93</v>
       </c>
       <c r="N10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C11">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -19543,36 +19416,36 @@
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I11">
         <v>4164744786</v>
       </c>
       <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" t="s">
         <v>197</v>
       </c>
-      <c r="L11" t="s">
-        <v>198</v>
-      </c>
       <c r="M11" t="s">
         <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C12">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -19584,36 +19457,36 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I12">
         <v>4164744786</v>
       </c>
       <c r="K12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" t="s">
         <v>197</v>
       </c>
-      <c r="L12" t="s">
-        <v>198</v>
-      </c>
       <c r="M12" t="s">
         <v>93</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C13">
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -19625,36 +19498,36 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I13">
         <v>4164744786</v>
       </c>
       <c r="K13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" t="s">
         <v>197</v>
       </c>
-      <c r="L13" t="s">
-        <v>198</v>
-      </c>
       <c r="M13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C14">
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -19666,36 +19539,36 @@
         <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I14">
         <v>4164744786</v>
       </c>
       <c r="K14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" t="s">
         <v>197</v>
       </c>
-      <c r="L14" t="s">
-        <v>198</v>
-      </c>
       <c r="M14" t="s">
         <v>93</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -19707,36 +19580,36 @@
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I15">
         <v>4164744786</v>
       </c>
       <c r="K15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L15" t="s">
         <v>197</v>
       </c>
-      <c r="L15" t="s">
-        <v>198</v>
-      </c>
       <c r="M15" t="s">
         <v>93</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C16">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -19748,36 +19621,36 @@
         <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I16">
         <v>4164744786</v>
       </c>
       <c r="K16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" t="s">
         <v>197</v>
       </c>
-      <c r="L16" t="s">
-        <v>198</v>
-      </c>
       <c r="M16" t="s">
         <v>93</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C17">
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -19789,36 +19662,36 @@
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17">
         <v>4164744786</v>
       </c>
       <c r="K17" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" t="s">
         <v>197</v>
       </c>
-      <c r="L17" t="s">
-        <v>198</v>
-      </c>
       <c r="M17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -19830,36 +19703,36 @@
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18">
         <v>4164744786</v>
       </c>
       <c r="K18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" t="s">
         <v>197</v>
       </c>
-      <c r="L18" t="s">
-        <v>198</v>
-      </c>
       <c r="M18" t="s">
         <v>93</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C19">
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -19871,36 +19744,36 @@
         <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I19">
         <v>4164744786</v>
       </c>
       <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
         <v>197</v>
       </c>
-      <c r="L19" t="s">
-        <v>198</v>
-      </c>
       <c r="M19" t="s">
         <v>93</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C20">
         <v>245</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -19912,36 +19785,36 @@
         <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I20">
         <v>4164744786</v>
       </c>
       <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
         <v>197</v>
       </c>
-      <c r="L20" t="s">
-        <v>198</v>
-      </c>
       <c r="M20" t="s">
         <v>93</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C21">
         <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -19953,16 +19826,16 @@
         <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I21">
         <v>4164744786</v>
       </c>
       <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
         <v>197</v>
-      </c>
-      <c r="L21" t="s">
-        <v>198</v>
       </c>
       <c r="M21" t="s">
         <v>93</v>
@@ -19973,16 +19846,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C22">
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -19994,19 +19867,19 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I22">
         <v>4164744786</v>
       </c>
       <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
         <v>197</v>
       </c>
-      <c r="L22" t="s">
-        <v>198</v>
-      </c>
       <c r="M22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N22" t="s">
         <v>16</v>
@@ -20014,16 +19887,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C23">
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -20035,16 +19908,16 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I23">
         <v>4164744786</v>
       </c>
       <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
         <v>197</v>
-      </c>
-      <c r="L23" t="s">
-        <v>198</v>
       </c>
       <c r="M23" t="s">
         <v>93</v>
@@ -20055,16 +19928,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C24">
         <v>895</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -20076,16 +19949,16 @@
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I24">
         <v>4164744786</v>
       </c>
       <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
         <v>197</v>
-      </c>
-      <c r="L24" t="s">
-        <v>198</v>
       </c>
       <c r="M24" t="s">
         <v>93</v>
@@ -20096,16 +19969,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C25">
         <v>295</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -20117,16 +19990,16 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I25">
         <v>4164744786</v>
       </c>
       <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
         <v>197</v>
-      </c>
-      <c r="L25" t="s">
-        <v>198</v>
       </c>
       <c r="M25" t="s">
         <v>93</v>
@@ -20137,16 +20010,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C26">
         <v>425</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -20158,16 +20031,16 @@
         <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I26">
         <v>4164744786</v>
       </c>
       <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
         <v>197</v>
-      </c>
-      <c r="L26" t="s">
-        <v>198</v>
       </c>
       <c r="M26" t="s">
         <v>93</v>
@@ -20178,16 +20051,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C27">
         <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -20199,16 +20072,16 @@
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I27">
         <v>4164744786</v>
       </c>
       <c r="K27" t="s">
+        <v>196</v>
+      </c>
+      <c r="L27" t="s">
         <v>197</v>
-      </c>
-      <c r="L27" t="s">
-        <v>198</v>
       </c>
       <c r="M27" t="s">
         <v>93</v>
@@ -20219,16 +20092,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C28">
         <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -20240,16 +20113,16 @@
         <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I28">
         <v>4164744786</v>
       </c>
       <c r="K28" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" t="s">
         <v>197</v>
-      </c>
-      <c r="L28" t="s">
-        <v>198</v>
       </c>
       <c r="M28" t="s">
         <v>93</v>
@@ -20260,16 +20133,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C29">
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -20281,16 +20154,16 @@
         <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I29">
         <v>4164744786</v>
       </c>
       <c r="K29" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" t="s">
         <v>197</v>
-      </c>
-      <c r="L29" t="s">
-        <v>198</v>
       </c>
       <c r="M29" t="s">
         <v>93</v>
@@ -20301,16 +20174,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C30">
         <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -20322,16 +20195,16 @@
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I30">
         <v>4164744786</v>
       </c>
       <c r="K30" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30" t="s">
         <v>197</v>
-      </c>
-      <c r="L30" t="s">
-        <v>198</v>
       </c>
       <c r="M30" t="s">
         <v>93</v>
@@ -20342,16 +20215,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C31">
         <v>645</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -20363,16 +20236,16 @@
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I31">
         <v>4164744786</v>
       </c>
       <c r="K31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M31" t="s">
         <v>93</v>
@@ -20386,7 +20259,7 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -20410,10 +20283,10 @@
         <v>4164744786</v>
       </c>
       <c r="K32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M32" t="s">
         <v>93</v>
@@ -20424,16 +20297,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C33">
         <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -20445,16 +20318,16 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I33">
         <v>4164744786</v>
       </c>
       <c r="K33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M33" t="s">
         <v>93</v>
@@ -20465,16 +20338,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C34">
         <v>1095</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -20486,19 +20359,19 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>472</v>
+        <v>470</v>
     